--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BBE7E5-3C85-44EF-8429-3F378D63E820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0008B125-436A-4744-8930-B6756B0C7C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" tabRatio="797" activeTab="1" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>Cadeira</t>
   </si>
@@ -253,12 +253,6 @@
     <t>SSE</t>
   </si>
   <si>
-    <t>exame1</t>
-  </si>
-  <si>
-    <t>exame2</t>
-  </si>
-  <si>
     <t>POO</t>
   </si>
   <si>
@@ -271,18 +265,6 @@
     <t>SSE/POO</t>
   </si>
   <si>
-    <t>ficha1</t>
-  </si>
-  <si>
-    <t>ficha2</t>
-  </si>
-  <si>
-    <t>ficha3</t>
-  </si>
-  <si>
-    <t>ficha4</t>
-  </si>
-  <si>
     <t>guiao de poo</t>
   </si>
   <si>
@@ -293,6 +275,48 @@
   </si>
   <si>
     <t>(alterar as merdas de as)</t>
+  </si>
+  <si>
+    <t>CodeCheck</t>
+  </si>
+  <si>
+    <t>ver testes?</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>teste1</t>
+  </si>
+  <si>
+    <t>teste2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>ExameP</t>
+  </si>
+  <si>
+    <t>aulaP</t>
+  </si>
+  <si>
+    <t>aulaT</t>
+  </si>
+  <si>
+    <t>ler slides</t>
+  </si>
+  <si>
+    <t>tp1</t>
+  </si>
+  <si>
+    <t>tp2</t>
+  </si>
+  <si>
+    <t>tp3</t>
   </si>
 </sst>
 </file>
@@ -343,13 +367,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,12 +433,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -850,7 +867,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1047,7 +1064,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1057,18 +1073,31 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1113,6 +1142,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1438,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F271A766-224E-4EF8-A6BB-32A3CEEA2D41}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1474,7 +1509,7 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="82" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -1486,21 +1521,21 @@
       <c r="D3" s="25">
         <v>6</v>
       </c>
-      <c r="E3" s="81" cm="1">
+      <c r="E3" s="85" cm="1">
         <f t="array" ref="E3">ROUND(SUM(C3:C6*D3:D6)/SUM(D3:D6),2)</f>
         <v>8.15</v>
       </c>
-      <c r="F3" s="84" cm="1">
+      <c r="F3" s="88" cm="1">
         <f t="array" ref="F3" xml:space="preserve"> SUM(C3:C11*D3:D11)/SUM(D3:D11)</f>
         <v>9.2258064516129039</v>
       </c>
-      <c r="G3" s="84" cm="1">
+      <c r="G3" s="88" cm="1">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C30&lt;&gt;"",C3:C30*D3:D30,0))/SUM(IF(C3:C30&lt;&gt;"", D3:D30,0)),2)</f>
         <v>11.53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
@@ -1510,12 +1545,12 @@
       <c r="D4" s="27">
         <v>6</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
@@ -1523,12 +1558,12 @@
       <c r="D5" s="27">
         <v>6</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="79"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
@@ -1538,12 +1573,12 @@
       <c r="D6" s="37">
         <v>8</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
@@ -1553,15 +1588,15 @@
       <c r="D7" s="25">
         <v>6</v>
       </c>
-      <c r="E7" s="81" cm="1">
+      <c r="E7" s="85" cm="1">
         <f t="array" ref="E7">ROUND(SUM(C7:C11*D7:D11)/SUM(D7:D11),2)</f>
         <v>10</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
@@ -1571,12 +1606,12 @@
       <c r="D8" s="27">
         <v>6</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="28" t="s">
         <v>9</v>
       </c>
@@ -1586,12 +1621,12 @@
       <c r="D9" s="27">
         <v>6</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
@@ -1599,12 +1634,12 @@
       <c r="D10" s="27">
         <v>6</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="80"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="29" t="s">
         <v>10</v>
       </c>
@@ -1614,12 +1649,12 @@
       <c r="D11" s="31">
         <v>12</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="85"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="89"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="91" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1631,18 +1666,18 @@
       <c r="D12" s="25">
         <v>6</v>
       </c>
-      <c r="E12" s="81" cm="1">
+      <c r="E12" s="85" cm="1">
         <f t="array" ref="E12" xml:space="preserve"> ROUND(SUM(C12:C16*D12:D16)/SUM(D12:D16),2)</f>
         <v>9.4</v>
       </c>
-      <c r="F12" s="84" cm="1">
+      <c r="F12" s="88" cm="1">
         <f t="array" ref="F12" xml:space="preserve"> SUM(C12:C21*D12:D21)/SUM(D12:D21)</f>
         <v>5.9</v>
       </c>
-      <c r="G12" s="85"/>
+      <c r="G12" s="89"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
@@ -1652,12 +1687,12 @@
       <c r="D13" s="27">
         <v>6</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="26" t="s">
         <v>24</v>
       </c>
@@ -1667,12 +1702,12 @@
       <c r="D14" s="27">
         <v>6</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="26" t="s">
         <v>13</v>
       </c>
@@ -1680,12 +1715,12 @@
       <c r="D15" s="27">
         <v>6</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="88"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="36" t="s">
         <v>46</v>
       </c>
@@ -1695,12 +1730,12 @@
       <c r="D16" s="37">
         <v>6</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="88"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="42" t="s">
         <v>15</v>
       </c>
@@ -1708,15 +1743,15 @@
       <c r="D17" s="25">
         <v>6</v>
       </c>
-      <c r="E17" s="90" cm="1">
+      <c r="E17" s="94" cm="1">
         <f t="array" ref="E17" xml:space="preserve"> ROUND(SUM(C17:C21*D17:D21)/30,2)</f>
         <v>2.4</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="33" t="s">
         <v>17</v>
       </c>
@@ -1726,12 +1761,12 @@
       <c r="D18" s="27">
         <v>6</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="88"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="33" t="s">
         <v>25</v>
       </c>
@@ -1739,12 +1774,12 @@
       <c r="D19" s="27">
         <v>6</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="88"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="33" t="s">
         <v>16</v>
       </c>
@@ -1752,12 +1787,12 @@
       <c r="D20" s="27">
         <v>6</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="89"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="34" t="s">
         <v>18</v>
       </c>
@@ -1765,12 +1800,12 @@
       <c r="D21" s="31">
         <v>6</v>
       </c>
-      <c r="E21" s="92"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="85"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="89"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -1780,18 +1815,18 @@
       <c r="D22" s="25">
         <v>6</v>
       </c>
-      <c r="E22" s="81" cm="1">
+      <c r="E22" s="85" cm="1">
         <f t="array" ref="E22">SUMPRODUCT(IF(C22:C25&lt;&gt;"",C22:C25*D22:D25,0))/SUM(IF(C22:C25&lt;&gt;"", D22:D25,0))</f>
         <v>11</v>
       </c>
-      <c r="F22" s="84" cm="1">
+      <c r="F22" s="88" cm="1">
         <f t="array" ref="F22">SUMPRODUCT(IF(C22:C30&lt;&gt;"",C22:C30*D22:D30,0))/SUM(IF(C22:C30&lt;&gt;"", D22:D30,0))</f>
         <v>11</v>
       </c>
-      <c r="G22" s="85"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="79"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
@@ -1799,12 +1834,12 @@
       <c r="D23" s="27">
         <v>6</v>
       </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="26" t="s">
         <v>33</v>
       </c>
@@ -1812,12 +1847,12 @@
       <c r="D24" s="27">
         <v>6</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="79"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="43" t="s">
         <v>34</v>
       </c>
@@ -1827,12 +1862,12 @@
       <c r="D25" s="31">
         <v>6</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="79"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="40" t="s">
         <v>35</v>
       </c>
@@ -1840,15 +1875,15 @@
       <c r="D26" s="41">
         <v>6</v>
       </c>
-      <c r="E26" s="81" t="e" cm="1">
+      <c r="E26" s="85" t="e" cm="1">
         <f t="array" ref="E26">SUMPRODUCT(IF(C26:C30&lt;&gt;"",C26:C30*D26:D30,0))/SUM(IF(C26:C30&lt;&gt;"", D26:D30,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="79"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="28" t="s">
         <v>36</v>
       </c>
@@ -1856,12 +1891,12 @@
       <c r="D27" s="27">
         <v>6</v>
       </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="79"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="28" t="s">
         <v>37</v>
       </c>
@@ -1869,12 +1904,12 @@
       <c r="D28" s="27">
         <v>6</v>
       </c>
-      <c r="E28" s="82"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="79"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="28" t="s">
         <v>38</v>
       </c>
@@ -1882,12 +1917,12 @@
       <c r="D29" s="27">
         <v>6</v>
       </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="80"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="29" t="s">
         <v>39</v>
       </c>
@@ -1895,9 +1930,9 @@
       <c r="D30" s="31">
         <v>12</v>
       </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1928,7 +1963,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1989,7 +2024,7 @@
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="70" t="s">
         <v>61</v>
       </c>
       <c r="J3" s="54"/>
@@ -1999,21 +2034,21 @@
       <c r="B4" s="61">
         <v>3</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="75" t="s">
-        <v>73</v>
-      </c>
       <c r="G4" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="63"/>
+        <v>66</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="75"/>
       <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2021,13 +2056,15 @@
       <c r="B5" s="55">
         <v>10</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="E5" s="76" t="s">
+        <v>66</v>
+      </c>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="73" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="54"/>
@@ -2118,10 +2155,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="54" t="s">
+        <v>71</v>
+      </c>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
       <c r="F12" s="54"/>
@@ -2131,40 +2170,46 @@
       <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="80">
+        <v>0.16</v>
+      </c>
+      <c r="B13" s="81" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>71</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="A14" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>80</v>
+      </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
@@ -2172,11 +2217,11 @@
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="54"/>
-      <c r="B15" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>66</v>
+      <c r="B15" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>64</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
@@ -2232,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC10043-F51A-4DB1-8C0B-313C8D48A7CD}">
   <dimension ref="A2:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2246,10 +2291,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="94"/>
+      <c r="C2" s="100"/>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2258,31 +2303,25 @@
         <v>33</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="93" t="s">
+      <c r="K2" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="94"/>
+      <c r="L2" s="98"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
-      <c r="B3" s="45">
-        <v>10</v>
-      </c>
+      <c r="B3" s="45"/>
       <c r="C3" s="46">
         <v>0.45</v>
       </c>
       <c r="D3" s="44"/>
-      <c r="E3" s="45">
-        <v>10</v>
-      </c>
+      <c r="E3" s="45"/>
       <c r="F3" s="47">
         <f>25%</f>
         <v>0.25</v>
       </c>
       <c r="G3" s="44"/>
-      <c r="H3" s="45">
-        <v>10</v>
-      </c>
+      <c r="H3" s="45"/>
       <c r="I3" s="48">
         <v>0.2</v>
       </c>
@@ -2299,24 +2338,18 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
-      <c r="B4" s="45">
-        <v>10</v>
-      </c>
+      <c r="B4" s="45"/>
       <c r="C4" s="49">
         <v>0.25</v>
       </c>
       <c r="D4" s="44"/>
-      <c r="E4" s="45">
-        <v>10</v>
-      </c>
+      <c r="E4" s="45"/>
       <c r="F4" s="49">
         <f>25%</f>
         <v>0.25</v>
       </c>
       <c r="G4" s="44"/>
-      <c r="H4" s="45">
-        <v>10</v>
-      </c>
+      <c r="H4" s="45"/>
       <c r="I4" s="48">
         <v>0.1</v>
       </c>
@@ -2333,24 +2366,18 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
-      <c r="B5" s="45">
-        <v>10</v>
-      </c>
+      <c r="B5" s="45"/>
       <c r="C5" s="49">
         <v>0.3</v>
       </c>
       <c r="D5" s="44"/>
-      <c r="E5" s="45">
-        <v>10</v>
-      </c>
+      <c r="E5" s="45"/>
       <c r="F5" s="46">
         <f>25%</f>
         <v>0.25</v>
       </c>
       <c r="G5" s="44"/>
-      <c r="H5" s="45">
-        <v>10</v>
-      </c>
+      <c r="H5" s="45"/>
       <c r="I5" s="48">
         <v>0.17499999999999999</v>
       </c>
@@ -2370,17 +2397,13 @@
       <c r="B6" s="45"/>
       <c r="C6" s="49"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="45">
-        <v>10</v>
-      </c>
+      <c r="E6" s="45"/>
       <c r="F6" s="50">
         <f>25%</f>
         <v>0.25</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="H6" s="45">
-        <v>10</v>
-      </c>
+      <c r="H6" s="45"/>
       <c r="I6" s="51">
         <v>0.25</v>
       </c>
@@ -2403,9 +2426,7 @@
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
       <c r="G7" s="44"/>
-      <c r="H7" s="45">
-        <v>10</v>
-      </c>
+      <c r="H7" s="45"/>
       <c r="I7" s="51">
         <v>0.1</v>
       </c>
@@ -2428,9 +2449,7 @@
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
       <c r="G8" s="44"/>
-      <c r="H8" s="45">
-        <v>10</v>
-      </c>
+      <c r="H8" s="45"/>
       <c r="I8" s="48">
         <v>0.17499999999999999</v>
       </c>
@@ -2460,21 +2479,21 @@
         <v>21</v>
       </c>
       <c r="B10" s="53"/>
-      <c r="C10" s="45" cm="1">
+      <c r="C10" s="45" t="e" cm="1">
         <f t="array" ref="C10">SUMPRODUCT(IF(B3:B5&lt;&gt;"",B3:B5*C3:C5,0))/SUM(IF(B3:B5&lt;&gt;"", C3:C5,0))</f>
-        <v>10</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45"/>
-      <c r="F10" s="45" cm="1">
+      <c r="F10" s="45" t="e" cm="1">
         <f t="array" ref="F10">ROUND(SUMPRODUCT(IF(E3:E6&lt;&gt;"",E3:E6*F3:F6,0))/SUM(IF(E3:E6&lt;&gt;"", F3:F6,0)),0)</f>
-        <v>10</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="45" cm="1">
+      <c r="I10" s="45" t="e" cm="1">
         <f t="array" ref="I10">ROUND(SUMPRODUCT(IF(H3:H8&lt;&gt;"",H3:H8*I3:I8,0))/SUM(IF(H3:H8&lt;&gt;"", I3:I8,0)),0)</f>
-        <v>10</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="45"/>
@@ -2489,19 +2508,19 @@
       <c r="B11" s="44"/>
       <c r="C11" s="44" cm="1">
         <f t="array" ref="C11">ROUND(SUM(B3:B5*C3:C5),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44" cm="1">
         <f t="array" ref="F11">ROUND(SUM(E3:E6*F3:F6),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44" cm="1">
         <f t="array" ref="I11">ROUND(SUM(H3:H8*I3:I8),2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
@@ -2530,9 +2549,9 @@
       <c r="A13" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="45" t="e">
         <f>(C10+F10+I10+L10)/4</f>
-        <v>10.25</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -2550,7 +2569,7 @@
       <c r="A14" s="44"/>
       <c r="B14" s="44">
         <f>SUM(C11,I11,L11,F11)/4</f>
-        <v>10.3475</v>
+        <v>2.8475000000000001</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -2626,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F1879-E528-4352-86BD-F5E31A7A058F}">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2637,9 +2656,11 @@
     <col min="8" max="8" width="13.109375" customWidth="1"/>
     <col min="9" max="9" width="16.21875" customWidth="1"/>
     <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
     <col min="14" max="14" width="13.44140625" customWidth="1"/>
     <col min="15" max="15" width="13.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
     <col min="17" max="17" width="11.5546875" customWidth="1"/>
     <col min="18" max="18" width="12.44140625" customWidth="1"/>
   </cols>
@@ -2653,18 +2674,18 @@
         <v>17</v>
       </c>
       <c r="F2" s="15"/>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
@@ -2683,32 +2704,28 @@
       <c r="G3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="5">
-        <v>10</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="I3" s="5"/>
+      <c r="J3" s="9">
         <v>0.25</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="5">
-        <v>10</v>
-      </c>
-      <c r="O3" s="8">
+      <c r="K3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="8">
         <v>0.18</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="5">
-        <v>10</v>
-      </c>
-      <c r="R3" s="8">
+      <c r="N3" s="7"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="8">
         <v>0.16</v>
       </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="77">
-        <v>10</v>
-      </c>
+      <c r="B4" s="79"/>
       <c r="C4" s="8">
         <v>0.25</v>
       </c>
@@ -2723,32 +2740,28 @@
       <c r="G4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5">
-        <v>10</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="I4" s="5"/>
+      <c r="J4" s="9">
         <v>0.25</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5">
-        <v>10</v>
-      </c>
-      <c r="O4" s="8">
+      <c r="K4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="8">
         <v>0.22</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="5">
-        <v>10</v>
-      </c>
-      <c r="R4" s="8">
+      <c r="N4" s="7"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="8">
         <v>0.24</v>
       </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="77">
-        <v>10</v>
-      </c>
+      <c r="B5" s="79"/>
       <c r="C5" s="8">
         <v>0.2</v>
       </c>
@@ -2763,32 +2776,28 @@
       <c r="G5" s="13">
         <v>45035</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5">
-        <v>10</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="I5" s="5"/>
+      <c r="J5" s="9">
         <v>0.5</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="5">
-        <v>10</v>
-      </c>
-      <c r="O5" s="8">
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="8">
         <v>0.6</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="5">
-        <v>10</v>
-      </c>
-      <c r="R5" s="8">
+      <c r="N5" s="7"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="8">
         <v>0.6</v>
       </c>
+      <c r="Q5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="77">
-        <v>10</v>
-      </c>
+      <c r="B6" s="79"/>
       <c r="C6" s="8">
         <v>0.4</v>
       </c>
@@ -2798,23 +2807,18 @@
       <c r="G6" s="14">
         <v>45077</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="5" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="12">
-        <v>10</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="5">
-        <v>10</v>
-      </c>
+      <c r="M6" s="12">
+        <v>10</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
@@ -2825,15 +2829,14 @@
       <c r="G7" s="13">
         <v>45077</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -2843,15 +2846,14 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
@@ -2861,15 +2863,14 @@
       <c r="E9" s="5"/>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -2878,7 +2879,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="5" cm="1">
         <f t="array" ref="C10">ROUND(SUM(B3:B6*C3:C6),0)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="5"/>
@@ -2887,23 +2888,22 @@
         <v>12</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" cm="1">
-        <f t="array" ref="L10">ROUND(SUM(K3:K5*L3:L5),0)</f>
-        <v>10</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5" cm="1">
-        <f t="array" ref="O10">ROUND(SUM(N3:N4*O3:O4) + 0.6 * O6,0)</f>
-        <v>10</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5" cm="1">
-        <f t="array" ref="R10">ROUND(SUM(Q3:Q4*R3:R4) + 0.6 * R6,0)</f>
-        <v>10</v>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" cm="1">
+        <f t="array" ref="J10">ROUND(SUM(I3:I5*J3:J5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" cm="1">
+        <f t="array" ref="M10">ROUND(SUM(L3:L4*M3:M4) + 0.6 * M6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" cm="1">
+        <f t="array" ref="P10">ROUND(SUM(O3:O4:O5*P3:P4:P5),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -2951,8 +2951,8 @@
         <v>23</v>
       </c>
       <c r="B13" s="5">
-        <f>(C10+F10+'1º ANO - 2º Semestre'!L10+L10+O10+R10)/6</f>
-        <v>10.166666666666666</v>
+        <f>(C10+F10+'1º ANO - 2º Semestre'!L10+J10+M10+P10)/6</f>
+        <v>3</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3082,7 +3082,7 @@
   <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K3" sqref="K3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3139,9 +3139,7 @@
         <v>0.12</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="5">
-        <v>10</v>
-      </c>
+      <c r="K3" s="5"/>
       <c r="L3" s="8">
         <f>40%*40%</f>
         <v>0.16000000000000003</v>
@@ -3173,9 +3171,7 @@
         <v>0.12</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="5">
-        <v>10</v>
-      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="8">
         <f>60%*40%</f>
         <v>0.24</v>
@@ -3207,9 +3203,7 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="5">
-        <v>10</v>
-      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="8">
         <v>0.6</v>
       </c>
@@ -3322,7 +3316,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5" cm="1">
         <f t="array" ref="L10">ROUND(SUM(K3:K5*L3:L5),0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -3363,7 +3357,7 @@
       </c>
       <c r="B13" s="5">
         <f>(C10+F10+I10+L10)/4</f>
-        <v>10.75</v>
+        <v>8.25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3433,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FF9CF-B77D-46A6-8A4A-A68ED590C25C}">
   <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3500,7 +3494,9 @@
       <c r="L3" s="8">
         <v>0.05</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="N3" s="5">
         <v>10</v>
       </c>
@@ -3531,13 +3527,13 @@
         <v>0.36</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="5">
-        <v>10</v>
-      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="M4" s="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="N4" s="5">
         <v>10</v>
       </c>
@@ -3568,13 +3564,13 @@
         <v>1</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="5">
-        <v>10</v>
-      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="8">
         <v>0.2</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="N5" s="5">
         <v>10</v>
       </c>
@@ -3605,13 +3601,13 @@
         <v>0.4</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="5">
-        <v>10</v>
-      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="M6" s="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="N6" s="5">
         <v>10</v>
       </c>
@@ -3638,13 +3634,13 @@
         <v>0.6</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="5">
-        <v>10</v>
-      </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="8">
         <v>0.4</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="N7" s="5">
         <v>10</v>
       </c>
@@ -3713,7 +3709,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5" cm="1">
         <f t="array" ref="L10">ROUND(SUM(K4:K7:K3*L4:L7:L3),0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="5"/>
@@ -3762,10 +3758,10 @@
       </c>
       <c r="B13" s="1">
         <f>(C10+F10+I10+L10+O10)/5</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3777,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5023A22B-A7B8-4F5A-B287-157EE962F98A}">
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3830,9 +3826,7 @@
         <v>0.2</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="5">
-        <v>10</v>
-      </c>
+      <c r="K3" s="5"/>
       <c r="L3" s="8">
         <v>0.2</v>
       </c>
@@ -3860,9 +3854,7 @@
         <v>0.3</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="5">
-        <v>10</v>
-      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="8">
         <v>0.25</v>
       </c>
@@ -3890,9 +3882,7 @@
         <v>0.5</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="5">
-        <v>10</v>
-      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="8">
         <v>0.1</v>
       </c>
@@ -3912,9 +3902,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="5">
-        <v>10</v>
-      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="8">
         <v>0.45</v>
       </c>
@@ -3993,7 +3981,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5" cm="1">
         <f t="array" ref="L10">ROUND((SUM(K3:K6*L3:L6)),0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -4030,7 +4018,7 @@
       </c>
       <c r="B13" s="5">
         <f>(C10+F10+I10+L10)/4</f>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>40</v>

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0008B125-436A-4744-8930-B6756B0C7C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95BE2F9-8565-47CC-A696-1D10B4FB926A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" tabRatio="797" activeTab="1" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>Cadeira</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>tp3</t>
+  </si>
+  <si>
+    <t>EXAMETIPO</t>
+  </si>
+  <si>
+    <t>Ver teste</t>
   </si>
 </sst>
 </file>
@@ -867,7 +873,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1080,9 +1086,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1509,7 +1512,7 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -1521,21 +1524,21 @@
       <c r="D3" s="25">
         <v>6</v>
       </c>
-      <c r="E3" s="85" cm="1">
+      <c r="E3" s="84" cm="1">
         <f t="array" ref="E3">ROUND(SUM(C3:C6*D3:D6)/SUM(D3:D6),2)</f>
         <v>8.15</v>
       </c>
-      <c r="F3" s="88" cm="1">
+      <c r="F3" s="87" cm="1">
         <f t="array" ref="F3" xml:space="preserve"> SUM(C3:C11*D3:D11)/SUM(D3:D11)</f>
         <v>9.2258064516129039</v>
       </c>
-      <c r="G3" s="88" cm="1">
+      <c r="G3" s="87" cm="1">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C30&lt;&gt;"",C3:C30*D3:D30,0))/SUM(IF(C3:C30&lt;&gt;"", D3:D30,0)),2)</f>
         <v>11.53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
@@ -1545,12 +1548,12 @@
       <c r="D4" s="27">
         <v>6</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
@@ -1558,12 +1561,12 @@
       <c r="D5" s="27">
         <v>6</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
@@ -1573,12 +1576,12 @@
       <c r="D6" s="37">
         <v>8</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
@@ -1588,15 +1591,15 @@
       <c r="D7" s="25">
         <v>6</v>
       </c>
-      <c r="E7" s="85" cm="1">
+      <c r="E7" s="84" cm="1">
         <f t="array" ref="E7">ROUND(SUM(C7:C11*D7:D11)/SUM(D7:D11),2)</f>
         <v>10</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
@@ -1606,12 +1609,12 @@
       <c r="D8" s="27">
         <v>6</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="28" t="s">
         <v>9</v>
       </c>
@@ -1621,12 +1624,12 @@
       <c r="D9" s="27">
         <v>6</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
@@ -1634,12 +1637,12 @@
       <c r="D10" s="27">
         <v>6</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="84"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="29" t="s">
         <v>10</v>
       </c>
@@ -1649,12 +1652,12 @@
       <c r="D11" s="31">
         <v>12</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="89"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="90" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1666,18 +1669,18 @@
       <c r="D12" s="25">
         <v>6</v>
       </c>
-      <c r="E12" s="85" cm="1">
+      <c r="E12" s="84" cm="1">
         <f t="array" ref="E12" xml:space="preserve"> ROUND(SUM(C12:C16*D12:D16)/SUM(D12:D16),2)</f>
         <v>9.4</v>
       </c>
-      <c r="F12" s="88" cm="1">
+      <c r="F12" s="87" cm="1">
         <f t="array" ref="F12" xml:space="preserve"> SUM(C12:C21*D12:D21)/SUM(D12:D21)</f>
         <v>5.9</v>
       </c>
-      <c r="G12" s="89"/>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
@@ -1687,12 +1690,12 @@
       <c r="D13" s="27">
         <v>6</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="26" t="s">
         <v>24</v>
       </c>
@@ -1702,12 +1705,12 @@
       <c r="D14" s="27">
         <v>6</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="92"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="26" t="s">
         <v>13</v>
       </c>
@@ -1715,12 +1718,12 @@
       <c r="D15" s="27">
         <v>6</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="36" t="s">
         <v>46</v>
       </c>
@@ -1730,12 +1733,12 @@
       <c r="D16" s="37">
         <v>6</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="92"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="42" t="s">
         <v>15</v>
       </c>
@@ -1743,15 +1746,15 @@
       <c r="D17" s="25">
         <v>6</v>
       </c>
-      <c r="E17" s="94" cm="1">
+      <c r="E17" s="93" cm="1">
         <f t="array" ref="E17" xml:space="preserve"> ROUND(SUM(C17:C21*D17:D21)/30,2)</f>
         <v>2.4</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="92"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="33" t="s">
         <v>17</v>
       </c>
@@ -1761,12 +1764,12 @@
       <c r="D18" s="27">
         <v>6</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="92"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="33" t="s">
         <v>25</v>
       </c>
@@ -1774,12 +1777,12 @@
       <c r="D19" s="27">
         <v>6</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="33" t="s">
         <v>16</v>
       </c>
@@ -1787,12 +1790,12 @@
       <c r="D20" s="27">
         <v>6</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="93"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="34" t="s">
         <v>18</v>
       </c>
@@ -1800,12 +1803,12 @@
       <c r="D21" s="31">
         <v>6</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="89"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="81" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -1815,18 +1818,18 @@
       <c r="D22" s="25">
         <v>6</v>
       </c>
-      <c r="E22" s="85" cm="1">
+      <c r="E22" s="84" cm="1">
         <f t="array" ref="E22">SUMPRODUCT(IF(C22:C25&lt;&gt;"",C22:C25*D22:D25,0))/SUM(IF(C22:C25&lt;&gt;"", D22:D25,0))</f>
         <v>11</v>
       </c>
-      <c r="F22" s="88" cm="1">
+      <c r="F22" s="87" cm="1">
         <f t="array" ref="F22">SUMPRODUCT(IF(C22:C30&lt;&gt;"",C22:C30*D22:D30,0))/SUM(IF(C22:C30&lt;&gt;"", D22:D30,0))</f>
         <v>11</v>
       </c>
-      <c r="G22" s="89"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
@@ -1834,12 +1837,12 @@
       <c r="D23" s="27">
         <v>6</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="26" t="s">
         <v>33</v>
       </c>
@@ -1847,12 +1850,12 @@
       <c r="D24" s="27">
         <v>6</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="83"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="43" t="s">
         <v>34</v>
       </c>
@@ -1862,12 +1865,12 @@
       <c r="D25" s="31">
         <v>6</v>
       </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="40" t="s">
         <v>35</v>
       </c>
@@ -1875,15 +1878,15 @@
       <c r="D26" s="41">
         <v>6</v>
       </c>
-      <c r="E26" s="85" t="e" cm="1">
+      <c r="E26" s="84" t="e" cm="1">
         <f t="array" ref="E26">SUMPRODUCT(IF(C26:C30&lt;&gt;"",C26:C30*D26:D30,0))/SUM(IF(C26:C30&lt;&gt;"", D26:D30,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="28" t="s">
         <v>36</v>
       </c>
@@ -1891,12 +1894,12 @@
       <c r="D27" s="27">
         <v>6</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="28" t="s">
         <v>37</v>
       </c>
@@ -1904,12 +1907,12 @@
       <c r="D28" s="27">
         <v>6</v>
       </c>
-      <c r="E28" s="86"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="28" t="s">
         <v>38</v>
       </c>
@@ -1917,12 +1920,12 @@
       <c r="D29" s="27">
         <v>6</v>
       </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="84"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="29" t="s">
         <v>39</v>
       </c>
@@ -1930,9 +1933,9 @@
       <c r="D30" s="31">
         <v>12</v>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1963,7 +1966,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2057,11 +2060,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="57"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="76" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="73" t="s">
@@ -2150,12 +2153,14 @@
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="54" t="s">
+        <v>60</v>
+      </c>
       <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="80" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="54" t="s">
@@ -2166,61 +2171,63 @@
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
+      <c r="I12" s="54" t="s">
+        <v>61</v>
+      </c>
       <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="80">
+      <c r="A13" s="79">
         <v>0.16</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="80" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="E13" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="F13" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="80">
+      <c r="A14" s="79">
         <v>0.2</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="80" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="77" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="54" t="s">
         <v>74</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+        <v>84</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="54"/>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="76" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="54"/>
@@ -2291,10 +2298,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="99"/>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2303,10 +2310,10 @@
         <v>33</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="98"/>
+      <c r="L2" s="97"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
@@ -2725,7 +2732,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="79"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="8">
         <v>0.25</v>
       </c>
@@ -2761,7 +2768,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="8">
         <v>0.2</v>
       </c>
@@ -2797,7 +2804,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="79"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="8">
         <v>0.4</v>
       </c>

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95BE2F9-8565-47CC-A696-1D10B4FB926A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2434D661-EA25-4508-A800-354240482856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" tabRatio="797" activeTab="1" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="5" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
   <sheets>
     <sheet name="Tudo" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
   <si>
     <t>Cadeira</t>
   </si>
@@ -310,19 +310,13 @@
     <t>ler slides</t>
   </si>
   <si>
-    <t>tp1</t>
-  </si>
-  <si>
-    <t>tp2</t>
-  </si>
-  <si>
-    <t>tp3</t>
-  </si>
-  <si>
     <t>EXAMETIPO</t>
   </si>
   <si>
     <t>Ver teste</t>
+  </si>
+  <si>
+    <t>ler ExampleSTP</t>
   </si>
 </sst>
 </file>
@@ -1965,13 +1959,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2184,17 +2180,13 @@
         <v>61</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="54" t="s">
         <v>83</v>
       </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
@@ -2216,7 +2208,7 @@
         <v>74</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>70</v>
@@ -2652,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F1879-E528-4352-86BD-F5E31A7A058F}">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3434,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FF9CF-B77D-46A6-8A4A-A68ED590C25C}">
   <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3704,9 +3696,7 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5">
-        <v>10</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="7"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
@@ -3765,7 +3755,7 @@
       </c>
       <c r="B13" s="1">
         <f>(C10+F10+I10+L10+O10)/5</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3780,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5023A22B-A7B8-4F5A-B287-157EE962F98A}">
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2434D661-EA25-4508-A800-354240482856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733CAC68-411B-4550-A08A-FA94D5FC1A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="5" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="3" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
   <sheets>
     <sheet name="Tudo" sheetId="1" r:id="rId1"/>
@@ -24,33 +24,24 @@
   <definedNames>
     <definedName name="topo" localSheetId="0">Tudo!$C$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -326,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +358,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -867,7 +865,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1094,6 +1092,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1506,7 +1507,7 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -1518,21 +1519,21 @@
       <c r="D3" s="25">
         <v>6</v>
       </c>
-      <c r="E3" s="84" cm="1">
+      <c r="E3" s="85" cm="1">
         <f t="array" ref="E3">ROUND(SUM(C3:C6*D3:D6)/SUM(D3:D6),2)</f>
         <v>8.15</v>
       </c>
-      <c r="F3" s="87" cm="1">
+      <c r="F3" s="88" cm="1">
         <f t="array" ref="F3" xml:space="preserve"> SUM(C3:C11*D3:D11)/SUM(D3:D11)</f>
         <v>9.2258064516129039</v>
       </c>
-      <c r="G3" s="87" cm="1">
+      <c r="G3" s="88" cm="1">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C30&lt;&gt;"",C3:C30*D3:D30,0))/SUM(IF(C3:C30&lt;&gt;"", D3:D30,0)),2)</f>
         <v>11.53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
@@ -1542,12 +1543,12 @@
       <c r="D4" s="27">
         <v>6</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
@@ -1555,12 +1556,12 @@
       <c r="D5" s="27">
         <v>6</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
@@ -1570,12 +1571,12 @@
       <c r="D6" s="37">
         <v>8</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
@@ -1585,15 +1586,15 @@
       <c r="D7" s="25">
         <v>6</v>
       </c>
-      <c r="E7" s="84" cm="1">
+      <c r="E7" s="85" cm="1">
         <f t="array" ref="E7">ROUND(SUM(C7:C11*D7:D11)/SUM(D7:D11),2)</f>
         <v>10</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
@@ -1603,12 +1604,12 @@
       <c r="D8" s="27">
         <v>6</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="28" t="s">
         <v>9</v>
       </c>
@@ -1618,12 +1619,12 @@
       <c r="D9" s="27">
         <v>6</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
@@ -1631,12 +1632,12 @@
       <c r="D10" s="27">
         <v>6</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="83"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="29" t="s">
         <v>10</v>
       </c>
@@ -1646,12 +1647,12 @@
       <c r="D11" s="31">
         <v>12</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="88"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="89"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="91" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1663,18 +1664,18 @@
       <c r="D12" s="25">
         <v>6</v>
       </c>
-      <c r="E12" s="84" cm="1">
+      <c r="E12" s="85" cm="1">
         <f t="array" ref="E12" xml:space="preserve"> ROUND(SUM(C12:C16*D12:D16)/SUM(D12:D16),2)</f>
         <v>9.4</v>
       </c>
-      <c r="F12" s="87" cm="1">
+      <c r="F12" s="88" cm="1">
         <f t="array" ref="F12" xml:space="preserve"> SUM(C12:C21*D12:D21)/SUM(D12:D21)</f>
         <v>5.9</v>
       </c>
-      <c r="G12" s="88"/>
+      <c r="G12" s="89"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
@@ -1684,12 +1685,12 @@
       <c r="D13" s="27">
         <v>6</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="26" t="s">
         <v>24</v>
       </c>
@@ -1699,12 +1700,12 @@
       <c r="D14" s="27">
         <v>6</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="26" t="s">
         <v>13</v>
       </c>
@@ -1712,12 +1713,12 @@
       <c r="D15" s="27">
         <v>6</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="91"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="36" t="s">
         <v>46</v>
       </c>
@@ -1727,12 +1728,12 @@
       <c r="D16" s="37">
         <v>6</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="42" t="s">
         <v>15</v>
       </c>
@@ -1740,15 +1741,15 @@
       <c r="D17" s="25">
         <v>6</v>
       </c>
-      <c r="E17" s="93" cm="1">
+      <c r="E17" s="94" cm="1">
         <f t="array" ref="E17" xml:space="preserve"> ROUND(SUM(C17:C21*D17:D21)/30,2)</f>
         <v>2.4</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="33" t="s">
         <v>17</v>
       </c>
@@ -1758,12 +1759,12 @@
       <c r="D18" s="27">
         <v>6</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="33" t="s">
         <v>25</v>
       </c>
@@ -1771,12 +1772,12 @@
       <c r="D19" s="27">
         <v>6</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="33" t="s">
         <v>16</v>
       </c>
@@ -1784,12 +1785,12 @@
       <c r="D20" s="27">
         <v>6</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="92"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="34" t="s">
         <v>18</v>
       </c>
@@ -1797,12 +1798,12 @@
       <c r="D21" s="31">
         <v>6</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="88"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="89"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -1812,18 +1813,18 @@
       <c r="D22" s="25">
         <v>6</v>
       </c>
-      <c r="E22" s="84" cm="1">
+      <c r="E22" s="85" cm="1">
         <f t="array" ref="E22">SUMPRODUCT(IF(C22:C25&lt;&gt;"",C22:C25*D22:D25,0))/SUM(IF(C22:C25&lt;&gt;"", D22:D25,0))</f>
         <v>11</v>
       </c>
-      <c r="F22" s="87" cm="1">
+      <c r="F22" s="88" cm="1">
         <f t="array" ref="F22">SUMPRODUCT(IF(C22:C30&lt;&gt;"",C22:C30*D22:D30,0))/SUM(IF(C22:C30&lt;&gt;"", D22:D30,0))</f>
         <v>11</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
@@ -1831,12 +1832,12 @@
       <c r="D23" s="27">
         <v>6</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="26" t="s">
         <v>33</v>
       </c>
@@ -1844,12 +1845,12 @@
       <c r="D24" s="27">
         <v>6</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="82"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="43" t="s">
         <v>34</v>
       </c>
@@ -1859,12 +1860,12 @@
       <c r="D25" s="31">
         <v>6</v>
       </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="40" t="s">
         <v>35</v>
       </c>
@@ -1872,15 +1873,15 @@
       <c r="D26" s="41">
         <v>6</v>
       </c>
-      <c r="E26" s="84" t="e" cm="1">
+      <c r="E26" s="85" t="e" cm="1">
         <f t="array" ref="E26">SUMPRODUCT(IF(C26:C30&lt;&gt;"",C26:C30*D26:D30,0))/SUM(IF(C26:C30&lt;&gt;"", D26:D30,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="28" t="s">
         <v>36</v>
       </c>
@@ -1888,12 +1889,12 @@
       <c r="D27" s="27">
         <v>6</v>
       </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="28" t="s">
         <v>37</v>
       </c>
@@ -1901,12 +1902,12 @@
       <c r="D28" s="27">
         <v>6</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="28" t="s">
         <v>38</v>
       </c>
@@ -1914,12 +1915,12 @@
       <c r="D29" s="27">
         <v>6</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="83"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="29" t="s">
         <v>39</v>
       </c>
@@ -1927,9 +1928,9 @@
       <c r="D30" s="31">
         <v>12</v>
       </c>
-      <c r="E30" s="86"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2290,10 +2291,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="99"/>
+      <c r="C2" s="100"/>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2302,10 +2303,10 @@
         <v>33</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="97"/>
+      <c r="L2" s="98"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
@@ -2644,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F1879-E528-4352-86BD-F5E31A7A058F}">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2703,7 +2704,9 @@
       <c r="G3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5">
+        <v>14.78</v>
+      </c>
       <c r="J3" s="9">
         <v>0.25</v>
       </c>
@@ -2890,7 +2893,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5" cm="1">
         <f t="array" ref="J10">ROUND(SUM(I3:I5*J3:J5),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="5"/>
@@ -2949,9 +2952,9 @@
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="5" t="e">
         <f>(C10+F10+'1º ANO - 2º Semestre'!L10+J10+M10+P10)/6</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3426,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FF9CF-B77D-46A6-8A4A-A68ED590C25C}">
   <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3526,7 +3529,9 @@
         <v>0.36</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5">
+        <v>15.14</v>
+      </c>
       <c r="L4" s="8">
         <v>0.2</v>
       </c>
@@ -3563,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="81"/>
       <c r="L5" s="8">
         <v>0.2</v>
       </c>
@@ -3600,7 +3605,7 @@
         <v>0.4</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="81"/>
       <c r="L6" s="8">
         <v>0.15</v>
       </c>
@@ -3633,7 +3638,7 @@
         <v>0.6</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="8">
         <v>0.4</v>
       </c>
@@ -3704,9 +3709,9 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5" cm="1">
-        <f t="array" ref="L10">ROUND(SUM(K4:K7:K3*L4:L7:L3),0)</f>
-        <v>0</v>
+      <c r="L10" s="5" t="e">
+        <f>ROUND(SUM(K4:K7:K3*L4:L7:L3),0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="5"/>
@@ -3753,9 +3758,9 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="e">
         <f>(C10+F10+I10+L10+O10)/5</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3763,6 +3768,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733CAC68-411B-4550-A08A-FA94D5FC1A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88CCB51-2CBC-4E2B-9A36-DFBAC3FCEFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="3" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" tabRatio="797" firstSheet="1" activeTab="1" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
   <sheets>
     <sheet name="Tudo" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
   <si>
     <t>Cadeira</t>
   </si>
@@ -226,63 +226,21 @@
     <t>domingo</t>
   </si>
   <si>
-    <t>entrega de as</t>
-  </si>
-  <si>
-    <t>RC2 PRATICA</t>
-  </si>
-  <si>
-    <t>SSE PRATICA</t>
-  </si>
-  <si>
-    <t>TP1 POO</t>
-  </si>
-  <si>
     <t>RC2</t>
   </si>
   <si>
     <t>SSE</t>
   </si>
   <si>
-    <t>POO</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
-    <t>2.3 3.5-alex</t>
-  </si>
-  <si>
-    <t>SSE/POO</t>
-  </si>
-  <si>
-    <t>guiao de poo</t>
-  </si>
-  <si>
-    <t>poo</t>
-  </si>
-  <si>
     <t>labi tem 8 ects</t>
   </si>
   <si>
-    <t>(alterar as merdas de as)</t>
-  </si>
-  <si>
-    <t>CodeCheck</t>
-  </si>
-  <si>
-    <t>ver testes?</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
-    <t>teste1</t>
-  </si>
-  <si>
-    <t>teste2</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -298,16 +256,103 @@
     <t>aulaT</t>
   </si>
   <si>
-    <t>ler slides</t>
-  </si>
-  <si>
-    <t>EXAMETIPO</t>
-  </si>
-  <si>
-    <t>Ver teste</t>
-  </si>
-  <si>
-    <t>ler ExampleSTP</t>
+    <t>psemestre</t>
+  </si>
+  <si>
+    <t>mpei</t>
+  </si>
+  <si>
+    <t>segurança</t>
+  </si>
+  <si>
+    <t>rc2</t>
+  </si>
+  <si>
+    <t>sse</t>
+  </si>
+  <si>
+    <t>rc2 recurso</t>
+  </si>
+  <si>
+    <t>as recurso</t>
+  </si>
+  <si>
+    <t>sse recurso</t>
+  </si>
+  <si>
+    <t>vlan</t>
+  </si>
+  <si>
+    <t>localizar</t>
+  </si>
+  <si>
+    <t>Spanning-Tree (SPT)</t>
+  </si>
+  <si>
+    <t>melhor root</t>
+  </si>
+  <si>
+    <t>ipv4</t>
+  </si>
+  <si>
+    <t>routing table</t>
+  </si>
+  <si>
+    <t>qnts routes para x(ip) e custo</t>
+  </si>
+  <si>
+    <t>Use of MP-BGP announcements and attributes to meet routing requirements for AS2000</t>
+  </si>
+  <si>
+    <t>Network settings changes for creating an MPLS tunnel with guaranteed bandwidth between Datacenter A and B</t>
+  </si>
+  <si>
+    <t>Changes to the company's DNS server for routing VoIP SIP calls to the company's server</t>
+  </si>
+  <si>
+    <t>ospf</t>
+  </si>
+  <si>
+    <t>change settings for traffic forwarding to Router 2</t>
+  </si>
+  <si>
+    <t>change to preferentially route traffic to SWL3 C1 from Router 5</t>
+  </si>
+  <si>
+    <t>fowarding solution</t>
+  </si>
+  <si>
+    <t>on Router 5 for bidirectional IPv4 connectivity to Datacenter A's virtual networks</t>
+  </si>
+  <si>
+    <t>to route traffic between VLAN 8 and Datacenter A via Router 3</t>
+  </si>
+  <si>
+    <t>IPv4 routing solution</t>
+  </si>
+  <si>
+    <t>MP-BGP</t>
+  </si>
+  <si>
+    <t>MPLS tunnel</t>
+  </si>
+  <si>
+    <t>VoIP SIP</t>
+  </si>
+  <si>
+    <t>qnts routes de omissão/default custo</t>
+  </si>
+  <si>
+    <t>Saber ver quando é de transito ou não transito</t>
+  </si>
+  <si>
+    <t>LDP</t>
+  </si>
+  <si>
+    <t>trocas entre MPLS e o domain LDP</t>
+  </si>
+  <si>
+    <t>locais/end-to-end</t>
   </si>
 </sst>
 </file>
@@ -317,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,11 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -363,14 +403,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +469,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -865,7 +909,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1044,12 +1088,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,29 +1100,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1093,9 +1109,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,7 +1556,7 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="85" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -1519,21 +1568,21 @@
       <c r="D3" s="25">
         <v>6</v>
       </c>
-      <c r="E3" s="85" cm="1">
+      <c r="E3" s="88" cm="1">
         <f t="array" ref="E3">ROUND(SUM(C3:C6*D3:D6)/SUM(D3:D6),2)</f>
         <v>8.15</v>
       </c>
-      <c r="F3" s="88" cm="1">
+      <c r="F3" s="91" cm="1">
         <f t="array" ref="F3" xml:space="preserve"> SUM(C3:C11*D3:D11)/SUM(D3:D11)</f>
         <v>9.2258064516129039</v>
       </c>
-      <c r="G3" s="88" cm="1">
+      <c r="G3" s="91" cm="1">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C30&lt;&gt;"",C3:C30*D3:D30,0))/SUM(IF(C3:C30&lt;&gt;"", D3:D30,0)),2)</f>
         <v>11.53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
@@ -1543,12 +1592,12 @@
       <c r="D4" s="27">
         <v>6</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
@@ -1556,12 +1605,12 @@
       <c r="D5" s="27">
         <v>6</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
@@ -1571,12 +1620,12 @@
       <c r="D6" s="37">
         <v>8</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
@@ -1586,15 +1635,15 @@
       <c r="D7" s="25">
         <v>6</v>
       </c>
-      <c r="E7" s="85" cm="1">
+      <c r="E7" s="88" cm="1">
         <f t="array" ref="E7">ROUND(SUM(C7:C11*D7:D11)/SUM(D7:D11),2)</f>
         <v>10</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
@@ -1604,12 +1653,12 @@
       <c r="D8" s="27">
         <v>6</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="28" t="s">
         <v>9</v>
       </c>
@@ -1619,12 +1668,12 @@
       <c r="D9" s="27">
         <v>6</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
@@ -1632,12 +1681,12 @@
       <c r="D10" s="27">
         <v>6</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="84"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="29" t="s">
         <v>10</v>
       </c>
@@ -1647,12 +1696,12 @@
       <c r="D11" s="31">
         <v>12</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="94" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1664,18 +1713,18 @@
       <c r="D12" s="25">
         <v>6</v>
       </c>
-      <c r="E12" s="85" cm="1">
+      <c r="E12" s="88" cm="1">
         <f t="array" ref="E12" xml:space="preserve"> ROUND(SUM(C12:C16*D12:D16)/SUM(D12:D16),2)</f>
         <v>9.4</v>
       </c>
-      <c r="F12" s="88" cm="1">
+      <c r="F12" s="91" cm="1">
         <f t="array" ref="F12" xml:space="preserve"> SUM(C12:C21*D12:D21)/SUM(D12:D21)</f>
         <v>5.9</v>
       </c>
-      <c r="G12" s="89"/>
+      <c r="G12" s="92"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
@@ -1685,12 +1734,12 @@
       <c r="D13" s="27">
         <v>6</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="26" t="s">
         <v>24</v>
       </c>
@@ -1700,12 +1749,12 @@
       <c r="D14" s="27">
         <v>6</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="92"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="26" t="s">
         <v>13</v>
       </c>
@@ -1713,12 +1762,12 @@
       <c r="D15" s="27">
         <v>6</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="36" t="s">
         <v>46</v>
       </c>
@@ -1728,12 +1777,12 @@
       <c r="D16" s="37">
         <v>6</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="92"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="42" t="s">
         <v>15</v>
       </c>
@@ -1741,15 +1790,15 @@
       <c r="D17" s="25">
         <v>6</v>
       </c>
-      <c r="E17" s="94" cm="1">
+      <c r="E17" s="97" cm="1">
         <f t="array" ref="E17" xml:space="preserve"> ROUND(SUM(C17:C21*D17:D21)/30,2)</f>
         <v>2.4</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="92"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="33" t="s">
         <v>17</v>
       </c>
@@ -1759,12 +1808,12 @@
       <c r="D18" s="27">
         <v>6</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="92"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="33" t="s">
         <v>25</v>
       </c>
@@ -1772,12 +1821,12 @@
       <c r="D19" s="27">
         <v>6</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="33" t="s">
         <v>16</v>
       </c>
@@ -1785,12 +1834,12 @@
       <c r="D20" s="27">
         <v>6</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="93"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="34" t="s">
         <v>18</v>
       </c>
@@ -1798,12 +1847,12 @@
       <c r="D21" s="31">
         <v>6</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="89"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="85" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -1813,18 +1862,18 @@
       <c r="D22" s="25">
         <v>6</v>
       </c>
-      <c r="E22" s="85" cm="1">
+      <c r="E22" s="88" cm="1">
         <f t="array" ref="E22">SUMPRODUCT(IF(C22:C25&lt;&gt;"",C22:C25*D22:D25,0))/SUM(IF(C22:C25&lt;&gt;"", D22:D25,0))</f>
         <v>11</v>
       </c>
-      <c r="F22" s="88" cm="1">
+      <c r="F22" s="91" cm="1">
         <f t="array" ref="F22">SUMPRODUCT(IF(C22:C30&lt;&gt;"",C22:C30*D22:D30,0))/SUM(IF(C22:C30&lt;&gt;"", D22:D30,0))</f>
         <v>11</v>
       </c>
-      <c r="G22" s="89"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
@@ -1832,12 +1881,12 @@
       <c r="D23" s="27">
         <v>6</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="26" t="s">
         <v>33</v>
       </c>
@@ -1845,12 +1894,12 @@
       <c r="D24" s="27">
         <v>6</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="83"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="43" t="s">
         <v>34</v>
       </c>
@@ -1860,12 +1909,12 @@
       <c r="D25" s="31">
         <v>6</v>
       </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="40" t="s">
         <v>35</v>
       </c>
@@ -1873,15 +1922,15 @@
       <c r="D26" s="41">
         <v>6</v>
       </c>
-      <c r="E26" s="85" t="e" cm="1">
+      <c r="E26" s="88" t="e" cm="1">
         <f t="array" ref="E26">SUMPRODUCT(IF(C26:C30&lt;&gt;"",C26:C30*D26:D30,0))/SUM(IF(C26:C30&lt;&gt;"", D26:D30,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="28" t="s">
         <v>36</v>
       </c>
@@ -1889,12 +1938,12 @@
       <c r="D27" s="27">
         <v>6</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="28" t="s">
         <v>37</v>
       </c>
@@ -1902,12 +1951,12 @@
       <c r="D28" s="27">
         <v>6</v>
       </c>
-      <c r="E28" s="86"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="28" t="s">
         <v>38</v>
       </c>
@@ -1915,12 +1964,12 @@
       <c r="D29" s="27">
         <v>6</v>
       </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="84"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="29" t="s">
         <v>39</v>
       </c>
@@ -1928,9 +1977,9 @@
       <c r="D30" s="31">
         <v>12</v>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1958,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1971,9 +2020,12 @@
     <col min="5" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="54"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -1985,7 +2037,7 @@
       <c r="I1" s="54"/>
       <c r="J1" s="54"/>
     </row>
-    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54"/>
       <c r="B2" s="55" t="s">
         <v>48</v>
@@ -2012,112 +2064,165 @@
         <v>55</v>
       </c>
       <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54"/>
       <c r="B3" s="56">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
       <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="70" t="s">
-        <v>61</v>
+      <c r="G3" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>69</v>
       </c>
       <c r="J3" s="54"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54"/>
       <c r="B4" s="61">
-        <v>3</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="75"/>
+      <c r="D4" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54"/>
       <c r="B5" s="55">
-        <v>10</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>57</v>
+      </c>
       <c r="H5" s="59"/>
-      <c r="I5" s="73" t="s">
-        <v>56</v>
-      </c>
+      <c r="I5" s="60"/>
       <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54"/>
       <c r="B6" s="61">
-        <v>17</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>59</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="62"/>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
       <c r="I6" s="63"/>
       <c r="J6" s="54"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54"/>
       <c r="B7" s="55">
-        <v>24</v>
-      </c>
-      <c r="C7" s="64"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>72</v>
+      </c>
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
       <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="G7" s="80" t="s">
+        <v>73</v>
+      </c>
       <c r="H7" s="59"/>
       <c r="I7" s="60"/>
       <c r="J7" s="54"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54"/>
-      <c r="B8" s="56">
-        <v>1</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="54"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
@@ -2128,8 +2233,14 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -2140,8 +2251,14 @@
       <c r="H10" s="54"/>
       <c r="I10" s="54"/>
       <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
@@ -2150,79 +2267,80 @@
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
-      <c r="I11" s="54" t="s">
-        <v>60</v>
-      </c>
+      <c r="I11" s="54"/>
       <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
-      <c r="B12" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>71</v>
-      </c>
+      <c r="B12" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="54"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
-      <c r="I12" s="54" t="s">
-        <v>61</v>
-      </c>
+      <c r="I12" s="54"/>
       <c r="J12" s="54"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="79">
+      <c r="L12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="69">
         <v>0.16</v>
       </c>
-      <c r="B13" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>83</v>
-      </c>
+      <c r="B13" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="54"/>
       <c r="F13" s="54"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L13" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="L14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
-      <c r="B15" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>64</v>
-      </c>
+      <c r="B15" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="54"/>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
@@ -2230,8 +2348,14 @@
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L15" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
@@ -2257,8 +2381,6 @@
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
@@ -2277,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC10043-F51A-4DB1-8C0B-313C8D48A7CD}">
   <dimension ref="A2:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2291,10 +2413,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="103"/>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2303,10 +2425,10 @@
         <v>33</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="98"/>
+      <c r="L2" s="101"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
@@ -2434,7 +2556,7 @@
       <c r="K7" s="45">
         <v>8</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="72">
         <f>45%</f>
         <v>0.45</v>
       </c>
@@ -2533,12 +2655,20 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="C12" s="73" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>66</v>
+      </c>
       <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="H12" s="44" t="s">
+        <v>67</v>
+      </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
@@ -2645,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F1879-E528-4352-86BD-F5E31A7A058F}">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2666,26 +2796,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="71"/>
       <c r="E2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="15"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="71"/>
       <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="71"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
@@ -2705,13 +2835,13 @@
         <v>44</v>
       </c>
       <c r="I3" s="5">
-        <v>14.78</v>
+        <v>14.8</v>
       </c>
       <c r="J3" s="9">
         <v>0.25</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="8">
@@ -2723,11 +2853,11 @@
         <v>0.16</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="78"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="8">
         <v>0.25</v>
       </c>
@@ -2742,12 +2872,14 @@
       <c r="G4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5">
+        <v>14</v>
+      </c>
       <c r="J4" s="9">
         <v>0.25</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="8">
@@ -2759,11 +2891,11 @@
         <v>0.24</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="78"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="8">
         <v>0.2</v>
       </c>
@@ -2783,7 +2915,7 @@
         <v>0.5</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="8">
@@ -2795,11 +2927,11 @@
         <v>0.6</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="78"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="8">
         <v>0.4</v>
       </c>
@@ -2893,7 +3025,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5" cm="1">
         <f t="array" ref="J10">ROUND(SUM(I3:I5*J3:J5),0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="5"/>
@@ -2953,8 +3085,8 @@
         <v>23</v>
       </c>
       <c r="B13" s="5" t="e">
-        <f>(C10+F10+'1º ANO - 2º Semestre'!L10+J10+M10+P10)/6</f>
-        <v>#VALUE!</v>
+        <f>(C10+F10+'1º ANO - 2º Semestre'!#REF!+J10+M10+P10)/6</f>
+        <v>#REF!</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3084,7 +3216,7 @@
   <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3369,7 +3501,9 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="73" t="s">
+        <v>66</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -3430,7 +3564,7 @@
   <dimension ref="A2:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3458,10 +3592,10 @@
         <v>9</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="71"/>
       <c r="N2" s="15" t="s">
         <v>10</v>
       </c>
@@ -3476,9 +3610,7 @@
         <v>0.15</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="5">
-        <v>10</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="8">
         <v>0.1</v>
       </c>
@@ -3497,7 +3629,7 @@
         <v>0.05</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="N3" s="5">
         <v>10</v>
@@ -3515,9 +3647,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="8">
         <v>0.3</v>
       </c>
@@ -3536,7 +3666,7 @@
         <v>0.2</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="N4" s="5">
         <v>10</v>
@@ -3554,9 +3684,7 @@
         <v>0.15</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="5">
-        <v>10</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="8">
         <v>0.3</v>
       </c>
@@ -3568,12 +3696,14 @@
         <v>1</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="81"/>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
       <c r="L5" s="8">
         <v>0.2</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="N5" s="5">
         <v>10</v>
@@ -3591,9 +3721,7 @@
         <v>0.35</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="8">
         <v>0.3</v>
       </c>
@@ -3605,12 +3733,14 @@
         <v>0.4</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="81"/>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
       <c r="L6" s="8">
         <v>0.15</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="N6" s="5">
         <v>10</v>
@@ -3638,12 +3768,14 @@
         <v>0.6</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="81"/>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
       <c r="L7" s="8">
         <v>0.4</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="N7" s="5">
         <v>10</v>
@@ -3664,7 +3796,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="7"/>
       <c r="N8" s="5">
         <v>10</v>
@@ -3701,17 +3833,19 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <v>11</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5" t="e">
-        <f>ROUND(SUM(K4:K7:K3*L4:L7:L3),0)</f>
-        <v>#VALUE!</v>
+      <c r="L10" s="5" cm="1">
+        <f t="array" ref="L10">ROUND(SUM(K3:K8*L3:L8),0)</f>
+        <v>3</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="5"/>
@@ -3758,12 +3892,12 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="e">
-        <f>(C10+F10+I10+L10+O10)/5</f>
-        <v>#VALUE!</v>
+      <c r="B13" s="1">
+        <f>(C10+L10+F10+I10+O10)/5</f>
+        <v>9.4</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3776,8 +3910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5023A22B-A7B8-4F5A-B287-157EE962F98A}">
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4033,7 +4167,9 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="73" t="s">
+        <v>66</v>
+      </c>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88CCB51-2CBC-4E2B-9A36-DFBAC3FCEFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF9C83B-40D3-4B95-A7E4-C1A25D86DC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" tabRatio="797" firstSheet="1" activeTab="1" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" firstSheet="1" activeTab="5" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
   <sheets>
     <sheet name="Tudo" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t>Cadeira</t>
   </si>
@@ -268,91 +268,46 @@
     <t>rc2</t>
   </si>
   <si>
-    <t>sse</t>
-  </si>
-  <si>
-    <t>rc2 recurso</t>
-  </si>
-  <si>
     <t>as recurso</t>
   </si>
   <si>
     <t>sse recurso</t>
   </si>
   <si>
-    <t>vlan</t>
-  </si>
-  <si>
-    <t>localizar</t>
-  </si>
-  <si>
-    <t>Spanning-Tree (SPT)</t>
-  </si>
-  <si>
-    <t>melhor root</t>
-  </si>
-  <si>
-    <t>ipv4</t>
-  </si>
-  <si>
-    <t>routing table</t>
-  </si>
-  <si>
-    <t>qnts routes para x(ip) e custo</t>
-  </si>
-  <si>
-    <t>Use of MP-BGP announcements and attributes to meet routing requirements for AS2000</t>
-  </si>
-  <si>
-    <t>Network settings changes for creating an MPLS tunnel with guaranteed bandwidth between Datacenter A and B</t>
-  </si>
-  <si>
-    <t>Changes to the company's DNS server for routing VoIP SIP calls to the company's server</t>
-  </si>
-  <si>
-    <t>ospf</t>
-  </si>
-  <si>
-    <t>change settings for traffic forwarding to Router 2</t>
-  </si>
-  <si>
-    <t>change to preferentially route traffic to SWL3 C1 from Router 5</t>
-  </si>
-  <si>
-    <t>fowarding solution</t>
-  </si>
-  <si>
-    <t>on Router 5 for bidirectional IPv4 connectivity to Datacenter A's virtual networks</t>
-  </si>
-  <si>
-    <t>to route traffic between VLAN 8 and Datacenter A via Router 3</t>
-  </si>
-  <si>
-    <t>IPv4 routing solution</t>
-  </si>
-  <si>
-    <t>MP-BGP</t>
-  </si>
-  <si>
-    <t>MPLS tunnel</t>
-  </si>
-  <si>
-    <t>VoIP SIP</t>
-  </si>
-  <si>
-    <t>qnts routes de omissão/default custo</t>
-  </si>
-  <si>
-    <t>Saber ver quando é de transito ou não transito</t>
-  </si>
-  <si>
-    <t>LDP</t>
-  </si>
-  <si>
-    <t>trocas entre MPLS e o domain LDP</t>
-  </si>
-  <si>
-    <t>locais/end-to-end</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>aula P</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>8valores</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>para ter 7 ficava com 2,8</t>
+  </si>
+  <si>
+    <t>tenho 0, 375</t>
+  </si>
+  <si>
+    <t>logo preciso de 2,425</t>
+  </si>
+  <si>
+    <t>que implica tirar 9,7 no T</t>
+  </si>
+  <si>
+    <t>preciso de 7,5</t>
+  </si>
+  <si>
+    <t>teorico</t>
+  </si>
+  <si>
+    <t>preciso de</t>
   </si>
 </sst>
 </file>
@@ -362,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +361,13 @@
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -476,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -903,13 +865,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1088,9 +1130,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,9 +1165,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,6 +1181,57 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1556,7 +1643,7 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="106" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -1568,21 +1655,21 @@
       <c r="D3" s="25">
         <v>6</v>
       </c>
-      <c r="E3" s="88" cm="1">
+      <c r="E3" s="109" cm="1">
         <f t="array" ref="E3">ROUND(SUM(C3:C6*D3:D6)/SUM(D3:D6),2)</f>
         <v>8.15</v>
       </c>
-      <c r="F3" s="91" cm="1">
+      <c r="F3" s="112" cm="1">
         <f t="array" ref="F3" xml:space="preserve"> SUM(C3:C11*D3:D11)/SUM(D3:D11)</f>
         <v>9.2258064516129039</v>
       </c>
-      <c r="G3" s="91" cm="1">
+      <c r="G3" s="112" cm="1">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C30&lt;&gt;"",C3:C30*D3:D30,0))/SUM(IF(C3:C30&lt;&gt;"", D3:D30,0)),2)</f>
         <v>11.53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
@@ -1592,12 +1679,12 @@
       <c r="D4" s="27">
         <v>6</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
@@ -1605,12 +1692,12 @@
       <c r="D5" s="27">
         <v>6</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
@@ -1620,12 +1707,12 @@
       <c r="D6" s="37">
         <v>8</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
@@ -1635,15 +1722,15 @@
       <c r="D7" s="25">
         <v>6</v>
       </c>
-      <c r="E7" s="88" cm="1">
+      <c r="E7" s="109" cm="1">
         <f t="array" ref="E7">ROUND(SUM(C7:C11*D7:D11)/SUM(D7:D11),2)</f>
         <v>10</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
@@ -1653,12 +1740,12 @@
       <c r="D8" s="27">
         <v>6</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="28" t="s">
         <v>9</v>
       </c>
@@ -1668,12 +1755,12 @@
       <c r="D9" s="27">
         <v>6</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
@@ -1681,12 +1768,12 @@
       <c r="D10" s="27">
         <v>6</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="87"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="29" t="s">
         <v>10</v>
       </c>
@@ -1696,12 +1783,12 @@
       <c r="D11" s="31">
         <v>12</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="92"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="113"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="115" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1713,18 +1800,18 @@
       <c r="D12" s="25">
         <v>6</v>
       </c>
-      <c r="E12" s="88" cm="1">
+      <c r="E12" s="109" cm="1">
         <f t="array" ref="E12" xml:space="preserve"> ROUND(SUM(C12:C16*D12:D16)/SUM(D12:D16),2)</f>
         <v>9.4</v>
       </c>
-      <c r="F12" s="91" cm="1">
+      <c r="F12" s="112" cm="1">
         <f t="array" ref="F12" xml:space="preserve"> SUM(C12:C21*D12:D21)/SUM(D12:D21)</f>
         <v>5.9</v>
       </c>
-      <c r="G12" s="92"/>
+      <c r="G12" s="113"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
@@ -1734,12 +1821,12 @@
       <c r="D13" s="27">
         <v>6</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="95"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="26" t="s">
         <v>24</v>
       </c>
@@ -1749,12 +1836,12 @@
       <c r="D14" s="27">
         <v>6</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="95"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="26" t="s">
         <v>13</v>
       </c>
@@ -1762,12 +1849,12 @@
       <c r="D15" s="27">
         <v>6</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="95"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="36" t="s">
         <v>46</v>
       </c>
@@ -1777,12 +1864,12 @@
       <c r="D16" s="37">
         <v>6</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="95"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="42" t="s">
         <v>15</v>
       </c>
@@ -1790,15 +1877,15 @@
       <c r="D17" s="25">
         <v>6</v>
       </c>
-      <c r="E17" s="97" cm="1">
+      <c r="E17" s="118" cm="1">
         <f t="array" ref="E17" xml:space="preserve"> ROUND(SUM(C17:C21*D17:D21)/30,2)</f>
         <v>2.4</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="95"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="33" t="s">
         <v>17</v>
       </c>
@@ -1808,12 +1895,12 @@
       <c r="D18" s="27">
         <v>6</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="95"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="33" t="s">
         <v>25</v>
       </c>
@@ -1821,12 +1908,12 @@
       <c r="D19" s="27">
         <v>6</v>
       </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="95"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="33" t="s">
         <v>16</v>
       </c>
@@ -1834,12 +1921,12 @@
       <c r="D20" s="27">
         <v>6</v>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="96"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="34" t="s">
         <v>18</v>
       </c>
@@ -1847,12 +1934,12 @@
       <c r="D21" s="31">
         <v>6</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="92"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="113"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="106" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -1862,18 +1949,18 @@
       <c r="D22" s="25">
         <v>6</v>
       </c>
-      <c r="E22" s="88" cm="1">
+      <c r="E22" s="109" cm="1">
         <f t="array" ref="E22">SUMPRODUCT(IF(C22:C25&lt;&gt;"",C22:C25*D22:D25,0))/SUM(IF(C22:C25&lt;&gt;"", D22:D25,0))</f>
         <v>11</v>
       </c>
-      <c r="F22" s="91" cm="1">
+      <c r="F22" s="112" cm="1">
         <f t="array" ref="F22">SUMPRODUCT(IF(C22:C30&lt;&gt;"",C22:C30*D22:D30,0))/SUM(IF(C22:C30&lt;&gt;"", D22:D30,0))</f>
         <v>11</v>
       </c>
-      <c r="G22" s="92"/>
+      <c r="G22" s="113"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
@@ -1881,12 +1968,12 @@
       <c r="D23" s="27">
         <v>6</v>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="26" t="s">
         <v>33</v>
       </c>
@@ -1894,12 +1981,12 @@
       <c r="D24" s="27">
         <v>6</v>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="86"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="43" t="s">
         <v>34</v>
       </c>
@@ -1909,12 +1996,12 @@
       <c r="D25" s="31">
         <v>6</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="40" t="s">
         <v>35</v>
       </c>
@@ -1922,15 +2009,15 @@
       <c r="D26" s="41">
         <v>6</v>
       </c>
-      <c r="E26" s="88" t="e" cm="1">
+      <c r="E26" s="109" t="e" cm="1">
         <f t="array" ref="E26">SUMPRODUCT(IF(C26:C30&lt;&gt;"",C26:C30*D26:D30,0))/SUM(IF(C26:C30&lt;&gt;"", D26:D30,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="28" t="s">
         <v>36</v>
       </c>
@@ -1938,12 +2025,12 @@
       <c r="D27" s="27">
         <v>6</v>
       </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="28" t="s">
         <v>37</v>
       </c>
@@ -1951,12 +2038,12 @@
       <c r="D28" s="27">
         <v>6</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="28" t="s">
         <v>38</v>
       </c>
@@ -1964,12 +2051,12 @@
       <c r="D29" s="27">
         <v>6</v>
       </c>
-      <c r="E29" s="89"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="87"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="29" t="s">
         <v>39</v>
       </c>
@@ -1977,9 +2064,9 @@
       <c r="D30" s="31">
         <v>12</v>
       </c>
-      <c r="E30" s="90"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2009,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2064,9 +2151,7 @@
         <v>55</v>
       </c>
       <c r="J2" s="54"/>
-      <c r="L2" s="54" t="s">
-        <v>56</v>
-      </c>
+      <c r="L2" s="54"/>
       <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2078,149 +2163,103 @@
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
       <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="85" t="s">
         <v>69</v>
       </c>
       <c r="J3" s="54"/>
-      <c r="L3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="84" t="s">
-        <v>98</v>
-      </c>
+      <c r="M3" s="79"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54"/>
       <c r="B4" s="61">
         <v>12</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="59"/>
       <c r="I4" s="63"/>
       <c r="J4" s="54"/>
-      <c r="L4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="81" t="s">
-        <v>77</v>
-      </c>
+      <c r="M4" s="79"/>
     </row>
     <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54"/>
       <c r="B5" s="55">
         <v>19</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="76" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="75" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="59"/>
       <c r="I5" s="60"/>
       <c r="J5" s="54"/>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
+      <c r="M5" s="79"/>
     </row>
     <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54"/>
       <c r="B6" s="61">
         <v>26</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="78" t="s">
-        <v>71</v>
-      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
       <c r="I6" s="63"/>
       <c r="J6" s="54"/>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" t="s">
-        <v>94</v>
-      </c>
+      <c r="M6" s="79"/>
     </row>
     <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54"/>
       <c r="B7" s="55">
         <v>3</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>72</v>
+      <c r="C7" s="77" t="s">
+        <v>70</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
       <c r="F7" s="59"/>
-      <c r="G7" s="80" t="s">
-        <v>73</v>
+      <c r="G7" s="78" t="s">
+        <v>71</v>
       </c>
       <c r="H7" s="59"/>
       <c r="I7" s="60"/>
       <c r="J7" s="54"/>
-      <c r="L7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="82" t="s">
-        <v>85</v>
-      </c>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54"/>
       <c r="B8" s="56"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="54"/>
-      <c r="L8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="83" t="s">
-        <v>86</v>
-      </c>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
@@ -2233,12 +2272,7 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
-      <c r="L9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="82" t="s">
-        <v>88</v>
-      </c>
+      <c r="M9" s="80"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
@@ -2251,12 +2285,7 @@
       <c r="H10" s="54"/>
       <c r="I10" s="54"/>
       <c r="J10" s="54"/>
-      <c r="L10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="82" t="s">
-        <v>89</v>
-      </c>
+      <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
@@ -2269,18 +2298,11 @@
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
       <c r="J11" s="54"/>
-      <c r="L11" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="82" t="s">
-        <v>95</v>
-      </c>
+      <c r="M11" s="80"/>
     </row>
     <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
-      <c r="B12" s="70" t="s">
-        <v>56</v>
-      </c>
+      <c r="B12" s="54"/>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
@@ -2289,18 +2311,13 @@
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
-      <c r="L12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12" s="82" t="s">
-        <v>81</v>
-      </c>
+      <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="69">
+      <c r="A13" s="68">
         <v>0.16</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="69" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="54"/>
@@ -2310,16 +2327,14 @@
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
-      <c r="L13" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="82" t="s">
-        <v>82</v>
-      </c>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="B14" s="69" t="s">
+        <v>58</v>
+      </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -2328,18 +2343,10 @@
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
       <c r="J14" s="54"/>
-      <c r="L14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="82" t="s">
-        <v>97</v>
-      </c>
+      <c r="M14" s="80"/>
     </row>
     <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
-      <c r="B15" s="70" t="s">
-        <v>58</v>
-      </c>
       <c r="C15" s="54"/>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
@@ -2348,12 +2355,8 @@
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="L15" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="82" t="s">
-        <v>83</v>
-      </c>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
@@ -2413,10 +2416,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="124"/>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2425,10 +2428,10 @@
         <v>33</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="101"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
@@ -2556,7 +2559,7 @@
       <c r="K7" s="45">
         <v>8</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="71">
         <f>45%</f>
         <v>0.45</v>
       </c>
@@ -2655,14 +2658,14 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="72" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="44"/>
@@ -2773,16 +2776,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F1879-E528-4352-86BD-F5E31A7A058F}">
-  <dimension ref="A2:R18"/>
+  <dimension ref="A2:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
     <col min="9" max="9" width="16.21875" customWidth="1"/>
     <col min="11" max="11" width="11.77734375" customWidth="1"/>
@@ -2790,32 +2793,32 @@
     <col min="13" max="13" width="11.109375" customWidth="1"/>
     <col min="14" max="14" width="13.44140625" customWidth="1"/>
     <col min="15" max="15" width="13.109375" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
     <col min="17" max="17" width="11.5546875" customWidth="1"/>
     <col min="18" max="18" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="70"/>
       <c r="E2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="15"/>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="71"/>
+      <c r="J2" s="15"/>
       <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="71"/>
+      <c r="P2" s="70"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
@@ -2824,7 +2827,9 @@
       <c r="C3" s="8">
         <v>0.15</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E3" s="5">
         <v>11</v>
       </c>
@@ -2848,7 +2853,9 @@
         <v>0.18</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="5"/>
+      <c r="O3" s="5">
+        <v>10.8</v>
+      </c>
       <c r="P3" s="8">
         <v>0.16</v>
       </c>
@@ -2857,11 +2864,18 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="68"/>
+      <c r="A4" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="104">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="C4" s="8">
         <v>0.25</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E4" s="5">
         <v>15</v>
       </c>
@@ -2886,7 +2900,9 @@
         <v>0.22</v>
       </c>
       <c r="N4" s="7"/>
-      <c r="O4" s="5"/>
+      <c r="O4" s="5">
+        <v>18.899999999999999</v>
+      </c>
       <c r="P4" s="8">
         <v>0.24</v>
       </c>
@@ -2895,11 +2911,15 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
+      <c r="B5" s="67">
+        <v>14</v>
+      </c>
       <c r="C5" s="8">
         <v>0.2</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="E5" s="5">
         <v>10</v>
       </c>
@@ -2910,7 +2930,9 @@
       <c r="G5" s="13">
         <v>45035</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5">
+        <v>8.9</v>
+      </c>
       <c r="J5" s="9">
         <v>0.5</v>
       </c>
@@ -2931,11 +2953,15 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="68"/>
+      <c r="B6" s="67">
+        <v>17</v>
+      </c>
       <c r="C6" s="8">
         <v>0.4</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="8"/>
       <c r="G6" s="14">
@@ -3010,10 +3036,13 @@
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="5">
+        <f>ROUND(       PRODUCT(      SUM(PRODUCT(B3,C3),PRODUCT(B4,C4)),2.5),1)</f>
+        <v>6.8</v>
+      </c>
       <c r="C10" s="5" cm="1">
         <f t="array" ref="C10">ROUND(SUM(B3:B6*C3:C6),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="5"/>
@@ -3025,7 +3054,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5" cm="1">
         <f t="array" ref="J10">ROUND(SUM(I3:I5*J3:J5),0)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="5"/>
@@ -3037,13 +3066,17 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5" cm="1">
         <f t="array" ref="P10">ROUND(SUM(O3:O4:O5*P3:P4:P5),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -3084,9 +3117,9 @@
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="e">
-        <f>(C10+F10+'1º ANO - 2º Semestre'!#REF!+J10+M10+P10)/6</f>
-        <v>#REF!</v>
+      <c r="B13" s="5">
+        <f>(C10+F10+J10+M10+P10)/6</f>
+        <v>8</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3130,7 +3163,9 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="103">
+        <v>45026</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3152,15 +3187,8 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -3172,38 +3200,78 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="O20" s="101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="89">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="90"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3501,7 +3569,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="72" t="s">
         <v>66</v>
       </c>
       <c r="L13" s="7"/>
@@ -3563,8 +3631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FF9CF-B77D-46A6-8A4A-A68ED590C25C}">
   <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3592,10 +3660,10 @@
         <v>9</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="71"/>
+      <c r="L2" s="70"/>
       <c r="N2" s="15" t="s">
         <v>10</v>
       </c>
@@ -4167,7 +4235,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="72" t="s">
         <v>66</v>
       </c>
       <c r="L13" s="7"/>

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEACCC6-81A9-4003-BCE9-7DFAB24C416F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA9FCF7-22EA-4C2A-B8EB-7424E34C0F59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="797" activeTab="1" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
@@ -1100,7 +1100,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1261,9 +1261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1443,6 +1440,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1831,13 +1855,13 @@
       <c r="B3" s="32">
         <v>5</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="85"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="30"/>
       <c r="M3" s="36"/>
       <c r="N3" s="39"/>
@@ -1847,13 +1871,13 @@
       <c r="B4" s="33">
         <v>12</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
       <c r="J4" s="30"/>
       <c r="M4" s="36"/>
     </row>
@@ -1862,13 +1886,13 @@
       <c r="B5" s="31">
         <v>19</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="30"/>
       <c r="M5" s="36"/>
     </row>
@@ -1877,13 +1901,13 @@
       <c r="B6" s="33">
         <v>26</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="30"/>
       <c r="M6" s="36"/>
     </row>
@@ -1892,26 +1916,26 @@
       <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="30"/>
       <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="32"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="30"/>
       <c r="M8" s="38"/>
     </row>
@@ -1968,9 +1992,9 @@
       <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -1981,9 +2005,9 @@
       <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -1994,9 +2018,9 @@
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -2008,9 +2032,9 @@
       <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -2020,9 +2044,9 @@
       <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -2032,9 +2056,9 @@
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -2054,7 +2078,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,7 +2117,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="106" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="50" t="s">
@@ -2105,21 +2129,21 @@
       <c r="D3" s="16">
         <v>6</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="97">
         <f>AVERAGE(C3:C7)</f>
         <v>11.25</v>
       </c>
-      <c r="F3" s="101">
+      <c r="F3" s="100">
         <f t="array" ref="F3">SUMPRODUCT(IF(C3:C12&lt;&gt;"",C3:C12*D3:D12,0))/SUM(IF(C3:C12&lt;&gt;"", D3:D12,0))</f>
-        <v>11.375</v>
-      </c>
-      <c r="G3" s="101">
+        <v>11.888888888888889</v>
+      </c>
+      <c r="G3" s="100">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C32&lt;&gt;"",C3:C32*D3:D32,0))/SUM(IF(C3:C32&lt;&gt;"", D3:D32,0)),2)</f>
-        <v>11.59</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="51" t="s">
         <v>7</v>
       </c>
@@ -2129,12 +2153,12 @@
       <c r="D4" s="17">
         <v>6</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="51" t="s">
         <v>6</v>
       </c>
@@ -2142,12 +2166,12 @@
       <c r="D5" s="17">
         <v>6</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="52" t="s">
         <v>5</v>
       </c>
@@ -2157,13 +2181,13 @@
       <c r="D6" s="17">
         <v>6</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
-      <c r="B7" s="66" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="65" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="59">
@@ -2172,88 +2196,90 @@
       <c r="D7" s="18">
         <v>6</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="107"/>
+      <c r="B8" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="124">
         <v>10</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="125">
         <v>6</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="97">
         <f>AVERAGE(C8:C12)</f>
-        <v>11.5</v>
-      </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
+        <v>12.4</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="126">
         <v>11</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="127">
         <v>6</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="107"/>
+      <c r="B10" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="126">
         <v>13</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="127">
         <v>6</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="17">
+      <c r="C11" s="126">
+        <v>16</v>
+      </c>
+      <c r="D11" s="127">
         <v>6</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="109"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="108"/>
+      <c r="B12" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="128">
         <v>12</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="129">
         <v>6</v>
       </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="102"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="101"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="109" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="50" t="s">
@@ -2265,18 +2291,18 @@
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="98">
+      <c r="E13" s="97">
         <f>AVERAGE(C13:C17)</f>
         <v>11.75</v>
       </c>
-      <c r="F13" s="101">
+      <c r="F13" s="100">
         <f t="array" ref="F13">SUMPRODUCT(IF(C13:C22&lt;&gt;"",C13:C22*D13:D22,0))/SUM(IF(C13:C22&lt;&gt;"", D13:D22,0))</f>
         <v>11.875</v>
       </c>
-      <c r="G13" s="102"/>
+      <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="51" t="s">
         <v>12</v>
       </c>
@@ -2286,12 +2312,12 @@
       <c r="D14" s="17">
         <v>6</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="51" t="s">
         <v>24</v>
       </c>
@@ -2301,15 +2327,15 @@
       <c r="D15" s="17">
         <v>6</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="J15" s="80" t="s">
+      <c r="E15" s="98"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="J15" s="79" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="51" t="s">
         <v>13</v>
       </c>
@@ -2317,45 +2343,45 @@
       <c r="D16" s="17">
         <v>6</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="60">
         <v>11</v>
       </c>
       <c r="D17" s="18">
         <v>6</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="61">
         <v>12</v>
       </c>
       <c r="D18" s="16">
         <v>6</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="97">
         <f>AVERAGE(C18:C22)</f>
         <v>12</v>
       </c>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="54" t="s">
         <v>17</v>
       </c>
@@ -2365,12 +2391,12 @@
       <c r="D19" s="17">
         <v>6</v>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="54" t="s">
         <v>25</v>
       </c>
@@ -2380,12 +2406,12 @@
       <c r="D20" s="17">
         <v>6</v>
       </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="54" t="s">
         <v>16</v>
       </c>
@@ -2393,59 +2419,59 @@
       <c r="D21" s="17">
         <v>6</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="111"/>
+      <c r="B22" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="62">
         <v>12</v>
       </c>
       <c r="D22" s="18">
         <v>6</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="102"/>
-      <c r="J22" s="74" t="s">
+      <c r="E22" s="99"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="101"/>
+      <c r="J22" s="73" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="112" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="64"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="16">
         <v>6</v>
       </c>
-      <c r="E23" s="98">
+      <c r="E23" s="97">
         <f>AVERAGE(C23:C27)</f>
         <v>5.5</v>
       </c>
-      <c r="F23" s="101">
+      <c r="F23" s="100">
         <f t="array" ref="F23">SUMPRODUCT(IF(C23:C32&lt;&gt;"",C23:C32*D23:D32,0))/SUM(IF(C23:C32&lt;&gt;"", D23:D32,0))</f>
         <v>11</v>
       </c>
-      <c r="G23" s="102"/>
-      <c r="J23" s="76" t="s">
+      <c r="G23" s="101"/>
+      <c r="J23" s="75" t="s">
         <v>77</v>
       </c>
       <c r="L23" t="s">
         <v>97</v>
       </c>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="51" t="s">
         <v>31</v>
       </c>
@@ -2453,10 +2479,10 @@
       <c r="D24" s="17">
         <v>6</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="J24" s="76" t="s">
+      <c r="E24" s="98"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="J24" s="75" t="s">
         <v>85</v>
       </c>
       <c r="L24" t="s">
@@ -2464,11 +2490,11 @@
       </c>
       <c r="O24" s="20"/>
       <c r="R24" s="20"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="51" t="s">
         <v>32</v>
       </c>
@@ -2476,10 +2502,10 @@
       <c r="D25" s="17">
         <v>6</v>
       </c>
-      <c r="E25" s="99"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="J25" s="76" t="s">
+      <c r="E25" s="98"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="J25" s="75" t="s">
         <v>78</v>
       </c>
       <c r="L25" t="s">
@@ -2487,11 +2513,11 @@
       </c>
       <c r="O25" s="20"/>
       <c r="R25" s="20"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="51" t="s">
         <v>33</v>
       </c>
@@ -2501,10 +2527,10 @@
       <c r="D26" s="17">
         <v>6</v>
       </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="J26" s="76" t="s">
+      <c r="E26" s="98"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="J26" s="75" t="s">
         <v>80</v>
       </c>
       <c r="K26" t="s">
@@ -2512,23 +2538,23 @@
       </c>
       <c r="O26" s="20"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="114"/>
-      <c r="B27" s="72" t="s">
+      <c r="A27" s="113"/>
+      <c r="B27" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="69">
         <f>SUM(C32)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="J27" s="73" t="s">
+      <c r="D27" s="70"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="J27" s="72" t="s">
         <v>79</v>
       </c>
       <c r="K27" t="s">
@@ -2539,25 +2565,25 @@
       </c>
       <c r="O27" s="20"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="114"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="19">
         <v>6</v>
       </c>
-      <c r="E28" s="98" t="e">
+      <c r="E28" s="97" t="e">
         <f>AVERAGE(C28:C32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="J28" s="75" t="s">
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="J28" s="74" t="s">
         <v>76</v>
       </c>
       <c r="L28" t="s">
@@ -2565,11 +2591,11 @@
       </c>
       <c r="O28" s="20"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="114"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="54" t="s">
         <v>35</v>
       </c>
@@ -2577,16 +2603,16 @@
       <c r="D29" s="17">
         <v>6</v>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
       <c r="O29" s="20"/>
       <c r="R29" s="20"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="54" t="s">
         <v>36</v>
       </c>
@@ -2594,17 +2620,17 @@
       <c r="D30" s="17">
         <v>6</v>
       </c>
-      <c r="E30" s="99"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="J30" s="74" t="s">
+      <c r="E30" s="98"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="J30" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="54" t="s">
         <v>37</v>
       </c>
@@ -2612,10 +2638,10 @@
       <c r="D31" s="17">
         <v>6</v>
       </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="J31" s="76" t="s">
+      <c r="E31" s="98"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="J31" s="75" t="s">
         <v>81</v>
       </c>
       <c r="K31" t="s">
@@ -2624,39 +2650,39 @@
       <c r="L31" t="s">
         <v>95</v>
       </c>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="83"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
+      <c r="A32" s="114"/>
       <c r="B32" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="68">
+      <c r="C32" s="68"/>
+      <c r="D32" s="67">
         <v>12</v>
       </c>
-      <c r="E32" s="100"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="J32" s="77" t="s">
+      <c r="E32" s="99"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="J32" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J33" s="78" t="s">
+      <c r="J33" s="77" t="s">
         <v>82</v>
       </c>
       <c r="K33" t="s">
         <v>88</v>
       </c>
       <c r="S33" s="20"/>
-      <c r="T33" s="84"/>
+      <c r="T33" s="83"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J34" s="79" t="s">
+      <c r="J34" s="78" t="s">
         <v>86</v>
       </c>
       <c r="K34" t="s">
@@ -2664,7 +2690,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J35" s="76" t="s">
+      <c r="J35" s="75" t="s">
         <v>96</v>
       </c>
       <c r="K35" t="s">
@@ -2675,16 +2701,16 @@
       <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="75" t="s">
+      <c r="J36" s="74" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="104" t="s">
+      <c r="A37" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="106"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
       <c r="D37">
         <v>12</v>
       </c>
@@ -2731,18 +2757,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="E2" s="116" t="s">
+      <c r="C2" s="116"/>
+      <c r="E2" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="H2" s="116" t="s">
+      <c r="F2" s="116"/>
+      <c r="H2" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="117"/>
+      <c r="I2" s="116"/>
       <c r="K2" s="46" t="s">
         <v>33</v>
       </c>
@@ -3098,22 +3124,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="E2" s="120" t="s">
+      <c r="C2" s="120"/>
+      <c r="E2" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="121"/>
-      <c r="H2" s="120" t="s">
+      <c r="F2" s="120"/>
+      <c r="H2" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="K2" s="118" t="s">
+      <c r="I2" s="120"/>
+      <c r="K2" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="119"/>
+      <c r="L2" s="118"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -3476,26 +3502,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="E2" s="118" t="s">
+      <c r="C2" s="118"/>
+      <c r="E2" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="H2" s="118" t="s">
+      <c r="F2" s="118"/>
+      <c r="H2" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="K2" s="116" t="s">
+      <c r="I2" s="118"/>
+      <c r="K2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="N2" s="118" t="s">
+      <c r="L2" s="116"/>
+      <c r="N2" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="119"/>
+      <c r="O2" s="118"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -3933,26 +3959,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="E2" s="118" t="s">
+      <c r="C2" s="118"/>
+      <c r="E2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="I2" s="118" t="s">
+      <c r="F2" s="118"/>
+      <c r="I2" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="L2" s="120" t="s">
+      <c r="J2" s="118"/>
+      <c r="L2" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="121"/>
-      <c r="O2" s="118" t="s">
+      <c r="M2" s="120"/>
+      <c r="O2" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="119"/>
+      <c r="P2" s="118"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -4308,26 +4334,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="E2" s="118" t="s">
+      <c r="C2" s="118"/>
+      <c r="E2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="H2" s="118" t="s">
+      <c r="F2" s="118"/>
+      <c r="H2" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="K2" s="118" t="s">
+      <c r="I2" s="118"/>
+      <c r="K2" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="N2" s="118" t="s">
+      <c r="L2" s="118"/>
+      <c r="N2" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="119"/>
+      <c r="O2" s="118"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -4663,26 +4689,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="E2" s="118" t="s">
+      <c r="C2" s="118"/>
+      <c r="E2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="H2" s="118" t="s">
+      <c r="F2" s="118"/>
+      <c r="H2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="K2" s="120" t="s">
+      <c r="I2" s="118"/>
+      <c r="K2" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="N2" s="118" t="s">
+      <c r="L2" s="120"/>
+      <c r="N2" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="119"/>
+      <c r="O2" s="118"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA9FCF7-22EA-4C2A-B8EB-7424E34C0F59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0013AB5D-5B57-4743-A76C-E1F51CA08300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="797" activeTab="1" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="797" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudar" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
   <si>
     <t>Cadeira</t>
   </si>
@@ -160,30 +160,6 @@
     <t>Algoritmos e estruturas de dados</t>
   </si>
   <si>
-    <t>Semana de</t>
-  </si>
-  <si>
-    <t>segunda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">terça </t>
-  </si>
-  <si>
-    <t>quarta</t>
-  </si>
-  <si>
-    <t>quinta</t>
-  </si>
-  <si>
-    <t>sexta</t>
-  </si>
-  <si>
-    <t>sabado</t>
-  </si>
-  <si>
-    <t>domingo</t>
-  </si>
-  <si>
     <t>labi tem 8 ects</t>
   </si>
   <si>
@@ -332,6 +308,39 @@
   </si>
   <si>
     <t>2 projetos 2 testes</t>
+  </si>
+  <si>
+    <t>Segunda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terça </t>
+  </si>
+  <si>
+    <t>Quarta</t>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>Sexta</t>
+  </si>
+  <si>
+    <t>Sabado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Segurança</t>
+  </si>
+  <si>
+    <t>piscina</t>
+  </si>
+  <si>
+    <t>cisclismo</t>
+  </si>
+  <si>
+    <t>ler</t>
   </si>
 </sst>
 </file>
@@ -341,7 +350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,12 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -396,6 +399,19 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -481,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1026,26 +1042,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1100,7 +1096,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1186,41 +1182,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1309,67 +1296,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1468,6 +1407,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1792,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,222 +1801,211 @@
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>48</v>
+      <c r="B2" s="30"/>
+      <c r="C2" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="111" t="s">
+        <v>97</v>
       </c>
       <c r="J2" s="30"/>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
-      <c r="B3" s="32">
-        <v>5</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
       <c r="J3" s="30"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="39"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="33"/>
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="33">
-        <v>12</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="119"/>
       <c r="J4" s="30"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="31">
-        <v>19</v>
-      </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="117"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
       <c r="J5" s="30"/>
-      <c r="M5" s="36"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="33">
-        <v>26</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="121"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="30"/>
-      <c r="M6" s="36"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
-      <c r="B7" s="31">
-        <v>3</v>
-      </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
       <c r="J7" s="30"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="119"/>
       <c r="J8" s="30"/>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
       <c r="J9" s="30"/>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
       <c r="J10" s="30"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
       <c r="J11" s="30"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="119"/>
       <c r="J12" s="30"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="30"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="30"/>
-      <c r="M14" s="37"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="30"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -2044,27 +2014,13 @@
       <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
       <c r="J18" s="30"/>
     </row>
   </sheetData>
@@ -2077,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F271A766-224E-4EF8-A6BB-32A3CEEA2D41}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2103,7 +2059,7 @@
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2117,600 +2073,600 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="54">
         <v>10</v>
       </c>
       <c r="D3" s="16">
         <v>6</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="78">
         <f>AVERAGE(C3:C7)</f>
         <v>11.25</v>
       </c>
-      <c r="F3" s="100">
+      <c r="F3" s="81">
         <f t="array" ref="F3">SUMPRODUCT(IF(C3:C12&lt;&gt;"",C3:C12*D3:D12,0))/SUM(IF(C3:C12&lt;&gt;"", D3:D12,0))</f>
         <v>11.888888888888889</v>
       </c>
-      <c r="G3" s="100">
+      <c r="G3" s="81">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C32&lt;&gt;"",C3:C32*D3:D32,0))/SUM(IF(C3:C32&lt;&gt;"", D3:D32,0)),2)</f>
         <v>11.83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="45">
         <v>12</v>
       </c>
       <c r="D4" s="17">
         <v>6</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="17">
         <v>6</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="39">
         <v>10</v>
       </c>
       <c r="D6" s="17">
         <v>6</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="59">
+      <c r="A7" s="88"/>
+      <c r="B7" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="56">
         <v>13</v>
       </c>
       <c r="D7" s="18">
         <v>6</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="121" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="124">
+      <c r="C8" s="105">
         <v>10</v>
       </c>
-      <c r="D8" s="125">
+      <c r="D8" s="106">
         <v>6</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="78">
         <f>AVERAGE(C8:C12)</f>
         <v>12.4</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
-      <c r="B9" s="122" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="126">
+      <c r="C9" s="107">
         <v>11</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="108">
         <v>6</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="122" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="107">
         <v>13</v>
       </c>
-      <c r="D10" s="127">
+      <c r="D10" s="108">
         <v>6</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="122" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="126">
+      <c r="C11" s="107">
         <v>16</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="108">
         <v>6</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="123" t="s">
+      <c r="A12" s="89"/>
+      <c r="B12" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="128">
+      <c r="C12" s="109">
         <v>12</v>
       </c>
-      <c r="D12" s="129">
+      <c r="D12" s="110">
         <v>6</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="101"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="54">
         <v>10</v>
       </c>
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="78">
         <f>AVERAGE(C13:C17)</f>
         <v>11.75</v>
       </c>
-      <c r="F13" s="100">
+      <c r="F13" s="81">
         <f t="array" ref="F13">SUMPRODUCT(IF(C13:C22&lt;&gt;"",C13:C22*D13:D22,0))/SUM(IF(C13:C22&lt;&gt;"", D13:D22,0))</f>
         <v>11.875</v>
       </c>
-      <c r="G13" s="101"/>
+      <c r="G13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="91"/>
+      <c r="B14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="45">
         <v>13</v>
       </c>
       <c r="D14" s="17">
         <v>6</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="91"/>
+      <c r="B15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="45">
         <v>13</v>
       </c>
       <c r="D15" s="17">
         <v>6</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="J15" s="79" t="s">
-        <v>75</v>
+      <c r="E15" s="79"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="J15" s="76" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="17">
         <v>6</v>
       </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="57">
         <v>11</v>
       </c>
       <c r="D17" s="18">
         <v>6</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="91"/>
+      <c r="B18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="58">
         <v>12</v>
       </c>
       <c r="D18" s="16">
         <v>6</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="78">
         <f>AVERAGE(C18:C22)</f>
         <v>12</v>
       </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="45">
         <v>12</v>
       </c>
       <c r="D19" s="17">
         <v>6</v>
       </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="45">
         <v>12</v>
       </c>
       <c r="D20" s="17">
         <v>6</v>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="111"/>
-      <c r="B22" s="66" t="s">
+      <c r="A22" s="92"/>
+      <c r="B22" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="59">
         <v>12</v>
       </c>
       <c r="D22" s="18">
         <v>6</v>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="101"/>
-      <c r="J22" s="73" t="s">
-        <v>83</v>
+      <c r="E22" s="80"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="82"/>
+      <c r="J22" s="70" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="16">
         <v>6</v>
       </c>
-      <c r="E23" s="97">
+      <c r="E23" s="78">
         <f>AVERAGE(C23:C27)</f>
         <v>5.5</v>
       </c>
-      <c r="F23" s="100">
+      <c r="F23" s="81">
         <f t="array" ref="F23">SUMPRODUCT(IF(C23:C32&lt;&gt;"",C23:C32*D23:D32,0))/SUM(IF(C23:C32&lt;&gt;"", D23:D32,0))</f>
         <v>11</v>
       </c>
-      <c r="G23" s="101"/>
-      <c r="J23" s="75" t="s">
-        <v>77</v>
+      <c r="G23" s="82"/>
+      <c r="J23" s="72" t="s">
+        <v>69</v>
       </c>
       <c r="L23" t="s">
-        <v>97</v>
-      </c>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
+        <v>89</v>
+      </c>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="113"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="94"/>
+      <c r="B24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="58"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="17">
         <v>6</v>
       </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="J24" s="75" t="s">
-        <v>85</v>
+      <c r="E24" s="79"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="J24" s="72" t="s">
+        <v>77</v>
       </c>
       <c r="L24" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O24" s="20"/>
       <c r="R24" s="20"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="113"/>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="94"/>
+      <c r="B25" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="58"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="17">
         <v>6</v>
       </c>
-      <c r="E25" s="98"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="J25" s="75" t="s">
-        <v>78</v>
+      <c r="E25" s="79"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="J25" s="72" t="s">
+        <v>70</v>
       </c>
       <c r="L25" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O25" s="20"/>
       <c r="R25" s="20"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="113"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="94"/>
+      <c r="B26" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="45">
         <v>11</v>
       </c>
       <c r="D26" s="17">
         <v>6</v>
       </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="J26" s="75" t="s">
-        <v>80</v>
+      <c r="E26" s="79"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="J26" s="72" t="s">
+        <v>72</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="O26" s="20"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="113"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="94"/>
+      <c r="B27" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="66">
         <f>SUM(C32)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="J27" s="72" t="s">
-        <v>79</v>
+      <c r="D27" s="67"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="J27" s="69" t="s">
+        <v>71</v>
       </c>
       <c r="K27" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O27" s="20"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="113"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="94"/>
+      <c r="B28" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="64"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="19">
         <v>6</v>
       </c>
-      <c r="E28" s="97" t="e">
+      <c r="E28" s="78" t="e">
         <f>AVERAGE(C28:C32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="J28" s="74" t="s">
-        <v>76</v>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="J28" s="71" t="s">
+        <v>68</v>
       </c>
       <c r="L28" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O28" s="20"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="113"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="94"/>
+      <c r="B29" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="17">
         <v>6</v>
       </c>
-      <c r="E29" s="98"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
       <c r="O29" s="20"/>
       <c r="R29" s="20"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="113"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="94"/>
+      <c r="B30" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="17">
         <v>6</v>
       </c>
-      <c r="E30" s="98"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="J30" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="J30" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="94"/>
+      <c r="B31" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="17">
         <v>6</v>
       </c>
-      <c r="E31" s="98"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="J31" s="75" t="s">
-        <v>81</v>
+      <c r="E31" s="79"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="J31" s="72" t="s">
+        <v>73</v>
       </c>
       <c r="K31" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L31" t="s">
-        <v>95</v>
-      </c>
-      <c r="S31" s="83"/>
-      <c r="T31" s="83"/>
+        <v>87</v>
+      </c>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="114"/>
-      <c r="B32" s="55" t="s">
+      <c r="A32" s="95"/>
+      <c r="B32" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="67">
+      <c r="C32" s="65"/>
+      <c r="D32" s="64">
         <v>12</v>
       </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="J32" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="S32" s="83"/>
-      <c r="T32" s="83"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="J32" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J33" s="77" t="s">
-        <v>82</v>
+      <c r="J33" s="74" t="s">
+        <v>74</v>
       </c>
       <c r="K33" t="s">
+        <v>80</v>
+      </c>
+      <c r="S33" s="20"/>
+      <c r="T33" s="77"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J34" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J35" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="S33" s="20"/>
-      <c r="T33" s="83"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J34" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="K34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J35" s="75" t="s">
-        <v>96</v>
-      </c>
       <c r="K35" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="74" t="s">
-        <v>76</v>
+      <c r="J36" s="71" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
+      <c r="A37" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
       <c r="D37">
         <v>12</v>
       </c>
@@ -2757,22 +2713,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="E2" s="115" t="s">
+      <c r="B2" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="E2" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="H2" s="115" t="s">
+      <c r="F2" s="97"/>
+      <c r="H2" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="K2" s="46" t="s">
+      <c r="I2" s="97"/>
+      <c r="K2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="47"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -2900,7 +2856,7 @@
       <c r="K7" s="21">
         <v>8</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="32">
         <f>45%</f>
         <v>0.45</v>
       </c>
@@ -3124,22 +3080,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="E2" s="119" t="s">
+      <c r="C2" s="101"/>
+      <c r="E2" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="H2" s="119" t="s">
+      <c r="F2" s="101"/>
+      <c r="H2" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="120"/>
-      <c r="K2" s="117" t="s">
+      <c r="I2" s="101"/>
+      <c r="K2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="118"/>
+      <c r="L2" s="99"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -3267,7 +3223,7 @@
       <c r="K7" s="21">
         <v>8</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="32">
         <f>45%</f>
         <v>0.45</v>
       </c>
@@ -3502,26 +3458,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="99"/>
+      <c r="E2" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="H2" s="117" t="s">
+      <c r="F2" s="99"/>
+      <c r="H2" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="K2" s="115" t="s">
+      <c r="I2" s="99"/>
+      <c r="K2" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="N2" s="117" t="s">
+      <c r="L2" s="97"/>
+      <c r="N2" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="118"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -3531,7 +3487,7 @@
         <v>0.15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3">
         <v>11</v>
@@ -3539,8 +3495,8 @@
       <c r="F3" s="6">
         <v>0.33</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>70</v>
+      <c r="G3" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="H3" s="3">
         <v>14.8</v>
@@ -3549,7 +3505,7 @@
         <v>0.25</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="6">
@@ -3563,19 +3519,19 @@
         <v>0.16</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="34">
+      <c r="A4" s="38"/>
+      <c r="B4" s="31">
         <v>9.3000000000000007</v>
       </c>
       <c r="C4" s="6">
         <v>0.25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3">
         <v>15</v>
@@ -3584,8 +3540,8 @@
         <f>33%</f>
         <v>0.33</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>71</v>
+      <c r="G4" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="H4" s="3">
         <v>14</v>
@@ -3594,7 +3550,7 @@
         <v>0.25</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="6">
@@ -3608,18 +3564,18 @@
         <v>0.24</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
+      <c r="B5" s="31">
         <v>14</v>
       </c>
       <c r="C5" s="6">
         <v>0.2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3">
         <v>10</v>
@@ -3628,8 +3584,8 @@
         <f>33%</f>
         <v>0.33</v>
       </c>
-      <c r="G5" s="43" t="s">
-        <v>72</v>
+      <c r="G5" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="H5" s="3">
         <v>8.9</v>
@@ -3638,7 +3594,7 @@
         <v>0.5</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="6">
@@ -3652,18 +3608,18 @@
         <v>0.6</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
+      <c r="B6" s="31">
         <v>17</v>
       </c>
       <c r="C6" s="6">
         <v>0.4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
@@ -3774,10 +3730,10 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -3790,7 +3746,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -3811,7 +3767,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -3837,7 +3793,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -3868,7 +3824,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="40">
+      <c r="E15" s="37">
         <v>45026</v>
       </c>
       <c r="F15" s="5"/>
@@ -3959,26 +3915,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="99"/>
+      <c r="E2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="I2" s="117" t="s">
+      <c r="F2" s="99"/>
+      <c r="I2" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="118"/>
-      <c r="L2" s="119" t="s">
+      <c r="J2" s="99"/>
+      <c r="L2" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="120"/>
-      <c r="O2" s="117" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="118"/>
+      <c r="M2" s="101"/>
+      <c r="O2" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="99"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -3995,8 +3951,8 @@
       <c r="F3" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G3" s="45" t="s">
-        <v>67</v>
+      <c r="G3" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="I3" s="3">
         <v>10</v>
@@ -4033,8 +3989,8 @@
       <c r="F4" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G4" s="45" t="s">
-        <v>68</v>
+      <c r="G4" s="42" t="s">
+        <v>60</v>
       </c>
       <c r="I4" s="3">
         <v>10</v>
@@ -4071,8 +4027,8 @@
       <c r="F5" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G5" s="45" t="s">
-        <v>69</v>
+      <c r="G5" s="42" t="s">
+        <v>61</v>
       </c>
       <c r="I5" s="3">
         <v>10</v>
@@ -4102,7 +4058,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="44"/>
+      <c r="G6" s="41"/>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -4334,26 +4290,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="99"/>
+      <c r="E2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="H2" s="117" t="s">
+      <c r="F2" s="99"/>
+      <c r="H2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="K2" s="117" t="s">
+      <c r="I2" s="99"/>
+      <c r="K2" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="118"/>
-      <c r="N2" s="117" t="s">
+      <c r="L2" s="99"/>
+      <c r="N2" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="118"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -4383,7 +4339,7 @@
         <v>0.05</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N3" s="3">
         <v>10</v>
@@ -4420,7 +4376,7 @@
         <v>0.2</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N4" s="3">
         <v>10</v>
@@ -4457,7 +4413,7 @@
         <v>0.2</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N5" s="3">
         <v>10</v>
@@ -4494,7 +4450,7 @@
         <v>0.15</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N6" s="3">
         <v>10</v>
@@ -4529,7 +4485,7 @@
         <v>0.4</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N7" s="3">
         <v>10</v>
@@ -4653,7 +4609,7 @@
         <v>12.4</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4689,26 +4645,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="99"/>
+      <c r="E2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="H2" s="117" t="s">
+      <c r="F2" s="99"/>
+      <c r="H2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="K2" s="119" t="s">
+      <c r="I2" s="99"/>
+      <c r="K2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="120"/>
-      <c r="N2" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="118"/>
+      <c r="L2" s="101"/>
+      <c r="N2" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Universidade\University_Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0013AB5D-5B57-4743-A76C-E1F51CA08300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD9A244-2618-4052-B33B-E84AE7070A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="797" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudar" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="topo" localSheetId="1">Tudo!$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="138">
   <si>
     <t>Cadeira</t>
   </si>
@@ -331,16 +331,124 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>Segurança</t>
-  </si>
-  <si>
-    <t>piscina</t>
-  </si>
-  <si>
-    <t>cisclismo</t>
-  </si>
-  <si>
-    <t>ler</t>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>SIO-P</t>
+  </si>
+  <si>
+    <t>MPEI-TP</t>
+  </si>
+  <si>
+    <t>AC1-P</t>
+  </si>
+  <si>
+    <t>SIO-TP</t>
+  </si>
+  <si>
+    <t>MPEI-P3</t>
+  </si>
+  <si>
+    <t>SO-T</t>
+  </si>
+  <si>
+    <t>SO-P</t>
+  </si>
+  <si>
+    <t>14:30 SO-T</t>
+  </si>
+  <si>
+    <t>ISD-P</t>
+  </si>
+  <si>
+    <t>PECI-TP</t>
+  </si>
+  <si>
+    <t>trabalhar</t>
+  </si>
+  <si>
+    <t>2ª</t>
+  </si>
+  <si>
+    <t>4ª</t>
+  </si>
+  <si>
+    <t>5ª</t>
+  </si>
+  <si>
+    <t>6ª</t>
+  </si>
+  <si>
+    <t>Bloco de 2h</t>
+  </si>
+  <si>
+    <t>SIO</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>PECI</t>
+  </si>
+  <si>
+    <t>9h -&gt;</t>
+  </si>
+  <si>
+    <t>10h -&gt;</t>
+  </si>
+  <si>
+    <t>11h -&gt;</t>
+  </si>
+  <si>
+    <t>12h -&gt;</t>
+  </si>
+  <si>
+    <t>13h -&gt;</t>
+  </si>
+  <si>
+    <t>14h -&gt;</t>
+  </si>
+  <si>
+    <t>15h -&gt;</t>
+  </si>
+  <si>
+    <t>16h -&gt;</t>
+  </si>
+  <si>
+    <t>17h-&gt;</t>
+  </si>
+  <si>
+    <t>18h-&gt;</t>
+  </si>
+  <si>
+    <t>19h -&gt;</t>
+  </si>
+  <si>
+    <t>20h -&gt;</t>
+  </si>
+  <si>
+    <t>mpei</t>
+  </si>
+  <si>
+    <t>apresentaçao de peci</t>
+  </si>
+  <si>
+    <t>fazer apresentação</t>
+  </si>
+  <si>
+    <t>aula3 2)</t>
+  </si>
+  <si>
+    <t>2.1.5 - 2.1.7- 2.1.6</t>
+  </si>
+  <si>
+    <t>ficha2:</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>so</t>
   </si>
 </sst>
 </file>
@@ -348,9 +456,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +524,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,8 +672,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1079,6 +1285,30 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1088,15 +1318,35 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1179,23 +1429,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1309,6 +1548,255 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1381,73 +1869,23 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1771,259 +2209,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="5"/>
+    <col min="11" max="11" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="111" t="s">
+    <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83">
+        <v>2</v>
+      </c>
+      <c r="D1" s="83">
+        <v>3</v>
+      </c>
+      <c r="E1" s="83">
+        <v>4</v>
+      </c>
+      <c r="F1" s="83">
+        <v>28</v>
+      </c>
+      <c r="G1" s="83">
+        <v>29</v>
+      </c>
+      <c r="H1" s="83">
+        <v>30</v>
+      </c>
+      <c r="I1" s="83">
+        <v>1</v>
+      </c>
+      <c r="J1" s="83"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="30"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="36"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112" t="s">
+      <c r="J2" s="83"/>
+      <c r="M2" s="83"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="83"/>
+      <c r="B3" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="149" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="144" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="151" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="83"/>
+      <c r="N3" s="82"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="83"/>
+      <c r="B4" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="150"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="142" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="143"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="83"/>
+      <c r="B5" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="30"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="30"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="30"/>
-      <c r="M6" s="33"/>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
+      <c r="D5" s="144" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="83"/>
+      <c r="K5" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="120"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="83"/>
+      <c r="B6" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="121" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="83"/>
+      <c r="B7" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="116"/>
       <c r="E7" s="112"/>
       <c r="F7" s="117"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="30"/>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="96"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="83"/>
+      <c r="B8" s="97" t="s">
+        <v>123</v>
+      </c>
       <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="30"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="30"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="30"/>
-      <c r="M10" s="34"/>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="30"/>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="30"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="30"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="30"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="J18" s="30"/>
+      <c r="D8" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="83"/>
+      <c r="K8" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="121" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="96"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="83"/>
+      <c r="B9" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="145"/>
+      <c r="E9" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="145"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="96"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="83"/>
+      <c r="B10" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="181"/>
+      <c r="D10" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="102"/>
+      <c r="K10" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="121" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="96"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="83"/>
+      <c r="B11" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="182"/>
+      <c r="D11" s="144" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="182"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="121" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="96"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="83"/>
+      <c r="B12" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="183"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="96"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="96"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="121" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="96"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="96"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="125" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="128" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="127"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="126"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="B18" s="135"/>
+      <c r="C18" s="180" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="135"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="121" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="127"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="K19" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="123" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="135"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="118"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="136"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="136"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+    </row>
+    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="119"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2033,33 +2753,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F271A766-224E-4EF8-A6BB-32A3CEEA2D41}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="52.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="52.88671875" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" customWidth="1"/>
-    <col min="16" max="16" width="38.7109375" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" customWidth="1"/>
+    <col min="16" max="16" width="38.6640625" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" customWidth="1"/>
+    <col min="19" max="19" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2072,373 +2792,373 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="49">
         <v>10</v>
       </c>
       <c r="D3" s="16">
         <v>6</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="156">
         <f>AVERAGE(C3:C7)</f>
         <v>11.25</v>
       </c>
-      <c r="F3" s="81">
+      <c r="F3" s="159">
         <f t="array" ref="F3">SUMPRODUCT(IF(C3:C12&lt;&gt;"",C3:C12*D3:D12,0))/SUM(IF(C3:C12&lt;&gt;"", D3:D12,0))</f>
         <v>11.888888888888889</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="159">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C32&lt;&gt;"",C3:C32*D3:D32,0))/SUM(IF(C3:C32&lt;&gt;"", D3:D32,0)),2)</f>
         <v>11.83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="48" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="166"/>
+      <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="40">
         <v>12</v>
       </c>
       <c r="D4" s="17">
         <v>6</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="48" t="s">
+      <c r="E4" s="157"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="166"/>
+      <c r="B5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="17">
         <v>6</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="49" t="s">
+      <c r="E5" s="157"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="166"/>
+      <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="34">
         <v>10</v>
       </c>
       <c r="D6" s="17">
         <v>6</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="62" t="s">
+      <c r="E6" s="157"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="166"/>
+      <c r="B7" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="51">
         <v>13</v>
       </c>
       <c r="D7" s="18">
         <v>6</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="102" t="s">
+      <c r="E7" s="158"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="166"/>
+      <c r="B8" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="76">
         <v>10</v>
       </c>
-      <c r="D8" s="106">
+      <c r="D8" s="77">
         <v>6</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="156">
         <f>AVERAGE(C8:C12)</f>
         <v>12.4</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="103" t="s">
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="166"/>
+      <c r="B9" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="107">
+      <c r="C9" s="78">
         <v>11</v>
       </c>
-      <c r="D9" s="108">
+      <c r="D9" s="79">
         <v>6</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="103" t="s">
+      <c r="E9" s="157"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="166"/>
+      <c r="B10" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="78">
         <v>13</v>
       </c>
-      <c r="D10" s="108">
+      <c r="D10" s="79">
         <v>6</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="103" t="s">
+      <c r="E10" s="157"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="166"/>
+      <c r="B11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="78">
         <v>16</v>
       </c>
-      <c r="D11" s="108">
+      <c r="D11" s="79">
         <v>6</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="104" t="s">
+      <c r="E11" s="157"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="167"/>
+      <c r="B12" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="109">
+      <c r="C12" s="80">
         <v>12</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D12" s="81">
         <v>6</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="82"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="90" t="s">
+      <c r="E12" s="158"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="160"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="49">
         <v>10</v>
       </c>
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="156">
         <f>AVERAGE(C13:C17)</f>
         <v>11.75</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="159">
         <f t="array" ref="F13">SUMPRODUCT(IF(C13:C22&lt;&gt;"",C13:C22*D13:D22,0))/SUM(IF(C13:C22&lt;&gt;"", D13:D22,0))</f>
         <v>11.875</v>
       </c>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
-      <c r="B14" s="48" t="s">
+      <c r="G13" s="160"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="169"/>
+      <c r="B14" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="40">
         <v>13</v>
       </c>
       <c r="D14" s="17">
         <v>6</v>
       </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
-      <c r="B15" s="48" t="s">
+      <c r="E14" s="157"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="169"/>
+      <c r="B15" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="40">
         <v>13</v>
       </c>
       <c r="D15" s="17">
         <v>6</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="J15" s="76" t="s">
+      <c r="E15" s="157"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="J15" s="71" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="48" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="169"/>
+      <c r="B16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="17">
         <v>6</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
-      <c r="B17" s="49" t="s">
+      <c r="E16" s="157"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="169"/>
+      <c r="B17" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="52">
         <v>11</v>
       </c>
       <c r="D17" s="18">
         <v>6</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="50" t="s">
+      <c r="E17" s="158"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="169"/>
+      <c r="B18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="53">
         <v>12</v>
       </c>
       <c r="D18" s="16">
         <v>6</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="156">
         <f>AVERAGE(C18:C22)</f>
         <v>12</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="51" t="s">
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="169"/>
+      <c r="B19" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="40">
         <v>12</v>
       </c>
       <c r="D19" s="17">
         <v>6</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="51" t="s">
+      <c r="E19" s="157"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="169"/>
+      <c r="B20" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="40">
         <v>12</v>
       </c>
       <c r="D20" s="17">
         <v>6</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="91"/>
-      <c r="B21" s="51" t="s">
+      <c r="E20" s="157"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="169"/>
+      <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="17">
         <v>6</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92"/>
-      <c r="B22" s="63" t="s">
+      <c r="E21" s="157"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="170"/>
+      <c r="B22" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="54">
         <v>12</v>
       </c>
       <c r="D22" s="18">
         <v>6</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="82"/>
-      <c r="J22" s="70" t="s">
+      <c r="E22" s="158"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="160"/>
+      <c r="J22" s="65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="93" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="16">
         <v>6</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="156">
         <f>AVERAGE(C23:C27)</f>
         <v>5.5</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="159">
         <f t="array" ref="F23">SUMPRODUCT(IF(C23:C32&lt;&gt;"",C23:C32*D23:D32,0))/SUM(IF(C23:C32&lt;&gt;"", D23:D32,0))</f>
         <v>11</v>
       </c>
-      <c r="G23" s="82"/>
-      <c r="J23" s="72" t="s">
+      <c r="G23" s="160"/>
+      <c r="J23" s="67" t="s">
         <v>69</v>
       </c>
       <c r="L23" t="s">
         <v>89</v>
       </c>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="48" t="s">
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="172"/>
+      <c r="B24" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="55"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="17">
         <v>6</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="J24" s="72" t="s">
+      <c r="E24" s="157"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="J24" s="67" t="s">
         <v>77</v>
       </c>
       <c r="L24" t="s">
@@ -2446,22 +3166,22 @@
       </c>
       <c r="O24" s="20"/>
       <c r="R24" s="20"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="48" t="s">
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="172"/>
+      <c r="B25" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="17">
         <v>6</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="J25" s="72" t="s">
+      <c r="E25" s="157"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="J25" s="67" t="s">
         <v>70</v>
       </c>
       <c r="L25" t="s">
@@ -2469,24 +3189,24 @@
       </c>
       <c r="O25" s="20"/>
       <c r="R25" s="20"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="48" t="s">
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="172"/>
+      <c r="B26" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="40">
         <v>11</v>
       </c>
       <c r="D26" s="17">
         <v>6</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="J26" s="72" t="s">
+      <c r="E26" s="157"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="J26" s="67" t="s">
         <v>72</v>
       </c>
       <c r="K26" t="s">
@@ -2494,23 +3214,23 @@
       </c>
       <c r="O26" s="20"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="94"/>
-      <c r="B27" s="68" t="s">
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="172"/>
+      <c r="B27" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="61">
         <f>SUM(C32)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="J27" s="69" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="J27" s="64" t="s">
         <v>71</v>
       </c>
       <c r="K27" t="s">
@@ -2521,25 +3241,25 @@
       </c>
       <c r="O27" s="20"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="94"/>
-      <c r="B28" s="53" t="s">
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+    </row>
+    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="172"/>
+      <c r="B28" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="19">
         <v>6</v>
       </c>
-      <c r="E28" s="78" t="e">
+      <c r="E28" s="156" t="e">
         <f>AVERAGE(C28:C32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="J28" s="71" t="s">
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="J28" s="66" t="s">
         <v>68</v>
       </c>
       <c r="L28" t="s">
@@ -2547,57 +3267,57 @@
       </c>
       <c r="O28" s="20"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="94"/>
-      <c r="B29" s="51" t="s">
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+    </row>
+    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="172"/>
+      <c r="B29" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="55"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="17">
         <v>6</v>
       </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
       <c r="O29" s="20"/>
       <c r="R29" s="20"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="51" t="s">
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="172"/>
+      <c r="B30" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="17">
         <v>6</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="J30" s="70" t="s">
+      <c r="E30" s="157"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="J30" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="51" t="s">
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="172"/>
+      <c r="B31" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="55"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="17">
         <v>6</v>
       </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="J31" s="72" t="s">
+      <c r="E31" s="157"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="J31" s="67" t="s">
         <v>73</v>
       </c>
       <c r="K31" t="s">
@@ -2606,67 +3326,67 @@
       <c r="L31" t="s">
         <v>87</v>
       </c>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95"/>
-      <c r="B32" s="52" t="s">
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="173"/>
+      <c r="B32" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="64">
+      <c r="C32" s="60"/>
+      <c r="D32" s="59">
         <v>12</v>
       </c>
-      <c r="E32" s="80"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="J32" s="73" t="s">
+      <c r="E32" s="158"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="J32" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J33" s="74" t="s">
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J33" s="69" t="s">
         <v>74</v>
       </c>
       <c r="K33" t="s">
         <v>80</v>
       </c>
       <c r="S33" s="20"/>
-      <c r="T33" s="77"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J34" s="75" t="s">
+      <c r="T33" s="72"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J34" s="70" t="s">
         <v>78</v>
       </c>
       <c r="K34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J35" s="72" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J35" s="67" t="s">
         <v>88</v>
       </c>
       <c r="K35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="71" t="s">
+      <c r="J36" s="66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="84" t="s">
+    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="86"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="164"/>
       <c r="D37">
         <v>12</v>
       </c>
@@ -2701,36 +3421,36 @@
       <selection activeCell="H2" activeCellId="2" sqref="B2:C2 E2:F2 H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="E2" s="96" t="s">
+      <c r="C2" s="175"/>
+      <c r="E2" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="H2" s="96" t="s">
+      <c r="F2" s="175"/>
+      <c r="H2" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="K2" s="43" t="s">
+      <c r="I2" s="175"/>
+      <c r="K2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="44"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22">
@@ -2758,7 +3478,7 @@
       <c r="M3" s="20"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="25">
@@ -2786,7 +3506,7 @@
       <c r="M4" s="20"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="25">
@@ -2814,7 +3534,7 @@
       <c r="M5" s="20"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="25"/>
@@ -2840,7 +3560,7 @@
       <c r="M6" s="20"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2856,14 +3576,14 @@
       <c r="K7" s="21">
         <v>8</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="31">
         <f>45%</f>
         <v>0.45</v>
       </c>
       <c r="M7" s="20"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -2881,7 +3601,7 @@
       <c r="M8" s="20"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -2896,7 +3616,7 @@
       <c r="L9" s="21"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
@@ -2925,7 +3645,7 @@
       </c>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20">
@@ -2952,7 +3672,7 @@
       </c>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -2967,7 +3687,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
@@ -2987,7 +3707,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20">
         <f>SUM(C11,I11,L11,F11)/4</f>
@@ -3005,7 +3725,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -3020,7 +3740,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -3035,7 +3755,7 @@
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3068,36 +3788,36 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="E2" s="100" t="s">
+      <c r="C2" s="179"/>
+      <c r="E2" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="101"/>
-      <c r="H2" s="100" t="s">
+      <c r="F2" s="179"/>
+      <c r="H2" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="K2" s="98" t="s">
+      <c r="I2" s="179"/>
+      <c r="K2" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="99"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L2" s="177"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22">
@@ -3125,7 +3845,7 @@
       <c r="M3" s="20"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="25">
@@ -3153,7 +3873,7 @@
       <c r="M4" s="20"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="25">
@@ -3181,7 +3901,7 @@
       <c r="M5" s="20"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="25"/>
@@ -3207,7 +3927,7 @@
       <c r="M6" s="20"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3223,14 +3943,14 @@
       <c r="K7" s="21">
         <v>8</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="31">
         <f>45%</f>
         <v>0.45</v>
       </c>
       <c r="M7" s="20"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -3248,7 +3968,7 @@
       <c r="M8" s="20"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -3263,7 +3983,7 @@
       <c r="L9" s="21"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
@@ -3292,7 +4012,7 @@
       </c>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20">
@@ -3319,7 +4039,7 @@
       </c>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -3334,7 +4054,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
@@ -3354,7 +4074,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20">
         <f>SUM(C11,I11,L11,F11)/4</f>
@@ -3372,7 +4092,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -3387,7 +4107,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -3402,7 +4122,7 @@
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3436,50 +4156,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F1879-E528-4352-86BD-F5E31A7A058F}">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="E2" s="98" t="s">
+      <c r="C2" s="177"/>
+      <c r="E2" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="H2" s="98" t="s">
+      <c r="F2" s="177"/>
+      <c r="H2" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="K2" s="96" t="s">
+      <c r="I2" s="177"/>
+      <c r="K2" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="97"/>
-      <c r="N2" s="98" t="s">
+      <c r="L2" s="175"/>
+      <c r="N2" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="99"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O2" s="177"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>2.5</v>
       </c>
@@ -3495,7 +4215,7 @@
       <c r="F3" s="6">
         <v>0.33</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="35" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="3">
@@ -3522,9 +4242,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="31">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="30">
         <v>9.3000000000000007</v>
       </c>
       <c r="C4" s="6">
@@ -3540,7 +4260,7 @@
         <f>33%</f>
         <v>0.33</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="35" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="3">
@@ -3567,8 +4287,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="31">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="30">
         <v>14</v>
       </c>
       <c r="C5" s="6">
@@ -3584,7 +4304,7 @@
         <f>33%</f>
         <v>0.33</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="35" t="s">
         <v>64</v>
       </c>
       <c r="H5" s="3">
@@ -3611,8 +4331,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="31">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="30">
         <v>17</v>
       </c>
       <c r="C6" s="6">
@@ -3637,7 +4357,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
@@ -3653,7 +4373,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3670,7 +4390,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3687,7 +4407,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -3727,7 +4447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>52</v>
@@ -3752,7 +4472,7 @@
       <c r="P11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3773,7 +4493,7 @@
       <c r="P12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -3799,7 +4519,7 @@
       <c r="P13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3819,12 +4539,12 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="37">
+      <c r="E15" s="32">
         <v>45026</v>
       </c>
       <c r="F15" s="5"/>
@@ -3841,7 +4561,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3853,7 +4573,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3865,7 +4585,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3893,50 +4613,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDD666-62CA-4935-98B3-7465ACEEDE34}">
   <dimension ref="A2:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="E2" s="98" t="s">
+      <c r="C2" s="177"/>
+      <c r="E2" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="I2" s="98" t="s">
+      <c r="F2" s="177"/>
+      <c r="I2" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="L2" s="100" t="s">
+      <c r="J2" s="177"/>
+      <c r="L2" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="O2" s="98" t="s">
+      <c r="M2" s="179"/>
+      <c r="O2" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="99"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="177"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>10</v>
       </c>
@@ -3951,7 +4671,7 @@
       <c r="F3" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I3" s="3">
@@ -3974,7 +4694,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>10</v>
       </c>
@@ -3989,7 +4709,7 @@
       <c r="F4" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="37" t="s">
         <v>60</v>
       </c>
       <c r="I4" s="3">
@@ -4012,7 +4732,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>10</v>
       </c>
@@ -4027,7 +4747,7 @@
       <c r="F5" s="9">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="37" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="3">
@@ -4048,7 +4768,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>10</v>
       </c>
@@ -4058,7 +4778,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="41"/>
+      <c r="G6" s="36"/>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -4073,7 +4793,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>10</v>
       </c>
@@ -4098,7 +4818,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
       <c r="D8" s="5"/>
@@ -4116,7 +4836,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="5"/>
@@ -4132,7 +4852,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -4164,7 +4884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4179,7 +4899,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4194,7 +4914,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -4214,7 +4934,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4228,7 +4948,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4242,7 +4962,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4277,41 +4997,41 @@
       <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="E2" s="98" t="s">
+      <c r="C2" s="177"/>
+      <c r="E2" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="H2" s="98" t="s">
+      <c r="F2" s="177"/>
+      <c r="H2" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="K2" s="98" t="s">
+      <c r="I2" s="177"/>
+      <c r="K2" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="N2" s="98" t="s">
+      <c r="L2" s="177"/>
+      <c r="N2" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="99"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="177"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="3">
         <v>10</v>
@@ -4348,7 +5068,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="3">
         <v>10</v>
@@ -4385,7 +5105,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3">
         <v>10</v>
@@ -4422,7 +5142,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3">
         <v>10</v>
@@ -4459,7 +5179,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4494,7 +5214,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4515,7 +5235,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4532,7 +5252,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -4566,7 +5286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4583,7 +5303,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4600,7 +5320,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4633,40 +5353,40 @@
       <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" customWidth="1"/>
+    <col min="15" max="15" width="21.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="E2" s="98" t="s">
+      <c r="C2" s="177"/>
+      <c r="E2" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="H2" s="98" t="s">
+      <c r="F2" s="177"/>
+      <c r="H2" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="K2" s="100" t="s">
+      <c r="I2" s="177"/>
+      <c r="K2" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="101"/>
-      <c r="N2" s="98" t="s">
+      <c r="L2" s="179"/>
+      <c r="N2" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="99"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="177"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="3">
         <v>10</v>
@@ -4698,7 +5418,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="3">
         <v>10</v>
@@ -4730,7 +5450,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3">
         <v>10</v>
@@ -4762,7 +5482,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4784,7 +5504,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4804,7 +5524,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4824,7 +5544,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4840,7 +5560,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -4870,7 +5590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4884,7 +5604,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4898,7 +5618,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -4919,7 +5639,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4933,7 +5653,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4947,7 +5667,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4961,7 +5681,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4975,7 +5695,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4989,7 +5709,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5003,7 +5723,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD9A244-2618-4052-B33B-E84AE7070A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1F53C5-4059-4B84-B9FE-A79B8ACB31D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="170">
   <si>
     <t>Cadeira</t>
   </si>
@@ -427,28 +427,124 @@
     <t>20h -&gt;</t>
   </si>
   <si>
-    <t>mpei</t>
-  </si>
-  <si>
-    <t>apresentaçao de peci</t>
-  </si>
-  <si>
-    <t>fazer apresentação</t>
-  </si>
-  <si>
     <t>aula3 2)</t>
   </si>
   <si>
-    <t>2.1.5 - 2.1.7- 2.1.6</t>
-  </si>
-  <si>
     <t>ficha2:</t>
   </si>
   <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>so</t>
+    <t>EXTRA/Feriado</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>13h</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12h </t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16h </t>
+  </si>
+  <si>
+    <t>17h</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19h </t>
+  </si>
+  <si>
+    <t>JANTAR DE CURSO</t>
+  </si>
+  <si>
+    <t>ExameT</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>TesteT</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>testes nas aulas</t>
+  </si>
+  <si>
+    <t>assiduidade </t>
+  </si>
+  <si>
+    <t>P1 - Guiao1</t>
+  </si>
+  <si>
+    <t>P1 - Guiao2</t>
+  </si>
+  <si>
+    <t>P3 - desempenho nas aulas</t>
+  </si>
+  <si>
+    <t>P2 - Teste</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>teorica:</t>
+  </si>
+  <si>
+    <t>Tp1</t>
+  </si>
+  <si>
+    <t>tp2</t>
+  </si>
+  <si>
+    <t>tp3</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>2.2.todos</t>
+  </si>
+  <si>
+    <t>aula4</t>
+  </si>
+  <si>
+    <t>guiao 2-3</t>
+  </si>
+  <si>
+    <t>ler thinkOS</t>
   </si>
 </sst>
 </file>
@@ -458,7 +554,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,11 +589,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -512,63 +603,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="8" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="7" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -580,20 +616,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Noto Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,6 +790,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="50">
     <border>
@@ -1346,7 +1440,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1438,15 +1532,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1535,13 +1629,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,317 +1669,431 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2209,540 +2417,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="2" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="5"/>
-    <col min="11" max="11" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="8.44140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="82" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="18.21875" style="82" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83">
-        <v>2</v>
-      </c>
-      <c r="D1" s="83">
-        <v>3</v>
-      </c>
-      <c r="E1" s="83">
-        <v>4</v>
-      </c>
-      <c r="F1" s="83">
-        <v>28</v>
-      </c>
-      <c r="G1" s="83">
-        <v>29</v>
-      </c>
-      <c r="H1" s="83">
-        <v>30</v>
-      </c>
-      <c r="I1" s="83">
-        <v>1</v>
-      </c>
-      <c r="J1" s="83"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="B1" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="C1" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="D1" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="E1" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="F1" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="G1" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="H1" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="M2" s="83"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
-      <c r="B3" s="87" t="s">
+      <c r="I1" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="179" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="180"/>
+      <c r="M1" s="179" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="180"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="B2" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="C2" s="221" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="151" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="221" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="215" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="144" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="147" t="s">
+      <c r="G2" s="217" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H2" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I2" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="95"/>
+    </row>
+    <row r="3" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="151" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="224"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="N3" s="82"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="83"/>
-      <c r="B4" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="142" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="143"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="89" t="s">
+      <c r="E3" s="222"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="151" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="B4" s="221" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="C4" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="151" t="s">
+      <c r="D4" s="219" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="E4" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="144" t="s">
+      <c r="F4" s="221" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="138" t="s">
+      <c r="G4" s="217" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="140" t="s">
+      <c r="H4" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="83"/>
-      <c r="K5" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="120"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83"/>
-      <c r="B6" s="91" t="s">
+      <c r="I4" s="150" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="99"/>
+      <c r="N4" s="103"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" s="121" t="s">
+      <c r="B5" s="222"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="151" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="106"/>
+      <c r="N5" s="98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="155" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="156"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="155" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="98"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="109"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="110"/>
+      <c r="C7" s="221" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="176" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="221" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="215" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="217" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="213" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="109"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="109"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="222"/>
+      <c r="D8" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="222"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="102"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="102"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="215" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="217" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="213" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" s="119"/>
+      <c r="N9" s="120"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="121"/>
+      <c r="C10" s="221" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="122"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="109"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="95"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="150" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="125"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="109"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="95"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="93"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="102"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="100"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="154" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="130" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13" s="99"/>
+      <c r="N13" s="95"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="109"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="95"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="109"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="95"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="85" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="83"/>
-      <c r="B7" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="M7" s="96"/>
-    </row>
-    <row r="8" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="83"/>
-      <c r="B8" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="144" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="144" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="147" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="140" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="121" t="s">
-        <v>137</v>
-      </c>
-      <c r="M8" s="96"/>
-    </row>
-    <row r="9" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="83"/>
-      <c r="B9" s="99" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="145"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" s="96"/>
-    </row>
-    <row r="10" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="83"/>
-      <c r="B10" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="115" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="147" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="140" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="121" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="96"/>
-    </row>
-    <row r="11" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="83"/>
-      <c r="B11" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="182"/>
-      <c r="D11" s="144" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="121" t="s">
-        <v>136</v>
-      </c>
-      <c r="M11" s="96"/>
-    </row>
-    <row r="12" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="83"/>
-      <c r="B12" s="97" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="105" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" s="122" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" s="96"/>
-    </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="105" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="121" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" s="96"/>
-    </row>
-    <row r="14" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="105" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="121" t="s">
-        <v>136</v>
-      </c>
-      <c r="M14" s="96"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="105" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="M15" s="96"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="125" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="128" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="186" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="110" t="s">
+      <c r="C16" s="136" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="K16" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="122" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="137" t="s">
+      <c r="L16" s="102"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="139"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="126" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="126" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="126"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="121" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="B18" s="135"/>
-      <c r="C18" s="180" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="127"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="K19" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="135"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="118"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="136"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="136"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-    </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="119"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="136"/>
+      <c r="B18" s="143" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="136"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="140"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="144"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="146"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="148"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
+  <mergeCells count="23">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2793,7 +2988,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="190" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -2805,21 +3000,21 @@
       <c r="D3" s="16">
         <v>6</v>
       </c>
-      <c r="E3" s="156">
+      <c r="E3" s="181">
         <f>AVERAGE(C3:C7)</f>
         <v>11.25</v>
       </c>
-      <c r="F3" s="159">
+      <c r="F3" s="184">
         <f t="array" ref="F3">SUMPRODUCT(IF(C3:C12&lt;&gt;"",C3:C12*D3:D12,0))/SUM(IF(C3:C12&lt;&gt;"", D3:D12,0))</f>
         <v>11.888888888888889</v>
       </c>
-      <c r="G3" s="159">
+      <c r="G3" s="184">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C32&lt;&gt;"",C3:C32*D3:D32,0))/SUM(IF(C3:C32&lt;&gt;"", D3:D32,0)),2)</f>
         <v>11.83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="166"/>
+      <c r="A4" s="191"/>
       <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
@@ -2829,12 +3024,12 @@
       <c r="D4" s="17">
         <v>6</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="166"/>
+      <c r="A5" s="191"/>
       <c r="B5" s="43" t="s">
         <v>6</v>
       </c>
@@ -2842,12 +3037,12 @@
       <c r="D5" s="17">
         <v>6</v>
       </c>
-      <c r="E5" s="157"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="166"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
@@ -2857,12 +3052,12 @@
       <c r="D6" s="17">
         <v>6</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="166"/>
+      <c r="A7" s="191"/>
       <c r="B7" s="57" t="s">
         <v>65</v>
       </c>
@@ -2872,12 +3067,12 @@
       <c r="D7" s="18">
         <v>6</v>
       </c>
-      <c r="E7" s="158"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="166"/>
+      <c r="A8" s="191"/>
       <c r="B8" s="73" t="s">
         <v>3</v>
       </c>
@@ -2887,15 +3082,15 @@
       <c r="D8" s="77">
         <v>6</v>
       </c>
-      <c r="E8" s="156">
+      <c r="E8" s="181">
         <f>AVERAGE(C8:C12)</f>
         <v>12.4</v>
       </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="166"/>
+      <c r="A9" s="191"/>
       <c r="B9" s="74" t="s">
         <v>4</v>
       </c>
@@ -2905,12 +3100,12 @@
       <c r="D9" s="79">
         <v>6</v>
       </c>
-      <c r="E9" s="157"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="166"/>
+      <c r="A10" s="191"/>
       <c r="B10" s="74" t="s">
         <v>9</v>
       </c>
@@ -2920,12 +3115,12 @@
       <c r="D10" s="79">
         <v>6</v>
       </c>
-      <c r="E10" s="157"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="166"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="74" t="s">
         <v>14</v>
       </c>
@@ -2935,12 +3130,12 @@
       <c r="D11" s="79">
         <v>6</v>
       </c>
-      <c r="E11" s="157"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="167"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="75" t="s">
         <v>10</v>
       </c>
@@ -2950,12 +3145,12 @@
       <c r="D12" s="81">
         <v>6</v>
       </c>
-      <c r="E12" s="158"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="160"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="185"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="193" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -2967,18 +3162,18 @@
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="156">
+      <c r="E13" s="181">
         <f>AVERAGE(C13:C17)</f>
         <v>11.75</v>
       </c>
-      <c r="F13" s="159">
+      <c r="F13" s="184">
         <f t="array" ref="F13">SUMPRODUCT(IF(C13:C22&lt;&gt;"",C13:C22*D13:D22,0))/SUM(IF(C13:C22&lt;&gt;"", D13:D22,0))</f>
         <v>11.875</v>
       </c>
-      <c r="G13" s="160"/>
+      <c r="G13" s="185"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="169"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="43" t="s">
         <v>12</v>
       </c>
@@ -2988,12 +3183,12 @@
       <c r="D14" s="17">
         <v>6</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="169"/>
+      <c r="A15" s="194"/>
       <c r="B15" s="43" t="s">
         <v>24</v>
       </c>
@@ -3003,15 +3198,15 @@
       <c r="D15" s="17">
         <v>6</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
       <c r="J15" s="71" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="169"/>
+      <c r="A16" s="194"/>
       <c r="B16" s="43" t="s">
         <v>13</v>
       </c>
@@ -3019,12 +3214,12 @@
       <c r="D16" s="17">
         <v>6</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="169"/>
+      <c r="A17" s="194"/>
       <c r="B17" s="44" t="s">
         <v>40</v>
       </c>
@@ -3034,12 +3229,12 @@
       <c r="D17" s="18">
         <v>6</v>
       </c>
-      <c r="E17" s="158"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="169"/>
+      <c r="A18" s="194"/>
       <c r="B18" s="45" t="s">
         <v>15</v>
       </c>
@@ -3049,15 +3244,15 @@
       <c r="D18" s="16">
         <v>6</v>
       </c>
-      <c r="E18" s="156">
+      <c r="E18" s="181">
         <f>AVERAGE(C18:C22)</f>
         <v>12</v>
       </c>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="169"/>
+      <c r="A19" s="194"/>
       <c r="B19" s="46" t="s">
         <v>17</v>
       </c>
@@ -3067,12 +3262,12 @@
       <c r="D19" s="17">
         <v>6</v>
       </c>
-      <c r="E19" s="157"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="169"/>
+      <c r="A20" s="194"/>
       <c r="B20" s="46" t="s">
         <v>25</v>
       </c>
@@ -3082,12 +3277,12 @@
       <c r="D20" s="17">
         <v>6</v>
       </c>
-      <c r="E20" s="157"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="169"/>
+      <c r="A21" s="194"/>
       <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
@@ -3095,12 +3290,12 @@
       <c r="D21" s="17">
         <v>6</v>
       </c>
-      <c r="E21" s="157"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="170"/>
+      <c r="A22" s="195"/>
       <c r="B22" s="58" t="s">
         <v>18</v>
       </c>
@@ -3110,15 +3305,15 @@
       <c r="D22" s="18">
         <v>6</v>
       </c>
-      <c r="E22" s="158"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="160"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="185"/>
       <c r="J22" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="171" t="s">
+      <c r="A23" s="196" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -3128,15 +3323,15 @@
       <c r="D23" s="16">
         <v>6</v>
       </c>
-      <c r="E23" s="156">
+      <c r="E23" s="181">
         <f>AVERAGE(C23:C27)</f>
         <v>5.5</v>
       </c>
-      <c r="F23" s="159">
+      <c r="F23" s="184">
         <f t="array" ref="F23">SUMPRODUCT(IF(C23:C32&lt;&gt;"",C23:C32*D23:D32,0))/SUM(IF(C23:C32&lt;&gt;"", D23:D32,0))</f>
         <v>11</v>
       </c>
-      <c r="G23" s="160"/>
+      <c r="G23" s="185"/>
       <c r="J23" s="67" t="s">
         <v>69</v>
       </c>
@@ -3147,7 +3342,7 @@
       <c r="T23" s="72"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="172"/>
+      <c r="A24" s="197"/>
       <c r="B24" s="43" t="s">
         <v>31</v>
       </c>
@@ -3155,9 +3350,9 @@
       <c r="D24" s="17">
         <v>6</v>
       </c>
-      <c r="E24" s="157"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="185"/>
       <c r="J24" s="67" t="s">
         <v>77</v>
       </c>
@@ -3170,7 +3365,7 @@
       <c r="T24" s="72"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="172"/>
+      <c r="A25" s="197"/>
       <c r="B25" s="43" t="s">
         <v>32</v>
       </c>
@@ -3178,9 +3373,9 @@
       <c r="D25" s="17">
         <v>6</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
       <c r="J25" s="67" t="s">
         <v>70</v>
       </c>
@@ -3193,7 +3388,7 @@
       <c r="T25" s="72"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="172"/>
+      <c r="A26" s="197"/>
       <c r="B26" s="43" t="s">
         <v>33</v>
       </c>
@@ -3203,9 +3398,9 @@
       <c r="D26" s="17">
         <v>6</v>
       </c>
-      <c r="E26" s="157"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
       <c r="J26" s="67" t="s">
         <v>72</v>
       </c>
@@ -3218,7 +3413,7 @@
       <c r="T26" s="72"/>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="172"/>
+      <c r="A27" s="197"/>
       <c r="B27" s="63" t="s">
         <v>38</v>
       </c>
@@ -3227,9 +3422,9 @@
         <v>0</v>
       </c>
       <c r="D27" s="62"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="185"/>
       <c r="J27" s="64" t="s">
         <v>71</v>
       </c>
@@ -3245,7 +3440,7 @@
       <c r="T27" s="72"/>
     </row>
     <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="172"/>
+      <c r="A28" s="197"/>
       <c r="B28" s="48" t="s">
         <v>34</v>
       </c>
@@ -3253,12 +3448,12 @@
       <c r="D28" s="19">
         <v>6</v>
       </c>
-      <c r="E28" s="156" t="e">
+      <c r="E28" s="181" t="e">
         <f>AVERAGE(C28:C32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
       <c r="J28" s="66" t="s">
         <v>68</v>
       </c>
@@ -3271,7 +3466,7 @@
       <c r="T28" s="72"/>
     </row>
     <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="172"/>
+      <c r="A29" s="197"/>
       <c r="B29" s="46" t="s">
         <v>35</v>
       </c>
@@ -3279,16 +3474,16 @@
       <c r="D29" s="17">
         <v>6</v>
       </c>
-      <c r="E29" s="157"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
       <c r="O29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="72"/>
       <c r="T29" s="72"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="172"/>
+      <c r="A30" s="197"/>
       <c r="B30" s="46" t="s">
         <v>36</v>
       </c>
@@ -3296,9 +3491,9 @@
       <c r="D30" s="17">
         <v>6</v>
       </c>
-      <c r="E30" s="157"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
       <c r="J30" s="65" t="s">
         <v>76</v>
       </c>
@@ -3306,7 +3501,7 @@
       <c r="T30" s="72"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="172"/>
+      <c r="A31" s="197"/>
       <c r="B31" s="46" t="s">
         <v>37</v>
       </c>
@@ -3314,9 +3509,9 @@
       <c r="D31" s="17">
         <v>6</v>
       </c>
-      <c r="E31" s="157"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
       <c r="J31" s="67" t="s">
         <v>73</v>
       </c>
@@ -3330,7 +3525,7 @@
       <c r="T31" s="72"/>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="173"/>
+      <c r="A32" s="198"/>
       <c r="B32" s="47" t="s">
         <v>38</v>
       </c>
@@ -3338,9 +3533,9 @@
       <c r="D32" s="59">
         <v>12</v>
       </c>
-      <c r="E32" s="158"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
       <c r="J32" s="68" t="s">
         <v>85</v>
       </c>
@@ -3382,11 +3577,11 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="162" t="s">
+      <c r="A37" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="163"/>
-      <c r="C37" s="164"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="189"/>
       <c r="D37">
         <v>12</v>
       </c>
@@ -3433,18 +3628,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="E2" s="174" t="s">
+      <c r="C2" s="200"/>
+      <c r="E2" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="H2" s="174" t="s">
+      <c r="F2" s="200"/>
+      <c r="H2" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="175"/>
+      <c r="I2" s="200"/>
       <c r="K2" s="38" t="s">
         <v>33</v>
       </c>
@@ -3782,373 +3977,295 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC10043-F51A-4DB1-8C0B-313C8D48A7CD}">
-  <dimension ref="A2:O17"/>
+  <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="20"/>
+    <col min="2" max="2" width="10" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="20"/>
+    <col min="5" max="5" width="7" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8" style="20" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="20" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="E2" s="178" t="s">
+      <c r="C2" s="204"/>
+      <c r="F2" s="203" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="179"/>
-      <c r="H2" s="178" t="s">
+      <c r="G2" s="204"/>
+      <c r="J2" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="179"/>
-      <c r="K2" s="176" t="s">
+      <c r="K2" s="204"/>
+      <c r="O2" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="177"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22">
+      <c r="P2" s="202"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="161"/>
+      <c r="C3" s="160">
         <v>0.45</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23">
+      <c r="E3" s="162" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="161"/>
+      <c r="G3" s="163">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="24">
+      <c r="H3" s="162"/>
+      <c r="I3" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="161"/>
+      <c r="K3" s="164">
         <v>0.2</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21">
+      <c r="O3" s="21">
         <v>10.4</v>
       </c>
-      <c r="L3" s="24">
+      <c r="P3" s="24">
         <f>10%</f>
         <v>0.1</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="161"/>
+      <c r="C4" s="163">
         <v>0.25</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="25">
+      <c r="E4" s="162" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="161"/>
+      <c r="G4" s="163">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21">
+      <c r="H4" s="162"/>
+      <c r="I4" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="161"/>
+      <c r="K4" s="164">
+        <v>0.05</v>
+      </c>
+      <c r="O4" s="21">
         <v>12.3</v>
       </c>
-      <c r="L4" s="24">
+      <c r="P4" s="24">
         <f>10%</f>
         <v>0.1</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="161"/>
+      <c r="C5" s="163">
         <v>0.3</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22">
+      <c r="E5" s="162" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="161"/>
+      <c r="G5" s="163">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="24">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21">
+      <c r="H5" s="162"/>
+      <c r="I5" s="165" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="161">
+        <v>20</v>
+      </c>
+      <c r="K5" s="164">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="21">
         <v>16.3</v>
       </c>
-      <c r="L5" s="24">
+      <c r="P5" s="24">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="26">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="161"/>
+      <c r="C6" s="163"/>
+      <c r="E6" s="162" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="161"/>
+      <c r="G6" s="163">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21">
+      <c r="H6" s="162"/>
+      <c r="I6" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="161"/>
+      <c r="K6" s="164">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="O6" s="21">
         <v>14.4</v>
       </c>
-      <c r="L6" s="24">
+      <c r="P6" s="24">
         <f>10%</f>
         <v>0.1</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="161"/>
+      <c r="K7" s="164">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="O7" s="21">
         <v>8</v>
       </c>
-      <c r="L7" s="31">
+      <c r="P7" s="31">
         <f>45%</f>
         <v>0.45</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="24">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" s="161"/>
+      <c r="K8" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F9" s="21"/>
+      <c r="G9" s="25"/>
+      <c r="I9" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="161">
+        <v>20</v>
+      </c>
+      <c r="K9" s="164">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="29"/>
-      <c r="C10" s="21" t="e">
-        <f t="array" ref="C10">SUMPRODUCT(IF(B3:B5&lt;&gt;"",B3:B5*C3:C5,0))/SUM(IF(B3:B5&lt;&gt;"", C3:C5,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21" t="e">
-        <f t="array" ref="F10">ROUND(SUMPRODUCT(IF(E3:E6&lt;&gt;"",E3:E6*F3:F6,0))/SUM(IF(E3:E6&lt;&gt;"", F3:F6,0)),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21" t="e">
-        <f t="array" ref="I10">ROUND(SUMPRODUCT(IF(H3:H8&lt;&gt;"",H3:H8*I3:I8,0))/SUM(IF(H3:H8&lt;&gt;"", I3:I8,0)),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21">
-        <f t="array" ref="L10">ROUND(SUMPRODUCT(IF(K3:K7&lt;&gt;"",K3:K7*L3:L7,0))/SUM(IF(K3:K7&lt;&gt;"", L3:L7,0)),0)</f>
+      <c r="C10" s="21">
+        <f>(B3*C3 + B4*C4+ B5*C5)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21">
+        <f>(F3*G3 + F4*G4+ F5*G5 + F6*G6)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21">
+        <f>(J3*K3+J4*K4+J5*K5+J6*K6+J7*K7+J8*K8+J9*K9)</f>
+        <v>3</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21">
+        <f t="array" ref="P10">ROUND(SUMPRODUCT(IF(O3:O7&lt;&gt;"",O3:O7*P3:P7,0))/SUM(IF(O3:O7&lt;&gt;"", P3:P7,0)),0)</f>
         <v>11</v>
       </c>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11" s="20">
         <f t="array" ref="C11">ROUND(SUM(B3:B5*C3:C5),2)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20">
-        <f t="array" ref="F11">ROUND(SUM(E3:E6*F3:F6),2)</f>
+      <c r="G11" s="20">
+        <f t="array" ref="G11">ROUND(SUM(F3:F6*G3:G6),2)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20">
-        <f t="array" ref="I11">ROUND(SUM(H3:H8*I3:I8),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20">
-        <f t="array" ref="L11">ROUND(SUM(K3:K7*L3:L7),2)</f>
+      <c r="K11" s="20">
+        <f t="array" ref="K11">ROUND(SUM(J3:J9*K3:K9),2)</f>
+        <v>3</v>
+      </c>
+      <c r="P11" s="20">
+        <f t="array" ref="P11">ROUND(SUM(O3:O7*P3:P7),2)</f>
         <v>11.39</v>
       </c>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="21" t="e">
-        <f>(C10+F10+I10+L10)/4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="B13" s="21">
+        <f>(C10+G10+K10+P10)/4</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="20">
-        <f>SUM(C11,I11,L11,F11)/4</f>
-        <v>2.8475000000000001</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+        <f>SUM(C11,K11,P11,G11)/4</f>
+        <v>3.5975000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="L5" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4156,8 +4273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F1879-E528-4352-86BD-F5E31A7A058F}">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4178,26 +4295,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="E2" s="176" t="s">
+      <c r="C2" s="206"/>
+      <c r="E2" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="H2" s="176" t="s">
+      <c r="F2" s="206"/>
+      <c r="H2" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="177"/>
-      <c r="K2" s="174" t="s">
+      <c r="I2" s="206"/>
+      <c r="K2" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="175"/>
-      <c r="N2" s="176" t="s">
+      <c r="L2" s="200"/>
+      <c r="N2" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="177"/>
+      <c r="O2" s="206"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
@@ -4611,10 +4728,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDD666-62CA-4935-98B3-7465ACEEDE34}">
-  <dimension ref="A2:P16"/>
+  <dimension ref="A2:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4632,31 +4749,32 @@
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="E2" s="176" t="s">
+      <c r="C2" s="206"/>
+      <c r="E2" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="I2" s="176" t="s">
+      <c r="F2" s="206"/>
+      <c r="I2" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="177"/>
-      <c r="L2" s="178" t="s">
+      <c r="J2" s="206"/>
+      <c r="M2" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="179"/>
-      <c r="O2" s="176" t="s">
+      <c r="N2" s="208"/>
+      <c r="P2" s="205" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="177"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="206"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>10</v>
       </c>
@@ -4682,19 +4800,23 @@
         <v>0.12</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="6">
+      <c r="L3" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="6">
         <f>40%*40%</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="6">
-        <f>40%*40%</f>
-        <v>0.16000000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>10</v>
       </c>
@@ -4720,19 +4842,23 @@
         <v>0.12</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="6">
+      <c r="L4" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="6">
         <f>60%*40%</f>
         <v>0.24</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="6">
-        <f>60%*40%</f>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>10</v>
       </c>
@@ -4758,17 +4884,20 @@
         <v>0.1</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="6">
+      <c r="L5" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="6">
         <v>0.6</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>10</v>
       </c>
@@ -4787,13 +4916,18 @@
         <v>0.06</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="O6" s="5"/>
       <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>10</v>
       </c>
@@ -4812,13 +4946,13 @@
         <v>0.6</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
       <c r="D8" s="5"/>
@@ -4830,13 +4964,13 @@
         <v>10</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="5"/>
@@ -4846,13 +4980,13 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -4873,18 +5007,18 @@
         <v>13</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
-        <f t="array" ref="M10">ROUND(SUM(L3:L5*M3:M5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3">
+      <c r="M10" s="166"/>
+      <c r="N10" s="159">
+        <f>(M3*N3 + M4*N4+ M5*N5 + M6*N6)</f>
+        <v>6</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4896,10 +5030,15 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M11" s="167" t="s">
+        <v>160</v>
+      </c>
+      <c r="N11" s="168">
+        <f>( M3*0.45 + M4*0.55)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4914,13 +5053,13 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="3">
-        <f>(C10+F10+J10+M10)/4</f>
-        <v>9</v>
+        <f>(C10+F10+J10+N10)/4</f>
+        <v>10.5</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4934,7 +5073,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4948,7 +5087,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4962,7 +5101,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4981,8 +5120,8 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5010,26 +5149,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="E2" s="176" t="s">
+      <c r="C2" s="206"/>
+      <c r="E2" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="H2" s="176" t="s">
+      <c r="F2" s="206"/>
+      <c r="H2" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="177"/>
-      <c r="K2" s="176" t="s">
+      <c r="I2" s="206"/>
+      <c r="K2" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="177"/>
-      <c r="N2" s="176" t="s">
+      <c r="L2" s="206"/>
+      <c r="N2" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="177"/>
+      <c r="O2" s="206"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -5347,10 +5486,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5023A22B-A7B8-4F5A-B287-157EE962F98A}">
-  <dimension ref="A2:O20"/>
+  <dimension ref="A2:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+      <selection activeCell="K2" sqref="K2:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5359,34 +5498,37 @@
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" customWidth="1"/>
     <col min="14" max="14" width="19.5546875" customWidth="1"/>
     <col min="15" max="15" width="21.109375" customWidth="1"/>
     <col min="16" max="16" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="E2" s="176" t="s">
+      <c r="C2" s="206"/>
+      <c r="E2" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="H2" s="176" t="s">
+      <c r="F2" s="206"/>
+      <c r="H2" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="177"/>
-      <c r="K2" s="178" t="s">
+      <c r="I2" s="206"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="179"/>
-      <c r="N2" s="176" t="s">
+      <c r="M2" s="212"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="177"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="210"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="3">
         <v>10</v>
@@ -5408,17 +5550,20 @@
       <c r="I3" s="6">
         <v>0.2</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="6">
+      <c r="K3" s="170" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="171"/>
+      <c r="M3" s="172">
         <v>0.2</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="6">
+      <c r="N3" s="169"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="3">
         <v>10</v>
@@ -5440,17 +5585,20 @@
       <c r="I4" s="6">
         <v>0.3</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="6">
+      <c r="K4" s="170" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="171"/>
+      <c r="M4" s="172">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="169"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="172">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3">
         <v>10</v>
@@ -5472,17 +5620,20 @@
       <c r="I5" s="6">
         <v>0.5</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="6">
+      <c r="K5" s="170" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="171"/>
+      <c r="M5" s="172">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="169"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="172">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5496,15 +5647,18 @@
       <c r="G6" s="5"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K6" s="170" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" s="171"/>
+      <c r="M6" s="172">
+        <v>0.15</v>
+      </c>
+      <c r="N6" s="169"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="171"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5518,13 +5672,18 @@
       <c r="G7" s="5"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K7" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="171"/>
+      <c r="M7" s="172">
+        <v>0.15</v>
+      </c>
+      <c r="N7" s="169"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="171"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5538,13 +5697,14 @@
       <c r="G8" s="5"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K8" s="170"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="171"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5554,13 +5714,14 @@
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K9" s="170"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -5579,18 +5740,19 @@
       <c r="I10" s="3">
         <v>12</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <f t="array" ref="L10">ROUND((SUM(K3:K6*L3:L6)),0)</f>
+      <c r="K10" s="170"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="175">
+        <f>(L3*M3 + L4*M4+ L5*M5 + L6*M6+ L7*M7)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
+      <c r="N10" s="169"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="171">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -5600,11 +5762,14 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="169"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5618,12 +5783,12 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="3">
-        <f>(C10+F10+I10+L10)/4</f>
+        <f>(C10+F10+I10+M10)/4</f>
         <v>8</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -5639,7 +5804,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5653,7 +5818,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5667,7 +5832,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5707,7 +5872,6 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
@@ -5721,7 +5885,6 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5735,12 +5898,11 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1F53C5-4059-4B84-B9FE-A79B8ACB31D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E68387F-5E92-4F5B-ABC9-47940983F60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
@@ -2419,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E68387F-5E92-4F5B-ABC9-47940983F60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9AEA19-8443-4D0E-ABE7-CAC692031407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="169">
   <si>
     <t>Cadeira</t>
   </si>
@@ -473,9 +473,6 @@
   </si>
   <si>
     <t xml:space="preserve">19h </t>
-  </si>
-  <si>
-    <t>JANTAR DE CURSO</t>
   </si>
   <si>
     <t>ExameT</t>
@@ -1440,7 +1437,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1949,13 +1946,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2059,42 +2089,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2417,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:M22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2438,392 +2432,355 @@
     <col min="15" max="16384" width="8.88671875" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B2" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C2" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D2" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E2" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F2" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G2" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H2" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I2" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="179" t="s">
+      <c r="K2" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="180"/>
-      <c r="M1" s="179" t="s">
+      <c r="L2" s="191"/>
+      <c r="M2" s="190" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="180"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="150" t="s">
+      <c r="N2" s="191"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="223" t="s">
+      <c r="B3" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="C3" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="221" t="s">
+      <c r="D3" s="93"/>
+      <c r="E3" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="215" t="s">
+      <c r="F3" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="217" t="s">
+      <c r="G3" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="213" t="s">
+      <c r="H3" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="150" t="s">
+      <c r="I3" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="K3" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="95"/>
-    </row>
-    <row r="3" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="151" t="s">
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="95"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="96" t="s">
+      <c r="B4" s="189"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="222"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="151" t="s">
+      <c r="E4" s="187"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="151" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K4" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="150" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B5" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="221" t="s">
+      <c r="C5" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="219" t="s">
+      <c r="D5" s="184" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="177" t="s">
+      <c r="E5" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="221" t="s">
+      <c r="F5" s="186" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="217" t="s">
+      <c r="G5" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="213" t="s">
+      <c r="H5" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="150" t="s">
+      <c r="I5" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K5" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" s="99"/>
-      <c r="N4" s="103"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="151" t="s">
+      <c r="L5" s="102"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="103"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="222"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="151" t="s">
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K6" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="105" t="s">
-        <v>146</v>
-      </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="98" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="155" t="s">
+      <c r="L6" s="105"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="98"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="155" t="s">
+      <c r="B7" s="156"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="107" t="s">
+      <c r="K7" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="98"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="109"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="150" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="221" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="176" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="221" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="215" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="217" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="213" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="150" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="109"/>
+      <c r="L7" s="98"/>
       <c r="M7" s="108"/>
       <c r="N7" s="109"/>
     </row>
     <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="110"/>
+      <c r="C8" s="186" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="187" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="186" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="180" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="182" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="178" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="150" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="109"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="109"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B9" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="222"/>
-      <c r="D8" s="96" t="s">
+      <c r="C9" s="187"/>
+      <c r="D9" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="222"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="151" t="s">
+      <c r="E9" s="187"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="112" t="s">
+      <c r="K9" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="102"/>
-    </row>
-    <row r="9" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="152" t="s">
+      <c r="L9" s="102"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="102"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="115" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="215" t="s">
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="217" t="s">
+      <c r="G10" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="213" t="s">
+      <c r="H10" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="152" t="s">
+      <c r="I10" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="117" t="s">
+      <c r="K10" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="M9" s="119"/>
-      <c r="N9" s="120"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="153" t="s">
+      <c r="L10" s="118"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="120"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="221" t="s">
+      <c r="B11" s="121"/>
+      <c r="C11" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="153" t="s">
+      <c r="D11" s="122"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="153" t="s">
         <v>142</v>
-      </c>
-      <c r="K10" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="95"/>
-    </row>
-    <row r="11" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="150" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="150" t="s">
-        <v>143</v>
       </c>
       <c r="K11" s="124" t="s">
         <v>96</v>
       </c>
       <c r="L11" s="109"/>
-      <c r="M11" s="119"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="95"/>
     </row>
     <row r="12" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="151" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="93" t="s">
-        <v>146</v>
-      </c>
+      <c r="A12" s="150" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="125"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="151" t="s">
+      <c r="H12" s="127"/>
+      <c r="I12" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="119"/>
+      <c r="N12" s="95"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="93"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="K12" s="129" t="s">
+      <c r="K13" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="102"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="100"/>
-    </row>
-    <row r="13" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="154" t="s">
+      <c r="L13" s="102"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="100"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="130" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="154" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="K13" s="132" t="s">
+      <c r="K14" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="133" t="s">
-        <v>169</v>
-      </c>
-      <c r="M13" s="99"/>
-      <c r="N13" s="95"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K14" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="109"/>
+      <c r="L14" s="133" t="s">
+        <v>168</v>
+      </c>
       <c r="M14" s="99"/>
       <c r="N14" s="95"/>
     </row>
     <row r="15" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="84" t="s">
-        <v>71</v>
-      </c>
       <c r="K15" s="134" t="s">
         <v>97</v>
       </c>
@@ -2832,72 +2789,90 @@
       <c r="N15" s="95"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="109"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="95"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="K16" s="137" t="s">
+      <c r="C17" s="136" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="K17" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="102"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="139"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="140" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="141" t="s">
+      <c r="L17" s="102"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="139"/>
+    </row>
+    <row r="18" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
-      <c r="B18" s="143" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="140"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="144"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="146"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="136"/>
+      <c r="B19" s="143" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="136"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="140"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="144"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="146"/>
       <c r="B22" s="147"/>
       <c r="C22" s="146"/>
@@ -2905,39 +2880,26 @@
       <c r="E22" s="146"/>
       <c r="F22" s="146"/>
     </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="148"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="146"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="148"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+  <mergeCells count="2">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2988,7 +2950,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="201" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -3000,21 +2962,21 @@
       <c r="D3" s="16">
         <v>6</v>
       </c>
-      <c r="E3" s="181">
+      <c r="E3" s="192">
         <f>AVERAGE(C3:C7)</f>
         <v>11.25</v>
       </c>
-      <c r="F3" s="184">
+      <c r="F3" s="195">
         <f t="array" ref="F3">SUMPRODUCT(IF(C3:C12&lt;&gt;"",C3:C12*D3:D12,0))/SUM(IF(C3:C12&lt;&gt;"", D3:D12,0))</f>
         <v>11.888888888888889</v>
       </c>
-      <c r="G3" s="184">
+      <c r="G3" s="195">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C32&lt;&gt;"",C3:C32*D3:D32,0))/SUM(IF(C3:C32&lt;&gt;"", D3:D32,0)),2)</f>
         <v>11.83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="191"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
@@ -3024,12 +2986,12 @@
       <c r="D4" s="17">
         <v>6</v>
       </c>
-      <c r="E4" s="182"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="191"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="43" t="s">
         <v>6</v>
       </c>
@@ -3037,12 +2999,12 @@
       <c r="D5" s="17">
         <v>6</v>
       </c>
-      <c r="E5" s="182"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="191"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
@@ -3052,12 +3014,12 @@
       <c r="D6" s="17">
         <v>6</v>
       </c>
-      <c r="E6" s="182"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="191"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="57" t="s">
         <v>65</v>
       </c>
@@ -3067,12 +3029,12 @@
       <c r="D7" s="18">
         <v>6</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="191"/>
+      <c r="A8" s="202"/>
       <c r="B8" s="73" t="s">
         <v>3</v>
       </c>
@@ -3082,15 +3044,15 @@
       <c r="D8" s="77">
         <v>6</v>
       </c>
-      <c r="E8" s="181">
+      <c r="E8" s="192">
         <f>AVERAGE(C8:C12)</f>
         <v>12.4</v>
       </c>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="191"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="74" t="s">
         <v>4</v>
       </c>
@@ -3100,12 +3062,12 @@
       <c r="D9" s="79">
         <v>6</v>
       </c>
-      <c r="E9" s="182"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="191"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="74" t="s">
         <v>9</v>
       </c>
@@ -3115,12 +3077,12 @@
       <c r="D10" s="79">
         <v>6</v>
       </c>
-      <c r="E10" s="182"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="191"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="74" t="s">
         <v>14</v>
       </c>
@@ -3130,12 +3092,12 @@
       <c r="D11" s="79">
         <v>6</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="192"/>
+      <c r="A12" s="203"/>
       <c r="B12" s="75" t="s">
         <v>10</v>
       </c>
@@ -3145,12 +3107,12 @@
       <c r="D12" s="81">
         <v>6</v>
       </c>
-      <c r="E12" s="183"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="185"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="196"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="204" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -3162,18 +3124,18 @@
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="181">
+      <c r="E13" s="192">
         <f>AVERAGE(C13:C17)</f>
         <v>11.75</v>
       </c>
-      <c r="F13" s="184">
+      <c r="F13" s="195">
         <f t="array" ref="F13">SUMPRODUCT(IF(C13:C22&lt;&gt;"",C13:C22*D13:D22,0))/SUM(IF(C13:C22&lt;&gt;"", D13:D22,0))</f>
         <v>11.875</v>
       </c>
-      <c r="G13" s="185"/>
+      <c r="G13" s="196"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="194"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="43" t="s">
         <v>12</v>
       </c>
@@ -3183,12 +3145,12 @@
       <c r="D14" s="17">
         <v>6</v>
       </c>
-      <c r="E14" s="182"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="194"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="43" t="s">
         <v>24</v>
       </c>
@@ -3198,15 +3160,15 @@
       <c r="D15" s="17">
         <v>6</v>
       </c>
-      <c r="E15" s="182"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
       <c r="J15" s="71" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="194"/>
+      <c r="A16" s="205"/>
       <c r="B16" s="43" t="s">
         <v>13</v>
       </c>
@@ -3214,12 +3176,12 @@
       <c r="D16" s="17">
         <v>6</v>
       </c>
-      <c r="E16" s="182"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="194"/>
+      <c r="A17" s="205"/>
       <c r="B17" s="44" t="s">
         <v>40</v>
       </c>
@@ -3229,12 +3191,12 @@
       <c r="D17" s="18">
         <v>6</v>
       </c>
-      <c r="E17" s="183"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="194"/>
+      <c r="A18" s="205"/>
       <c r="B18" s="45" t="s">
         <v>15</v>
       </c>
@@ -3244,15 +3206,15 @@
       <c r="D18" s="16">
         <v>6</v>
       </c>
-      <c r="E18" s="181">
+      <c r="E18" s="192">
         <f>AVERAGE(C18:C22)</f>
         <v>12</v>
       </c>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="194"/>
+      <c r="A19" s="205"/>
       <c r="B19" s="46" t="s">
         <v>17</v>
       </c>
@@ -3262,12 +3224,12 @@
       <c r="D19" s="17">
         <v>6</v>
       </c>
-      <c r="E19" s="182"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="194"/>
+      <c r="A20" s="205"/>
       <c r="B20" s="46" t="s">
         <v>25</v>
       </c>
@@ -3277,12 +3239,12 @@
       <c r="D20" s="17">
         <v>6</v>
       </c>
-      <c r="E20" s="182"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="194"/>
+      <c r="A21" s="205"/>
       <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
@@ -3290,12 +3252,12 @@
       <c r="D21" s="17">
         <v>6</v>
       </c>
-      <c r="E21" s="182"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="195"/>
+      <c r="A22" s="206"/>
       <c r="B22" s="58" t="s">
         <v>18</v>
       </c>
@@ -3305,15 +3267,15 @@
       <c r="D22" s="18">
         <v>6</v>
       </c>
-      <c r="E22" s="183"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="185"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="196"/>
       <c r="J22" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="196" t="s">
+      <c r="A23" s="207" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -3323,15 +3285,15 @@
       <c r="D23" s="16">
         <v>6</v>
       </c>
-      <c r="E23" s="181">
+      <c r="E23" s="192">
         <f>AVERAGE(C23:C27)</f>
         <v>5.5</v>
       </c>
-      <c r="F23" s="184">
+      <c r="F23" s="195">
         <f t="array" ref="F23">SUMPRODUCT(IF(C23:C32&lt;&gt;"",C23:C32*D23:D32,0))/SUM(IF(C23:C32&lt;&gt;"", D23:D32,0))</f>
         <v>11</v>
       </c>
-      <c r="G23" s="185"/>
+      <c r="G23" s="196"/>
       <c r="J23" s="67" t="s">
         <v>69</v>
       </c>
@@ -3342,7 +3304,7 @@
       <c r="T23" s="72"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="197"/>
+      <c r="A24" s="208"/>
       <c r="B24" s="43" t="s">
         <v>31</v>
       </c>
@@ -3350,9 +3312,9 @@
       <c r="D24" s="17">
         <v>6</v>
       </c>
-      <c r="E24" s="182"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
       <c r="J24" s="67" t="s">
         <v>77</v>
       </c>
@@ -3365,7 +3327,7 @@
       <c r="T24" s="72"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="197"/>
+      <c r="A25" s="208"/>
       <c r="B25" s="43" t="s">
         <v>32</v>
       </c>
@@ -3373,9 +3335,9 @@
       <c r="D25" s="17">
         <v>6</v>
       </c>
-      <c r="E25" s="182"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
       <c r="J25" s="67" t="s">
         <v>70</v>
       </c>
@@ -3388,7 +3350,7 @@
       <c r="T25" s="72"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="197"/>
+      <c r="A26" s="208"/>
       <c r="B26" s="43" t="s">
         <v>33</v>
       </c>
@@ -3398,9 +3360,9 @@
       <c r="D26" s="17">
         <v>6</v>
       </c>
-      <c r="E26" s="182"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="185"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
       <c r="J26" s="67" t="s">
         <v>72</v>
       </c>
@@ -3413,7 +3375,7 @@
       <c r="T26" s="72"/>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="197"/>
+      <c r="A27" s="208"/>
       <c r="B27" s="63" t="s">
         <v>38</v>
       </c>
@@ -3422,9 +3384,9 @@
         <v>0</v>
       </c>
       <c r="D27" s="62"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="185"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
       <c r="J27" s="64" t="s">
         <v>71</v>
       </c>
@@ -3440,7 +3402,7 @@
       <c r="T27" s="72"/>
     </row>
     <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="197"/>
+      <c r="A28" s="208"/>
       <c r="B28" s="48" t="s">
         <v>34</v>
       </c>
@@ -3448,12 +3410,12 @@
       <c r="D28" s="19">
         <v>6</v>
       </c>
-      <c r="E28" s="181" t="e">
+      <c r="E28" s="192" t="e">
         <f>AVERAGE(C28:C32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
       <c r="J28" s="66" t="s">
         <v>68</v>
       </c>
@@ -3466,7 +3428,7 @@
       <c r="T28" s="72"/>
     </row>
     <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="197"/>
+      <c r="A29" s="208"/>
       <c r="B29" s="46" t="s">
         <v>35</v>
       </c>
@@ -3474,16 +3436,16 @@
       <c r="D29" s="17">
         <v>6</v>
       </c>
-      <c r="E29" s="182"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
       <c r="O29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="72"/>
       <c r="T29" s="72"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="197"/>
+      <c r="A30" s="208"/>
       <c r="B30" s="46" t="s">
         <v>36</v>
       </c>
@@ -3491,9 +3453,9 @@
       <c r="D30" s="17">
         <v>6</v>
       </c>
-      <c r="E30" s="182"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
       <c r="J30" s="65" t="s">
         <v>76</v>
       </c>
@@ -3501,7 +3463,7 @@
       <c r="T30" s="72"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="197"/>
+      <c r="A31" s="208"/>
       <c r="B31" s="46" t="s">
         <v>37</v>
       </c>
@@ -3509,9 +3471,9 @@
       <c r="D31" s="17">
         <v>6</v>
       </c>
-      <c r="E31" s="182"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="185"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
       <c r="J31" s="67" t="s">
         <v>73</v>
       </c>
@@ -3525,7 +3487,7 @@
       <c r="T31" s="72"/>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="198"/>
+      <c r="A32" s="209"/>
       <c r="B32" s="47" t="s">
         <v>38</v>
       </c>
@@ -3533,9 +3495,9 @@
       <c r="D32" s="59">
         <v>12</v>
       </c>
-      <c r="E32" s="183"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
       <c r="J32" s="68" t="s">
         <v>85</v>
       </c>
@@ -3577,11 +3539,11 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="187" t="s">
+      <c r="A37" s="198" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="200"/>
       <c r="D37">
         <v>12</v>
       </c>
@@ -3628,18 +3590,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="E2" s="199" t="s">
+      <c r="C2" s="211"/>
+      <c r="E2" s="210" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="H2" s="199" t="s">
+      <c r="F2" s="211"/>
+      <c r="H2" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="200"/>
+      <c r="I2" s="211"/>
       <c r="K2" s="38" t="s">
         <v>33</v>
       </c>
@@ -4001,33 +3963,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="F2" s="203" t="s">
+      <c r="C2" s="215"/>
+      <c r="F2" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="204"/>
-      <c r="J2" s="203" t="s">
+      <c r="G2" s="215"/>
+      <c r="J2" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="204"/>
-      <c r="O2" s="201" t="s">
+      <c r="K2" s="215"/>
+      <c r="O2" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="202"/>
+      <c r="P2" s="213"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="161"/>
       <c r="C3" s="160">
         <v>0.45</v>
       </c>
       <c r="E3" s="162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="161"/>
       <c r="G3" s="163">
@@ -4036,7 +3998,7 @@
       </c>
       <c r="H3" s="162"/>
       <c r="I3" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" s="161"/>
       <c r="K3" s="164">
@@ -4059,7 +4021,7 @@
         <v>0.25</v>
       </c>
       <c r="E4" s="162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" s="161"/>
       <c r="G4" s="163">
@@ -4068,7 +4030,7 @@
       </c>
       <c r="H4" s="162"/>
       <c r="I4" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J4" s="161"/>
       <c r="K4" s="164">
@@ -4084,14 +4046,14 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="161"/>
       <c r="C5" s="163">
         <v>0.3</v>
       </c>
       <c r="E5" s="162" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="161"/>
       <c r="G5" s="163">
@@ -4100,7 +4062,7 @@
       </c>
       <c r="H5" s="162"/>
       <c r="I5" s="165" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5" s="161">
         <v>20</v>
@@ -4120,7 +4082,7 @@
       <c r="B6" s="161"/>
       <c r="C6" s="163"/>
       <c r="E6" s="162" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" s="161"/>
       <c r="G6" s="163">
@@ -4129,7 +4091,7 @@
       </c>
       <c r="H6" s="162"/>
       <c r="I6" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6" s="161"/>
       <c r="K6" s="164">
@@ -4151,7 +4113,7 @@
       <c r="G7" s="163"/>
       <c r="H7" s="162"/>
       <c r="I7" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" s="161"/>
       <c r="K7" s="164">
@@ -4173,7 +4135,7 @@
       <c r="G8" s="161"/>
       <c r="H8" s="162"/>
       <c r="I8" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" s="161"/>
       <c r="K8" s="164">
@@ -4188,7 +4150,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="25"/>
       <c r="I9" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J9" s="161">
         <v>20</v>
@@ -4295,26 +4257,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="217"/>
+      <c r="E2" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="H2" s="205" t="s">
+      <c r="F2" s="217"/>
+      <c r="H2" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="206"/>
-      <c r="K2" s="199" t="s">
+      <c r="I2" s="217"/>
+      <c r="K2" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="N2" s="205" t="s">
+      <c r="L2" s="211"/>
+      <c r="N2" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="206"/>
+      <c r="O2" s="217"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
@@ -4753,26 +4715,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="217"/>
+      <c r="E2" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="I2" s="205" t="s">
+      <c r="F2" s="217"/>
+      <c r="I2" s="216" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="206"/>
-      <c r="M2" s="207" t="s">
+      <c r="J2" s="217"/>
+      <c r="M2" s="218" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="208"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="219"/>
+      <c r="P2" s="216" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="206"/>
+      <c r="Q2" s="217"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
@@ -4801,7 +4763,7 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M3" s="3">
         <v>10</v>
@@ -4843,7 +4805,7 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M4" s="3">
         <v>10</v>
@@ -4885,7 +4847,7 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="6">
@@ -4917,7 +4879,7 @@
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="6">
@@ -5031,7 +4993,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N11" s="168">
         <f>( M3*0.45 + M4*0.55)</f>
@@ -5149,26 +5111,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="217"/>
+      <c r="E2" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="H2" s="205" t="s">
+      <c r="F2" s="217"/>
+      <c r="H2" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="206"/>
-      <c r="K2" s="205" t="s">
+      <c r="I2" s="217"/>
+      <c r="K2" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="N2" s="205" t="s">
+      <c r="L2" s="217"/>
+      <c r="N2" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="206"/>
+      <c r="O2" s="217"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -5505,28 +5467,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="E2" s="205" t="s">
+      <c r="C2" s="217"/>
+      <c r="E2" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="H2" s="205" t="s">
+      <c r="F2" s="217"/>
+      <c r="H2" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="206"/>
+      <c r="I2" s="217"/>
       <c r="K2" s="169"/>
-      <c r="L2" s="211" t="s">
+      <c r="L2" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="212"/>
+      <c r="M2" s="223"/>
       <c r="N2" s="169"/>
-      <c r="O2" s="209" t="s">
+      <c r="O2" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="210"/>
+      <c r="P2" s="221"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -5551,7 +5513,7 @@
         <v>0.2</v>
       </c>
       <c r="K3" s="170" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L3" s="171"/>
       <c r="M3" s="172">
@@ -5586,7 +5548,7 @@
         <v>0.3</v>
       </c>
       <c r="K4" s="170" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L4" s="171"/>
       <c r="M4" s="172">
@@ -5621,7 +5583,7 @@
         <v>0.5</v>
       </c>
       <c r="K5" s="170" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L5" s="171"/>
       <c r="M5" s="172">
@@ -5648,7 +5610,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="K6" s="170" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L6" s="171"/>
       <c r="M6" s="172">
@@ -5673,7 +5635,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="K7" s="170" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L7" s="171"/>
       <c r="M7" s="172">

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9AEA19-8443-4D0E-ABE7-CAC692031407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E9614-466C-41D1-B118-16C7DBD34016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="7" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudar" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="173">
   <si>
     <t>Cadeira</t>
   </si>
@@ -542,6 +542,18 @@
   </si>
   <si>
     <t>ler thinkOS</t>
+  </si>
+  <si>
+    <t>até guiao 5</t>
+  </si>
+  <si>
+    <t>teste isd</t>
+  </si>
+  <si>
+    <t>isd</t>
+  </si>
+  <si>
+    <t>MPEI-TP / isd</t>
   </si>
 </sst>
 </file>
@@ -2413,13 +2425,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="82" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="82" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" style="82" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" style="82" bestFit="1" customWidth="1"/>
@@ -2432,7 +2444,29 @@
     <col min="15" max="16384" width="8.88671875" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="82">
+        <v>16</v>
+      </c>
+      <c r="C1" s="82">
+        <v>17</v>
+      </c>
+      <c r="D1" s="82">
+        <v>18</v>
+      </c>
+      <c r="E1" s="82">
+        <v>19</v>
+      </c>
+      <c r="F1" s="82">
+        <v>20</v>
+      </c>
+      <c r="G1" s="82">
+        <v>21</v>
+      </c>
+      <c r="H1" s="82">
+        <v>22</v>
+      </c>
+    </row>
     <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="89" t="s">
         <v>98</v>
@@ -2557,7 +2591,9 @@
       <c r="K5" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="102"/>
+      <c r="L5" s="102" t="s">
+        <v>170</v>
+      </c>
       <c r="M5" s="99"/>
       <c r="N5" s="103"/>
     </row>
@@ -2588,7 +2624,9 @@
       </c>
       <c r="B7" s="156"/>
       <c r="C7" s="157"/>
-      <c r="D7" s="155"/>
+      <c r="D7" s="155" t="s">
+        <v>171</v>
+      </c>
       <c r="E7" s="156"/>
       <c r="F7" s="158"/>
       <c r="G7" s="156"/>
@@ -2612,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="D8" s="187" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="E8" s="186" t="s">
         <v>106</v>
@@ -2742,7 +2780,9 @@
       </c>
       <c r="B13" s="93"/>
       <c r="C13" s="128"/>
-      <c r="D13" s="90"/>
+      <c r="D13" s="90" t="s">
+        <v>170</v>
+      </c>
       <c r="E13" s="93"/>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
@@ -2873,7 +2913,9 @@
       <c r="F21" s="144"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="146"/>
+      <c r="A22" s="146" t="s">
+        <v>169</v>
+      </c>
       <c r="B22" s="147"/>
       <c r="C22" s="146"/>
       <c r="D22" s="147"/>
@@ -4693,7 +4735,7 @@
   <dimension ref="A2:Q16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4765,9 +4807,7 @@
       <c r="L3" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="3">
-        <v>10</v>
-      </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="6">
         <v>0.27</v>
       </c>
@@ -4807,9 +4847,7 @@
       <c r="L4" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="M4" s="3">
-        <v>10</v>
-      </c>
+      <c r="M4" s="3"/>
       <c r="N4" s="6">
         <v>0.33</v>
       </c>
@@ -4972,7 +5010,7 @@
       <c r="M10" s="166"/>
       <c r="N10" s="159">
         <f>(M3*N3 + M4*N4+ M5*N5 + M6*N6)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="3"/>
@@ -4997,7 +5035,7 @@
       </c>
       <c r="N11" s="168">
         <f>( M3*0.45 + M4*0.55)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,7 +5059,7 @@
       </c>
       <c r="B13" s="3">
         <f>(C10+F10+J10+N10)/4</f>
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5450,8 +5488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5023A22B-A7B8-4F5A-B287-157EE962F98A}">
   <dimension ref="A2:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5515,7 +5553,9 @@
       <c r="K3" s="170" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="171"/>
+      <c r="L3" s="171">
+        <v>13</v>
+      </c>
       <c r="M3" s="172">
         <v>0.2</v>
       </c>
@@ -5706,7 +5746,7 @@
       <c r="L10" s="174"/>
       <c r="M10" s="175">
         <f>(L3*M3 + L4*M4+ L5*M5 + L6*M6+ L7*M7)</f>
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N10" s="169"/>
       <c r="O10" s="171"/>
@@ -5751,7 +5791,7 @@
       </c>
       <c r="B13" s="3">
         <f>(C10+F10+I10+M10)/4</f>
-        <v>8</v>
+        <v>8.65</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>39</v>

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E9614-466C-41D1-B118-16C7DBD34016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DCB7F1-F84A-47C7-AC77-6DED79F7C927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="7" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="6" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudar" sheetId="7" r:id="rId1"/>
     <sheet name="Tudo" sheetId="1" r:id="rId2"/>
     <sheet name="3º ANO - 2º Semestre" sheetId="8" r:id="rId3"/>
-    <sheet name="3º ANO - 1º Semestre" sheetId="6" r:id="rId4"/>
-    <sheet name="2º ANO - 2º Semestre" sheetId="5" r:id="rId5"/>
-    <sheet name="2º ANO - 1º Semestre" sheetId="4" r:id="rId6"/>
-    <sheet name="1º ANO - 2º Semestre" sheetId="3" r:id="rId7"/>
+    <sheet name="2º ANO - 2º Semestre" sheetId="5" r:id="rId4"/>
+    <sheet name="1º ANO - 2º Semestre" sheetId="3" r:id="rId5"/>
+    <sheet name="3º ANO - 1º Semestre" sheetId="6" r:id="rId6"/>
+    <sheet name="2º ANO - 1º Semestre" sheetId="4" r:id="rId7"/>
     <sheet name="1º ANO - 1º Semestre" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -3980,304 +3980,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC10043-F51A-4DB1-8C0B-313C8D48A7CD}">
-  <dimension ref="A2:P14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="20"/>
-    <col min="2" max="2" width="10" style="20" customWidth="1"/>
-    <col min="3" max="3" width="11" style="20" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="20"/>
-    <col min="5" max="5" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="8" style="20" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="214" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="215"/>
-      <c r="F2" s="214" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="215"/>
-      <c r="J2" s="214" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="215"/>
-      <c r="O2" s="212" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="213"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="160">
-        <v>0.45</v>
-      </c>
-      <c r="E3" s="162" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="161"/>
-      <c r="G3" s="163">
-        <f>25%</f>
-        <v>0.25</v>
-      </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="164">
-        <v>0.2</v>
-      </c>
-      <c r="O3" s="21">
-        <v>10.4</v>
-      </c>
-      <c r="P3" s="24">
-        <f>10%</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="163">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="162" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="163">
-        <f>25%</f>
-        <v>0.25</v>
-      </c>
-      <c r="H4" s="162"/>
-      <c r="I4" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" s="161"/>
-      <c r="K4" s="164">
-        <v>0.05</v>
-      </c>
-      <c r="O4" s="21">
-        <v>12.3</v>
-      </c>
-      <c r="P4" s="24">
-        <f>10%</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="163">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="162" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="161"/>
-      <c r="G5" s="163">
-        <f>25%</f>
-        <v>0.25</v>
-      </c>
-      <c r="H5" s="162"/>
-      <c r="I5" s="165" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="161">
-        <v>20</v>
-      </c>
-      <c r="K5" s="164">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="21">
-        <v>16.3</v>
-      </c>
-      <c r="P5" s="24">
-        <f>25%</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
-      <c r="E6" s="162" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="161"/>
-      <c r="G6" s="163">
-        <f>25%</f>
-        <v>0.25</v>
-      </c>
-      <c r="H6" s="162"/>
-      <c r="I6" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="161"/>
-      <c r="K6" s="164">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="O6" s="21">
-        <v>14.4</v>
-      </c>
-      <c r="P6" s="24">
-        <f>10%</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="J7" s="161"/>
-      <c r="K7" s="164">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="O7" s="21">
-        <v>8</v>
-      </c>
-      <c r="P7" s="31">
-        <f>45%</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="161"/>
-      <c r="K8" s="164">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="25"/>
-      <c r="I9" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="161">
-        <v>20</v>
-      </c>
-      <c r="K9" s="164">
-        <v>0.1</v>
-      </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="21">
-        <f>(B3*C3 + B4*C4+ B5*C5)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21">
-        <f>(F3*G3 + F4*G4+ F5*G5 + F6*G6)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21">
-        <f>(J3*K3+J4*K4+J5*K5+J6*K6+J7*K7+J8*K8+J9*K9)</f>
-        <v>3</v>
-      </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21">
-        <f t="array" ref="P10">ROUND(SUMPRODUCT(IF(O3:O7&lt;&gt;"",O3:O7*P3:P7,0))/SUM(IF(O3:O7&lt;&gt;"", P3:P7,0)),0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="20">
-        <f t="array" ref="C11">ROUND(SUM(B3:B5*C3:C5),2)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="array" ref="G11">ROUND(SUM(F3:F6*G3:G6),2)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
-        <f t="array" ref="K11">ROUND(SUM(J3:J9*K3:K9),2)</f>
-        <v>3</v>
-      </c>
-      <c r="P11" s="20">
-        <f t="array" ref="P11">ROUND(SUM(O3:O7*P3:P7),2)</f>
-        <v>11.39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="21">
-        <f>(C10+G10+K10+P10)/4</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="20">
-        <f>SUM(C11,K11,P11,G11)/4</f>
-        <v>3.5975000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F1879-E528-4352-86BD-F5E31A7A058F}">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -4730,12 +4436,658 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FF9CF-B77D-46A6-8A4A-A68ED590C25C}">
+  <dimension ref="A2:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="217"/>
+      <c r="E2" s="216" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="217"/>
+      <c r="H2" s="216" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="217"/>
+      <c r="K2" s="216" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="217"/>
+      <c r="N2" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="217"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="3">
+        <v>10</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="3">
+        <v>15.14</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="3">
+        <v>10</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3">
+        <v>10</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3">
+        <f t="array" ref="C10">ROUND(SUM(B3:B6*C3:C6),0)</f>
+        <v>10</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="3">
+        <f>ROUND(       PRODUCT(      SUM(PRODUCT(K3,L3),PRODUCT(K4,L4),PRODUCT(K5,L5),PRODUCT(K6,L6),PRODUCT(K7,L7)), ),1)</f>
+        <v>15.5</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="array" ref="L10">ROUND(SUM(K3:K8*L3:L8),0)</f>
+        <v>16</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <f>(C10+L10+F10+I10+O10)/5</f>
+        <v>12.4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC10043-F51A-4DB1-8C0B-313C8D48A7CD}">
+  <dimension ref="A2:P14"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="20"/>
+    <col min="2" max="2" width="10" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="20"/>
+    <col min="5" max="5" width="7" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8" style="20" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="20" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="214" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="215"/>
+      <c r="F2" s="214" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="215"/>
+      <c r="J2" s="214" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="215"/>
+      <c r="O2" s="212" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="213"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="161"/>
+      <c r="C3" s="160">
+        <v>0.45</v>
+      </c>
+      <c r="E3" s="162" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="161"/>
+      <c r="G3" s="163">
+        <f>25%</f>
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="162"/>
+      <c r="I3" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="161"/>
+      <c r="K3" s="164">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="21">
+        <v>10.4</v>
+      </c>
+      <c r="P3" s="24">
+        <f>10%</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="161"/>
+      <c r="C4" s="163">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="162" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="161"/>
+      <c r="G4" s="163">
+        <f>25%</f>
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="162"/>
+      <c r="I4" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="161"/>
+      <c r="K4" s="164">
+        <v>0.05</v>
+      </c>
+      <c r="O4" s="21">
+        <v>12.3</v>
+      </c>
+      <c r="P4" s="24">
+        <f>10%</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="161"/>
+      <c r="C5" s="163">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="162" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="161"/>
+      <c r="G5" s="163">
+        <f>25%</f>
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="162"/>
+      <c r="I5" s="165" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="161"/>
+      <c r="K5" s="164">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="21">
+        <v>16.3</v>
+      </c>
+      <c r="P5" s="24">
+        <f>25%</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="161"/>
+      <c r="C6" s="163"/>
+      <c r="E6" s="162" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="161"/>
+      <c r="G6" s="163">
+        <f>25%</f>
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="162"/>
+      <c r="I6" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="161"/>
+      <c r="K6" s="164">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="O6" s="21">
+        <v>14.4</v>
+      </c>
+      <c r="P6" s="24">
+        <f>10%</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="161"/>
+      <c r="K7" s="164">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="O7" s="21">
+        <v>8</v>
+      </c>
+      <c r="P7" s="31">
+        <f>45%</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="161"/>
+      <c r="K8" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="25"/>
+      <c r="I9" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="161"/>
+      <c r="K9" s="164">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="21">
+        <f>(B3*C3 + B4*C4+ B5*C5)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21">
+        <f>(F3*G3 + F4*G4+ F5*G5 + F6*G6)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21">
+        <f>(J3*K3+J4*K4+J5*K5+J6*K6+J7*K7+J8*K8+J9*K9)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21">
+        <f t="array" ref="P10">ROUND(SUMPRODUCT(IF(O3:O7&lt;&gt;"",O3:O7*P3:P7,0))/SUM(IF(O3:O7&lt;&gt;"", P3:P7,0)),0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="20">
+        <f t="array" ref="C11">ROUND(SUM(B3:B5*C3:C5),2)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="array" ref="G11">ROUND(SUM(F3:F6*G3:G6),2)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="array" ref="K11">ROUND(SUM(J3:J9*K3:K9),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="20">
+        <f t="array" ref="P11">ROUND(SUM(O3:O7*P3:P7),2)</f>
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="21">
+        <f>(C10+G10+K10+P10)/4</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="20">
+        <f>SUM(C11,K11,P11,G11)/4</f>
+        <v>2.8475000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDD666-62CA-4935-98B3-7465ACEEDE34}">
   <dimension ref="A2:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4807,7 +5159,9 @@
       <c r="L3" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="N3" s="6">
         <v>0.27</v>
       </c>
@@ -5010,7 +5364,7 @@
       <c r="M10" s="166"/>
       <c r="N10" s="159">
         <f>(M3*N3 + M4*N4+ M5*N5 + M6*N6)</f>
-        <v>0</v>
+        <v>2.6189999999999998</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="3"/>
@@ -5035,7 +5389,7 @@
       </c>
       <c r="N11" s="168">
         <f>( M3*0.45 + M4*0.55)</f>
-        <v>0</v>
+        <v>4.3650000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,7 +5413,7 @@
       </c>
       <c r="B13" s="3">
         <f>(C10+F10+J10+N10)/4</f>
-        <v>9</v>
+        <v>9.6547499999999999</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5128,380 +5482,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FF9CF-B77D-46A6-8A4A-A68ED590C25C}">
-  <dimension ref="A2:O13"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5023A22B-A7B8-4F5A-B287-157EE962F98A}">
+  <dimension ref="A2:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="216" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="217"/>
-      <c r="E2" s="216" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="217"/>
-      <c r="H2" s="216" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="217"/>
-      <c r="K2" s="216" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="217"/>
-      <c r="N2" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="217"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="3">
-        <v>10</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="3">
-        <v>15.14</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="3">
-        <v>10</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3">
-        <v>14.1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="3">
-        <v>10</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3">
-        <v>16.7</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="3">
-        <v>10</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3">
-        <v>17.7</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="3">
-        <v>10</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="3">
-        <v>10</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3">
-        <f t="array" ref="C10">ROUND(SUM(B3:B6*C3:C6),0)</f>
-        <v>10</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3">
-        <f>ROUND(       PRODUCT(      SUM(PRODUCT(K3,L3),PRODUCT(K4,L4),PRODUCT(K5,L5),PRODUCT(K6,L6),PRODUCT(K7,L7)), ),1)</f>
-        <v>15.5</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="array" ref="L10">ROUND(SUM(K3:K8*L3:L8),0)</f>
-        <v>16</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1">
-        <f>(C10+L10+F10+I10+O10)/5</f>
-        <v>12.4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5023A22B-A7B8-4F5A-B287-157EE962F98A}">
-  <dimension ref="A2:P20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="16.21875" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" customWidth="1"/>
-    <col min="15" max="15" width="21.109375" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DCB7F1-F84A-47C7-AC77-6DED79F7C927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4309481C-E002-4274-8424-EE14204CA9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="6" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="5" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudar" sheetId="7" r:id="rId1"/>
@@ -1449,7 +1449,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2000,6 +2000,12 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2067,9 +2073,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,12 +2089,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2495,14 +2501,14 @@
       <c r="I2" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="190" t="s">
+      <c r="K2" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="L2" s="191"/>
-      <c r="M2" s="190" t="s">
+      <c r="L2" s="193"/>
+      <c r="M2" s="192" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="191"/>
+      <c r="N2" s="193"/>
     </row>
     <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="150" t="s">
@@ -2992,7 +2998,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="201" t="s">
+      <c r="A3" s="203" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -3004,21 +3010,21 @@
       <c r="D3" s="16">
         <v>6</v>
       </c>
-      <c r="E3" s="192">
+      <c r="E3" s="194">
         <f>AVERAGE(C3:C7)</f>
         <v>11.25</v>
       </c>
-      <c r="F3" s="195">
+      <c r="F3" s="197">
         <f t="array" ref="F3">SUMPRODUCT(IF(C3:C12&lt;&gt;"",C3:C12*D3:D12,0))/SUM(IF(C3:C12&lt;&gt;"", D3:D12,0))</f>
         <v>11.888888888888889</v>
       </c>
-      <c r="G3" s="195">
+      <c r="G3" s="197">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C32&lt;&gt;"",C3:C32*D3:D32,0))/SUM(IF(C3:C32&lt;&gt;"", D3:D32,0)),2)</f>
         <v>11.83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="202"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
@@ -3028,12 +3034,12 @@
       <c r="D4" s="17">
         <v>6</v>
       </c>
-      <c r="E4" s="193"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="202"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="43" t="s">
         <v>6</v>
       </c>
@@ -3041,12 +3047,12 @@
       <c r="D5" s="17">
         <v>6</v>
       </c>
-      <c r="E5" s="193"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="202"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
@@ -3056,12 +3062,12 @@
       <c r="D6" s="17">
         <v>6</v>
       </c>
-      <c r="E6" s="193"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="202"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="57" t="s">
         <v>65</v>
       </c>
@@ -3071,12 +3077,12 @@
       <c r="D7" s="18">
         <v>6</v>
       </c>
-      <c r="E7" s="194"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="202"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="73" t="s">
         <v>3</v>
       </c>
@@ -3086,15 +3092,15 @@
       <c r="D8" s="77">
         <v>6</v>
       </c>
-      <c r="E8" s="192">
+      <c r="E8" s="194">
         <f>AVERAGE(C8:C12)</f>
         <v>12.4</v>
       </c>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="202"/>
+      <c r="A9" s="204"/>
       <c r="B9" s="74" t="s">
         <v>4</v>
       </c>
@@ -3104,12 +3110,12 @@
       <c r="D9" s="79">
         <v>6</v>
       </c>
-      <c r="E9" s="193"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="202"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="74" t="s">
         <v>9</v>
       </c>
@@ -3119,12 +3125,12 @@
       <c r="D10" s="79">
         <v>6</v>
       </c>
-      <c r="E10" s="193"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="202"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="74" t="s">
         <v>14</v>
       </c>
@@ -3134,12 +3140,12 @@
       <c r="D11" s="79">
         <v>6</v>
       </c>
-      <c r="E11" s="193"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="203"/>
+      <c r="A12" s="205"/>
       <c r="B12" s="75" t="s">
         <v>10</v>
       </c>
@@ -3149,12 +3155,12 @@
       <c r="D12" s="81">
         <v>6</v>
       </c>
-      <c r="E12" s="194"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="198"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="204" t="s">
+      <c r="A13" s="206" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -3166,18 +3172,18 @@
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="192">
+      <c r="E13" s="194">
         <f>AVERAGE(C13:C17)</f>
         <v>11.75</v>
       </c>
-      <c r="F13" s="195">
+      <c r="F13" s="197">
         <f t="array" ref="F13">SUMPRODUCT(IF(C13:C22&lt;&gt;"",C13:C22*D13:D22,0))/SUM(IF(C13:C22&lt;&gt;"", D13:D22,0))</f>
         <v>11.875</v>
       </c>
-      <c r="G13" s="196"/>
+      <c r="G13" s="198"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="205"/>
+      <c r="A14" s="207"/>
       <c r="B14" s="43" t="s">
         <v>12</v>
       </c>
@@ -3187,12 +3193,12 @@
       <c r="D14" s="17">
         <v>6</v>
       </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="196"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="198"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="205"/>
+      <c r="A15" s="207"/>
       <c r="B15" s="43" t="s">
         <v>24</v>
       </c>
@@ -3202,15 +3208,15 @@
       <c r="D15" s="17">
         <v>6</v>
       </c>
-      <c r="E15" s="193"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
       <c r="J15" s="71" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="205"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="43" t="s">
         <v>13</v>
       </c>
@@ -3218,12 +3224,12 @@
       <c r="D16" s="17">
         <v>6</v>
       </c>
-      <c r="E16" s="193"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="205"/>
+      <c r="A17" s="207"/>
       <c r="B17" s="44" t="s">
         <v>40</v>
       </c>
@@ -3233,12 +3239,12 @@
       <c r="D17" s="18">
         <v>6</v>
       </c>
-      <c r="E17" s="194"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="205"/>
+      <c r="A18" s="207"/>
       <c r="B18" s="45" t="s">
         <v>15</v>
       </c>
@@ -3248,15 +3254,15 @@
       <c r="D18" s="16">
         <v>6</v>
       </c>
-      <c r="E18" s="192">
+      <c r="E18" s="194">
         <f>AVERAGE(C18:C22)</f>
         <v>12</v>
       </c>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="205"/>
+      <c r="A19" s="207"/>
       <c r="B19" s="46" t="s">
         <v>17</v>
       </c>
@@ -3266,12 +3272,12 @@
       <c r="D19" s="17">
         <v>6</v>
       </c>
-      <c r="E19" s="193"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="205"/>
+      <c r="A20" s="207"/>
       <c r="B20" s="46" t="s">
         <v>25</v>
       </c>
@@ -3281,12 +3287,12 @@
       <c r="D20" s="17">
         <v>6</v>
       </c>
-      <c r="E20" s="193"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="198"/>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="205"/>
+      <c r="A21" s="207"/>
       <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
@@ -3294,12 +3300,12 @@
       <c r="D21" s="17">
         <v>6</v>
       </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198"/>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="206"/>
+      <c r="A22" s="208"/>
       <c r="B22" s="58" t="s">
         <v>18</v>
       </c>
@@ -3309,15 +3315,15 @@
       <c r="D22" s="18">
         <v>6</v>
       </c>
-      <c r="E22" s="194"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="198"/>
       <c r="J22" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="207" t="s">
+      <c r="A23" s="209" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -3327,15 +3333,15 @@
       <c r="D23" s="16">
         <v>6</v>
       </c>
-      <c r="E23" s="192">
+      <c r="E23" s="194">
         <f>AVERAGE(C23:C27)</f>
         <v>5.5</v>
       </c>
-      <c r="F23" s="195">
+      <c r="F23" s="197">
         <f t="array" ref="F23">SUMPRODUCT(IF(C23:C32&lt;&gt;"",C23:C32*D23:D32,0))/SUM(IF(C23:C32&lt;&gt;"", D23:D32,0))</f>
         <v>11</v>
       </c>
-      <c r="G23" s="196"/>
+      <c r="G23" s="198"/>
       <c r="J23" s="67" t="s">
         <v>69</v>
       </c>
@@ -3346,7 +3352,7 @@
       <c r="T23" s="72"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="208"/>
+      <c r="A24" s="210"/>
       <c r="B24" s="43" t="s">
         <v>31</v>
       </c>
@@ -3354,9 +3360,9 @@
       <c r="D24" s="17">
         <v>6</v>
       </c>
-      <c r="E24" s="193"/>
-      <c r="F24" s="196"/>
-      <c r="G24" s="196"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
       <c r="J24" s="67" t="s">
         <v>77</v>
       </c>
@@ -3369,7 +3375,7 @@
       <c r="T24" s="72"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="208"/>
+      <c r="A25" s="210"/>
       <c r="B25" s="43" t="s">
         <v>32</v>
       </c>
@@ -3377,9 +3383,9 @@
       <c r="D25" s="17">
         <v>6</v>
       </c>
-      <c r="E25" s="193"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="198"/>
       <c r="J25" s="67" t="s">
         <v>70</v>
       </c>
@@ -3392,7 +3398,7 @@
       <c r="T25" s="72"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="208"/>
+      <c r="A26" s="210"/>
       <c r="B26" s="43" t="s">
         <v>33</v>
       </c>
@@ -3402,9 +3408,9 @@
       <c r="D26" s="17">
         <v>6</v>
       </c>
-      <c r="E26" s="193"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="196"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="198"/>
+      <c r="G26" s="198"/>
       <c r="J26" s="67" t="s">
         <v>72</v>
       </c>
@@ -3417,7 +3423,7 @@
       <c r="T26" s="72"/>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="208"/>
+      <c r="A27" s="210"/>
       <c r="B27" s="63" t="s">
         <v>38</v>
       </c>
@@ -3426,9 +3432,9 @@
         <v>0</v>
       </c>
       <c r="D27" s="62"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="198"/>
       <c r="J27" s="64" t="s">
         <v>71</v>
       </c>
@@ -3444,7 +3450,7 @@
       <c r="T27" s="72"/>
     </row>
     <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="208"/>
+      <c r="A28" s="210"/>
       <c r="B28" s="48" t="s">
         <v>34</v>
       </c>
@@ -3452,12 +3458,12 @@
       <c r="D28" s="19">
         <v>6</v>
       </c>
-      <c r="E28" s="192" t="e">
+      <c r="E28" s="194" t="e">
         <f>AVERAGE(C28:C32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
       <c r="J28" s="66" t="s">
         <v>68</v>
       </c>
@@ -3470,7 +3476,7 @@
       <c r="T28" s="72"/>
     </row>
     <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="208"/>
+      <c r="A29" s="210"/>
       <c r="B29" s="46" t="s">
         <v>35</v>
       </c>
@@ -3478,16 +3484,16 @@
       <c r="D29" s="17">
         <v>6</v>
       </c>
-      <c r="E29" s="193"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
       <c r="O29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="72"/>
       <c r="T29" s="72"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="208"/>
+      <c r="A30" s="210"/>
       <c r="B30" s="46" t="s">
         <v>36</v>
       </c>
@@ -3495,9 +3501,9 @@
       <c r="D30" s="17">
         <v>6</v>
       </c>
-      <c r="E30" s="193"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="198"/>
       <c r="J30" s="65" t="s">
         <v>76</v>
       </c>
@@ -3505,7 +3511,7 @@
       <c r="T30" s="72"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="208"/>
+      <c r="A31" s="210"/>
       <c r="B31" s="46" t="s">
         <v>37</v>
       </c>
@@ -3513,9 +3519,9 @@
       <c r="D31" s="17">
         <v>6</v>
       </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="198"/>
       <c r="J31" s="67" t="s">
         <v>73</v>
       </c>
@@ -3529,7 +3535,7 @@
       <c r="T31" s="72"/>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="209"/>
+      <c r="A32" s="211"/>
       <c r="B32" s="47" t="s">
         <v>38</v>
       </c>
@@ -3537,9 +3543,9 @@
       <c r="D32" s="59">
         <v>12</v>
       </c>
-      <c r="E32" s="194"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="199"/>
       <c r="J32" s="68" t="s">
         <v>85</v>
       </c>
@@ -3581,11 +3587,11 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="198" t="s">
+      <c r="A37" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="199"/>
-      <c r="C37" s="200"/>
+      <c r="B37" s="201"/>
+      <c r="C37" s="202"/>
       <c r="D37">
         <v>12</v>
       </c>
@@ -3632,18 +3638,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="E2" s="210" t="s">
+      <c r="C2" s="213"/>
+      <c r="E2" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="H2" s="210" t="s">
+      <c r="F2" s="213"/>
+      <c r="H2" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="211"/>
+      <c r="I2" s="213"/>
       <c r="K2" s="38" t="s">
         <v>33</v>
       </c>
@@ -4005,26 +4011,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="E2" s="216" t="s">
+      <c r="C2" s="215"/>
+      <c r="E2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="H2" s="216" t="s">
+      <c r="F2" s="215"/>
+      <c r="H2" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="217"/>
-      <c r="K2" s="210" t="s">
+      <c r="I2" s="215"/>
+      <c r="K2" s="212" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="211"/>
-      <c r="N2" s="216" t="s">
+      <c r="L2" s="213"/>
+      <c r="N2" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="217"/>
+      <c r="O2" s="215"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
@@ -4457,26 +4463,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="E2" s="216" t="s">
+      <c r="C2" s="215"/>
+      <c r="E2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="H2" s="216" t="s">
+      <c r="F2" s="215"/>
+      <c r="H2" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="217"/>
-      <c r="K2" s="216" t="s">
+      <c r="I2" s="215"/>
+      <c r="K2" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="217"/>
-      <c r="N2" s="216" t="s">
+      <c r="L2" s="215"/>
+      <c r="N2" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="217"/>
+      <c r="O2" s="215"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -4796,8 +4802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC10043-F51A-4DB1-8C0B-313C8D48A7CD}">
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4818,22 +4824,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="F2" s="214" t="s">
+      <c r="C2" s="219"/>
+      <c r="F2" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="215"/>
-      <c r="J2" s="214" t="s">
+      <c r="G2" s="219"/>
+      <c r="J2" s="218" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="215"/>
-      <c r="O2" s="212" t="s">
+      <c r="K2" s="219"/>
+      <c r="O2" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="213"/>
+      <c r="P2" s="217"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -4843,16 +4849,18 @@
       <c r="C3" s="160">
         <v>0.45</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="190" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="161"/>
+      <c r="F3" s="161">
+        <v>13.4</v>
+      </c>
       <c r="G3" s="163">
         <f>25%</f>
         <v>0.25</v>
       </c>
       <c r="H3" s="162"/>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="190" t="s">
         <v>149</v>
       </c>
       <c r="J3" s="161"/>
@@ -4868,7 +4876,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="190" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="161"/>
@@ -4907,7 +4915,7 @@
       <c r="C5" s="163">
         <v>0.3</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="190" t="s">
         <v>147</v>
       </c>
       <c r="F5" s="161"/>
@@ -4943,7 +4951,7 @@
         <v>0.25</v>
       </c>
       <c r="H6" s="162"/>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="190" t="s">
         <v>152</v>
       </c>
       <c r="J6" s="161"/>
@@ -5024,7 +5032,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21">
         <f>(F3*G3 + F4*G4+ F5*G5 + F6*G6)</f>
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21">
@@ -5044,7 +5052,7 @@
       </c>
       <c r="G11" s="20">
         <f t="array" ref="G11">ROUND(SUM(F3:F6*G3:G6),2)</f>
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K11" s="20">
         <f t="array" ref="K11">ROUND(SUM(J3:J9*K3:K9),2)</f>
@@ -5061,13 +5069,13 @@
       </c>
       <c r="B13" s="21">
         <f>(C10+G10+K10+P10)/4</f>
-        <v>2.75</v>
+        <v>3.5874999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="20">
         <f>SUM(C11,K11,P11,G11)/4</f>
-        <v>2.8475000000000001</v>
+        <v>3.6850000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5086,8 +5094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDD666-62CA-4935-98B3-7465ACEEDE34}">
   <dimension ref="A2:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5109,26 +5117,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="E2" s="216" t="s">
+      <c r="C2" s="215"/>
+      <c r="E2" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="I2" s="216" t="s">
+      <c r="F2" s="215"/>
+      <c r="I2" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="217"/>
-      <c r="M2" s="218" t="s">
+      <c r="J2" s="215"/>
+      <c r="M2" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="219"/>
-      <c r="P2" s="216" t="s">
+      <c r="N2" s="221"/>
+      <c r="P2" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="217"/>
+      <c r="Q2" s="215"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
@@ -5238,7 +5246,7 @@
         <v>0.1</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="190" t="s">
         <v>149</v>
       </c>
       <c r="M5" s="3"/>
@@ -5487,7 +5495,7 @@
   <dimension ref="A2:P20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5504,28 +5512,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="E2" s="216" t="s">
+      <c r="C2" s="215"/>
+      <c r="E2" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="H2" s="216" t="s">
+      <c r="F2" s="215"/>
+      <c r="H2" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="217"/>
+      <c r="I2" s="215"/>
       <c r="K2" s="169"/>
-      <c r="L2" s="222" t="s">
+      <c r="L2" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="223"/>
+      <c r="M2" s="225"/>
       <c r="N2" s="169"/>
-      <c r="O2" s="220" t="s">
+      <c r="O2" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="221"/>
+      <c r="P2" s="223"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -5549,7 +5557,7 @@
       <c r="I3" s="6">
         <v>0.2</v>
       </c>
-      <c r="K3" s="170" t="s">
+      <c r="K3" s="191" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="171">

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4309481C-E002-4274-8424-EE14204CA9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F92858-0F7B-4F72-A700-B3A7AE749398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="5" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" firstSheet="4" activeTab="6" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudar" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
   <si>
     <t>Cadeira</t>
   </si>
@@ -427,18 +427,9 @@
     <t>20h -&gt;</t>
   </si>
   <si>
-    <t>aula3 2)</t>
-  </si>
-  <si>
-    <t>ficha2:</t>
-  </si>
-  <si>
     <t>EXTRA/Feriado</t>
   </si>
   <si>
-    <t>2.1.6</t>
-  </si>
-  <si>
     <t>13h</t>
   </si>
   <si>
@@ -520,33 +511,12 @@
     <t>Tp1</t>
   </si>
   <si>
-    <t>tp2</t>
-  </si>
-  <si>
-    <t>tp3</t>
-  </si>
-  <si>
     <t>s1</t>
   </si>
   <si>
     <t>s2</t>
   </si>
   <si>
-    <t>2.2.todos</t>
-  </si>
-  <si>
-    <t>aula4</t>
-  </si>
-  <si>
-    <t>guiao 2-3</t>
-  </si>
-  <si>
-    <t>ler thinkOS</t>
-  </si>
-  <si>
-    <t>até guiao 5</t>
-  </si>
-  <si>
     <t>teste isd</t>
   </si>
   <si>
@@ -554,6 +524,66 @@
   </si>
   <si>
     <t>MPEI-TP / isd</t>
+  </si>
+  <si>
+    <t>Tp2</t>
+  </si>
+  <si>
+    <t>Tp3</t>
+  </si>
+  <si>
+    <t>participação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teorica: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total: </t>
+  </si>
+  <si>
+    <t>RecursoT</t>
+  </si>
+  <si>
+    <t>RecursoP</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Teorica:</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>RecursoP:</t>
+  </si>
+  <si>
+    <t>RecursoT:</t>
+  </si>
+  <si>
+    <t>11,7 no prrimeiro</t>
+  </si>
+  <si>
+    <t>pratica</t>
+  </si>
+  <si>
+    <t>1º mini teste</t>
+  </si>
+  <si>
+    <t>2º mini teste</t>
+  </si>
+  <si>
+    <t>assiduidade TP</t>
+  </si>
+  <si>
+    <t>PL03</t>
+  </si>
+  <si>
+    <t>PL04</t>
+  </si>
+  <si>
+    <t>Nota Final:</t>
   </si>
 </sst>
 </file>
@@ -563,7 +593,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,17 +690,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
@@ -679,18 +698,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,8 +819,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1443,13 +1481,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1687,12 +1878,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1732,9 +1917,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1747,9 +1929,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1786,22 +1965,13 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1831,18 +2001,9 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1852,36 +2013,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1909,9 +2040,6 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1924,20 +2052,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1949,9 +2065,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2006,12 +2119,384 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2078,22 +2563,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2102,11 +2599,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2429,525 +2932,856 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="82" customWidth="1"/>
+    <col min="3" max="3" width="13" style="82" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="82" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="82" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.6640625" style="82" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" style="82" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" style="82" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="82" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="18.21875" style="82" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="82"/>
+    <col min="15" max="15" width="8.88671875" style="82"/>
+    <col min="16" max="16" width="11.33203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="82"/>
+    <col min="20" max="20" width="9.88671875" style="82" customWidth="1"/>
+    <col min="21" max="22" width="7.6640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.88671875" style="82"/>
+    <col min="25" max="26" width="7.6640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" style="82" customWidth="1"/>
+    <col min="28" max="28" width="24.21875" style="82" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.6640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6640625" style="82" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" style="82" customWidth="1"/>
+    <col min="32" max="32" width="6.109375" style="82" customWidth="1"/>
+    <col min="33" max="33" width="6.21875" style="82" customWidth="1"/>
+    <col min="34" max="34" width="6.33203125" style="82" customWidth="1"/>
+    <col min="35" max="35" width="5.88671875" style="82" customWidth="1"/>
+    <col min="36" max="16384" width="8.88671875" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="82">
-        <v>16</v>
-      </c>
+    <row r="1" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="82">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D1" s="82">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E1" s="82">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F1" s="82">
+        <v>1</v>
+      </c>
+      <c r="G1" s="82">
+        <v>2</v>
+      </c>
+      <c r="H1" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="281" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="282"/>
+      <c r="M2" s="281" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="282"/>
+      <c r="P2" s="290" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="291"/>
+      <c r="R2" s="292"/>
+      <c r="T2" s="293" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="294"/>
+      <c r="V2" s="295"/>
+      <c r="X2" s="269" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="270"/>
+      <c r="Z2" s="271"/>
+      <c r="AB2" s="218" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="219"/>
+      <c r="AD2" s="220"/>
+      <c r="AF2" s="20"/>
+    </row>
+    <row r="3" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="160" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="160" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="156" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="173"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="93"/>
+      <c r="P3" s="188" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q3" s="224">
+        <v>13</v>
+      </c>
+      <c r="R3" s="225">
+        <v>0.2</v>
+      </c>
+      <c r="T3" s="198" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" s="227">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V3" s="228">
+        <v>0.27</v>
+      </c>
+      <c r="X3" s="179" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="200">
+        <v>0.45</v>
+      </c>
+      <c r="AB3" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC3" s="231"/>
+      <c r="AD3" s="232">
+        <v>0.2</v>
+      </c>
+      <c r="AF3" s="141"/>
+    </row>
+    <row r="4" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="131" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="163"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="161"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="173"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="93"/>
+      <c r="P4" s="188" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="184">
+        <v>16.3</v>
+      </c>
+      <c r="R4" s="226">
+        <v>0.2</v>
+      </c>
+      <c r="T4" s="238" t="s">
+        <v>154</v>
+      </c>
+      <c r="U4" s="239"/>
+      <c r="V4" s="240">
+        <v>0.33</v>
+      </c>
+      <c r="X4" s="191" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="230">
+        <v>0.25</v>
+      </c>
+      <c r="AB4" s="180" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC4" s="190"/>
+      <c r="AD4" s="193">
+        <v>0.05</v>
+      </c>
+      <c r="AF4" s="141"/>
+    </row>
+    <row r="5" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="160" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="158" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="150" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="156" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="174"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="100"/>
+      <c r="P5" s="189" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q5" s="187"/>
+      <c r="R5" s="185">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="191" t="s">
+        <v>146</v>
+      </c>
+      <c r="U5" s="182">
+        <v>8.5</v>
+      </c>
+      <c r="V5" s="229">
+        <v>0.16</v>
+      </c>
+      <c r="X5" s="181" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="202">
+        <v>0.3</v>
+      </c>
+      <c r="AB5" s="194" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC5" s="190"/>
+      <c r="AD5" s="193">
+        <v>0.05</v>
+      </c>
+      <c r="AF5" s="141"/>
+    </row>
+    <row r="6" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="131" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="175"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="96"/>
+      <c r="P6" s="188" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q6" s="184">
         <v>20</v>
       </c>
-      <c r="G1" s="82">
-        <v>21</v>
-      </c>
-      <c r="H1" s="82">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="192" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="193"/>
-      <c r="M2" s="192" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" s="193"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="150" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="188" t="s">
+      <c r="R6" s="226">
+        <v>0.15</v>
+      </c>
+      <c r="T6" s="235" t="s">
+        <v>155</v>
+      </c>
+      <c r="U6" s="236"/>
+      <c r="V6" s="237">
+        <v>0.24</v>
+      </c>
+      <c r="X6" s="272"/>
+      <c r="Y6" s="277"/>
+      <c r="Z6" s="273"/>
+      <c r="AB6" s="191" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="233">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AF6" s="141"/>
+    </row>
+    <row r="7" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="136"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="135" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="136"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="176"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="105"/>
+      <c r="P7" s="189" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="185">
+        <v>0.15</v>
+      </c>
+      <c r="T7" s="274"/>
+      <c r="U7" s="275"/>
+      <c r="V7" s="276"/>
+      <c r="X7" s="215" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y7" s="216">
+        <f>(Y4*Z4 + Y5*Z5+ Y6*Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="217"/>
+      <c r="AB7" s="180" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC7" s="190"/>
+      <c r="AD7" s="193">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AF7" s="141"/>
+    </row>
+    <row r="8" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="130" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="160" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="161" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="160" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="186" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="186" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="180" t="s">
+      <c r="G8" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="182" t="s">
+      <c r="H8" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="178" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="150" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="95"/>
-    </row>
-    <row r="4" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="151" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="187"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="151" t="s">
+      <c r="I8" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="186" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="186" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="184" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="176" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="186" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="182" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="178" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="103"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="151" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="151" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" s="105"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="98"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="155" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="156"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="155" t="s">
+      <c r="K8" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="177"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="105"/>
+      <c r="P8" s="189" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q8" s="195">
+        <v>0</v>
+      </c>
+      <c r="R8" s="197">
+        <v>0.1</v>
+      </c>
+      <c r="T8" s="205" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="156"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="155" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="107" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="98"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="109"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="150" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="186" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="187" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="186" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="180" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="182" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="178" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="150" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="109"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="109"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="151" t="s">
+      <c r="U8" s="278">
+        <f>( U3*0.45 + U4*0.55)</f>
+        <v>4.3650000000000002</v>
+      </c>
+      <c r="V8" s="279"/>
+      <c r="AB8" s="180" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC8" s="190"/>
+      <c r="AD8" s="193">
+        <v>0.25</v>
+      </c>
+      <c r="AF8" s="141"/>
+    </row>
+    <row r="9" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="131" t="s">
         <v>124</v>
       </c>
       <c r="B9" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="187"/>
-      <c r="D9" s="96" t="s">
+      <c r="C9" s="161"/>
+      <c r="D9" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="151" t="s">
+      <c r="E9" s="161"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="174"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="99"/>
+      <c r="P9" s="285"/>
+      <c r="Q9" s="286"/>
+      <c r="R9" s="287"/>
+      <c r="T9" s="205" t="s">
+        <v>172</v>
+      </c>
+      <c r="U9" s="280">
+        <f>(U3*V3 + U4*V4+ U5*V5 + U6*V6)</f>
+        <v>3.9790000000000001</v>
+      </c>
+      <c r="V9" s="279"/>
+      <c r="X9" s="269" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" s="270"/>
+      <c r="Z9" s="271"/>
+      <c r="AB9" s="181" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC9" s="201"/>
+      <c r="AD9" s="204">
+        <v>0.1</v>
+      </c>
+      <c r="AF9" s="20"/>
+    </row>
+    <row r="10" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="110"/>
+      <c r="C10" s="111" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="156" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="132" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="172"/>
+      <c r="K10" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="176"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="171"/>
+      <c r="P10" s="196" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="288">
+        <f>ROUND((Q3*0.33333+ Q4*0.33333 + Q5*0.33333),2)</f>
+        <v>9.77</v>
+      </c>
+      <c r="R10" s="289"/>
+      <c r="T10" s="274"/>
+      <c r="U10" s="275"/>
+      <c r="V10" s="276"/>
+      <c r="X10" s="198" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y10" s="231">
+        <v>13.4</v>
+      </c>
+      <c r="Z10" s="234">
+        <f>25%</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB10" s="221"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="223"/>
+      <c r="AF10" s="20"/>
+    </row>
+    <row r="11" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="114"/>
+      <c r="C11" s="160" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="115"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="177"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="93"/>
+      <c r="P11" s="214" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q11" s="283">
+        <f>(Q3*R3 + Q4*R4+ Q5*R5 + Q6*R6+ Q7*R7+Q8*R8)</f>
+        <v>8.86</v>
+      </c>
+      <c r="R11" s="284"/>
+      <c r="T11" s="208" t="s">
+        <v>174</v>
+      </c>
+      <c r="U11" s="209"/>
+      <c r="V11" s="210">
+        <v>0.6</v>
+      </c>
+      <c r="X11" s="192" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="186">
+        <f>25%</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB11" s="215" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC11" s="272">
+        <f>(AC3*AD3+AC4*AD4+AC5*AD5+AC6*AD6+AC7*AD7+AC8*AD8+AC9*AD9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="273"/>
+      <c r="AF11" s="20"/>
+    </row>
+    <row r="12" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="130" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="118"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="112" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="102"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="102"/>
-    </row>
-    <row r="10" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="152" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="180" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="182" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="178" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="152" t="s">
+      <c r="K12" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="177"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="93"/>
+      <c r="T12" s="211" t="s">
+        <v>173</v>
+      </c>
+      <c r="U12" s="212"/>
+      <c r="V12" s="213">
+        <v>0.4</v>
+      </c>
+      <c r="X12" s="191" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" s="183"/>
+      <c r="Z12" s="230">
+        <f>25%</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+    </row>
+    <row r="13" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="131" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="174"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="93"/>
+      <c r="T13" s="207" t="s">
+        <v>172</v>
+      </c>
+      <c r="U13" s="272">
+        <f>U11*V11+U12*V12</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="273"/>
+      <c r="X13" s="203" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" s="201"/>
+      <c r="Z13" s="202">
+        <f>25%</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+    </row>
+    <row r="14" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="K10" s="117" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="118"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="120"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="153" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="186" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="153" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11" s="109"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="95"/>
-    </row>
-    <row r="12" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="150" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="150" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" s="109" t="s">
-        <v>168</v>
-      </c>
-      <c r="M12" s="119"/>
-      <c r="N12" s="95"/>
-    </row>
-    <row r="13" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="151" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="102"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="100"/>
-    </row>
-    <row r="14" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="154" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="154" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="132" t="s">
+      <c r="K14" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="M14" s="99"/>
-      <c r="N14" s="95"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="134" t="s">
+      <c r="L14" s="178"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="93"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="X14" s="272"/>
+      <c r="Y14" s="277"/>
+      <c r="Z14" s="273"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+    </row>
+    <row r="15" spans="1:35" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="109"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="95"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="84" t="s">
+      <c r="L15" s="177"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="93"/>
+      <c r="X15" s="215" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y15" s="272">
+        <f>(Y10*Z10 + Y11*Z11+ Y12*Z12 + Y13*Z13)</f>
+        <v>3.35</v>
+      </c>
+      <c r="Z15" s="273"/>
+    </row>
+    <row r="16" spans="1:35" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="160" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="K16" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="177"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="93"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="K17" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="174"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="129"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="B18" s="169"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="109"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="95"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="136" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="K17" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="102"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="139"/>
-    </row>
-    <row r="18" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="140" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="141" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
-      <c r="B19" s="143" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="144"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="146" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="146"/>
-      <c r="B23" s="147"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="148"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="18">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="X14:Z14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2958,7 +3792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F271A766-224E-4EF8-A6BB-32A3CEEA2D41}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -2998,7 +3832,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="305" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -3010,21 +3844,21 @@
       <c r="D3" s="16">
         <v>6</v>
       </c>
-      <c r="E3" s="194">
+      <c r="E3" s="296">
         <f>AVERAGE(C3:C7)</f>
         <v>11.25</v>
       </c>
-      <c r="F3" s="197">
+      <c r="F3" s="299">
         <f t="array" ref="F3">SUMPRODUCT(IF(C3:C12&lt;&gt;"",C3:C12*D3:D12,0))/SUM(IF(C3:C12&lt;&gt;"", D3:D12,0))</f>
         <v>11.888888888888889</v>
       </c>
-      <c r="G3" s="197">
+      <c r="G3" s="299">
         <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C32&lt;&gt;"",C3:C32*D3:D32,0))/SUM(IF(C3:C32&lt;&gt;"", D3:D32,0)),2)</f>
         <v>11.83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="204"/>
+      <c r="A4" s="306"/>
       <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
@@ -3034,12 +3868,12 @@
       <c r="D4" s="17">
         <v>6</v>
       </c>
-      <c r="E4" s="195"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="300"/>
+      <c r="G4" s="300"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
+      <c r="A5" s="306"/>
       <c r="B5" s="43" t="s">
         <v>6</v>
       </c>
@@ -3047,12 +3881,12 @@
       <c r="D5" s="17">
         <v>6</v>
       </c>
-      <c r="E5" s="195"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="204"/>
+      <c r="A6" s="306"/>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
@@ -3062,12 +3896,12 @@
       <c r="D6" s="17">
         <v>6</v>
       </c>
-      <c r="E6" s="195"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="204"/>
+      <c r="A7" s="306"/>
       <c r="B7" s="57" t="s">
         <v>65</v>
       </c>
@@ -3077,12 +3911,12 @@
       <c r="D7" s="18">
         <v>6</v>
       </c>
-      <c r="E7" s="196"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="204"/>
+      <c r="A8" s="306"/>
       <c r="B8" s="73" t="s">
         <v>3</v>
       </c>
@@ -3092,15 +3926,15 @@
       <c r="D8" s="77">
         <v>6</v>
       </c>
-      <c r="E8" s="194">
+      <c r="E8" s="296">
         <f>AVERAGE(C8:C12)</f>
         <v>12.4</v>
       </c>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
+      <c r="F8" s="300"/>
+      <c r="G8" s="300"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="204"/>
+      <c r="A9" s="306"/>
       <c r="B9" s="74" t="s">
         <v>4</v>
       </c>
@@ -3110,12 +3944,12 @@
       <c r="D9" s="79">
         <v>6</v>
       </c>
-      <c r="E9" s="195"/>
-      <c r="F9" s="198"/>
-      <c r="G9" s="198"/>
+      <c r="E9" s="297"/>
+      <c r="F9" s="300"/>
+      <c r="G9" s="300"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="204"/>
+      <c r="A10" s="306"/>
       <c r="B10" s="74" t="s">
         <v>9</v>
       </c>
@@ -3125,12 +3959,12 @@
       <c r="D10" s="79">
         <v>6</v>
       </c>
-      <c r="E10" s="195"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
+      <c r="E10" s="297"/>
+      <c r="F10" s="300"/>
+      <c r="G10" s="300"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="204"/>
+      <c r="A11" s="306"/>
       <c r="B11" s="74" t="s">
         <v>14</v>
       </c>
@@ -3140,12 +3974,12 @@
       <c r="D11" s="79">
         <v>6</v>
       </c>
-      <c r="E11" s="195"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
+      <c r="E11" s="297"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="300"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="205"/>
+      <c r="A12" s="307"/>
       <c r="B12" s="75" t="s">
         <v>10</v>
       </c>
@@ -3155,12 +3989,12 @@
       <c r="D12" s="81">
         <v>6</v>
       </c>
-      <c r="E12" s="196"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="198"/>
+      <c r="E12" s="298"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="300"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="308" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -3172,18 +4006,18 @@
       <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="194">
+      <c r="E13" s="296">
         <f>AVERAGE(C13:C17)</f>
         <v>11.75</v>
       </c>
-      <c r="F13" s="197">
+      <c r="F13" s="299">
         <f t="array" ref="F13">SUMPRODUCT(IF(C13:C22&lt;&gt;"",C13:C22*D13:D22,0))/SUM(IF(C13:C22&lt;&gt;"", D13:D22,0))</f>
         <v>11.875</v>
       </c>
-      <c r="G13" s="198"/>
+      <c r="G13" s="300"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="207"/>
+      <c r="A14" s="309"/>
       <c r="B14" s="43" t="s">
         <v>12</v>
       </c>
@@ -3193,12 +4027,12 @@
       <c r="D14" s="17">
         <v>6</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="198"/>
+      <c r="E14" s="297"/>
+      <c r="F14" s="300"/>
+      <c r="G14" s="300"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="207"/>
+      <c r="A15" s="309"/>
       <c r="B15" s="43" t="s">
         <v>24</v>
       </c>
@@ -3208,15 +4042,15 @@
       <c r="D15" s="17">
         <v>6</v>
       </c>
-      <c r="E15" s="195"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
+      <c r="E15" s="297"/>
+      <c r="F15" s="300"/>
+      <c r="G15" s="300"/>
       <c r="J15" s="71" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="207"/>
+      <c r="A16" s="309"/>
       <c r="B16" s="43" t="s">
         <v>13</v>
       </c>
@@ -3224,12 +4058,12 @@
       <c r="D16" s="17">
         <v>6</v>
       </c>
-      <c r="E16" s="195"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
+      <c r="E16" s="297"/>
+      <c r="F16" s="300"/>
+      <c r="G16" s="300"/>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="207"/>
+      <c r="A17" s="309"/>
       <c r="B17" s="44" t="s">
         <v>40</v>
       </c>
@@ -3239,12 +4073,12 @@
       <c r="D17" s="18">
         <v>6</v>
       </c>
-      <c r="E17" s="196"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
+      <c r="E17" s="298"/>
+      <c r="F17" s="300"/>
+      <c r="G17" s="300"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="207"/>
+      <c r="A18" s="309"/>
       <c r="B18" s="45" t="s">
         <v>15</v>
       </c>
@@ -3254,15 +4088,15 @@
       <c r="D18" s="16">
         <v>6</v>
       </c>
-      <c r="E18" s="194">
+      <c r="E18" s="296">
         <f>AVERAGE(C18:C22)</f>
         <v>12</v>
       </c>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
+      <c r="F18" s="300"/>
+      <c r="G18" s="300"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="207"/>
+      <c r="A19" s="309"/>
       <c r="B19" s="46" t="s">
         <v>17</v>
       </c>
@@ -3272,12 +4106,12 @@
       <c r="D19" s="17">
         <v>6</v>
       </c>
-      <c r="E19" s="195"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
+      <c r="E19" s="297"/>
+      <c r="F19" s="300"/>
+      <c r="G19" s="300"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="207"/>
+      <c r="A20" s="309"/>
       <c r="B20" s="46" t="s">
         <v>25</v>
       </c>
@@ -3287,12 +4121,12 @@
       <c r="D20" s="17">
         <v>6</v>
       </c>
-      <c r="E20" s="195"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="198"/>
+      <c r="E20" s="297"/>
+      <c r="F20" s="300"/>
+      <c r="G20" s="300"/>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="207"/>
+      <c r="A21" s="309"/>
       <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
@@ -3300,12 +4134,12 @@
       <c r="D21" s="17">
         <v>6</v>
       </c>
-      <c r="E21" s="195"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="198"/>
+      <c r="E21" s="297"/>
+      <c r="F21" s="300"/>
+      <c r="G21" s="300"/>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="208"/>
+      <c r="A22" s="310"/>
       <c r="B22" s="58" t="s">
         <v>18</v>
       </c>
@@ -3315,15 +4149,15 @@
       <c r="D22" s="18">
         <v>6</v>
       </c>
-      <c r="E22" s="196"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="198"/>
+      <c r="E22" s="298"/>
+      <c r="F22" s="301"/>
+      <c r="G22" s="300"/>
       <c r="J22" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="209" t="s">
+      <c r="A23" s="311" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -3333,15 +4167,15 @@
       <c r="D23" s="16">
         <v>6</v>
       </c>
-      <c r="E23" s="194">
+      <c r="E23" s="296">
         <f>AVERAGE(C23:C27)</f>
         <v>5.5</v>
       </c>
-      <c r="F23" s="197">
+      <c r="F23" s="299">
         <f t="array" ref="F23">SUMPRODUCT(IF(C23:C32&lt;&gt;"",C23:C32*D23:D32,0))/SUM(IF(C23:C32&lt;&gt;"", D23:D32,0))</f>
         <v>11</v>
       </c>
-      <c r="G23" s="198"/>
+      <c r="G23" s="300"/>
       <c r="J23" s="67" t="s">
         <v>69</v>
       </c>
@@ -3352,7 +4186,7 @@
       <c r="T23" s="72"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="210"/>
+      <c r="A24" s="312"/>
       <c r="B24" s="43" t="s">
         <v>31</v>
       </c>
@@ -3360,9 +4194,9 @@
       <c r="D24" s="17">
         <v>6</v>
       </c>
-      <c r="E24" s="195"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
+      <c r="E24" s="297"/>
+      <c r="F24" s="300"/>
+      <c r="G24" s="300"/>
       <c r="J24" s="67" t="s">
         <v>77</v>
       </c>
@@ -3375,7 +4209,7 @@
       <c r="T24" s="72"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="210"/>
+      <c r="A25" s="312"/>
       <c r="B25" s="43" t="s">
         <v>32</v>
       </c>
@@ -3383,9 +4217,9 @@
       <c r="D25" s="17">
         <v>6</v>
       </c>
-      <c r="E25" s="195"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="198"/>
+      <c r="E25" s="297"/>
+      <c r="F25" s="300"/>
+      <c r="G25" s="300"/>
       <c r="J25" s="67" t="s">
         <v>70</v>
       </c>
@@ -3398,7 +4232,7 @@
       <c r="T25" s="72"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="210"/>
+      <c r="A26" s="312"/>
       <c r="B26" s="43" t="s">
         <v>33</v>
       </c>
@@ -3408,9 +4242,9 @@
       <c r="D26" s="17">
         <v>6</v>
       </c>
-      <c r="E26" s="195"/>
-      <c r="F26" s="198"/>
-      <c r="G26" s="198"/>
+      <c r="E26" s="297"/>
+      <c r="F26" s="300"/>
+      <c r="G26" s="300"/>
       <c r="J26" s="67" t="s">
         <v>72</v>
       </c>
@@ -3423,7 +4257,7 @@
       <c r="T26" s="72"/>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="210"/>
+      <c r="A27" s="312"/>
       <c r="B27" s="63" t="s">
         <v>38</v>
       </c>
@@ -3432,9 +4266,9 @@
         <v>0</v>
       </c>
       <c r="D27" s="62"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="198"/>
-      <c r="G27" s="198"/>
+      <c r="E27" s="298"/>
+      <c r="F27" s="300"/>
+      <c r="G27" s="300"/>
       <c r="J27" s="64" t="s">
         <v>71</v>
       </c>
@@ -3450,7 +4284,7 @@
       <c r="T27" s="72"/>
     </row>
     <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="210"/>
+      <c r="A28" s="312"/>
       <c r="B28" s="48" t="s">
         <v>34</v>
       </c>
@@ -3458,12 +4292,12 @@
       <c r="D28" s="19">
         <v>6</v>
       </c>
-      <c r="E28" s="194" t="e">
+      <c r="E28" s="296" t="e">
         <f>AVERAGE(C28:C32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
+      <c r="F28" s="300"/>
+      <c r="G28" s="300"/>
       <c r="J28" s="66" t="s">
         <v>68</v>
       </c>
@@ -3476,7 +4310,7 @@
       <c r="T28" s="72"/>
     </row>
     <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="210"/>
+      <c r="A29" s="312"/>
       <c r="B29" s="46" t="s">
         <v>35</v>
       </c>
@@ -3484,16 +4318,16 @@
       <c r="D29" s="17">
         <v>6</v>
       </c>
-      <c r="E29" s="195"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
+      <c r="E29" s="297"/>
+      <c r="F29" s="300"/>
+      <c r="G29" s="300"/>
       <c r="O29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="72"/>
       <c r="T29" s="72"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="210"/>
+      <c r="A30" s="312"/>
       <c r="B30" s="46" t="s">
         <v>36</v>
       </c>
@@ -3501,9 +4335,9 @@
       <c r="D30" s="17">
         <v>6</v>
       </c>
-      <c r="E30" s="195"/>
-      <c r="F30" s="198"/>
-      <c r="G30" s="198"/>
+      <c r="E30" s="297"/>
+      <c r="F30" s="300"/>
+      <c r="G30" s="300"/>
       <c r="J30" s="65" t="s">
         <v>76</v>
       </c>
@@ -3511,7 +4345,7 @@
       <c r="T30" s="72"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="210"/>
+      <c r="A31" s="312"/>
       <c r="B31" s="46" t="s">
         <v>37</v>
       </c>
@@ -3519,9 +4353,9 @@
       <c r="D31" s="17">
         <v>6</v>
       </c>
-      <c r="E31" s="195"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="198"/>
+      <c r="E31" s="297"/>
+      <c r="F31" s="300"/>
+      <c r="G31" s="300"/>
       <c r="J31" s="67" t="s">
         <v>73</v>
       </c>
@@ -3535,7 +4369,7 @@
       <c r="T31" s="72"/>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="211"/>
+      <c r="A32" s="313"/>
       <c r="B32" s="47" t="s">
         <v>38</v>
       </c>
@@ -3543,9 +4377,9 @@
       <c r="D32" s="59">
         <v>12</v>
       </c>
-      <c r="E32" s="196"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="199"/>
+      <c r="E32" s="298"/>
+      <c r="F32" s="301"/>
+      <c r="G32" s="301"/>
       <c r="J32" s="68" t="s">
         <v>85</v>
       </c>
@@ -3587,11 +4421,11 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="200" t="s">
+      <c r="A37" s="302" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="201"/>
-      <c r="C37" s="202"/>
+      <c r="B37" s="303"/>
+      <c r="C37" s="304"/>
       <c r="D37">
         <v>12</v>
       </c>
@@ -3623,7 +4457,7 @@
   <dimension ref="A2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" activeCellId="2" sqref="B2:C2 E2:F2 H2:I2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3638,18 +4472,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="314" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="E2" s="212" t="s">
+      <c r="C2" s="315"/>
+      <c r="E2" s="314" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="213"/>
-      <c r="H2" s="212" t="s">
+      <c r="F2" s="315"/>
+      <c r="H2" s="314" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="213"/>
+      <c r="I2" s="315"/>
       <c r="K2" s="38" t="s">
         <v>33</v>
       </c>
@@ -3989,7 +4823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F1879-E528-4352-86BD-F5E31A7A058F}">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -4011,26 +4845,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="E2" s="214" t="s">
+      <c r="C2" s="317"/>
+      <c r="E2" s="316" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="H2" s="214" t="s">
+      <c r="F2" s="317"/>
+      <c r="H2" s="316" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="215"/>
-      <c r="K2" s="212" t="s">
+      <c r="I2" s="317"/>
+      <c r="K2" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="213"/>
-      <c r="N2" s="214" t="s">
+      <c r="L2" s="315"/>
+      <c r="N2" s="316" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="215"/>
+      <c r="O2" s="317"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
@@ -4463,26 +5297,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="316" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="E2" s="214" t="s">
+      <c r="C2" s="317"/>
+      <c r="E2" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="H2" s="214" t="s">
+      <c r="F2" s="317"/>
+      <c r="H2" s="316" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="215"/>
-      <c r="K2" s="214" t="s">
+      <c r="I2" s="317"/>
+      <c r="K2" s="316" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="215"/>
-      <c r="N2" s="214" t="s">
+      <c r="L2" s="317"/>
+      <c r="N2" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="215"/>
+      <c r="O2" s="317"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -4802,8 +5636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC10043-F51A-4DB1-8C0B-313C8D48A7CD}">
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4815,56 +5649,62 @@
     <col min="5" max="5" width="7" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" style="20" customWidth="1"/>
     <col min="7" max="7" width="14.109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="8" style="20" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="20" customWidth="1"/>
     <col min="9" max="9" width="23.21875" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.21875" style="20" customWidth="1"/>
     <col min="11" max="11" width="20.6640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="20"/>
+    <col min="12" max="12" width="15.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.88671875" style="20" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="20" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="218" t="s">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="320" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="F2" s="218" t="s">
+      <c r="C2" s="321"/>
+      <c r="F2" s="320" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="219"/>
-      <c r="J2" s="218" t="s">
+      <c r="G2" s="321"/>
+      <c r="J2" s="322" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="219"/>
-      <c r="O2" s="216" t="s">
+      <c r="K2" s="323"/>
+      <c r="O2" s="320" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="217"/>
+      <c r="P2" s="321"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="160">
+      <c r="A3" s="164" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="140">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C3" s="139">
         <v>0.45</v>
       </c>
-      <c r="E3" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="161">
+      <c r="E3" s="164" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="140">
         <v>13.4</v>
       </c>
-      <c r="G3" s="163">
+      <c r="G3" s="142">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="164">
+      <c r="H3" s="141"/>
+      <c r="I3" s="259" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="260">
+        <v>6</v>
+      </c>
+      <c r="K3" s="261">
         <v>0.2</v>
       </c>
       <c r="O3" s="21">
@@ -4876,28 +5716,37 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="163">
+      <c r="B4" s="140">
+        <v>4.5</v>
+      </c>
+      <c r="C4" s="142">
         <v>0.25</v>
       </c>
-      <c r="E4" s="162" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="163">
+      <c r="E4" s="164" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="140">
+        <v>5.4</v>
+      </c>
+      <c r="G4" s="142">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="H4" s="162"/>
-      <c r="I4" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" s="161"/>
-      <c r="K4" s="164">
-        <v>0.05</v>
+      <c r="H4" s="141"/>
+      <c r="I4" s="262" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="140">
+        <v>12</v>
+      </c>
+      <c r="K4" s="193">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="O4" s="21">
         <v>12.3</v>
@@ -4908,28 +5757,34 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="163">
+      <c r="A5" s="164" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="140">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C5" s="142">
         <v>0.3</v>
       </c>
-      <c r="E5" s="190" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="161"/>
-      <c r="G5" s="163">
+      <c r="E5" s="164" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="140">
+        <v>13.5</v>
+      </c>
+      <c r="G5" s="142">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="H5" s="162"/>
-      <c r="I5" s="165" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="161"/>
-      <c r="K5" s="164">
-        <v>0.05</v>
+      <c r="H5" s="141"/>
+      <c r="I5" s="262" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="140">
+        <v>11.7</v>
+      </c>
+      <c r="K5" s="193">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O5" s="21">
         <v>16.3</v>
@@ -4939,24 +5794,28 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
-      <c r="E6" s="162" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="161"/>
-      <c r="G6" s="163">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="140"/>
+      <c r="C6" s="142"/>
+      <c r="E6" s="164" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="140">
+        <v>12.12</v>
+      </c>
+      <c r="G6" s="142">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="H6" s="162"/>
-      <c r="I6" s="190" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="161"/>
-      <c r="K6" s="164">
-        <v>0.17499999999999999</v>
+      <c r="H6" s="141"/>
+      <c r="I6" s="263" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="258">
+        <v>20</v>
+      </c>
+      <c r="K6" s="204">
+        <v>0.05</v>
       </c>
       <c r="O6" s="21">
         <v>14.4</v>
@@ -4966,19 +5825,20 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="J7" s="161"/>
-      <c r="K7" s="164">
-        <v>0.17499999999999999</v>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="318" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="319"/>
+      <c r="K7" s="267">
+        <f>ROUND(((J4*K4+J5*K5+J6*K6+J3*K3)*100/30),1)</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="O7" s="21">
         <v>8</v>
@@ -4988,102 +5848,132 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="161"/>
-      <c r="K8" s="164">
-        <v>0.25</v>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="140"/>
+      <c r="B8" s="330"/>
+      <c r="C8" s="330"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="259" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="260">
+        <v>7.9</v>
+      </c>
+      <c r="K8" s="261">
+        <v>0.17499999999999999</v>
       </c>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="333">
+        <f>ROUND((B5*C5 +  B4*C4)/55*100,2)</f>
+        <v>11.81</v>
+      </c>
       <c r="F9" s="21"/>
-      <c r="G9" s="25"/>
-      <c r="I9" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="161"/>
-      <c r="K9" s="164">
-        <v>0.1</v>
+      <c r="G9" s="21">
+        <f>(F3*G3 + F4*G4)/50*100</f>
+        <v>9.4</v>
+      </c>
+      <c r="I9" s="264" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="257">
+        <v>14.8</v>
+      </c>
+      <c r="K9" s="193">
+        <v>0.17499999999999999</v>
       </c>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:16" s="243" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="21">
-        <f>(B3*C3 + B4*C4+ B5*C5)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21">
+      <c r="B10" s="331"/>
+      <c r="C10" s="332">
+        <f>ROUND((B3*C3 + B4*C4+ B5*C5),2)</f>
+        <v>11.09</v>
+      </c>
+      <c r="F10" s="242"/>
+      <c r="G10" s="242">
         <f>(F3*G3 + F4*G4+ F5*G5 + F6*G6)</f>
-        <v>3.35</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21">
-        <f>(J3*K3+J4*K4+J5*K5+J6*K6+J7*K7+J8*K8+J9*K9)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21">
+        <v>11.104999999999999</v>
+      </c>
+      <c r="I10" s="262" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="140">
+        <v>5.5</v>
+      </c>
+      <c r="K10" s="193">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="242"/>
+      <c r="P10" s="242">
         <f t="array" ref="P10">ROUND(SUMPRODUCT(IF(O3:O7&lt;&gt;"",O3:O7*P3:P7,0))/SUM(IF(O3:O7&lt;&gt;"", P3:P7,0)),0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="20">
-        <f t="array" ref="C11">ROUND(SUM(B3:B5*C3:C5),2)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="array" ref="G11">ROUND(SUM(F3:F6*G3:G6),2)</f>
-        <v>3.35</v>
-      </c>
-      <c r="K11" s="20">
-        <f t="array" ref="K11">ROUND(SUM(J3:J9*K3:K9),2)</f>
-        <v>0</v>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="265" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="266">
+        <v>15</v>
+      </c>
+      <c r="K11" s="204">
+        <v>0.1</v>
       </c>
       <c r="P11" s="20">
         <f t="array" ref="P11">ROUND(SUM(O3:O7*P3:P7),2)</f>
         <v>11.39</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="318" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="319"/>
+      <c r="K12" s="268">
+        <f>ROUND((J6*K6+J3*K3+J5*K5+J11*K11+J8*K8+J9*K9+J10*K10+J4*K4),0 )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="21">
-        <f>(C10+G10+K10+P10)/4</f>
-        <v>3.5874999999999999</v>
+        <f>(C10+G10+K13+P10)/4</f>
+        <v>10.70875</v>
+      </c>
+      <c r="K13" s="268">
+        <f>(J3*K3+J4*K4+J6*K6+J8*K8+J9*K9+J10*K10+J11*K11+J5*K5)</f>
+        <v>9.64</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="20">
-        <f>SUM(C11,K11,P11,G11)/4</f>
-        <v>3.6850000000000001</v>
+        <f>SUM(C11,K7,P11,G11)/4</f>
+        <v>5.1725000000000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5094,8 +5984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDD666-62CA-4935-98B3-7465ACEEDE34}">
   <dimension ref="A2:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5117,26 +6007,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="316" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="E2" s="214" t="s">
+      <c r="C2" s="317"/>
+      <c r="E2" s="316" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="I2" s="214" t="s">
+      <c r="F2" s="317"/>
+      <c r="I2" s="316" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="215"/>
-      <c r="M2" s="220" t="s">
+      <c r="J2" s="317"/>
+      <c r="M2" s="326" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="221"/>
-      <c r="P2" s="214" t="s">
+      <c r="N2" s="327"/>
+      <c r="P2" s="316" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="215"/>
+      <c r="Q2" s="317"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
@@ -5164,13 +6054,13 @@
         <v>0.12</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="L3" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="244">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="245">
         <v>0.27</v>
       </c>
       <c r="O3" s="5"/>
@@ -5207,10 +6097,12 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="6">
+        <v>154</v>
+      </c>
+      <c r="M4" s="244">
+        <v>0</v>
+      </c>
+      <c r="N4" s="245">
         <v>0.33</v>
       </c>
       <c r="O4" s="5"/>
@@ -5246,11 +6138,13 @@
         <v>0.1</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="6">
+      <c r="L5" s="164" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="244">
+        <v>15.4</v>
+      </c>
+      <c r="N5" s="245">
         <v>0.16</v>
       </c>
       <c r="O5" s="5"/>
@@ -5279,10 +6173,12 @@
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="6">
+        <v>155</v>
+      </c>
+      <c r="M6" s="244">
+        <v>0</v>
+      </c>
+      <c r="N6" s="245">
         <v>0.24</v>
       </c>
       <c r="O6" s="5"/>
@@ -5308,8 +6204,8 @@
         <v>0.6</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="M7" s="246"/>
+      <c r="N7" s="246"/>
       <c r="O7" s="5"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -5326,8 +6222,8 @@
         <v>10</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
       <c r="O8" s="5"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -5342,8 +6238,8 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="M9" s="244"/>
+      <c r="N9" s="244"/>
       <c r="O9" s="5"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -5369,10 +6265,12 @@
         <v>13</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="159">
+      <c r="M10" s="247" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="248">
         <f>(M3*N3 + M4*N4+ M5*N5 + M6*N6)</f>
-        <v>2.6189999999999998</v>
+        <v>5.0830000000000002</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="3"/>
@@ -5392,15 +6290,15 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="167" t="s">
-        <v>159</v>
-      </c>
-      <c r="N11" s="168">
+      <c r="M11" s="249" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="250">
         <f>( M3*0.45 + M4*0.55)</f>
         <v>4.3650000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5421,7 +6319,7 @@
       </c>
       <c r="B13" s="3">
         <f>(C10+F10+J10+N10)/4</f>
-        <v>9.6547499999999999</v>
+        <v>10.27075</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5431,11 +6329,15 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L13" s="254" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="253"/>
+      <c r="N13" s="251">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5445,11 +6347,15 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L14" s="255" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="256"/>
+      <c r="N14" s="252">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5459,9 +6365,14 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="L15" s="324" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" s="325"/>
+      <c r="N15" s="241">
+        <f>M13*N13+M14*N14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
@@ -5473,17 +6384,15 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5492,10 +6401,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5023A22B-A7B8-4F5A-B287-157EE962F98A}">
-  <dimension ref="A2:P20"/>
+  <dimension ref="A2:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5512,28 +6421,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="E2" s="214" t="s">
+      <c r="C2" s="317"/>
+      <c r="E2" s="316" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="H2" s="214" t="s">
+      <c r="F2" s="317"/>
+      <c r="H2" s="316" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="215"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="224" t="s">
+      <c r="I2" s="317"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="328" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="225"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="222" t="s">
+      <c r="M2" s="329"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="223"/>
+      <c r="P2" s="329"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -5557,18 +6466,18 @@
       <c r="I3" s="6">
         <v>0.2</v>
       </c>
-      <c r="K3" s="191" t="s">
-        <v>160</v>
-      </c>
-      <c r="L3" s="171">
+      <c r="K3" s="165" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="146">
         <v>13</v>
       </c>
-      <c r="M3" s="172">
+      <c r="M3" s="147">
         <v>0.2</v>
       </c>
-      <c r="N3" s="169"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172">
+      <c r="N3" s="144"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="147">
         <v>0.2</v>
       </c>
     </row>
@@ -5594,16 +6503,18 @@
       <c r="I4" s="6">
         <v>0.3</v>
       </c>
-      <c r="K4" s="170" t="s">
-        <v>161</v>
-      </c>
-      <c r="L4" s="171"/>
-      <c r="M4" s="172">
+      <c r="K4" s="165" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="146">
+        <v>16.3</v>
+      </c>
+      <c r="M4" s="147">
         <v>0.2</v>
       </c>
-      <c r="N4" s="169"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="172">
+      <c r="N4" s="144"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="147">
         <v>0.3</v>
       </c>
     </row>
@@ -5629,16 +6540,18 @@
       <c r="I5" s="6">
         <v>0.5</v>
       </c>
-      <c r="K5" s="170" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172">
+      <c r="K5" s="165" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" s="146">
+        <v>16</v>
+      </c>
+      <c r="M5" s="147">
         <v>0.2</v>
       </c>
-      <c r="N5" s="169"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="172">
+      <c r="N5" s="144"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="147">
         <v>0.5</v>
       </c>
     </row>
@@ -5656,16 +6569,18 @@
       <c r="G6" s="5"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="K6" s="170" t="s">
-        <v>163</v>
-      </c>
-      <c r="L6" s="171"/>
-      <c r="M6" s="172">
+      <c r="K6" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="146">
+        <v>20</v>
+      </c>
+      <c r="M6" s="147">
         <v>0.15</v>
       </c>
-      <c r="N6" s="169"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
@@ -5681,18 +6596,20 @@
       <c r="G7" s="5"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="K7" s="170" t="s">
-        <v>164</v>
-      </c>
-      <c r="L7" s="171"/>
-      <c r="M7" s="172">
+      <c r="K7" s="165" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="146">
+        <v>0</v>
+      </c>
+      <c r="M7" s="147">
         <v>0.15</v>
       </c>
-      <c r="N7" s="169"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N7" s="144"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5706,12 +6623,18 @@
       <c r="G8" s="5"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
+      <c r="K8" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" s="146">
+        <v>0</v>
+      </c>
+      <c r="M8" s="147">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="144"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="146"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
@@ -5723,12 +6646,17 @@
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="149">
+        <f>ROUND((L3*0.33333+ L4*0.33333 + L5*0.33333),2)</f>
+        <v>15.1</v>
+      </c>
+      <c r="N9" s="144"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -5749,15 +6677,17 @@
       <c r="I10" s="3">
         <v>12</v>
       </c>
-      <c r="K10" s="170"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="175">
-        <f>(L3*M3 + L4*M4+ L5*M5 + L6*M6+ L7*M7)</f>
-        <v>2.6</v>
-      </c>
-      <c r="N10" s="169"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="171">
+      <c r="K10" s="145"/>
+      <c r="L10" s="148" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="149">
+        <f>(L3*M3 + L4*M4+ L5*M5 + L6*M6+ L7*M7+L8*M8)</f>
+        <v>12.06</v>
+      </c>
+      <c r="N10" s="144"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="146">
         <v>13</v>
       </c>
     </row>
@@ -5771,12 +6701,12 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="169"/>
-      <c r="P11" s="169"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5798,7 +6728,7 @@
       </c>
       <c r="B13" s="3">
         <f>(C10+F10+I10+M10)/4</f>
-        <v>8.65</v>
+        <v>11.015000000000001</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>39</v>
@@ -5855,7 +6785,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5869,7 +6799,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5881,8 +6811,10 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5894,8 +6826,10 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5907,6 +6841,32 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -1,41 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F00C91C-D309-456F-9ABB-02C77AED2726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DEA8B7-9D75-4011-9630-0B541F880BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="23040" windowHeight="12336" tabRatio="797" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="1" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estudar" sheetId="7" r:id="rId1"/>
-    <sheet name="Tudo" sheetId="1" r:id="rId2"/>
-    <sheet name="3º ANO - 2º Semestre" sheetId="8" r:id="rId3"/>
-    <sheet name="2º ANO - 2º Semestre" sheetId="5" r:id="rId4"/>
-    <sheet name="1º ANO - 2º Semestre" sheetId="3" r:id="rId5"/>
-    <sheet name="3º ANO - 1º Semestre" sheetId="6" r:id="rId6"/>
-    <sheet name="2º ANO - 1º Semestre" sheetId="4" r:id="rId7"/>
-    <sheet name="1º ANO - 1º Semestre" sheetId="2" r:id="rId8"/>
+    <sheet name="Salario" sheetId="9" r:id="rId1"/>
+    <sheet name="Estudar" sheetId="7" r:id="rId2"/>
+    <sheet name="Tudo" sheetId="1" r:id="rId3"/>
+    <sheet name="3º ANO - 2º Semestre" sheetId="8" r:id="rId4"/>
+    <sheet name="2º ANO - 2º Semestre" sheetId="5" r:id="rId5"/>
+    <sheet name="1º ANO - 2º Semestre" sheetId="3" r:id="rId6"/>
+    <sheet name="3º ANO - 1º Semestre" sheetId="6" r:id="rId7"/>
+    <sheet name="2º ANO - 1º Semestre" sheetId="4" r:id="rId8"/>
+    <sheet name="1º ANO - 1º Semestre" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="topo" localSheetId="1">Tudo!$C$10</definedName>
+    <definedName name="topo" localSheetId="2">Tudo!$C$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="186">
   <si>
     <t>Cadeira</t>
   </si>
@@ -235,21 +247,6 @@
     <t>* PECI é cadeira anual logo ao alterar o de baixo altera o preto tambem</t>
   </si>
   <si>
-    <t>Epoca espacial</t>
-  </si>
-  <si>
-    <t>peci</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>MPEI</t>
-  </si>
-  <si>
-    <t>ISD</t>
-  </si>
-  <si>
     <t>AC1</t>
   </si>
   <si>
@@ -259,54 +256,6 @@
     <t>IHC</t>
   </si>
   <si>
-    <t>1 semestre</t>
-  </si>
-  <si>
-    <t>2 semestre</t>
-  </si>
-  <si>
-    <t>segurança</t>
-  </si>
-  <si>
-    <t>compiladores</t>
-  </si>
-  <si>
-    <t>meh</t>
-  </si>
-  <si>
-    <t>facil</t>
-  </si>
-  <si>
-    <t>MPEI é projeto e teste e guiões</t>
-  </si>
-  <si>
-    <t>BD é projeto</t>
-  </si>
-  <si>
-    <t>IHC é projeto</t>
-  </si>
-  <si>
-    <t>compiladores é projeto e teste</t>
-  </si>
-  <si>
-    <t>AC2</t>
-  </si>
-  <si>
-    <t>fodido</t>
-  </si>
-  <si>
-    <t>2 testes teoricos</t>
-  </si>
-  <si>
-    <t>Opção I (PDS provavelmente)</t>
-  </si>
-  <si>
-    <t>projeto e 2 testes</t>
-  </si>
-  <si>
-    <t>2 projetos 2 testes</t>
-  </si>
-  <si>
     <t>Segunda</t>
   </si>
   <si>
@@ -331,12 +280,6 @@
     <t>Horas</t>
   </si>
   <si>
-    <t>Bloco de 2h</t>
-  </si>
-  <si>
-    <t>PECI</t>
-  </si>
-  <si>
     <t>9h -&gt;</t>
   </si>
   <si>
@@ -373,9 +316,6 @@
     <t>20h -&gt;</t>
   </si>
   <si>
-    <t>EXTRA/Feriado</t>
-  </si>
-  <si>
     <t>13h</t>
   </si>
   <si>
@@ -481,12 +421,6 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>RecursoP:</t>
-  </si>
-  <si>
-    <t>RecursoT:</t>
-  </si>
-  <si>
     <t>11,7 no prrimeiro</t>
   </si>
   <si>
@@ -532,48 +466,6 @@
     <t>PDS</t>
   </si>
   <si>
-    <t>C-P7</t>
-  </si>
-  <si>
-    <t>IHC-P3</t>
-  </si>
-  <si>
-    <t>C-TP2</t>
-  </si>
-  <si>
-    <t>PDS-P5</t>
-  </si>
-  <si>
-    <t>PDS-TP1</t>
-  </si>
-  <si>
-    <t>BD-P2</t>
-  </si>
-  <si>
-    <t>IHC-TP3</t>
-  </si>
-  <si>
-    <t>AC2-P9</t>
-  </si>
-  <si>
-    <t>segunda</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>fazivel</t>
-  </si>
-  <si>
-    <t>fodasse</t>
-  </si>
-  <si>
-    <t>estudar urgentemente</t>
-  </si>
-  <si>
-    <t>recurso</t>
-  </si>
-  <si>
     <t>nota mínima de 7.0 nas 2</t>
   </si>
   <si>
@@ -595,12 +487,6 @@
     <t>APF-T</t>
   </si>
   <si>
-    <t>inicial</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
     <t>Quiz etc</t>
   </si>
   <si>
@@ -628,58 +514,97 @@
     <t>tasks during theoretical classes</t>
   </si>
   <si>
-    <t xml:space="preserve"> 40% - Quizzes or other </t>
-  </si>
-  <si>
     <t>AC - desempenho nas aulas,</t>
   </si>
   <si>
     <t>e entrega dos guiões</t>
   </si>
   <si>
-    <t xml:space="preserve"> assiduidade, realização </t>
-  </si>
-  <si>
     <t>APF -  trabalho prático final</t>
   </si>
   <si>
-    <t xml:space="preserve"> (grupo de 2 elementos)</t>
-  </si>
-  <si>
     <t xml:space="preserve">code analysis , presentations </t>
   </si>
   <si>
-    <t>Terça</t>
-  </si>
-  <si>
-    <t>Datas</t>
-  </si>
-  <si>
-    <t>Tp4</t>
-  </si>
-  <si>
-    <t>Exame:</t>
-  </si>
-  <si>
-    <t>Requirement analysis</t>
-  </si>
-  <si>
-    <t>ATP2</t>
-  </si>
-  <si>
-    <t>Exames</t>
-  </si>
-  <si>
-    <t>fazer DER e ER</t>
-  </si>
-  <si>
-    <t>Tp5</t>
-  </si>
-  <si>
-    <t>fazer as merdas para tras</t>
-  </si>
-  <si>
-    <t>get/post Person</t>
+    <t xml:space="preserve">Pratica: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40% - Quizzes or other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">assiduidade, realização </t>
+  </si>
+  <si>
+    <t>(grupo de 2 elementos)</t>
+  </si>
+  <si>
+    <t>total:</t>
+  </si>
+  <si>
+    <t>faltam:</t>
+  </si>
+  <si>
+    <t>atual:</t>
+  </si>
+  <si>
+    <t>ANUAL</t>
+  </si>
+  <si>
+    <t>deal liquidos</t>
+  </si>
+  <si>
+    <t>liq</t>
+  </si>
+  <si>
+    <t>ajudas</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>mês</t>
+  </si>
+  <si>
+    <t>salario</t>
+  </si>
+  <si>
+    <t>Sub.Alim</t>
+  </si>
+  <si>
+    <t>tempo</t>
+  </si>
+  <si>
+    <t>mês*dia</t>
+  </si>
+  <si>
+    <t>brutos</t>
+  </si>
+  <si>
+    <t>AC1 - TP2</t>
+  </si>
+  <si>
+    <t>AC1 - P2</t>
+  </si>
+  <si>
+    <t>guiao 5</t>
+  </si>
+  <si>
+    <t>guiao 4</t>
+  </si>
+  <si>
+    <t>teste treino</t>
+  </si>
+  <si>
+    <t>testes</t>
+  </si>
+  <si>
+    <t>almoçar</t>
+  </si>
+  <si>
+    <t>estudar</t>
+  </si>
+  <si>
+    <t>estudar até 11:30</t>
   </si>
 </sst>
 </file>
@@ -689,7 +614,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,28 +663,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,31 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,31 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,12 +721,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -870,48 +733,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C80"/>
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF996600"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9F5FCF"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1472,18 +1383,20 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1493,20 +1406,7 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1516,29 +1416,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1553,7 +1433,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1566,20 +1446,16 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1590,54 +1466,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1735,8 +1569,34 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1745,8 +1605,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1755,24 +1617,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1788,7 +1655,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1819,25 +1686,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1852,16 +1701,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1869,130 +1715,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2024,10 +1747,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2039,724 +1762,598 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2764,47 +2361,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2835,9 +2420,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2875,7 +2460,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2981,7 +2566,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3123,997 +2708,1170 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
-  <dimension ref="A1:AJ28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72934023-36B5-40B1-AE3E-28B3E0E42FCF}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="130" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="130" customWidth="1"/>
-    <col min="3" max="8" width="11" style="130" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="130" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="130" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="130" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="18.21875" style="130" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="130"/>
-    <col min="16" max="16" width="12.88671875" style="130" customWidth="1"/>
-    <col min="17" max="17" width="7.109375" style="130" customWidth="1"/>
-    <col min="18" max="18" width="7.5546875" style="130" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="130"/>
-    <col min="20" max="20" width="9.5546875" style="130" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" style="130" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.88671875" style="130" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="130"/>
-    <col min="24" max="24" width="10" style="130" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" style="130" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.44140625" style="130" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" style="130" customWidth="1"/>
-    <col min="28" max="28" width="12" style="130" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" style="130" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.21875" style="130" customWidth="1"/>
-    <col min="31" max="31" width="8.33203125" style="130" customWidth="1"/>
-    <col min="32" max="32" width="6.109375" style="130" customWidth="1"/>
-    <col min="33" max="33" width="6.21875" style="130" customWidth="1"/>
-    <col min="34" max="34" width="6.33203125" style="130" customWidth="1"/>
-    <col min="35" max="35" width="5.88671875" style="130" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="130"/>
+    <col min="1" max="1" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="13"/>
+    <col min="4" max="5" width="11.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="130">
-        <v>8</v>
-      </c>
-      <c r="C1" s="130">
-        <v>9</v>
-      </c>
-      <c r="D1" s="130">
-        <v>10</v>
-      </c>
-      <c r="E1" s="130">
-        <v>4</v>
-      </c>
-      <c r="F1" s="130">
-        <v>5</v>
-      </c>
-      <c r="G1" s="130">
-        <v>6</v>
-      </c>
-      <c r="H1" s="130">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="131" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="158"/>
+      <c r="C2" s="154" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="156" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="163" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="164" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="150">
+        <v>14</v>
+      </c>
+      <c r="D3" s="159">
+        <v>943</v>
+      </c>
+      <c r="E3" s="151">
+        <f>C3*D3</f>
+        <v>13202</v>
+      </c>
+      <c r="G3" s="171">
+        <v>1500</v>
+      </c>
+      <c r="H3" s="172">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="152" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="148">
+        <v>11</v>
+      </c>
+      <c r="D4" s="160">
+        <v>100</v>
+      </c>
+      <c r="E4" s="144">
+        <f>C4*D4</f>
+        <v>1100</v>
+      </c>
+      <c r="G4" s="169">
+        <v>1400</v>
+      </c>
+      <c r="H4" s="170">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="153" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="149">
+        <f>11*21</f>
+        <v>231</v>
+      </c>
+      <c r="D5" s="161">
+        <v>7.2</v>
+      </c>
+      <c r="E5" s="146">
+        <f>C5*D5</f>
+        <v>1663.2</v>
+      </c>
+      <c r="F5" s="162"/>
+      <c r="G5" s="169">
+        <v>1300</v>
+      </c>
+      <c r="H5" s="170">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="169">
+        <v>1200</v>
+      </c>
+      <c r="H6" s="170">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="167">
+        <v>1100</v>
+      </c>
+      <c r="H7" s="165">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="143" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="147">
+        <f>(E3+E4+E5)</f>
+        <v>15965.2</v>
+      </c>
+      <c r="G8" s="167">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="165">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="146">
+        <f>ROUND(E8/14,0)</f>
+        <v>1140</v>
+      </c>
+      <c r="G9" s="167">
+        <v>1100</v>
+      </c>
+      <c r="H9" s="165">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="168">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="166">
+        <v>808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
+  <dimension ref="A1:AL33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="15.5546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="72" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="18.21875" style="72" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="72"/>
+    <col min="16" max="16" width="14.5546875" style="72" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="72" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="72" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="72"/>
+    <col min="20" max="20" width="9.5546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="72"/>
+    <col min="24" max="24" width="10" style="72" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" style="72" customWidth="1"/>
+    <col min="28" max="28" width="12" style="72" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" style="72" customWidth="1"/>
+    <col min="32" max="32" width="6.109375" style="72" customWidth="1"/>
+    <col min="33" max="33" width="6.21875" style="72" customWidth="1"/>
+    <col min="34" max="34" width="6.33203125" style="72" customWidth="1"/>
+    <col min="35" max="35" width="5.88671875" style="72" customWidth="1"/>
+    <col min="36" max="16384" width="8.88671875" style="72"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="72">
+        <v>21</v>
+      </c>
+      <c r="C1" s="72">
+        <v>22</v>
+      </c>
+      <c r="D1" s="72">
+        <v>23</v>
+      </c>
+      <c r="E1" s="72">
+        <v>24</v>
+      </c>
+      <c r="F1" s="72">
+        <v>25</v>
+      </c>
+      <c r="G1" s="72">
+        <v>26</v>
+      </c>
+      <c r="H1" s="72">
+        <v>27</v>
+      </c>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+    </row>
+    <row r="2" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="183" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="175" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="247"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="179" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+    </row>
+    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="176" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="250" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="250" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="250" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="250" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="250" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="250" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="250" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="251" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="251" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="251" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="251" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="251" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="251" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="251" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="179" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+    </row>
+    <row r="6" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="176" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="252" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="252" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="252" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="252" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="252" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="252" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="252" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="253" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+    </row>
+    <row r="7" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="188" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="185" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="184"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="254" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+      <c r="AJ7" s="77"/>
+      <c r="AK7" s="77"/>
+      <c r="AL7" s="77"/>
+    </row>
+    <row r="8" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="176" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="193" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="186"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="179" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="77"/>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="77"/>
+    </row>
+    <row r="9" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="177" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="194"/>
+      <c r="C9" s="249" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="185"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+    </row>
+    <row r="10" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="176" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="174"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="180" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+    </row>
+    <row r="11" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="177" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="192"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="181" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="133" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="133" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="133" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="133" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="279" t="s">
+      <c r="J11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="77"/>
+    </row>
+    <row r="12" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="192"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="283"/>
-      <c r="M2" s="279" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="280"/>
-      <c r="P2" s="270" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q2" s="271"/>
-      <c r="R2" s="272"/>
-      <c r="T2" s="276" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="277"/>
-      <c r="V2" s="278"/>
-      <c r="X2" s="270" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="271"/>
-      <c r="Z2" s="272"/>
-      <c r="AB2" s="187" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="189"/>
-    </row>
-    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="134" t="s">
+      <c r="J12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="77"/>
+      <c r="AL12" s="77"/>
+    </row>
+    <row r="13" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="177" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="173"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="294" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="286" t="s">
+      <c r="J13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="77"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="77"/>
+    </row>
+    <row r="14" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="176" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="174"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="292" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="298" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="153"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="138"/>
-      <c r="P3" s="182" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="199">
-        <v>0.4</v>
-      </c>
-      <c r="S3" s="140"/>
-      <c r="T3" s="209" t="s">
-        <v>149</v>
-      </c>
-      <c r="U3" s="168"/>
-      <c r="V3" s="169">
-        <v>0.6</v>
-      </c>
-      <c r="W3" s="140"/>
-      <c r="X3" s="181" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="212">
-        <v>0.1</v>
-      </c>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="181" t="s">
+      <c r="J14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="77"/>
+      <c r="AL14" s="77"/>
+    </row>
+    <row r="15" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="77"/>
+      <c r="AK15" s="77"/>
+      <c r="AL15" s="77"/>
+    </row>
+    <row r="16" spans="1:38" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="189" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="142" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="107">
-        <v>0.25</v>
-      </c>
-      <c r="AF3" s="140"/>
-    </row>
-    <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="295"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="141" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="299"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="138"/>
-      <c r="P4" s="182" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="170">
-        <v>0.2</v>
-      </c>
-      <c r="S4" s="140"/>
-      <c r="T4" s="210" t="s">
-        <v>148</v>
-      </c>
-      <c r="U4" s="171"/>
-      <c r="V4" s="172">
-        <v>0.4</v>
-      </c>
-      <c r="W4" s="140"/>
-      <c r="X4" s="181" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y4" s="204"/>
-      <c r="Z4" s="200">
-        <v>0.1</v>
-      </c>
-      <c r="AA4" s="140"/>
-      <c r="AB4" s="182" t="s">
+      <c r="D16" s="142" t="s">
         <v>181</v>
       </c>
-      <c r="AC4" s="203"/>
-      <c r="AD4" s="205">
-        <v>0.25</v>
-      </c>
-      <c r="AF4" s="140"/>
-    </row>
-    <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="183" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="296" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="284" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="288" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="136" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="299"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="146"/>
-      <c r="P5" s="182" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="170">
-        <v>0.4</v>
-      </c>
-      <c r="S5" s="140"/>
-      <c r="T5" s="156" t="s">
-        <v>147</v>
-      </c>
-      <c r="U5" s="273">
-        <f>U3*V3+U4*V4</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="275"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="183" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y5" s="214"/>
-      <c r="Z5" s="206">
-        <v>0.35</v>
-      </c>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="202" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC5" s="204"/>
-      <c r="AD5" s="107">
-        <v>0.15</v>
-      </c>
-      <c r="AF5" s="140"/>
-    </row>
-    <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="141" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="250"/>
-      <c r="C6" s="297"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="289"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="299"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="148"/>
-      <c r="P6" s="273" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="275"/>
-      <c r="S6" s="140"/>
-      <c r="W6" s="140"/>
-      <c r="X6" s="173" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y6" s="213"/>
-      <c r="Z6" s="147">
-        <v>0.45</v>
-      </c>
-      <c r="AA6" s="140"/>
-      <c r="AB6" s="182" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC6" s="144"/>
-      <c r="AD6" s="85">
-        <v>0.05</v>
-      </c>
-      <c r="AE6" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF6" s="140"/>
-    </row>
-    <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="149" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="150" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="151"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="226"/>
-      <c r="H7" s="226"/>
-      <c r="I7" s="152" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="201" t="s">
-        <v>204</v>
-      </c>
-      <c r="L7" s="126"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="155"/>
-      <c r="P7" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q7" s="281">
-        <f>(Q3*R3)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="282"/>
-      <c r="S7" s="140"/>
-      <c r="T7" s="270" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="271"/>
-      <c r="V7" s="272"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="273" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y7" s="274"/>
-      <c r="Z7" s="275"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="183" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC7" s="144"/>
-      <c r="AD7" s="85">
-        <v>0.3</v>
-      </c>
-      <c r="AE7" s="130" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF7" s="140"/>
-    </row>
-    <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="290" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="228"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="136" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="300" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="219"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="155"/>
-      <c r="P8" s="122" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="273">
-        <f>(Q3*R3 + Q4*R4+ Q5*R5 )</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="275"/>
-      <c r="T8" s="181" t="s">
-        <v>128</v>
-      </c>
-      <c r="U8" s="139"/>
-      <c r="V8" s="200">
-        <v>0.2</v>
-      </c>
-      <c r="X8" s="201" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y8" s="207">
-        <f>(Y4*Z4 + Y5*Z5+ Y7*Z7)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="208"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="186"/>
-      <c r="AD8" s="185"/>
-      <c r="AF8" s="140"/>
-    </row>
-    <row r="9" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="183" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="249"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" s="301"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="162"/>
-      <c r="T9" s="182" t="s">
+      <c r="E16" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="U9" s="203"/>
-      <c r="V9" s="206">
-        <v>0.2</v>
-      </c>
-      <c r="AB9" s="156" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC9" s="273">
-        <f>(AC3*AD3+AC4*AD4+AC5*AD5+AC6*AD6+AC7*AD7)</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="275"/>
-    </row>
-    <row r="10" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="141" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="250"/>
-      <c r="C10" s="250"/>
-      <c r="D10" s="250"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="250"/>
-      <c r="I10" s="183" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="164"/>
-      <c r="K10" s="256" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="153"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="165"/>
-      <c r="P10" s="264" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q10" s="265"/>
-      <c r="R10" s="266"/>
-      <c r="T10" s="181" t="s">
-        <v>126</v>
-      </c>
-      <c r="U10" s="204"/>
-      <c r="V10" s="200">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="183" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="249"/>
-      <c r="C11" s="284" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="249"/>
-      <c r="E11" s="166" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="167" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="258"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="138"/>
-      <c r="P11" s="267" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="269"/>
-      <c r="T11" s="173" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" s="163"/>
-      <c r="V11" s="147">
-        <v>0.3</v>
-      </c>
-      <c r="X11" s="302" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y11" s="303"/>
-      <c r="AB11" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC11" s="305"/>
-      <c r="AD11" s="306"/>
-      <c r="AE11" s="215"/>
-      <c r="AF11" s="215"/>
-      <c r="AG11" s="215"/>
-      <c r="AH11" s="215"/>
-      <c r="AI11" s="215"/>
-      <c r="AJ11" s="215"/>
-    </row>
-    <row r="12" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="141" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="250"/>
-      <c r="C12" s="285"/>
-      <c r="D12" s="250"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="250"/>
-      <c r="G12" s="250"/>
-      <c r="H12" s="250"/>
-      <c r="I12" s="136" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" s="256" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="153"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="138"/>
-      <c r="T12" s="273" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="274"/>
-      <c r="V12" s="275"/>
-      <c r="X12" s="235" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y12" s="236">
-        <v>45427</v>
-      </c>
-      <c r="AB12" s="307" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC12" s="308"/>
-      <c r="AD12" s="309"/>
-    </row>
-    <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="183" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="257"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="138"/>
-      <c r="P13" s="264" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q13" s="265"/>
-      <c r="R13" s="266"/>
-      <c r="T13" s="156" t="s">
-        <v>147</v>
-      </c>
-      <c r="U13" s="273">
-        <f>(U8*V8 + U9*V9+ U10*V10 + U11*V11)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="275"/>
-      <c r="X13" s="237"/>
-      <c r="Y13" s="238"/>
-      <c r="AB13" s="267" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC13" s="268"/>
-      <c r="AD13" s="269"/>
-    </row>
-    <row r="14" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="141" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="173" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" s="258"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="138"/>
-      <c r="P14" s="267" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q14" s="268"/>
-      <c r="R14" s="269"/>
-      <c r="X14" s="237"/>
-      <c r="Y14" s="238"/>
-    </row>
-    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="256" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="153"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="138"/>
-      <c r="X15" s="239"/>
-      <c r="Y15" s="240"/>
-      <c r="AB15" s="264" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC15" s="265"/>
-      <c r="AD15" s="266"/>
-      <c r="AE15" s="216"/>
-      <c r="AF15" s="216"/>
-      <c r="AG15" s="216"/>
-    </row>
-    <row r="16" spans="1:36" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="190" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="251" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="252"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="245"/>
-      <c r="F16" s="123" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="196"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="159" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="143"/>
-      <c r="N16" s="138"/>
-      <c r="P16" s="302" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q16" s="303"/>
-      <c r="AB16" s="267" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC16" s="268"/>
-      <c r="AD16" s="269"/>
-      <c r="AE16" s="217"/>
-      <c r="AF16" s="217"/>
-      <c r="AG16" s="217"/>
-    </row>
-    <row r="17" spans="1:29" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="174" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="221"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="224" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="175"/>
-      <c r="N17" s="176"/>
-      <c r="P17" s="241" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="242"/>
-    </row>
-    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="191" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="251" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="252"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="221"/>
-      <c r="K18" s="256" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="153" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="143"/>
-      <c r="N18" s="138"/>
-      <c r="AB18" s="302" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC18" s="303"/>
-    </row>
-    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="177" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="251" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="252"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="245"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="221"/>
-      <c r="K19" s="257"/>
-      <c r="L19" s="159" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" s="143"/>
-      <c r="N19" s="138"/>
-      <c r="P19" s="253" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q19" s="254"/>
-      <c r="R19" s="254"/>
-      <c r="S19" s="254"/>
-      <c r="T19" s="255"/>
-      <c r="AB19" s="235" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC19" s="244">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="178" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="251" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="252"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="222"/>
-      <c r="K20" s="258"/>
-      <c r="L20" s="224" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="175"/>
-      <c r="N20" s="176"/>
-      <c r="P20" s="231" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="261">
-        <v>16</v>
-      </c>
-      <c r="R20" s="262"/>
-      <c r="S20" s="262"/>
-      <c r="T20" s="263"/>
-      <c r="AB20" s="237" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC20" s="243">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="179" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="247"/>
-      <c r="C21" s="247"/>
-      <c r="D21" s="247"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="248"/>
-      <c r="G21" s="223"/>
-      <c r="P21" s="300" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q21" s="232" t="s">
-        <v>160</v>
-      </c>
-      <c r="R21" s="233" t="s">
-        <v>161</v>
-      </c>
-      <c r="S21" s="310" t="s">
-        <v>162</v>
-      </c>
-      <c r="T21" s="311"/>
-      <c r="AB21" s="237" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC21" s="243">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P22" s="301"/>
-      <c r="Q22" s="234">
-        <v>20</v>
-      </c>
-      <c r="R22" s="230">
-        <v>17</v>
-      </c>
-      <c r="S22" s="259">
-        <v>20</v>
-      </c>
-      <c r="T22" s="260"/>
-      <c r="AB22" s="239" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC22" s="240" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P23" s="231" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q23" s="253">
-        <v>0</v>
-      </c>
-      <c r="R23" s="254"/>
-      <c r="S23" s="254"/>
-      <c r="T23" s="255"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G25" s="195"/>
-      <c r="H25" s="130" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G26" s="193"/>
-      <c r="H26" s="180" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G27" s="194"/>
-      <c r="H27" s="130" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G28" s="197"/>
-      <c r="H28" s="130" t="s">
-        <v>178</v>
-      </c>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="77"/>
+      <c r="AI16" s="77"/>
+      <c r="AJ16" s="77"/>
+      <c r="AK16" s="77"/>
+      <c r="AL16" s="77"/>
+    </row>
+    <row r="17" spans="15:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="77"/>
+      <c r="AK17" s="77"/>
+      <c r="AL17" s="77"/>
+    </row>
+    <row r="18" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="77"/>
+      <c r="AK18" s="77"/>
+      <c r="AL18" s="77"/>
+    </row>
+    <row r="19" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="77"/>
+      <c r="AL19" s="77"/>
+    </row>
+    <row r="20" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="77"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="77"/>
+    </row>
+    <row r="21" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="77"/>
+      <c r="AK21" s="77"/>
+      <c r="AL21" s="77"/>
+    </row>
+    <row r="22" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="77"/>
+    </row>
+    <row r="23" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="77"/>
+      <c r="AJ23" s="77"/>
+      <c r="AK23" s="77"/>
+      <c r="AL23" s="77"/>
+    </row>
+    <row r="24" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="77"/>
+      <c r="AK24" s="77"/>
+      <c r="AL24" s="77"/>
+    </row>
+    <row r="25" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="77"/>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="77"/>
+      <c r="AL25" s="77"/>
+    </row>
+    <row r="26" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="77"/>
+      <c r="AG26" s="77"/>
+      <c r="AH26" s="77"/>
+      <c r="AI26" s="77"/>
+      <c r="AJ26" s="77"/>
+      <c r="AK26" s="77"/>
+      <c r="AL26" s="77"/>
+    </row>
+    <row r="27" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="77"/>
+      <c r="AI27" s="77"/>
+      <c r="AJ27" s="77"/>
+      <c r="AK27" s="77"/>
+      <c r="AL27" s="77"/>
+    </row>
+    <row r="28" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="77"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="77"/>
+      <c r="AK28" s="77"/>
+      <c r="AL28" s="77"/>
+    </row>
+    <row r="29" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="77"/>
+      <c r="AI29" s="77"/>
+      <c r="AJ29" s="77"/>
+      <c r="AK29" s="77"/>
+      <c r="AL29" s="77"/>
+    </row>
+    <row r="30" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="77"/>
+      <c r="AK30" s="77"/>
+      <c r="AL30" s="77"/>
+    </row>
+    <row r="31" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="77"/>
+      <c r="AH31" s="77"/>
+      <c r="AI31" s="77"/>
+      <c r="AJ31" s="77"/>
+      <c r="AK31" s="77"/>
+      <c r="AL31" s="77"/>
+    </row>
+    <row r="32" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="77"/>
+      <c r="AI32" s="77"/>
+      <c r="AJ32" s="77"/>
+      <c r="AK32" s="77"/>
+      <c r="AL32" s="77"/>
+    </row>
+    <row r="33" spans="15:38" x14ac:dyDescent="0.3">
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="77"/>
+      <c r="AE33" s="77"/>
+      <c r="AF33" s="77"/>
+      <c r="AG33" s="77"/>
+      <c r="AH33" s="77"/>
+      <c r="AI33" s="77"/>
+      <c r="AJ33" s="77"/>
+      <c r="AK33" s="77"/>
+      <c r="AL33" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="K12:K14"/>
+  <mergeCells count="8">
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F271A766-224E-4EF8-A6BB-32A3CEEA2D41}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4122,10 +3880,10 @@
     <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="52.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.88671875" customWidth="1"/>
@@ -4135,623 +3893,866 @@
     <col min="19" max="19" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="320" t="s">
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="106">
         <v>10</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="107">
         <v>6</v>
       </c>
-      <c r="E3" s="312">
-        <f>AVERAGE(C3:C7)</f>
-        <v>11.25</v>
-      </c>
-      <c r="F3" s="315">
-        <f t="array" ref="F3">SUMPRODUCT(IF(C3:C12&lt;&gt;"",C3:C12*D3:D12,0))/SUM(IF(C3:C12&lt;&gt;"", D3:D12,0))</f>
-        <v>11.888888888888889</v>
-      </c>
-      <c r="G3" s="315">
-        <f t="array" ref="G3">ROUND(SUMPRODUCT(IF(C3:C32&lt;&gt;"",C3:C32*D3:D32,0))/SUM(IF(C3:C32&lt;&gt;"", D3:D32,0)),2)</f>
-        <v>11.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="263"/>
-      <c r="B4" s="33" t="s">
+      <c r="E3" s="206">
+        <f>SUM(C3:C7)/5</f>
+        <v>11.4</v>
+      </c>
+      <c r="F3" s="195">
+        <f>SUM(E3:E12)/2</f>
+        <v>11.9</v>
+      </c>
+      <c r="G3" s="195">
+        <f xml:space="preserve"> ROUND(SUM(F3:F23)/3,2)</f>
+        <v>11.77</v>
+      </c>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="201"/>
+      <c r="B4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="110">
         <v>12</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="111">
         <v>6</v>
       </c>
-      <c r="E4" s="313"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="262"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="263"/>
-      <c r="B5" s="33" t="s">
+      <c r="E4" s="207"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="201"/>
+      <c r="B5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="16">
+      <c r="C5" s="92">
+        <v>12</v>
+      </c>
+      <c r="D5" s="111">
         <v>6</v>
       </c>
-      <c r="E5" s="313"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="263"/>
-      <c r="B6" s="34" t="s">
+      <c r="E5" s="207"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="201"/>
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="108">
         <v>10</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="111">
         <v>6</v>
       </c>
-      <c r="E6" s="313"/>
-      <c r="F6" s="262"/>
-      <c r="G6" s="262"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="263"/>
-      <c r="B7" s="47" t="s">
+      <c r="E6" s="207"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="201"/>
+      <c r="B7" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="114">
         <v>13</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="115">
         <v>6</v>
       </c>
-      <c r="E7" s="314"/>
-      <c r="F7" s="262"/>
-      <c r="G7" s="262"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="263"/>
-      <c r="B8" s="63" t="s">
+      <c r="E7" s="208"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="201"/>
+      <c r="B8" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="117">
         <v>10</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="118">
         <v>6</v>
       </c>
-      <c r="E8" s="312">
-        <f>AVERAGE(C8:C12)</f>
+      <c r="E8" s="206">
+        <f>SUM(C8:C12)/5</f>
         <v>12.4</v>
       </c>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="263"/>
-      <c r="B9" s="64" t="s">
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="201"/>
+      <c r="B9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="120">
         <v>11</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="121">
         <v>6</v>
       </c>
-      <c r="E9" s="313"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="262"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="263"/>
-      <c r="B10" s="64" t="s">
+      <c r="E9" s="207"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="201"/>
+      <c r="B10" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="120">
         <v>13</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="121">
         <v>6</v>
       </c>
-      <c r="E10" s="313"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="262"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="263"/>
-      <c r="B11" s="64" t="s">
+      <c r="E10" s="207"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="201"/>
+      <c r="B11" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="120">
         <v>16</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="121">
         <v>6</v>
       </c>
-      <c r="E11" s="313"/>
-      <c r="F11" s="262"/>
-      <c r="G11" s="262"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="321"/>
-      <c r="B12" s="65" t="s">
+      <c r="E11" s="207"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="202"/>
+      <c r="B12" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="123">
         <v>12</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="124">
         <v>6</v>
       </c>
-      <c r="E12" s="314"/>
-      <c r="F12" s="316"/>
-      <c r="G12" s="262"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="322" t="s">
+      <c r="E12" s="208"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="106">
         <v>10</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="107">
         <v>6</v>
       </c>
-      <c r="E13" s="312">
-        <f>AVERAGE(C13:C17)</f>
-        <v>11.75</v>
-      </c>
-      <c r="F13" s="315">
-        <f t="array" ref="F13">SUMPRODUCT(IF(C13:C22&lt;&gt;"",C13:C22*D13:D22,0))/SUM(IF(C13:C22&lt;&gt;"", D13:D22,0))</f>
-        <v>11.875</v>
-      </c>
-      <c r="G13" s="262"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="323"/>
-      <c r="B14" s="33" t="s">
+      <c r="E13" s="206">
+        <f>SUM(C13:C17)/5</f>
+        <v>11.4</v>
+      </c>
+      <c r="F13" s="195">
+        <f>SUM(E13:E22)/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="G13" s="196"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="204"/>
+      <c r="B14" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="110">
         <v>13</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="111">
         <v>6</v>
       </c>
-      <c r="E14" s="313"/>
-      <c r="F14" s="262"/>
-      <c r="G14" s="262"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="323"/>
-      <c r="B15" s="33" t="s">
+      <c r="E14" s="207"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="204"/>
+      <c r="B15" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="110">
         <v>13</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="111">
         <v>6</v>
       </c>
-      <c r="E15" s="313"/>
-      <c r="F15" s="262"/>
-      <c r="G15" s="262"/>
-      <c r="J15" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="323"/>
-      <c r="B16" s="33" t="s">
+      <c r="E15" s="207"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="204"/>
+      <c r="B16" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="16">
+      <c r="C16" s="125">
+        <v>10</v>
+      </c>
+      <c r="D16" s="111">
         <v>6</v>
       </c>
-      <c r="E16" s="313"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="262"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="323"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="204"/>
+      <c r="B17" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="108">
         <v>11</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="115">
         <v>6</v>
       </c>
-      <c r="E17" s="314"/>
-      <c r="F17" s="262"/>
-      <c r="G17" s="262"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="323"/>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="204"/>
+      <c r="B18" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="117">
         <v>12</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="107">
         <v>6</v>
       </c>
-      <c r="E18" s="312">
-        <f>AVERAGE(C18:C22)</f>
+      <c r="E18" s="206">
+        <f>SUM(C18:C22)/5</f>
+        <v>11.6</v>
+      </c>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="204"/>
+      <c r="B19" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="110">
         <v>12</v>
       </c>
-      <c r="F18" s="262"/>
-      <c r="G18" s="262"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="323"/>
-      <c r="B19" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="D19" s="111">
+        <v>6</v>
+      </c>
+      <c r="E19" s="207"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="204"/>
+      <c r="B20" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="110">
         <v>12</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="111">
         <v>6</v>
       </c>
-      <c r="E19" s="313"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="262"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="323"/>
-      <c r="B20" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="E20" s="207"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="204"/>
+      <c r="B21" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="125">
+        <v>10</v>
+      </c>
+      <c r="D21" s="111">
+        <v>6</v>
+      </c>
+      <c r="E21" s="207"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="205"/>
+      <c r="B22" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="123">
         <v>12</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D22" s="115">
         <v>6</v>
       </c>
-      <c r="E20" s="313"/>
-      <c r="F20" s="262"/>
-      <c r="G20" s="262"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="323"/>
-      <c r="B21" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="16">
+      <c r="E22" s="208"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="209" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="117">
+        <v>11</v>
+      </c>
+      <c r="D23" s="107">
         <v>6</v>
       </c>
-      <c r="E21" s="313"/>
-      <c r="F21" s="262"/>
-      <c r="G21" s="262"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="324"/>
-      <c r="B22" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="44">
+      <c r="E23" s="206">
+        <f>SUM(C23:C26,C32:C32)/5</f>
+        <v>11.6</v>
+      </c>
+      <c r="F23" s="195">
+        <f>SUM(E23:E32)/2</f>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="G23" s="196"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="210"/>
+      <c r="B24" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="120">
+        <v>11</v>
+      </c>
+      <c r="D24" s="111">
+        <v>6</v>
+      </c>
+      <c r="E24" s="207"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="O24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="210"/>
+      <c r="B25" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="120">
+        <v>10</v>
+      </c>
+      <c r="D25" s="111">
+        <v>6</v>
+      </c>
+      <c r="E25" s="207"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="O25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="210"/>
+      <c r="B26" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="110">
+        <v>11</v>
+      </c>
+      <c r="D26" s="111">
+        <v>6</v>
+      </c>
+      <c r="E26" s="207"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="O26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="210"/>
+      <c r="B27" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="141">
+        <v>0</v>
+      </c>
+      <c r="E27" s="208"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="O27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="210"/>
+      <c r="B28" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="130">
         <v>12</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D28" s="131">
         <v>6</v>
       </c>
-      <c r="E22" s="314"/>
-      <c r="F22" s="316"/>
-      <c r="G22" s="262"/>
-      <c r="J22" s="55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="325" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="15">
+      <c r="E28" s="206">
+        <f>SUM(C28:C32)/5</f>
+        <v>12.2</v>
+      </c>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="O28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="210"/>
+      <c r="B29" s="127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="120">
+        <v>12</v>
+      </c>
+      <c r="D29" s="111">
         <v>6</v>
       </c>
-      <c r="E23" s="312">
-        <f>AVERAGE(C23:C27)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F23" s="315">
-        <f t="array" ref="F23">SUMPRODUCT(IF(C23:C32&lt;&gt;"",C23:C32*D23:D32,0))/SUM(IF(C23:C32&lt;&gt;"", D23:D32,0))</f>
-        <v>11</v>
-      </c>
-      <c r="G23" s="262"/>
-      <c r="J23" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" t="s">
-        <v>88</v>
-      </c>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="326"/>
-      <c r="B24" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="16">
+      <c r="E29" s="207"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="O29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="210"/>
+      <c r="B30" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="120">
+        <v>10</v>
+      </c>
+      <c r="D30" s="111">
         <v>6</v>
       </c>
-      <c r="E24" s="313"/>
-      <c r="F24" s="262"/>
-      <c r="G24" s="262"/>
-      <c r="J24" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" t="s">
-        <v>89</v>
-      </c>
-      <c r="O24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="326"/>
-      <c r="B25" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="16">
+      <c r="E30" s="207"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="210"/>
+      <c r="B31" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="120">
+        <v>12</v>
+      </c>
+      <c r="D31" s="111">
         <v>6</v>
       </c>
-      <c r="E25" s="313"/>
-      <c r="F25" s="262"/>
-      <c r="G25" s="262"/>
-      <c r="J25" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="326"/>
-      <c r="B26" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="30">
-        <v>11</v>
-      </c>
-      <c r="D26" s="16">
-        <v>6</v>
-      </c>
-      <c r="E26" s="313"/>
-      <c r="F26" s="262"/>
-      <c r="G26" s="262"/>
-      <c r="J26" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="326"/>
-      <c r="B27" s="53" t="s">
+      <c r="E31" s="207"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="210"/>
+      <c r="B32" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="51">
-        <f>SUM(C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="314"/>
-      <c r="F27" s="262"/>
-      <c r="G27" s="262"/>
-      <c r="J27" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="K27" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" t="s">
-        <v>82</v>
-      </c>
-      <c r="O27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-    </row>
-    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="326"/>
-      <c r="B28" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="18">
-        <v>6</v>
-      </c>
-      <c r="E28" s="312" t="e">
-        <f>AVERAGE(C28:C32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="262"/>
-      <c r="G28" s="262"/>
-      <c r="J28" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" t="s">
-        <v>83</v>
-      </c>
-      <c r="O28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="326"/>
-      <c r="B29" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="16">
-        <v>6</v>
-      </c>
-      <c r="E29" s="313"/>
-      <c r="F29" s="262"/>
-      <c r="G29" s="262"/>
-      <c r="O29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="326"/>
-      <c r="B30" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="16">
-        <v>6</v>
-      </c>
-      <c r="E30" s="313"/>
-      <c r="F30" s="262"/>
-      <c r="G30" s="262"/>
-      <c r="J30" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="326"/>
-      <c r="B31" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="16">
-        <v>6</v>
-      </c>
-      <c r="E31" s="313"/>
-      <c r="F31" s="262"/>
-      <c r="G31" s="262"/>
-      <c r="J31" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31" t="s">
-        <v>81</v>
-      </c>
-      <c r="L31" t="s">
-        <v>86</v>
-      </c>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="327"/>
-      <c r="B32" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="49">
+      <c r="C32" s="123">
+        <v>15</v>
+      </c>
+      <c r="D32" s="124">
         <v>12</v>
       </c>
-      <c r="E32" s="314"/>
-      <c r="F32" s="316"/>
-      <c r="G32" s="316"/>
-      <c r="J32" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J33" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" t="s">
-        <v>79</v>
-      </c>
-      <c r="S33" s="19"/>
-      <c r="T33" s="62"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="23"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J34" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34" t="s">
-        <v>85</v>
-      </c>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="211"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J35" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="K35" t="s">
-        <v>79</v>
-      </c>
+      <c r="A35" s="76"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
     </row>
     <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="56" t="s">
-        <v>67</v>
-      </c>
+      <c r="E36" s="211"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="317" t="s">
+      <c r="A37" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="318"/>
-      <c r="C37" s="319"/>
-      <c r="D37">
+      <c r="B37" s="199"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="211">
         <v>12</v>
       </c>
+      <c r="E37" s="211"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="211"/>
+      <c r="E39" s="211"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="211"/>
+      <c r="E40" s="211"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+    </row>
+    <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C42" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="133">
+        <f>SUM(D3:D32)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C43" s="137" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="134">
+        <f>-D21-D16</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="138" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="135">
+        <f>D42+D43</f>
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="23">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="F23:F32"/>
@@ -4766,18 +4767,19 @@
     <mergeCell ref="F13:F22"/>
     <mergeCell ref="A23:A32"/>
     <mergeCell ref="F3:F12"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB18DA8-F32B-454D-9B80-5F67A4560FEE}">
   <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4792,529 +4794,802 @@
     <col min="12" max="12" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="270" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="270" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="76"/>
+      <c r="B2" s="227" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="187" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="188"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="130"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="182" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="199">
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="227" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="76"/>
+      <c r="B3" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="79">
+        <v>14.5</v>
+      </c>
+      <c r="D3" s="80">
         <v>0.4</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="181" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="200">
+      <c r="E3" s="77"/>
+      <c r="F3" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="82">
+        <v>10.1</v>
+      </c>
+      <c r="H3" s="83">
         <v>0.2</v>
       </c>
-      <c r="I3" s="140"/>
-      <c r="J3" s="181" t="s">
-        <v>180</v>
-      </c>
-      <c r="K3" s="139"/>
-      <c r="L3" s="107">
+      <c r="I3" s="77"/>
+      <c r="J3" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="82">
+        <v>11.2</v>
+      </c>
+      <c r="L3" s="83">
         <v>0.25</v>
       </c>
-      <c r="M3" s="140"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="182" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="170">
+      <c r="M3" s="77"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="76"/>
+      <c r="B4" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="84">
+        <v>17</v>
+      </c>
+      <c r="D4" s="85">
         <v>0.2</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="182" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="203"/>
-      <c r="H4" s="206">
+      <c r="E4" s="77"/>
+      <c r="F4" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="86">
+        <v>10.4</v>
+      </c>
+      <c r="H4" s="87">
         <v>0.2</v>
       </c>
-      <c r="I4" s="140"/>
-      <c r="J4" s="182" t="s">
-        <v>181</v>
-      </c>
-      <c r="K4" s="203"/>
-      <c r="L4" s="205">
+      <c r="I4" s="77"/>
+      <c r="J4" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="86">
+        <v>6.3</v>
+      </c>
+      <c r="L4" s="87">
         <v>0.25</v>
       </c>
-      <c r="M4" s="140"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="182" t="s">
+      <c r="M4" s="77"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="76"/>
+      <c r="B5" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="170">
+      <c r="C5" s="84">
+        <v>6.78</v>
+      </c>
+      <c r="D5" s="85">
         <v>0.4</v>
       </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="181" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="204"/>
-      <c r="H5" s="200">
+      <c r="E5" s="77">
+        <v>9.6</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="88">
+        <v>10</v>
+      </c>
+      <c r="H5" s="83">
         <v>0.3</v>
       </c>
-      <c r="I5" s="140"/>
-      <c r="J5" s="202" t="s">
-        <v>183</v>
-      </c>
-      <c r="K5" s="204"/>
-      <c r="L5" s="107">
+      <c r="I5" s="77"/>
+      <c r="J5" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="88">
+        <v>17</v>
+      </c>
+      <c r="L5" s="83">
         <v>0.15</v>
       </c>
-      <c r="M5" s="140"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="173" t="s">
+      <c r="M5" s="77"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="76"/>
+      <c r="B6" s="219" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="77">
+        <v>7.1</v>
+      </c>
+      <c r="F6" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="163"/>
-      <c r="H6" s="147">
+      <c r="G6" s="90">
+        <v>7.7</v>
+      </c>
+      <c r="H6" s="91">
         <v>0.3</v>
       </c>
-      <c r="I6" s="140"/>
-      <c r="J6" s="182" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" s="144"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="84">
+        <v>18</v>
+      </c>
       <c r="L6" s="85">
         <v>0.05</v>
       </c>
-      <c r="M6" s="140"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="273" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="183" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7" s="144"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="76"/>
+      <c r="B7" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="217">
+        <v>14.5</v>
+      </c>
+      <c r="D7" s="218"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="219" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="84">
+        <v>14.5</v>
+      </c>
       <c r="L7" s="85">
         <v>0.3</v>
       </c>
-      <c r="M7" s="140"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="156" t="s">
+      <c r="M7" s="77"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="76"/>
+      <c r="B8" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="217">
+        <v>10.186666669999999</v>
+      </c>
+      <c r="D8" s="218"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="217">
+        <v>10.25</v>
+      </c>
+      <c r="H8" s="218"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="217">
+        <v>8.75</v>
+      </c>
+      <c r="L8" s="218"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="76"/>
+      <c r="B9" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="219">
+        <v>11.912000000000001</v>
+      </c>
+      <c r="D9" s="220"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="219">
+        <v>9.41</v>
+      </c>
+      <c r="H9" s="220"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="219">
+        <v>12.175000000000001</v>
+      </c>
+      <c r="L9" s="220"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="76"/>
+      <c r="B10" s="223" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="76"/>
+      <c r="B11" s="225" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="227" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="228"/>
+      <c r="H11" s="228"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="229" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="230"/>
+      <c r="L11" s="230"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="96">
+        <v>14</v>
+      </c>
+      <c r="H12" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="77"/>
+      <c r="J12" s="221" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="222"/>
+      <c r="L12" s="222"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="76"/>
+      <c r="B13" s="223" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="273">
-        <f>(G3*H3 + G4*H4+ G5*H5 + G6*H6)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="275"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="130"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="273" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="274"/>
-      <c r="D9" s="275"/>
-      <c r="E9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="156" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9" s="273">
-        <f>(K3*L3+K4*L4+K5*L5+K6*L6+K7*L7)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="275"/>
-      <c r="M9" s="130"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="281">
-        <f>ROUND((C3*0.33333+ C4*0.33333 + C5*0.33333),2)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="122" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="273">
-        <f>(C3*D3 + C4*D4+ C5*D5 + C6*D6+ C7*D7+C8*D8)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="275"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="270" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="271"/>
-      <c r="H11" s="272"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="305"/>
-      <c r="L11" s="306"/>
-      <c r="M11" s="130"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="181" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" s="211"/>
-      <c r="H12" s="212">
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="98">
+        <v>9.1</v>
+      </c>
+      <c r="H13" s="91">
+        <v>0.45</v>
+      </c>
+      <c r="I13" s="77"/>
+      <c r="J13" s="225" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="226"/>
+      <c r="L13" s="226"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="76"/>
+      <c r="B14" s="225" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="226"/>
+      <c r="D14" s="226"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="88">
+        <v>15</v>
+      </c>
+      <c r="H14" s="83">
         <v>0.1</v>
       </c>
-      <c r="I12" s="130"/>
-      <c r="J12" s="307" t="s">
-        <v>200</v>
-      </c>
-      <c r="K12" s="308"/>
-      <c r="L12" s="309"/>
-      <c r="M12" s="130"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
-      <c r="B13" s="264" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="265"/>
-      <c r="D13" s="266"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="181" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="204"/>
-      <c r="H13" s="200">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="130"/>
-      <c r="J13" s="267" t="s">
-        <v>199</v>
-      </c>
-      <c r="K13" s="268"/>
-      <c r="L13" s="269"/>
-      <c r="M13" s="130"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
-      <c r="B14" s="267" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="268"/>
-      <c r="D14" s="269"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="183" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="214"/>
-      <c r="H14" s="206">
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="77"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="99">
+        <v>14</v>
+      </c>
+      <c r="H15" s="87">
         <v>0.35</v>
       </c>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="173" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="213"/>
-      <c r="H15" s="147">
-        <v>0.45</v>
-      </c>
-      <c r="I15" s="130"/>
-      <c r="J15" s="264" t="s">
-        <v>201</v>
-      </c>
-      <c r="K15" s="265"/>
-      <c r="L15" s="266"/>
-      <c r="M15" s="130"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="264" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="265"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="273" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="274"/>
-      <c r="H16" s="275"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="267" t="s">
-        <v>202</v>
-      </c>
-      <c r="K16" s="268"/>
-      <c r="L16" s="269"/>
-      <c r="M16" s="130"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="223" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="77"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="219" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="225" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="226"/>
+      <c r="L16" s="226"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="267" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="268"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="201" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="207">
-        <f>(G13*H13 + G14*H14+ G16*H16)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="208"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="217">
+        <v>9.9909090910000007</v>
+      </c>
+      <c r="H17" s="218"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="72"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="217">
+        <v>11.895</v>
+      </c>
+      <c r="H18" s="218"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="330" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="330"/>
-      <c r="D24" s="330"/>
-      <c r="E24" s="330"/>
-      <c r="F24" s="330"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="214" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="192" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="330" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="330"/>
-      <c r="E25" s="330"/>
-      <c r="F25" s="330"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="214" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="215"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="192"/>
-      <c r="C26" s="192" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="192" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="330" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="330"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="214" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="216"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="192">
+      <c r="A27" s="76"/>
+      <c r="B27" s="100">
         <v>16</v>
       </c>
-      <c r="C27" s="192">
+      <c r="C27" s="100">
         <v>20</v>
       </c>
-      <c r="D27" s="192">
+      <c r="D27" s="100">
         <v>17</v>
       </c>
-      <c r="E27" s="330">
+      <c r="E27" s="214">
         <v>20</v>
       </c>
-      <c r="F27" s="330"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="76"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
     </row>
     <row r="44" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="130"/>
-      <c r="N44" s="130"/>
-      <c r="O44" s="130"/>
-      <c r="P44" s="130"/>
-      <c r="Q44" s="130"/>
-      <c r="R44" s="130"/>
-      <c r="S44" s="130"/>
-      <c r="T44" s="130"/>
-      <c r="U44" s="130"/>
-      <c r="V44" s="130"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
     </row>
     <row r="45" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H45" s="328" t="s">
-        <v>158</v>
-      </c>
-      <c r="I45" s="329"/>
-      <c r="J45" s="329"/>
-      <c r="K45" s="329"/>
-      <c r="L45" s="329"/>
-      <c r="M45" s="130"/>
-      <c r="N45" s="130"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="130"/>
-      <c r="Q45" s="130"/>
-      <c r="R45" s="130"/>
-      <c r="S45" s="130"/>
-      <c r="T45" s="130"/>
-      <c r="U45" s="130"/>
-      <c r="V45" s="130"/>
+      <c r="H45" s="212" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="213"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
+      <c r="V45" s="72"/>
     </row>
     <row r="46" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H46" s="192" t="s">
-        <v>159</v>
-      </c>
-      <c r="I46" s="328" t="s">
-        <v>163</v>
-      </c>
-      <c r="J46" s="329"/>
-      <c r="K46" s="329"/>
-      <c r="L46" s="329"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="130"/>
-      <c r="O46" s="130"/>
-      <c r="P46" s="130"/>
-      <c r="Q46" s="130"/>
-      <c r="R46" s="130"/>
-      <c r="S46" s="130"/>
-      <c r="T46" s="130"/>
-      <c r="U46" s="130"/>
-      <c r="V46" s="130"/>
+      <c r="H46" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="212" t="s">
+        <v>137</v>
+      </c>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="213"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
     </row>
     <row r="47" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H47" s="192"/>
-      <c r="I47" s="192" t="s">
-        <v>160</v>
-      </c>
-      <c r="J47" s="192" t="s">
-        <v>161</v>
-      </c>
-      <c r="K47" s="328" t="s">
-        <v>162</v>
-      </c>
-      <c r="L47" s="329"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="130"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="130"/>
-      <c r="Q47" s="130"/>
-      <c r="R47" s="130"/>
-      <c r="S47" s="130"/>
-      <c r="T47" s="130"/>
-      <c r="U47" s="130"/>
-      <c r="V47" s="130"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="J47" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" s="212" t="s">
+        <v>136</v>
+      </c>
+      <c r="L47" s="213"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
     </row>
     <row r="48" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H48" s="192">
+      <c r="H48" s="74">
         <v>16</v>
       </c>
-      <c r="I48" s="192">
+      <c r="I48" s="74">
         <v>20</v>
       </c>
-      <c r="J48" s="192">
+      <c r="J48" s="74">
         <v>17</v>
       </c>
-      <c r="K48" s="328">
+      <c r="K48" s="212">
         <v>20</v>
       </c>
-      <c r="L48" s="329"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="130"/>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="130"/>
-      <c r="S48" s="130"/>
-      <c r="T48" s="130"/>
-      <c r="U48" s="130"/>
-      <c r="V48" s="130"/>
+      <c r="L48" s="213"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
+      <c r="V48" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="I46:L46"/>
+  <mergeCells count="46">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F16:H16"/>
@@ -5324,24 +5599,47 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F1879-E528-4352-86BD-F5E31A7A058F}">
   <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5362,26 +5660,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="332"/>
-      <c r="E2" s="331" t="s">
+      <c r="C2" s="232"/>
+      <c r="E2" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="332"/>
-      <c r="H2" s="331" t="s">
+      <c r="F2" s="232"/>
+      <c r="H2" s="231" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="332"/>
-      <c r="K2" s="333" t="s">
+      <c r="I2" s="232"/>
+      <c r="K2" s="233" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="334"/>
-      <c r="N2" s="331" t="s">
+      <c r="L2" s="234"/>
+      <c r="N2" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="332"/>
+      <c r="O2" s="232"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
@@ -5399,7 +5697,7 @@
       <c r="F3" s="5">
         <v>0.33</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="20" t="s">
         <v>61</v>
       </c>
       <c r="H3" s="2">
@@ -5427,8 +5725,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="22">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16">
         <v>9.3000000000000007</v>
       </c>
       <c r="C4" s="5">
@@ -5444,7 +5742,7 @@
         <f>33%</f>
         <v>0.33</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="20" t="s">
         <v>62</v>
       </c>
       <c r="H4" s="2">
@@ -5472,7 +5770,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="22">
+      <c r="B5" s="16">
         <v>14</v>
       </c>
       <c r="C5" s="5">
@@ -5488,7 +5786,7 @@
         <f>33%</f>
         <v>0.33</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="20" t="s">
         <v>63</v>
       </c>
       <c r="H5" s="2">
@@ -5516,7 +5814,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="22">
+      <c r="B6" s="16">
         <v>17</v>
       </c>
       <c r="C6" s="5">
@@ -5728,7 +6026,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="24">
+      <c r="E15" s="18">
         <v>45026</v>
       </c>
       <c r="F15" s="4"/>
@@ -5793,12 +6091,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FF9CF-B77D-46A6-8A4A-A68ED590C25C}">
   <dimension ref="A2:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5814,26 +6112,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="332"/>
-      <c r="E2" s="331" t="s">
+      <c r="C2" s="232"/>
+      <c r="E2" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="332"/>
-      <c r="H2" s="331" t="s">
+      <c r="F2" s="232"/>
+      <c r="H2" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="332"/>
-      <c r="K2" s="331" t="s">
+      <c r="I2" s="232"/>
+      <c r="K2" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="332"/>
-      <c r="N2" s="331" t="s">
+      <c r="L2" s="232"/>
+      <c r="N2" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="332"/>
+      <c r="O2" s="232"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -6149,7 +6447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC10043-F51A-4DB1-8C0B-313C8D48A7CD}">
   <dimension ref="A2:P14"/>
   <sheetViews>
@@ -6159,326 +6457,326 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="19"/>
-    <col min="2" max="2" width="10" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="19"/>
-    <col min="5" max="5" width="7" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="4.109375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" style="19" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" style="19" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="10" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11" style="13" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="13"/>
+    <col min="5" max="5" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.88671875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="337" t="s">
+      <c r="B2" s="237" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="338"/>
-      <c r="F2" s="337" t="s">
+      <c r="C2" s="238"/>
+      <c r="F2" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="338"/>
-      <c r="J2" s="339" t="s">
+      <c r="G2" s="238"/>
+      <c r="J2" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="340"/>
-      <c r="O2" s="337" t="s">
+      <c r="K2" s="240"/>
+      <c r="O2" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="338"/>
+      <c r="P2" s="238"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="73">
+      <c r="A3" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="25">
         <v>10.199999999999999</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="24">
         <v>0.45</v>
       </c>
-      <c r="E3" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="73">
+      <c r="E3" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="25">
         <v>13.4</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G3" s="27">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="106">
+      <c r="H3" s="26"/>
+      <c r="I3" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="58">
         <v>6</v>
       </c>
-      <c r="K3" s="107">
+      <c r="K3" s="59">
         <v>0.2</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="14">
         <v>10.4</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="15">
         <f>10%</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="73">
+      <c r="B4" s="25">
         <v>4.5</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="27">
         <v>0.25</v>
       </c>
-      <c r="E4" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="73">
+      <c r="E4" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="25">
         <v>5.4</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="27">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="108" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" s="73">
+      <c r="H4" s="26"/>
+      <c r="I4" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="25">
         <v>12</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="O4" s="20">
+      <c r="L4" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="14">
         <v>12.3</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="15">
         <f>10%</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="73">
+      <c r="A5" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="25">
         <v>17.899999999999999</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="27">
         <v>0.3</v>
       </c>
-      <c r="E5" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="73">
+      <c r="E5" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="25">
         <v>13.5</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="27">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="108" t="s">
-        <v>153</v>
-      </c>
-      <c r="J5" s="73">
+      <c r="H5" s="26"/>
+      <c r="I5" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="25">
         <v>11.7</v>
       </c>
-      <c r="K5" s="85">
+      <c r="K5" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="14">
         <v>16.3</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="15">
         <f>25%</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="73"/>
-      <c r="C6" s="75"/>
-      <c r="E6" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="73">
+      <c r="B6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="E6" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="25">
         <v>12.12</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="27">
         <f>25%</f>
         <v>0.25</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="109" t="s">
-        <v>154</v>
-      </c>
-      <c r="J6" s="104">
+      <c r="H6" s="26"/>
+      <c r="I6" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="56">
         <v>20</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="38">
         <v>0.05</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="14">
         <v>14.4</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="15">
         <f>10%</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="335" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="336"/>
-      <c r="K7" s="113">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="235" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="236"/>
+      <c r="K7" s="65">
         <f>ROUND(((J4*K4+J5*K5+J6*K6+J3*K3)*100/30),1)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="14">
         <v>8</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="17">
         <f>45%</f>
         <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="73"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="106">
+      <c r="A8" s="25"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="58">
         <v>7.9</v>
       </c>
-      <c r="K8" s="107">
+      <c r="K8" s="59">
         <v>0.17499999999999999</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="118">
+      <c r="B9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="70">
         <f>ROUND((B5*C5 +  B4*C4)/55*100,2)</f>
         <v>11.81</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
         <f>(F3*G3 + F4*G4)/50*100</f>
         <v>9.4</v>
       </c>
-      <c r="I9" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" s="103">
+      <c r="I9" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="55">
         <v>14.8</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="37">
         <v>0.17499999999999999</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-    </row>
-    <row r="10" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="117">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69">
         <f>ROUND((B3*C3 + B4*C4+ B5*C5),2)</f>
         <v>11.09</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40">
         <f>(F3*G3 + F4*G4+ F5*G5 + F6*G6)</f>
         <v>11.104999999999999</v>
       </c>
-      <c r="I10" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" s="73">
+      <c r="I10" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="25">
         <v>5.5</v>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="37">
         <v>0.25</v>
       </c>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88">
+      <c r="O10" s="40"/>
+      <c r="P10" s="40">
         <f t="array" ref="P10">ROUND(SUMPRODUCT(IF(O3:O7&lt;&gt;"",O3:O7*P3:P7,0))/SUM(IF(O3:O7&lt;&gt;"", P3:P7,0)),0)</f>
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I11" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="112">
+      <c r="I11" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="64">
         <v>15</v>
       </c>
-      <c r="K11" s="86">
+      <c r="K11" s="38">
         <v>0.1</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="13">
         <f t="array" ref="P11">ROUND(SUM(O3:O7*P3:P7),2)</f>
         <v>11.39</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="335" t="s">
-        <v>157</v>
-      </c>
-      <c r="J12" s="336"/>
-      <c r="K12" s="114">
+      <c r="I12" s="235" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="236"/>
+      <c r="K12" s="66">
         <f>ROUND((J6*K6+J3*K3+J5*K5+J11*K11+J8*K8+J9*K9+J10*K10+J4*K4),0 )</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="14">
         <f>(C10+G10+K13+P10)/4</f>
         <v>10.70875</v>
       </c>
-      <c r="K13" s="114">
+      <c r="K13" s="66">
         <f>(J3*K3+J4*K4+J6*K6+J8*K8+J9*K9+J10*K10+J11*K11+J5*K5)</f>
         <v>9.64</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="19">
+      <c r="B14" s="13">
         <f>SUM(C11,K7,P11,G11)/4</f>
         <v>5.1725000000000003</v>
       </c>
@@ -6497,7 +6795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDD666-62CA-4935-98B3-7465ACEEDE34}">
   <dimension ref="A2:Q16"/>
   <sheetViews>
@@ -6524,26 +6822,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="332"/>
-      <c r="E2" s="331" t="s">
+      <c r="C2" s="232"/>
+      <c r="E2" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="332"/>
-      <c r="I2" s="331" t="s">
+      <c r="F2" s="232"/>
+      <c r="I2" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="332"/>
-      <c r="M2" s="343" t="s">
+      <c r="J2" s="232"/>
+      <c r="M2" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="344"/>
-      <c r="P2" s="331" t="s">
+      <c r="N2" s="244"/>
+      <c r="P2" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="332"/>
+      <c r="Q2" s="232"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
@@ -6560,7 +6858,7 @@
       <c r="F3" s="8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="22" t="s">
         <v>58</v>
       </c>
       <c r="I3" s="2">
@@ -6571,13 +6869,13 @@
         <v>0.12</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="90">
+      <c r="L3" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="42">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N3" s="91">
+      <c r="N3" s="43">
         <v>0.27</v>
       </c>
       <c r="O3" s="4"/>
@@ -6602,7 +6900,7 @@
       <c r="F4" s="8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="22" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="2">
@@ -6613,13 +6911,13 @@
         <v>0.12</v>
       </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="M4" s="90">
+      <c r="L4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="42">
         <v>0</v>
       </c>
-      <c r="N4" s="91">
+      <c r="N4" s="43">
         <v>0.33</v>
       </c>
       <c r="O4" s="4"/>
@@ -6644,7 +6942,7 @@
       <c r="F5" s="8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="22" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="2">
@@ -6655,13 +6953,13 @@
         <v>0.1</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="M5" s="90">
+      <c r="L5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="42">
         <v>15.4</v>
       </c>
-      <c r="N5" s="91">
+      <c r="N5" s="43">
         <v>0.16</v>
       </c>
       <c r="O5" s="4"/>
@@ -6680,7 +6978,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="21"/>
       <c r="I6" s="2">
         <v>10</v>
       </c>
@@ -6689,13 +6987,13 @@
         <v>0.06</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" s="90">
+      <c r="L6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="42">
         <v>0</v>
       </c>
-      <c r="N6" s="91">
+      <c r="N6" s="43">
         <v>0.24</v>
       </c>
       <c r="O6" s="4"/>
@@ -6721,8 +7019,8 @@
         <v>0.6</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -6739,8 +7037,8 @@
         <v>10</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -6755,8 +7053,8 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -6782,10 +7080,10 @@
         <v>13</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="M10" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="N10" s="94">
+      <c r="M10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="46">
         <f>(M3*N3 + M4*N4+ M5*N5 + M6*N6)</f>
         <v>5.0830000000000002</v>
       </c>
@@ -6807,10 +7105,10 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="N11" s="96">
+      <c r="M11" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="48">
         <f>( M3*0.45 + M4*0.55)</f>
         <v>4.3650000000000002</v>
       </c>
@@ -6846,11 +7144,11 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" s="99"/>
-      <c r="N13" s="97">
+      <c r="L13" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="51"/>
+      <c r="N13" s="49">
         <v>0.6</v>
       </c>
     </row>
@@ -6864,11 +7162,11 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" s="102"/>
-      <c r="N14" s="98">
+      <c r="L14" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="50">
         <v>0.4</v>
       </c>
     </row>
@@ -6882,11 +7180,11 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="341" t="s">
-        <v>145</v>
-      </c>
-      <c r="M15" s="342"/>
-      <c r="N15" s="87">
+      <c r="L15" s="241" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="242"/>
+      <c r="N15" s="39">
         <f>M13*N13+M14*N14</f>
         <v>0</v>
       </c>
@@ -6916,7 +7214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5023A22B-A7B8-4F5A-B287-157EE962F98A}">
   <dimension ref="A2:P26"/>
   <sheetViews>
@@ -6938,28 +7236,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="332"/>
-      <c r="E2" s="331" t="s">
+      <c r="C2" s="232"/>
+      <c r="E2" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="332"/>
-      <c r="H2" s="331" t="s">
+      <c r="F2" s="232"/>
+      <c r="H2" s="231" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="332"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="345" t="s">
+      <c r="I2" s="232"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="346"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="345" t="s">
+      <c r="M2" s="246"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="245" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="346"/>
+      <c r="P2" s="246"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -6983,18 +7281,18 @@
       <c r="I3" s="5">
         <v>0.2</v>
       </c>
-      <c r="K3" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" s="79">
+      <c r="K3" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="31">
         <v>13</v>
       </c>
-      <c r="M3" s="80">
+      <c r="M3" s="32">
         <v>0.2</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="80">
+      <c r="N3" s="29"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="32">
         <v>0.2</v>
       </c>
     </row>
@@ -7020,18 +7318,18 @@
       <c r="I4" s="5">
         <v>0.3</v>
       </c>
-      <c r="K4" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="79">
+      <c r="K4" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="31">
         <v>16.3</v>
       </c>
-      <c r="M4" s="80">
+      <c r="M4" s="32">
         <v>0.2</v>
       </c>
-      <c r="N4" s="77"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="80">
+      <c r="N4" s="29"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="32">
         <v>0.3</v>
       </c>
     </row>
@@ -7057,18 +7355,18 @@
       <c r="I5" s="5">
         <v>0.5</v>
       </c>
-      <c r="K5" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="79">
+      <c r="K5" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="31">
         <v>16</v>
       </c>
-      <c r="M5" s="80">
+      <c r="M5" s="32">
         <v>0.2</v>
       </c>
-      <c r="N5" s="77"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="80">
+      <c r="N5" s="29"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32">
         <v>0.5</v>
       </c>
     </row>
@@ -7086,18 +7384,18 @@
       <c r="G6" s="4"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="K6" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" s="79">
+      <c r="K6" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="31">
         <v>20</v>
       </c>
-      <c r="M6" s="80">
+      <c r="M6" s="32">
         <v>0.15</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7113,18 +7411,18 @@
       <c r="G7" s="4"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="K7" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" s="79">
+      <c r="K7" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="31">
         <v>0</v>
       </c>
-      <c r="M7" s="80">
+      <c r="M7" s="32">
         <v>0.15</v>
       </c>
-      <c r="N7" s="77"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
@@ -7140,18 +7438,18 @@
       <c r="G8" s="4"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="K8" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="L8" s="79">
+      <c r="K8" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="31">
         <v>0</v>
       </c>
-      <c r="M8" s="80">
+      <c r="M8" s="32">
         <v>0.1</v>
       </c>
-      <c r="N8" s="77"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
@@ -7163,17 +7461,17 @@
       <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="M9" s="82">
+      <c r="K9" s="30"/>
+      <c r="L9" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="34">
         <f>ROUND((L3*0.33333+ L4*0.33333 + L5*0.33333),2)</f>
         <v>15.1</v>
       </c>
-      <c r="N9" s="77"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -7194,17 +7492,17 @@
       <c r="I10" s="2">
         <v>12</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" s="82">
+      <c r="K10" s="30"/>
+      <c r="L10" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" s="34">
         <f>(L3*M3 + L4*M4+ L5*M5 + L6*M6+ L7*M7+L8*M8)</f>
         <v>12.06</v>
       </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79">
+      <c r="N10" s="29"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31">
         <v>13</v>
       </c>
     </row>
@@ -7218,12 +7516,12 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -7328,8 +7626,8 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -7343,8 +7641,8 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -7358,32 +7656,32 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DEA8B7-9D75-4011-9630-0B541F880BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F6836-48E3-47F6-8016-ECF8A7F56531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="1" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="203">
   <si>
     <t>Cadeira</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Programação Orientada a Objectos</t>
   </si>
   <si>
-    <t>Recurso T.</t>
-  </si>
-  <si>
     <t>3º Ano</t>
   </si>
   <si>
@@ -280,331 +277,385 @@
     <t>Horas</t>
   </si>
   <si>
+    <t>10h -&gt;</t>
+  </si>
+  <si>
+    <t>11h -&gt;</t>
+  </si>
+  <si>
+    <t>12h -&gt;</t>
+  </si>
+  <si>
+    <t>13h -&gt;</t>
+  </si>
+  <si>
+    <t>14h -&gt;</t>
+  </si>
+  <si>
+    <t>15h -&gt;</t>
+  </si>
+  <si>
+    <t>16h -&gt;</t>
+  </si>
+  <si>
+    <t>19h -&gt;</t>
+  </si>
+  <si>
+    <t>20h -&gt;</t>
+  </si>
+  <si>
+    <t>ExameT</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>TesteT</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>P3 - desempenho nas aulas</t>
+  </si>
+  <si>
+    <t>P2 - Teste</t>
+  </si>
+  <si>
+    <t>teorica:</t>
+  </si>
+  <si>
+    <t>Tp1</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>Tp2</t>
+  </si>
+  <si>
+    <t>Tp3</t>
+  </si>
+  <si>
+    <t>participação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teorica: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total: </t>
+  </si>
+  <si>
+    <t>RecursoT</t>
+  </si>
+  <si>
+    <t>RecursoP</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Teorica:</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>11,7 no prrimeiro</t>
+  </si>
+  <si>
+    <t>pratica</t>
+  </si>
+  <si>
+    <t>1º mini teste</t>
+  </si>
+  <si>
+    <t>2º mini teste</t>
+  </si>
+  <si>
+    <t>assiduidade TP</t>
+  </si>
+  <si>
+    <t>PL03</t>
+  </si>
+  <si>
+    <t>PL04</t>
+  </si>
+  <si>
+    <t>Nota Final:</t>
+  </si>
+  <si>
+    <t>pds quizes</t>
+  </si>
+  <si>
+    <t>tp3</t>
+  </si>
+  <si>
+    <t>grasp</t>
+  </si>
+  <si>
+    <t>quizz</t>
+  </si>
+  <si>
+    <t>design patterns</t>
+  </si>
+  <si>
+    <t>tp4</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>nota mínima de 7.0 nas 2</t>
+  </si>
+  <si>
+    <t>ATP1</t>
+  </si>
+  <si>
+    <t>ExameATP2</t>
+  </si>
+  <si>
+    <t>ExameTP2</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>APF-E</t>
+  </si>
+  <si>
+    <t>APF-T</t>
+  </si>
+  <si>
+    <t>Quiz etc</t>
+  </si>
+  <si>
+    <t>Entregas P - code submissions,</t>
+  </si>
+  <si>
+    <t>EntregasP</t>
+  </si>
+  <si>
+    <t>nota mínima de 7.5 nas 2</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Assign1</t>
+  </si>
+  <si>
+    <t>Assign2</t>
+  </si>
+  <si>
+    <t>tasks during theoretical classes</t>
+  </si>
+  <si>
+    <t>AC - desempenho nas aulas,</t>
+  </si>
+  <si>
+    <t>e entrega dos guiões</t>
+  </si>
+  <si>
+    <t>APF -  trabalho prático final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code analysis , presentations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratica: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40% - Quizzes or other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">assiduidade, realização </t>
+  </si>
+  <si>
+    <t>(grupo de 2 elementos)</t>
+  </si>
+  <si>
+    <t>total:</t>
+  </si>
+  <si>
+    <t>faltam:</t>
+  </si>
+  <si>
+    <t>atual:</t>
+  </si>
+  <si>
+    <t>ANUAL</t>
+  </si>
+  <si>
+    <t>deal liquidos</t>
+  </si>
+  <si>
+    <t>liq</t>
+  </si>
+  <si>
+    <t>ajudas</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>mês</t>
+  </si>
+  <si>
+    <t>salario</t>
+  </si>
+  <si>
+    <t>Sub.Alim</t>
+  </si>
+  <si>
+    <t>tempo</t>
+  </si>
+  <si>
+    <t>mês*dia</t>
+  </si>
+  <si>
+    <t>brutos</t>
+  </si>
+  <si>
+    <t>Number of interviews</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>Itjobs</t>
+  </si>
+  <si>
+    <t>Uajobteaser</t>
+  </si>
+  <si>
+    <t>letsgetchecked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs </t>
+  </si>
+  <si>
+    <t>internships</t>
+  </si>
+  <si>
+    <t>UA_JobTeaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outsoft </t>
+  </si>
+  <si>
+    <t>1 dia</t>
+  </si>
+  <si>
+    <t>Tempo Até Contacto -&gt; TAC</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Pratica:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>9h -&gt;</t>
   </si>
   <si>
-    <t>10h -&gt;</t>
-  </si>
-  <si>
-    <t>11h -&gt;</t>
-  </si>
-  <si>
-    <t>12h -&gt;</t>
-  </si>
-  <si>
-    <t>13h -&gt;</t>
-  </si>
-  <si>
-    <t>14h -&gt;</t>
-  </si>
-  <si>
-    <t>15h -&gt;</t>
-  </si>
-  <si>
-    <t>16h -&gt;</t>
-  </si>
-  <si>
-    <t>17h-&gt;</t>
-  </si>
-  <si>
-    <t>18h-&gt;</t>
-  </si>
-  <si>
-    <t>19h -&gt;</t>
-  </si>
-  <si>
-    <t>20h -&gt;</t>
-  </si>
-  <si>
-    <t>13h</t>
-  </si>
-  <si>
-    <t>9h</t>
-  </si>
-  <si>
-    <t>10h</t>
-  </si>
-  <si>
-    <t>11h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12h </t>
-  </si>
-  <si>
-    <t>14h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15h </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16h </t>
-  </si>
-  <si>
-    <t>17h</t>
-  </si>
-  <si>
-    <t>18h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20h </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19h </t>
-  </si>
-  <si>
-    <t>ExameT</t>
-  </si>
-  <si>
-    <t>Projeto</t>
-  </si>
-  <si>
-    <t>TesteT</t>
-  </si>
-  <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>P3 - desempenho nas aulas</t>
-  </si>
-  <si>
-    <t>P2 - Teste</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>TP2</t>
-  </si>
-  <si>
-    <t>teorica:</t>
-  </si>
-  <si>
-    <t>Tp1</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>Tp2</t>
-  </si>
-  <si>
-    <t>Tp3</t>
-  </si>
-  <si>
-    <t>participação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teorica: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total: </t>
-  </si>
-  <si>
-    <t>RecursoT</t>
-  </si>
-  <si>
-    <t>RecursoP</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Teorica:</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>11,7 no prrimeiro</t>
-  </si>
-  <si>
-    <t>pratica</t>
-  </si>
-  <si>
-    <t>1º mini teste</t>
-  </si>
-  <si>
-    <t>2º mini teste</t>
-  </si>
-  <si>
-    <t>assiduidade TP</t>
-  </si>
-  <si>
-    <t>PL03</t>
-  </si>
-  <si>
-    <t>PL04</t>
-  </si>
-  <si>
-    <t>Nota Final:</t>
-  </si>
-  <si>
-    <t>pds quizes</t>
-  </si>
-  <si>
-    <t>tp3</t>
-  </si>
-  <si>
-    <t>grasp</t>
-  </si>
-  <si>
-    <t>quizz</t>
-  </si>
-  <si>
-    <t>design patterns</t>
-  </si>
-  <si>
-    <t>tp4</t>
-  </si>
-  <si>
-    <t>PDS</t>
-  </si>
-  <si>
-    <t>nota mínima de 7.0 nas 2</t>
-  </si>
-  <si>
-    <t>ATP1</t>
-  </si>
-  <si>
-    <t>ExameATP2</t>
-  </si>
-  <si>
-    <t>ExameTP2</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>APF-E</t>
-  </si>
-  <si>
-    <t>APF-T</t>
-  </si>
-  <si>
-    <t>Quiz etc</t>
-  </si>
-  <si>
-    <t>Entregas P - code submissions,</t>
-  </si>
-  <si>
-    <t>EntregasP</t>
-  </si>
-  <si>
-    <t>nota mínima de 7.5 nas 2</t>
-  </si>
-  <si>
-    <t>Exam</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>Assign1</t>
-  </si>
-  <si>
-    <t>Assign2</t>
-  </si>
-  <si>
-    <t>tasks during theoretical classes</t>
-  </si>
-  <si>
-    <t>AC - desempenho nas aulas,</t>
-  </si>
-  <si>
-    <t>e entrega dos guiões</t>
-  </si>
-  <si>
-    <t>APF -  trabalho prático final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code analysis , presentations </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratica: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40% - Quizzes or other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">assiduidade, realização </t>
-  </si>
-  <si>
-    <t>(grupo de 2 elementos)</t>
-  </si>
-  <si>
-    <t>total:</t>
-  </si>
-  <si>
-    <t>faltam:</t>
-  </si>
-  <si>
-    <t>atual:</t>
-  </si>
-  <si>
-    <t>ANUAL</t>
-  </si>
-  <si>
-    <t>deal liquidos</t>
-  </si>
-  <si>
-    <t>liq</t>
-  </si>
-  <si>
-    <t>ajudas</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>mês</t>
-  </si>
-  <si>
-    <t>salario</t>
-  </si>
-  <si>
-    <t>Sub.Alim</t>
-  </si>
-  <si>
-    <t>tempo</t>
-  </si>
-  <si>
-    <t>mês*dia</t>
-  </si>
-  <si>
-    <t>brutos</t>
-  </si>
-  <si>
-    <t>AC1 - TP2</t>
-  </si>
-  <si>
-    <t>AC1 - P2</t>
-  </si>
-  <si>
-    <t>guiao 5</t>
-  </si>
-  <si>
-    <t>guiao 4</t>
-  </si>
-  <si>
-    <t>teste treino</t>
-  </si>
-  <si>
-    <t>testes</t>
-  </si>
-  <si>
-    <t>almoçar</t>
-  </si>
-  <si>
-    <t>estudar</t>
-  </si>
-  <si>
-    <t>estudar até 11:30</t>
+    <t>17h -&gt;</t>
+  </si>
+  <si>
+    <t>18h -&gt;</t>
+  </si>
+  <si>
+    <t>21h -&gt;</t>
+  </si>
+  <si>
+    <t>If I have time</t>
+  </si>
+  <si>
+    <t>Will do</t>
+  </si>
+  <si>
+    <t>Most likely will do</t>
+  </si>
+  <si>
+    <t>Hobbies -&gt; 15-21(change every week)</t>
+  </si>
+  <si>
+    <t>programar</t>
+  </si>
+  <si>
+    <t>Can't this week</t>
+  </si>
+  <si>
+    <t>guitarra</t>
+  </si>
+  <si>
+    <t>ler</t>
+  </si>
+  <si>
+    <t>Livros</t>
+  </si>
+  <si>
+    <t>CD (de threads)</t>
+  </si>
+  <si>
+    <t>Treinar</t>
+  </si>
+  <si>
+    <t>Ginasio</t>
+  </si>
+  <si>
+    <t>Core&amp;Antebraço</t>
+  </si>
+  <si>
+    <t>treinar</t>
+  </si>
+  <si>
+    <t>meditar</t>
+  </si>
+  <si>
+    <t>enviar CVs</t>
+  </si>
+  <si>
+    <t>Almoçar</t>
+  </si>
+  <si>
+    <t>lanchar</t>
+  </si>
+  <si>
+    <t>Poor economics</t>
+  </si>
+  <si>
+    <t>Chainsawman</t>
+  </si>
+  <si>
+    <t>Caminhada</t>
+  </si>
+  <si>
+    <t>Bicicleta</t>
+  </si>
+  <si>
+    <t>conduzir</t>
+  </si>
+  <si>
+    <t>Presentes de natal</t>
+  </si>
+  <si>
+    <t>organizar git</t>
   </si>
 </sst>
 </file>
@@ -676,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,12 +773,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,18 +856,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1192,17 +1279,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1621,20 +1697,74 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1642,10 +1772,53 @@
       <left/>
       <right/>
       <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1655,7 +1828,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1759,32 +1932,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,42 +1947,42 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1840,7 +1994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1859,9 +2013,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1871,7 +2022,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1880,31 +2031,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1913,25 +2064,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1940,18 +2091,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1961,7 +2112,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1970,10 +2121,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1982,270 +2133,364 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2255,14 +2500,88 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2271,53 +2590,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2325,16 +2602,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2343,22 +2620,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2366,30 +2643,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2401,8 +2654,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF996600"/>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF9F5FCF"/>
-      <color rgb="FF996600"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FF663300"/>
       <color rgb="FFFF00FF"/>
@@ -2716,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72934023-36B5-40B1-AE3E-28B3E0E42FCF}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2727,157 +2981,357 @@
     <col min="1" max="1" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" style="13"/>
     <col min="4" max="5" width="11.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="13"/>
+    <col min="6" max="9" width="8.88671875" style="13"/>
+    <col min="10" max="10" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="13"/>
+    <col min="12" max="12" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="13"/>
+    <col min="17" max="17" width="13.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="13"/>
+    <col min="19" max="19" width="13.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="13"/>
+    <col min="21" max="21" width="5.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="158"/>
-      <c r="C2" s="154" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="156" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="164" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="150"/>
+      <c r="C2" s="146" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="147" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="155" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="156" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="219" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="221"/>
+      <c r="T2" s="216" t="s">
+        <v>164</v>
+      </c>
+      <c r="U2" s="217"/>
+      <c r="V2" s="218"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="157" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="150">
+        <v>152</v>
+      </c>
+      <c r="B3" s="149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="142">
         <v>14</v>
       </c>
-      <c r="D3" s="159">
+      <c r="D3" s="151">
         <v>943</v>
       </c>
-      <c r="E3" s="151">
+      <c r="E3" s="143">
         <f>C3*D3</f>
         <v>13202</v>
       </c>
-      <c r="G3" s="171">
+      <c r="G3" s="163">
         <v>1500</v>
       </c>
-      <c r="H3" s="172">
+      <c r="H3" s="164">
         <v>1132</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="214" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="215"/>
+      <c r="M3" s="185" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="177" t="s">
+        <v>169</v>
+      </c>
+      <c r="O3" s="185" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" s="177" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q3" s="185" t="s">
+        <v>165</v>
+      </c>
+      <c r="R3" s="177" t="s">
+        <v>169</v>
+      </c>
+      <c r="T3" s="175" t="s">
+        <v>159</v>
+      </c>
+      <c r="U3" s="176" t="s">
+        <v>160</v>
+      </c>
+      <c r="V3" s="177" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="152" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="148">
+        <v>152</v>
+      </c>
+      <c r="B4" s="144" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="140">
         <v>11</v>
       </c>
-      <c r="D4" s="160">
+      <c r="D4" s="152">
         <v>100</v>
       </c>
-      <c r="E4" s="144">
+      <c r="E4" s="136">
         <f>C4*D4</f>
         <v>1100</v>
       </c>
-      <c r="G4" s="169">
+      <c r="G4" s="161">
         <v>1400</v>
       </c>
-      <c r="H4" s="170">
+      <c r="H4" s="162">
         <v>1069</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="178" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="169"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="186" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="173" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="186"/>
+      <c r="R4" s="173"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="174"/>
+      <c r="V4" s="173" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="153" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="149">
+        <v>156</v>
+      </c>
+      <c r="B5" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="141">
         <f>11*21</f>
         <v>231</v>
       </c>
-      <c r="D5" s="161">
+      <c r="D5" s="153">
         <v>7.2</v>
       </c>
-      <c r="E5" s="146">
+      <c r="E5" s="138">
         <f>C5*D5</f>
         <v>1663.2</v>
       </c>
-      <c r="F5" s="162"/>
-      <c r="G5" s="169">
+      <c r="F5" s="154"/>
+      <c r="G5" s="161">
         <v>1300</v>
       </c>
-      <c r="H5" s="170">
+      <c r="H5" s="162">
         <v>1006</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G6" s="169">
+      <c r="J5" s="179" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="159">
+        <v>1</v>
+      </c>
+      <c r="M5" s="187"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="187"/>
+      <c r="R5" s="157"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="157"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="161">
         <v>1200</v>
       </c>
-      <c r="H6" s="170">
+      <c r="H6" s="162">
         <v>943</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="167">
+      <c r="J6" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="160">
+        <v>1</v>
+      </c>
+      <c r="M6" s="187"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="187"/>
+      <c r="R6" s="157"/>
+      <c r="T6" s="171"/>
+      <c r="U6" s="159"/>
+      <c r="V6" s="157"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="159">
         <v>1100</v>
       </c>
-      <c r="H7" s="165">
+      <c r="H7" s="157">
         <v>878</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D8" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="147">
+      <c r="M7" s="187"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="157"/>
+      <c r="T7" s="171"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="157"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="135" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="139">
         <f>(E3+E4+E5)</f>
         <v>15965.2</v>
       </c>
-      <c r="G8" s="167">
+      <c r="G8" s="159">
         <v>1000</v>
       </c>
-      <c r="H8" s="165">
+      <c r="H8" s="157">
         <v>808</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="146">
+      <c r="M8" s="187"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="187"/>
+      <c r="P8" s="157"/>
+      <c r="Q8" s="187"/>
+      <c r="R8" s="157"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="159"/>
+      <c r="V8" s="157"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="138">
         <f>ROUND(E8/14,0)</f>
         <v>1140</v>
       </c>
-      <c r="G9" s="167">
+      <c r="G9" s="159">
         <v>1100</v>
       </c>
-      <c r="H9" s="165">
+      <c r="H9" s="157">
         <v>878</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="168">
+      <c r="M9" s="187"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="187"/>
+      <c r="R9" s="157"/>
+      <c r="T9" s="171"/>
+      <c r="U9" s="159"/>
+      <c r="V9" s="157"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="160">
         <v>1000</v>
       </c>
-      <c r="H10" s="166">
+      <c r="H10" s="158">
         <v>808</v>
       </c>
+      <c r="M10" s="187"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="187"/>
+      <c r="R10" s="157"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="159"/>
+      <c r="V10" s="157"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M11" s="187"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="187"/>
+      <c r="R11" s="157"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="159"/>
+      <c r="V11" s="157"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M12" s="187"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="187"/>
+      <c r="R12" s="157"/>
+      <c r="T12" s="171"/>
+      <c r="U12" s="159"/>
+      <c r="V12" s="157"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M13" s="187"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="187"/>
+      <c r="R13" s="157"/>
+      <c r="T13" s="171"/>
+      <c r="U13" s="159"/>
+      <c r="V13" s="157"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="188"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="188"/>
+      <c r="R14" s="158"/>
+      <c r="T14" s="172"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="158"/>
+    </row>
+    <row r="17" spans="13:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="13:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="222" t="s">
+        <v>168</v>
+      </c>
+      <c r="N18" s="223"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M18:N18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2886,980 +3340,1042 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F992FB-233A-4EDD-8101-F45C6AA7976A}">
   <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="15.5546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="72" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="72" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="18.21875" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="72"/>
-    <col min="16" max="16" width="14.5546875" style="72" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" style="72" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="72"/>
-    <col min="20" max="20" width="9.5546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="72"/>
-    <col min="24" max="24" width="10" style="72" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.33203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" style="72" customWidth="1"/>
-    <col min="28" max="28" width="12" style="72" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.33203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.33203125" style="72" customWidth="1"/>
-    <col min="32" max="32" width="6.109375" style="72" customWidth="1"/>
-    <col min="33" max="33" width="6.21875" style="72" customWidth="1"/>
-    <col min="34" max="34" width="6.33203125" style="72" customWidth="1"/>
-    <col min="35" max="35" width="5.88671875" style="72" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="72"/>
+    <col min="1" max="1" width="13.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="65" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="65" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="65" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="18.21875" style="65" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="65"/>
+    <col min="16" max="16" width="14.5546875" style="65" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="65" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="65" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="65"/>
+    <col min="20" max="20" width="9.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="65"/>
+    <col min="24" max="24" width="10" style="65" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" style="65" customWidth="1"/>
+    <col min="28" max="28" width="12" style="65" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" style="65" customWidth="1"/>
+    <col min="32" max="32" width="6.109375" style="65" customWidth="1"/>
+    <col min="33" max="33" width="6.21875" style="65" customWidth="1"/>
+    <col min="34" max="34" width="6.33203125" style="65" customWidth="1"/>
+    <col min="35" max="35" width="5.88671875" style="65" customWidth="1"/>
+    <col min="36" max="16384" width="8.88671875" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72">
+      <c r="B1" s="201">
+        <v>15</v>
+      </c>
+      <c r="C1" s="65">
+        <v>16</v>
+      </c>
+      <c r="D1" s="65">
+        <v>17</v>
+      </c>
+      <c r="E1" s="65">
+        <v>18</v>
+      </c>
+      <c r="F1" s="65">
+        <v>19</v>
+      </c>
+      <c r="G1" s="65">
+        <v>20</v>
+      </c>
+      <c r="H1" s="202">
         <v>21</v>
       </c>
-      <c r="C1" s="72">
-        <v>22</v>
-      </c>
-      <c r="D1" s="72">
-        <v>23</v>
-      </c>
-      <c r="E1" s="72">
-        <v>24</v>
-      </c>
-      <c r="F1" s="72">
-        <v>25</v>
-      </c>
-      <c r="G1" s="72">
-        <v>26</v>
-      </c>
-      <c r="H1" s="72">
-        <v>27</v>
-      </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
     </row>
     <row r="2" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="183" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="183" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="183" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+    </row>
+    <row r="3" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="206" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="209" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+    </row>
+    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="183" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="175" t="s">
+      <c r="B4" s="165"/>
+      <c r="C4" s="210" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="207" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="182"/>
+      <c r="F4" s="207" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="182"/>
+      <c r="H4" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+    </row>
+    <row r="5" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="179" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-    </row>
-    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="176" t="s">
+      <c r="B5" s="182"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="207" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="165"/>
+      <c r="F5" s="207" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="J5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+    </row>
+    <row r="6" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="250" t="s">
+      <c r="B6" s="227" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="227" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="227" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="227" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="227" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="227" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="227" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="69"/>
+    </row>
+    <row r="7" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="165" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="228"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="J7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+    </row>
+    <row r="8" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="182" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="182"/>
+      <c r="C8" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+    </row>
+    <row r="9" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="165" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="165"/>
+      <c r="C9" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
+      <c r="AL9" s="69"/>
+    </row>
+    <row r="10" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="182" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="182" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="J10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+    </row>
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="165" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="212" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="213" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="J11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+    </row>
+    <row r="12" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="211" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="182" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="J12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="165" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="212" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="212" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="J13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+    </row>
+    <row r="14" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="182" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="J14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="69"/>
+    </row>
+    <row r="15" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="181" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="184"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="J15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+    </row>
+    <row r="16" spans="1:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+    </row>
+    <row r="17" spans="1:38" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="69"/>
+      <c r="AL17" s="69"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="134"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="AB18" s="69"/>
+      <c r="AC18" s="69"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="69"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="F19" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="69"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="69"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="69"/>
+      <c r="AL20" s="69"/>
+    </row>
+    <row r="21" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="224" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="226"/>
+      <c r="G21" s="203" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="203" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG21" s="69"/>
+      <c r="AH21" s="69"/>
+      <c r="AI21" s="69"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="69"/>
+      <c r="AL21" s="69"/>
+    </row>
+    <row r="22" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="204" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="203" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="205" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="168" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="168" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="69"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="69"/>
+      <c r="AL22" s="69"/>
+    </row>
+    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="168" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="168" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="250" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="250" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="250" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="250" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="250" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="250" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="177" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="251" t="s">
+      <c r="G23" s="182" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="182" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG23" s="69"/>
+      <c r="AH23" s="69"/>
+      <c r="AI23" s="69"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="69"/>
+      <c r="AL23" s="69"/>
+    </row>
+    <row r="24" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="182" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="251" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="251" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="251" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="251" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="251" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="251" t="s">
-        <v>185</v>
-      </c>
-      <c r="I5" s="179" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="77"/>
-    </row>
-    <row r="6" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="176" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="252" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="252" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="252" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="252" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="252" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="252" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" s="252" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="253" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-    </row>
-    <row r="7" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="178" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="188" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="184" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="184"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="254" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="77"/>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="77"/>
-    </row>
-    <row r="8" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="176" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="193" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="179" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="77"/>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="77"/>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="77"/>
-    </row>
-    <row r="9" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="177" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="249" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="185"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-    </row>
-    <row r="10" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="176" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="180" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-    </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="177" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="192"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="181" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="77"/>
-    </row>
-    <row r="12" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="176" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="77"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="77"/>
-      <c r="AK12" s="77"/>
-      <c r="AL12" s="77"/>
-    </row>
-    <row r="13" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="177" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="77"/>
-      <c r="AK13" s="77"/>
-      <c r="AL13" s="77"/>
-    </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="176" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="182" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="77"/>
-      <c r="AL14" s="77"/>
-    </row>
-    <row r="15" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="77"/>
-      <c r="AK15" s="77"/>
-      <c r="AL15" s="77"/>
-    </row>
-    <row r="16" spans="1:38" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="189" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="142" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="77"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="77"/>
-    </row>
-    <row r="17" spans="15:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="77"/>
-      <c r="AK17" s="77"/>
-      <c r="AL17" s="77"/>
-    </row>
-    <row r="18" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77"/>
-    </row>
-    <row r="19" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="77"/>
-      <c r="AK19" s="77"/>
-      <c r="AL19" s="77"/>
-    </row>
-    <row r="20" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="77"/>
-    </row>
-    <row r="21" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="77"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="77"/>
-      <c r="AK21" s="77"/>
-      <c r="AL21" s="77"/>
-    </row>
-    <row r="22" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="77"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="77"/>
-      <c r="AL22" s="77"/>
-    </row>
-    <row r="23" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="AG23" s="77"/>
-      <c r="AH23" s="77"/>
-      <c r="AI23" s="77"/>
-      <c r="AJ23" s="77"/>
-      <c r="AK23" s="77"/>
-      <c r="AL23" s="77"/>
-    </row>
-    <row r="24" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="AG24" s="77"/>
-      <c r="AH24" s="77"/>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="77"/>
-      <c r="AK24" s="77"/>
-      <c r="AL24" s="77"/>
-    </row>
-    <row r="25" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="77"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="77"/>
-      <c r="AL25" s="77"/>
-    </row>
-    <row r="26" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="77"/>
-      <c r="AG26" s="77"/>
-      <c r="AH26" s="77"/>
-      <c r="AI26" s="77"/>
-      <c r="AJ26" s="77"/>
-      <c r="AK26" s="77"/>
-      <c r="AL26" s="77"/>
-    </row>
-    <row r="27" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="77"/>
-      <c r="AG27" s="77"/>
-      <c r="AH27" s="77"/>
-      <c r="AI27" s="77"/>
-      <c r="AJ27" s="77"/>
-      <c r="AK27" s="77"/>
-      <c r="AL27" s="77"/>
-    </row>
-    <row r="28" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="77"/>
-      <c r="AA28" s="77"/>
-      <c r="AB28" s="77"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="77"/>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="77"/>
-      <c r="AG28" s="77"/>
-      <c r="AH28" s="77"/>
-      <c r="AI28" s="77"/>
-      <c r="AJ28" s="77"/>
-      <c r="AK28" s="77"/>
-      <c r="AL28" s="77"/>
-    </row>
-    <row r="29" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="77"/>
-      <c r="AH29" s="77"/>
-      <c r="AI29" s="77"/>
-      <c r="AJ29" s="77"/>
-      <c r="AK29" s="77"/>
-      <c r="AL29" s="77"/>
-    </row>
-    <row r="30" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="77"/>
-      <c r="AH30" s="77"/>
-      <c r="AI30" s="77"/>
-      <c r="AJ30" s="77"/>
-      <c r="AK30" s="77"/>
-      <c r="AL30" s="77"/>
-    </row>
-    <row r="31" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="77"/>
-      <c r="AH31" s="77"/>
-      <c r="AI31" s="77"/>
-      <c r="AJ31" s="77"/>
-      <c r="AK31" s="77"/>
-      <c r="AL31" s="77"/>
-    </row>
-    <row r="32" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="77"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="77"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="77"/>
-      <c r="AG32" s="77"/>
-      <c r="AH32" s="77"/>
-      <c r="AI32" s="77"/>
-      <c r="AJ32" s="77"/>
-      <c r="AK32" s="77"/>
-      <c r="AL32" s="77"/>
+      <c r="C24" s="182" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="165" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="165" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG24" s="69"/>
+      <c r="AH24" s="69"/>
+      <c r="AI24" s="69"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="69"/>
+      <c r="AL24" s="69"/>
+    </row>
+    <row r="25" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="165" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="69"/>
+      <c r="AF25" s="69"/>
+      <c r="AG25" s="69"/>
+      <c r="AH25" s="69"/>
+      <c r="AI25" s="69"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="69"/>
+      <c r="AL25" s="69"/>
+    </row>
+    <row r="26" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="182"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="69"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="69"/>
+      <c r="AL26" s="69"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="69"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="69"/>
+      <c r="AL27" s="69"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="69"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="69"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="69"/>
+      <c r="AL29" s="69"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="69"/>
+      <c r="AH30" s="69"/>
+      <c r="AI30" s="69"/>
+      <c r="AJ30" s="69"/>
+      <c r="AK30" s="69"/>
+      <c r="AL30" s="69"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="69"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="69"/>
+      <c r="AL31" s="69"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="69"/>
+      <c r="AB32" s="69"/>
+      <c r="AC32" s="69"/>
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="69"/>
+      <c r="AF32" s="69"/>
+      <c r="AG32" s="69"/>
+      <c r="AH32" s="69"/>
+      <c r="AI32" s="69"/>
+      <c r="AJ32" s="69"/>
+      <c r="AK32" s="69"/>
+      <c r="AL32" s="69"/>
     </row>
     <row r="33" spans="15:38" x14ac:dyDescent="0.3">
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="77"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="77"/>
-      <c r="AF33" s="77"/>
-      <c r="AG33" s="77"/>
-      <c r="AH33" s="77"/>
-      <c r="AI33" s="77"/>
-      <c r="AJ33" s="77"/>
-      <c r="AK33" s="77"/>
-      <c r="AL33" s="77"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="69"/>
+      <c r="AB33" s="69"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="69"/>
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="69"/>
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="69"/>
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="69"/>
+      <c r="AL33" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3870,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F271A766-224E-4EF8-A6BB-32A3CEEA2D41}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G44"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3894,867 +4410,857 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="106">
+      <c r="C3" s="98">
         <v>10</v>
       </c>
-      <c r="D3" s="107">
+      <c r="D3" s="99">
         <v>6</v>
       </c>
-      <c r="E3" s="206">
+      <c r="E3" s="230">
         <f>SUM(C3:C7)/5</f>
         <v>11.4</v>
       </c>
-      <c r="F3" s="195">
+      <c r="F3" s="233">
         <f>SUM(E3:E12)/2</f>
         <v>11.9</v>
       </c>
-      <c r="G3" s="195">
+      <c r="G3" s="233">
         <f xml:space="preserve"> ROUND(SUM(F3:F23)/3,2)</f>
         <v>11.77</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="201"/>
-      <c r="B4" s="109" t="s">
+      <c r="A4" s="239"/>
+      <c r="B4" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110">
+      <c r="C4" s="102">
         <v>12</v>
       </c>
-      <c r="D4" s="111">
+      <c r="D4" s="103">
         <v>6</v>
       </c>
-      <c r="E4" s="207"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="201"/>
-      <c r="B5" s="109" t="s">
+      <c r="A5" s="239"/>
+      <c r="B5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="84">
         <v>12</v>
       </c>
-      <c r="D5" s="111">
+      <c r="D5" s="103">
         <v>6</v>
       </c>
-      <c r="E5" s="207"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="234"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="201"/>
-      <c r="B6" s="112" t="s">
+      <c r="A6" s="239"/>
+      <c r="B6" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="100">
         <v>10</v>
       </c>
-      <c r="D6" s="111">
+      <c r="D6" s="103">
         <v>6</v>
       </c>
-      <c r="E6" s="207"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="201"/>
-      <c r="B7" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="114">
+      <c r="A7" s="239"/>
+      <c r="B7" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="106">
         <v>13</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="107">
         <v>6</v>
       </c>
-      <c r="E7" s="208"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="201"/>
-      <c r="B8" s="116" t="s">
+      <c r="A8" s="239"/>
+      <c r="B8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="109">
         <v>10</v>
       </c>
-      <c r="D8" s="118">
+      <c r="D8" s="110">
         <v>6</v>
       </c>
-      <c r="E8" s="206">
+      <c r="E8" s="230">
         <f>SUM(C8:C12)/5</f>
         <v>12.4</v>
       </c>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="201"/>
-      <c r="B9" s="119" t="s">
+      <c r="A9" s="239"/>
+      <c r="B9" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="112">
         <v>11</v>
       </c>
-      <c r="D9" s="121">
+      <c r="D9" s="113">
         <v>6</v>
       </c>
-      <c r="E9" s="207"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="201"/>
-      <c r="B10" s="119" t="s">
+      <c r="A10" s="239"/>
+      <c r="B10" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="120">
+      <c r="C10" s="112">
         <v>13</v>
       </c>
-      <c r="D10" s="121">
+      <c r="D10" s="113">
         <v>6</v>
       </c>
-      <c r="E10" s="207"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="201"/>
-      <c r="B11" s="119" t="s">
+      <c r="A11" s="239"/>
+      <c r="B11" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="120">
+      <c r="C11" s="112">
         <v>16</v>
       </c>
-      <c r="D11" s="121">
+      <c r="D11" s="113">
         <v>6</v>
       </c>
-      <c r="E11" s="207"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="234"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="202"/>
-      <c r="B12" s="122" t="s">
+      <c r="A12" s="240"/>
+      <c r="B12" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="123">
+      <c r="C12" s="115">
         <v>12</v>
       </c>
-      <c r="D12" s="124">
+      <c r="D12" s="116">
         <v>6</v>
       </c>
-      <c r="E12" s="208"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
+      <c r="E12" s="232"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="234"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="203" t="s">
+      <c r="A13" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="106">
+      <c r="C13" s="98">
         <v>10</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="99">
         <v>6</v>
       </c>
-      <c r="E13" s="206">
+      <c r="E13" s="230">
         <f>SUM(C13:C17)/5</f>
         <v>11.4</v>
       </c>
-      <c r="F13" s="195">
+      <c r="F13" s="233">
         <f>SUM(E13:E22)/2</f>
         <v>11.5</v>
       </c>
-      <c r="G13" s="196"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
+      <c r="G13" s="234"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="204"/>
-      <c r="B14" s="109" t="s">
+      <c r="A14" s="242"/>
+      <c r="B14" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C14" s="102">
         <v>13</v>
       </c>
-      <c r="D14" s="111">
+      <c r="D14" s="103">
         <v>6</v>
       </c>
-      <c r="E14" s="207"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
+      <c r="E14" s="231"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="234"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="204"/>
-      <c r="B15" s="109" t="s">
+      <c r="A15" s="242"/>
+      <c r="B15" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="102">
         <v>13</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="103">
         <v>6</v>
       </c>
-      <c r="E15" s="207"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="204"/>
-      <c r="B16" s="109" t="s">
+      <c r="A16" s="242"/>
+      <c r="B16" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="125">
+      <c r="C16" s="117">
         <v>10</v>
       </c>
-      <c r="D16" s="111">
+      <c r="D16" s="103">
         <v>6</v>
       </c>
-      <c r="E16" s="207"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
+      <c r="E16" s="231"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="204"/>
-      <c r="B17" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="108">
+      <c r="A17" s="242"/>
+      <c r="B17" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="107">
         <v>6</v>
       </c>
-      <c r="E17" s="208"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
-      <c r="B18" s="126" t="s">
+      <c r="A18" s="242"/>
+      <c r="B18" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="117">
+      <c r="C18" s="109">
         <v>12</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="99">
         <v>6</v>
       </c>
-      <c r="E18" s="206">
+      <c r="E18" s="230">
         <f>SUM(C18:C22)/5</f>
         <v>11.6</v>
       </c>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="204"/>
-      <c r="B19" s="127" t="s">
+      <c r="A19" s="242"/>
+      <c r="B19" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="110">
+      <c r="C19" s="102">
         <v>12</v>
       </c>
-      <c r="D19" s="111">
+      <c r="D19" s="103">
         <v>6</v>
       </c>
-      <c r="E19" s="207"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="234"/>
+      <c r="G19" s="234"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="204"/>
-      <c r="B20" s="127" t="s">
+      <c r="A20" s="242"/>
+      <c r="B20" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="110">
+      <c r="C20" s="102">
         <v>12</v>
       </c>
-      <c r="D20" s="111">
+      <c r="D20" s="103">
         <v>6</v>
       </c>
-      <c r="E20" s="207"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="204"/>
-      <c r="B21" s="127" t="s">
+      <c r="A21" s="242"/>
+      <c r="B21" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="125">
+      <c r="C21" s="117">
         <v>10</v>
       </c>
-      <c r="D21" s="111">
+      <c r="D21" s="103">
         <v>6</v>
       </c>
-      <c r="E21" s="207"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="234"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="205"/>
-      <c r="B22" s="128" t="s">
+      <c r="A22" s="243"/>
+      <c r="B22" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="123">
+      <c r="C22" s="115">
         <v>12</v>
       </c>
-      <c r="D22" s="115">
+      <c r="D22" s="107">
         <v>6</v>
       </c>
-      <c r="E22" s="208"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="234"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="209" t="s">
+      <c r="A23" s="244" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="117">
+      <c r="C23" s="109">
         <v>11</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="99">
         <v>6</v>
       </c>
-      <c r="E23" s="206">
+      <c r="E23" s="230">
         <f>SUM(C23:C26,C32:C32)/5</f>
         <v>11.6</v>
       </c>
-      <c r="F23" s="195">
+      <c r="F23" s="233">
         <f>SUM(E23:E32)/2</f>
         <v>11.899999999999999</v>
       </c>
-      <c r="G23" s="196"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
+      <c r="G23" s="234"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
       <c r="S23" s="23"/>
       <c r="T23" s="23"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="210"/>
-      <c r="B24" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="120">
+      <c r="A24" s="245"/>
+      <c r="B24" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="112">
         <v>11</v>
       </c>
-      <c r="D24" s="111">
+      <c r="D24" s="103">
         <v>6</v>
       </c>
-      <c r="E24" s="207"/>
-      <c r="F24" s="196"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
+      <c r="E24" s="231"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
       <c r="O24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="210"/>
-      <c r="B25" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="120">
+      <c r="A25" s="245"/>
+      <c r="B25" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="112">
         <v>10</v>
       </c>
-      <c r="D25" s="111">
+      <c r="D25" s="103">
         <v>6</v>
       </c>
-      <c r="E25" s="207"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="234"/>
+      <c r="G25" s="234"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
       <c r="O25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="210"/>
-      <c r="B26" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="110">
+      <c r="A26" s="245"/>
+      <c r="B26" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="102">
         <v>11</v>
       </c>
-      <c r="D26" s="111">
+      <c r="D26" s="103">
         <v>6</v>
       </c>
-      <c r="E26" s="207"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="234"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
       <c r="O26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="210"/>
-      <c r="B27" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="140" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="141">
+      <c r="A27" s="245"/>
+      <c r="B27" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="133">
         <v>0</v>
       </c>
-      <c r="E27" s="208"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="234"/>
+      <c r="G27" s="234"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
       <c r="O27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="210"/>
-      <c r="B28" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="130">
+      <c r="A28" s="245"/>
+      <c r="B28" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="122">
         <v>12</v>
       </c>
-      <c r="D28" s="131">
+      <c r="D28" s="123">
         <v>6</v>
       </c>
-      <c r="E28" s="206">
+      <c r="E28" s="230">
         <f>SUM(C28:C32)/5</f>
         <v>12.2</v>
       </c>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="234"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
       <c r="O28" s="13"/>
       <c r="R28" s="13"/>
       <c r="S28" s="23"/>
       <c r="T28" s="23"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="210"/>
-      <c r="B29" s="127" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="120">
+      <c r="A29" s="245"/>
+      <c r="B29" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="112">
         <v>12</v>
       </c>
-      <c r="D29" s="111">
+      <c r="D29" s="103">
         <v>6</v>
       </c>
-      <c r="E29" s="207"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="234"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
       <c r="O29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="210"/>
-      <c r="B30" s="127" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="120">
+      <c r="A30" s="245"/>
+      <c r="B30" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="112">
         <v>10</v>
       </c>
-      <c r="D30" s="111">
+      <c r="D30" s="103">
         <v>6</v>
       </c>
-      <c r="E30" s="207"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
+      <c r="E30" s="231"/>
+      <c r="F30" s="234"/>
+      <c r="G30" s="234"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
       <c r="S30" s="23"/>
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="210"/>
-      <c r="B31" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="120">
+      <c r="A31" s="245"/>
+      <c r="B31" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="112">
         <v>12</v>
       </c>
-      <c r="D31" s="111">
+      <c r="D31" s="103">
         <v>6</v>
       </c>
-      <c r="E31" s="207"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
+      <c r="E31" s="231"/>
+      <c r="F31" s="234"/>
+      <c r="G31" s="234"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="210"/>
-      <c r="B32" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="123">
+      <c r="A32" s="245"/>
+      <c r="B32" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="115">
         <v>15</v>
       </c>
-      <c r="D32" s="124">
+      <c r="D32" s="116">
         <v>12</v>
       </c>
-      <c r="E32" s="208"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="229"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
       <c r="S33" s="13"/>
       <c r="T33" s="23"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="211"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="229"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
     </row>
     <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="211" t="s">
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="211"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="198" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="199"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="211">
+      <c r="A37" s="236" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="237"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="229">
         <v>12</v>
       </c>
-      <c r="E37" s="211"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
+      <c r="E37" s="229"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="211"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="211"/>
-      <c r="E39" s="211"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="229"/>
+      <c r="E39" s="229"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="211"/>
-      <c r="E40" s="211"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
     </row>
     <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C42" s="136" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="133">
+      <c r="C42" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="125">
         <f>SUM(D3:D32)</f>
         <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C43" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="D43" s="134">
+      <c r="C43" s="129" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="126">
         <f>-D21-D16</f>
         <v>-12</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="138" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="135">
+      <c r="C44" s="130" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="127">
         <f>D42+D43</f>
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E32"/>
     <mergeCell ref="F23:F32"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="G3:G32"/>
@@ -4768,6 +5274,16 @@
     <mergeCell ref="A23:A32"/>
     <mergeCell ref="F3:F12"/>
     <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4795,803 +5311,815 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="76"/>
-      <c r="B2" s="227" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="248" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="248" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="248" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="68"/>
+      <c r="B3" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="71">
+        <v>14.5</v>
+      </c>
+      <c r="D3" s="72">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="74">
+        <v>10.1</v>
+      </c>
+      <c r="H3" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="69"/>
+      <c r="J3" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="74">
+        <v>11.2</v>
+      </c>
+      <c r="L3" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="69"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="68"/>
+      <c r="B4" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="76">
+        <v>17</v>
+      </c>
+      <c r="D4" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="78">
+        <v>10.4</v>
+      </c>
+      <c r="H4" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="78">
+        <v>6.3</v>
+      </c>
+      <c r="L4" s="79">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="69"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="68"/>
+      <c r="B5" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="76">
+        <v>6.78</v>
+      </c>
+      <c r="D5" s="77">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="69">
+        <v>9.6</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="80">
+        <v>10</v>
+      </c>
+      <c r="H5" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="80">
+        <v>17</v>
+      </c>
+      <c r="L5" s="75">
+        <v>0.15</v>
+      </c>
+      <c r="M5" s="69"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="68"/>
+      <c r="B6" s="250" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="69">
+        <v>7.1</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="82">
+        <v>7.7</v>
+      </c>
+      <c r="H6" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="76">
+        <v>18</v>
+      </c>
+      <c r="L6" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="69"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="68"/>
+      <c r="B7" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="252">
+        <v>14.5</v>
+      </c>
+      <c r="D7" s="253"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="250" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="251"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="76">
+        <v>14.5</v>
+      </c>
+      <c r="L7" s="77">
+        <v>0.3</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="68"/>
+      <c r="B8" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="252">
+        <v>10.186666669999999</v>
+      </c>
+      <c r="D8" s="253"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="252">
+        <v>10.25</v>
+      </c>
+      <c r="H8" s="253"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="252">
+        <v>8.75</v>
+      </c>
+      <c r="L8" s="253"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="68"/>
+      <c r="B9" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="250">
+        <v>11.912000000000001</v>
+      </c>
+      <c r="D9" s="251"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="250">
+        <v>9.41</v>
+      </c>
+      <c r="H9" s="251"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="250">
+        <v>12.175000000000001</v>
+      </c>
+      <c r="L9" s="251"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="68"/>
+      <c r="B10" s="256" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="257"/>
+      <c r="D10" s="257"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="68"/>
+      <c r="B11" s="246" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="248" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="258" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="259"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="88">
+        <v>14</v>
+      </c>
+      <c r="H12" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="69"/>
+      <c r="J12" s="254" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="255"/>
+      <c r="L12" s="255"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="68"/>
+      <c r="B13" s="256" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="257"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="90">
+        <v>9.1</v>
+      </c>
+      <c r="H13" s="83">
+        <v>0.45</v>
+      </c>
+      <c r="I13" s="69"/>
+      <c r="J13" s="246" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="247"/>
+      <c r="L13" s="247"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="68"/>
+      <c r="B14" s="246" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="247"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="80">
+        <v>15</v>
+      </c>
+      <c r="H14" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="69"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="91">
+        <v>14</v>
+      </c>
+      <c r="H15" s="79">
+        <v>0.35</v>
+      </c>
+      <c r="I15" s="69"/>
+      <c r="J15" s="256" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="227" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="227" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="79">
-        <v>14.5</v>
-      </c>
-      <c r="D3" s="80">
-        <v>0.4</v>
-      </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="81" t="s">
+      <c r="K15" s="257"/>
+      <c r="L15" s="257"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="69"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="250" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="251"/>
+      <c r="H16" s="251"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="246" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="247"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="69"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="252">
+        <v>9.9909090910000007</v>
+      </c>
+      <c r="H17" s="253"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="65"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="82">
-        <v>10.1</v>
-      </c>
-      <c r="H3" s="83">
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="82">
-        <v>11.2</v>
-      </c>
-      <c r="L3" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="M3" s="77"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="76"/>
-      <c r="B4" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="84">
+      <c r="G18" s="252">
+        <v>11.895</v>
+      </c>
+      <c r="H18" s="253"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="229"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="229"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="68"/>
+      <c r="B24" s="262" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
+      <c r="F24" s="264"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="229"/>
+      <c r="I24" s="229"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="68"/>
+      <c r="B25" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="262" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="263"/>
+      <c r="E25" s="263"/>
+      <c r="F25" s="264"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="229"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="68"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="262" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="264"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="229"/>
+      <c r="I26" s="229"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="68"/>
+      <c r="B27" s="92">
+        <v>16</v>
+      </c>
+      <c r="C27" s="92">
+        <v>20</v>
+      </c>
+      <c r="D27" s="92">
         <v>17</v>
       </c>
-      <c r="D4" s="85">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="86">
-        <v>10.4</v>
-      </c>
-      <c r="H4" s="87">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="86">
-        <v>6.3</v>
-      </c>
-      <c r="L4" s="87">
-        <v>0.25</v>
-      </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="76"/>
-      <c r="B5" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="84">
-        <v>6.78</v>
-      </c>
-      <c r="D5" s="85">
-        <v>0.4</v>
-      </c>
-      <c r="E5" s="77">
-        <v>9.6</v>
-      </c>
-      <c r="F5" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="88">
-        <v>10</v>
-      </c>
-      <c r="H5" s="83">
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" s="88">
+      <c r="E27" s="262">
+        <v>20</v>
+      </c>
+      <c r="F27" s="264"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="229"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="229"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+    </row>
+    <row r="44" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="65"/>
+      <c r="V44" s="65"/>
+    </row>
+    <row r="45" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H45" s="260" t="s">
+        <v>113</v>
+      </c>
+      <c r="I45" s="261"/>
+      <c r="J45" s="261"/>
+      <c r="K45" s="261"/>
+      <c r="L45" s="261"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+    </row>
+    <row r="46" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H46" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="260" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" s="261"/>
+      <c r="K46" s="261"/>
+      <c r="L46" s="261"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="65"/>
+      <c r="U46" s="65"/>
+      <c r="V46" s="65"/>
+    </row>
+    <row r="47" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H47" s="67"/>
+      <c r="I47" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="J47" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="K47" s="260" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" s="261"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="65"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="65"/>
+      <c r="V47" s="65"/>
+    </row>
+    <row r="48" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H48" s="67">
+        <v>16</v>
+      </c>
+      <c r="I48" s="67">
+        <v>20</v>
+      </c>
+      <c r="J48" s="67">
         <v>17</v>
       </c>
-      <c r="L5" s="83">
-        <v>0.15</v>
-      </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="76"/>
-      <c r="B6" s="219" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="77">
-        <v>7.1</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="90">
-        <v>7.7</v>
-      </c>
-      <c r="H6" s="91">
-        <v>0.3</v>
-      </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="K6" s="84">
-        <v>18</v>
-      </c>
-      <c r="L6" s="85">
-        <v>0.05</v>
-      </c>
-      <c r="M6" s="77"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="76"/>
-      <c r="B7" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="217">
-        <v>14.5</v>
-      </c>
-      <c r="D7" s="218"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="219" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="84">
-        <v>14.5</v>
-      </c>
-      <c r="L7" s="85">
-        <v>0.3</v>
-      </c>
-      <c r="M7" s="77"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="76"/>
-      <c r="B8" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="217">
-        <v>10.186666669999999</v>
-      </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="217">
-        <v>10.25</v>
-      </c>
-      <c r="H8" s="218"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="217">
-        <v>8.75</v>
-      </c>
-      <c r="L8" s="218"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="76"/>
-      <c r="B9" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="219">
-        <v>11.912000000000001</v>
-      </c>
-      <c r="D9" s="220"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="219">
-        <v>9.41</v>
-      </c>
-      <c r="H9" s="220"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="219">
-        <v>12.175000000000001</v>
-      </c>
-      <c r="L9" s="220"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="76"/>
-      <c r="B10" s="223" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="225" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="227" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="229" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="230"/>
-      <c r="L11" s="230"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="96">
-        <v>14</v>
-      </c>
-      <c r="H12" s="97">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="221" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
-      <c r="B13" s="223" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="224"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="89" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="98">
-        <v>9.1</v>
-      </c>
-      <c r="H13" s="91">
-        <v>0.45</v>
-      </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="225" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="226"/>
-      <c r="L13" s="226"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="76"/>
-      <c r="B14" s="225" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="226"/>
-      <c r="D14" s="226"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="88">
-        <v>15</v>
-      </c>
-      <c r="H14" s="83">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="77"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="99">
-        <v>14</v>
-      </c>
-      <c r="H15" s="87">
-        <v>0.35</v>
-      </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="223" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="77"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="219" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="220"/>
-      <c r="H16" s="220"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="225" t="s">
-        <v>162</v>
-      </c>
-      <c r="K16" s="226"/>
-      <c r="L16" s="226"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="77"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="217">
-        <v>9.9909090910000007</v>
-      </c>
-      <c r="H17" s="218"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="72"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="76"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="217">
-        <v>11.895</v>
-      </c>
-      <c r="H18" s="218"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="76"/>
-      <c r="B24" s="214" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="76"/>
-      <c r="B25" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="214" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="215"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="76"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="214" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="216"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="76"/>
-      <c r="B27" s="100">
-        <v>16</v>
-      </c>
-      <c r="C27" s="100">
+      <c r="K48" s="260">
         <v>20</v>
       </c>
-      <c r="D27" s="100">
-        <v>17</v>
-      </c>
-      <c r="E27" s="214">
-        <v>20</v>
-      </c>
-      <c r="F27" s="216"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="76"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-    </row>
-    <row r="44" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-    </row>
-    <row r="45" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H45" s="212" t="s">
-        <v>132</v>
-      </c>
-      <c r="I45" s="213"/>
-      <c r="J45" s="213"/>
-      <c r="K45" s="213"/>
-      <c r="L45" s="213"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-    </row>
-    <row r="46" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H46" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" s="212" t="s">
-        <v>137</v>
-      </c>
-      <c r="J46" s="213"/>
-      <c r="K46" s="213"/>
-      <c r="L46" s="213"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-    </row>
-    <row r="47" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H47" s="74"/>
-      <c r="I47" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="J47" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="K47" s="212" t="s">
-        <v>136</v>
-      </c>
-      <c r="L47" s="213"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-    </row>
-    <row r="48" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H48" s="74">
-        <v>16</v>
-      </c>
-      <c r="I48" s="74">
-        <v>20</v>
-      </c>
-      <c r="J48" s="74">
-        <v>17</v>
-      </c>
-      <c r="K48" s="212">
-        <v>20</v>
-      </c>
-      <c r="L48" s="213"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
+      <c r="L48" s="261"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="65"/>
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="J12:L12"/>
@@ -5608,27 +6136,15 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5639,7 +6155,7 @@
   <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5660,26 +6176,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="E2" s="231" t="s">
+      <c r="C2" s="266"/>
+      <c r="E2" s="265" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="232"/>
-      <c r="H2" s="231" t="s">
+      <c r="F2" s="266"/>
+      <c r="H2" s="265" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="232"/>
-      <c r="K2" s="233" t="s">
+      <c r="I2" s="266"/>
+      <c r="K2" s="267" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="234"/>
-      <c r="N2" s="231" t="s">
+      <c r="L2" s="268"/>
+      <c r="N2" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="232"/>
+      <c r="O2" s="266"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
@@ -5689,7 +6205,7 @@
         <v>0.15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
         <v>11</v>
@@ -5698,7 +6214,7 @@
         <v>0.33</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2">
         <v>14.8</v>
@@ -5707,7 +6223,7 @@
         <v>0.25</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="5">
@@ -5721,7 +6237,7 @@
         <v>0.16</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -5733,7 +6249,7 @@
         <v>0.25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
@@ -5743,7 +6259,7 @@
         <v>0.33</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2">
         <v>14</v>
@@ -5752,7 +6268,7 @@
         <v>0.25</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="5">
@@ -5766,7 +6282,7 @@
         <v>0.24</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -5777,7 +6293,7 @@
         <v>0.2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -5787,7 +6303,7 @@
         <v>0.33</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2">
         <v>8.9</v>
@@ -5796,7 +6312,7 @@
         <v>0.5</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="5">
@@ -5810,7 +6326,7 @@
         <v>0.6</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -5821,7 +6337,7 @@
         <v>0.4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
@@ -5829,12 +6345,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="9">
-        <v>10</v>
-      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="4"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -5917,7 +6429,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2">
         <f t="array" ref="L10">ROUND(SUM(K3:K4*L3:L4) + 0.6 * L6,0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="2">
@@ -5932,10 +6444,10 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -5948,7 +6460,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -5969,7 +6481,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -5981,7 +6493,7 @@
       </c>
       <c r="B13" s="2">
         <f>(C10+F10+I10+L10+O10)/6</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5995,7 +6507,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -6112,26 +6624,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="265" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="E2" s="231" t="s">
+      <c r="C2" s="266"/>
+      <c r="E2" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="232"/>
-      <c r="H2" s="231" t="s">
+      <c r="F2" s="266"/>
+      <c r="H2" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="232"/>
-      <c r="K2" s="231" t="s">
+      <c r="I2" s="266"/>
+      <c r="K2" s="265" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="232"/>
-      <c r="N2" s="231" t="s">
+      <c r="L2" s="266"/>
+      <c r="N2" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="232"/>
+      <c r="O2" s="266"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -6161,7 +6673,7 @@
         <v>0.05</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2">
         <v>10</v>
@@ -6198,7 +6710,7 @@
         <v>0.2</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" s="2">
         <v>10</v>
@@ -6235,7 +6747,7 @@
         <v>0.2</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" s="2">
         <v>10</v>
@@ -6272,7 +6784,7 @@
         <v>0.15</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="2">
         <v>10</v>
@@ -6307,7 +6819,7 @@
         <v>0.4</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N7" s="2">
         <v>10</v>
@@ -6431,7 +6943,7 @@
         <v>12.4</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6475,26 +6987,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="271" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="272"/>
+      <c r="F2" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="F2" s="237" t="s">
+      <c r="G2" s="272"/>
+      <c r="J2" s="273" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="238"/>
-      <c r="J2" s="239" t="s">
+      <c r="K2" s="274"/>
+      <c r="O2" s="271" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="240"/>
-      <c r="O2" s="237" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="238"/>
+      <c r="P2" s="272"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B3" s="25">
         <v>10.199999999999999</v>
@@ -6503,7 +7015,7 @@
         <v>0.45</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F3" s="25">
         <v>13.4</v>
@@ -6513,13 +7025,13 @@
         <v>0.25</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="58">
+      <c r="I3" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="51">
         <v>6</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="52">
         <v>0.2</v>
       </c>
       <c r="O3" s="14">
@@ -6532,7 +7044,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="25">
         <v>4.5</v>
@@ -6541,7 +7053,7 @@
         <v>0.25</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F4" s="25">
         <v>5.4</v>
@@ -6551,8 +7063,8 @@
         <v>0.25</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="60" t="s">
-        <v>126</v>
+      <c r="I4" s="53" t="s">
+        <v>107</v>
       </c>
       <c r="J4" s="25">
         <v>12</v>
@@ -6561,7 +7073,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="O4" s="14">
         <v>12.3</v>
@@ -6573,7 +7085,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B5" s="25">
         <v>17.899999999999999</v>
@@ -6582,7 +7094,7 @@
         <v>0.3</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F5" s="25">
         <v>13.5</v>
@@ -6592,8 +7104,8 @@
         <v>0.25</v>
       </c>
       <c r="H5" s="26"/>
-      <c r="I5" s="60" t="s">
-        <v>127</v>
+      <c r="I5" s="53" t="s">
+        <v>108</v>
       </c>
       <c r="J5" s="25">
         <v>11.7</v>
@@ -6613,7 +7125,7 @@
       <c r="B6" s="25"/>
       <c r="C6" s="27"/>
       <c r="E6" s="35" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F6" s="25">
         <v>12.12</v>
@@ -6623,10 +7135,10 @@
         <v>0.25</v>
       </c>
       <c r="H6" s="26"/>
-      <c r="I6" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="56">
+      <c r="I6" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="49">
         <v>20</v>
       </c>
       <c r="K6" s="38">
@@ -6647,11 +7159,11 @@
       <c r="F7" s="25"/>
       <c r="G7" s="27"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="235" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="236"/>
-      <c r="K7" s="65">
+      <c r="I7" s="269" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="270"/>
+      <c r="K7" s="58">
         <f>ROUND(((J4*K4+J5*K5+J6*K6+J3*K3)*100/30),1)</f>
         <v>9.3000000000000007</v>
       </c>
@@ -6665,19 +7177,19 @@
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="E8" s="26"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
-      <c r="I8" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="58">
+      <c r="I8" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="51">
         <v>7.9</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="52">
         <v>0.17499999999999999</v>
       </c>
       <c r="O8" s="14"/>
@@ -6685,9 +7197,9 @@
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="70">
+        <v>106</v>
+      </c>
+      <c r="C9" s="63">
         <f>ROUND((B5*C5 +  B4*C4)/55*100,2)</f>
         <v>11.81</v>
       </c>
@@ -6696,10 +7208,10 @@
         <f>(F3*G3 + F4*G4)/50*100</f>
         <v>9.4</v>
       </c>
-      <c r="I9" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="55">
+      <c r="I9" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="48">
         <v>14.8</v>
       </c>
       <c r="K9" s="37">
@@ -6712,8 +7224,8 @@
       <c r="A10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62">
         <f>ROUND((B3*C3 + B4*C4+ B5*C5),2)</f>
         <v>11.09</v>
       </c>
@@ -6722,8 +7234,8 @@
         <f>(F3*G3 + F4*G4+ F5*G5 + F6*G6)</f>
         <v>11.104999999999999</v>
       </c>
-      <c r="I10" s="60" t="s">
-        <v>106</v>
+      <c r="I10" s="53" t="s">
+        <v>90</v>
       </c>
       <c r="J10" s="25">
         <v>5.5</v>
@@ -6738,10 +7250,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I11" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="64">
+      <c r="I11" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="57">
         <v>15</v>
       </c>
       <c r="K11" s="38">
@@ -6753,11 +7265,11 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="235" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="236"/>
-      <c r="K12" s="66">
+      <c r="I12" s="269" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="270"/>
+      <c r="K12" s="59">
         <f>ROUND((J6*K6+J3*K3+J5*K5+J11*K11+J8*K8+J9*K9+J10*K10+J4*K4),0 )</f>
         <v>10</v>
       </c>
@@ -6770,7 +7282,7 @@
         <f>(C10+G10+K13+P10)/4</f>
         <v>10.70875</v>
       </c>
-      <c r="K13" s="66">
+      <c r="K13" s="59">
         <f>(J3*K3+J4*K4+J6*K6+J8*K8+J9*K9+J10*K10+J11*K11+J5*K5)</f>
         <v>9.64</v>
       </c>
@@ -6799,8 +7311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDD666-62CA-4935-98B3-7465ACEEDE34}">
   <dimension ref="A2:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6821,29 +7333,29 @@
     <col min="17" max="17" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="231" t="s">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="E2" s="231" t="s">
+      <c r="C2" s="266"/>
+      <c r="E2" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="232"/>
-      <c r="I2" s="231" t="s">
+      <c r="F2" s="266"/>
+      <c r="I2" s="265" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="232"/>
-      <c r="M2" s="243" t="s">
+      <c r="J2" s="266"/>
+      <c r="M2" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="244"/>
-      <c r="P2" s="231" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="232"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N2" s="278"/>
+      <c r="P2" s="265" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="266"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>10</v>
       </c>
@@ -6859,7 +7371,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2">
         <v>10</v>
@@ -6869,14 +7381,14 @@
         <v>0.12</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="42">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="N3" s="43">
-        <v>0.27</v>
+      <c r="L3" s="200" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" s="194">
+        <v>13</v>
+      </c>
+      <c r="N3" s="195">
+        <v>0.16</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="2"/>
@@ -6885,7 +7397,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>10</v>
       </c>
@@ -6901,7 +7413,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
@@ -6911,14 +7423,12 @@
         <v>0.12</v>
       </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="42">
-        <v>0</v>
-      </c>
-      <c r="N4" s="43">
-        <v>0.33</v>
+      <c r="L4" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="189"/>
+      <c r="N4" s="199">
+        <v>0.24</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
@@ -6927,7 +7437,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>10</v>
       </c>
@@ -6943,7 +7453,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2">
         <v>10</v>
@@ -6953,14 +7463,12 @@
         <v>0.1</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" s="42">
-        <v>15.4</v>
-      </c>
-      <c r="N5" s="43">
-        <v>0.16</v>
+      <c r="L5" s="193" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="196"/>
+      <c r="N5" s="197">
+        <v>0.6</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
@@ -6968,7 +7476,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>10</v>
       </c>
@@ -6987,20 +7495,11 @@
         <v>0.06</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" s="42">
-        <v>0</v>
-      </c>
-      <c r="N6" s="43">
-        <v>0.24</v>
-      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>10</v>
       </c>
@@ -7019,13 +7518,19 @@
         <v>0.6</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="191" t="s">
+        <v>172</v>
+      </c>
+      <c r="N7" s="190">
+        <f>(M3*0.4+M4*0.6)</f>
+        <v>5.2</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="8"/>
       <c r="D8" s="4"/>
@@ -7037,13 +7542,18 @@
         <v>10</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
+      <c r="M8" s="191" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="190">
+        <f>( M5)</f>
+        <v>0</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
@@ -7053,13 +7563,18 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="M9" s="191" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="192">
+        <f>(M5*N5 + M3*N3+ M4*N4 )</f>
+        <v>2.08</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -7080,20 +7595,13 @@
         <v>13</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="M10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" s="46">
-        <f>(M3*N3 + M4*N4+ M5*N5 + M6*N6)</f>
-        <v>5.0830000000000002</v>
-      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -7105,13 +7613,6 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="N11" s="48">
-        <f>( M3*0.45 + M4*0.55)</f>
-        <v>4.3650000000000002</v>
-      </c>
     </row>
     <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
@@ -7133,8 +7634,8 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f>(C10+F10+J10+N10)/4</f>
-        <v>10.27075</v>
+        <f>(C10+F10+J10+N9)/4</f>
+        <v>9.52</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -7144,11 +7645,11 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="49">
+      <c r="L13" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="44"/>
+      <c r="N13" s="42">
         <v>0.6</v>
       </c>
     </row>
@@ -7162,11 +7663,11 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="50">
+      <c r="L14" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="47"/>
+      <c r="N14" s="43">
         <v>0.4</v>
       </c>
     </row>
@@ -7180,10 +7681,10 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="241" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="242"/>
+      <c r="L15" s="275" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="276"/>
       <c r="N15" s="39">
         <f>M13*N13+M14*N14</f>
         <v>0</v>
@@ -7236,28 +7737,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="265" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="E2" s="231" t="s">
+      <c r="C2" s="266"/>
+      <c r="E2" s="265" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="232"/>
-      <c r="H2" s="231" t="s">
+      <c r="F2" s="266"/>
+      <c r="H2" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="232"/>
+      <c r="I2" s="266"/>
       <c r="K2" s="29"/>
-      <c r="L2" s="245" t="s">
+      <c r="L2" s="279" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="246"/>
+      <c r="M2" s="280"/>
       <c r="N2" s="29"/>
-      <c r="O2" s="245" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="246"/>
+      <c r="O2" s="279" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="280"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -7282,7 +7783,7 @@
         <v>0.2</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="L3" s="31">
         <v>13</v>
@@ -7319,7 +7820,7 @@
         <v>0.3</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L4" s="31">
         <v>16.3</v>
@@ -7356,7 +7857,7 @@
         <v>0.5</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="L5" s="31">
         <v>16</v>
@@ -7385,7 +7886,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="K6" s="36" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="L6" s="31">
         <v>20</v>
@@ -7412,7 +7913,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" s="36" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L7" s="31">
         <v>0</v>
@@ -7439,7 +7940,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="36" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L8" s="31">
         <v>0</v>
@@ -7463,7 +7964,7 @@
       <c r="I9" s="2"/>
       <c r="K9" s="30"/>
       <c r="L9" s="31" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="M9" s="34">
         <f>ROUND((L3*0.33333+ L4*0.33333 + L5*0.33333),2)</f>
@@ -7494,7 +7995,7 @@
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="33" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="M10" s="34">
         <f>(L3*M3 + L4*M4+ L5*M5 + L6*M6+ L7*M7+L8*M8)</f>
@@ -7546,7 +8047,7 @@
         <v>11.015000000000001</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>

--- a/notas_pa_distribuir.xlsx
+++ b/notas_pa_distribuir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Universidade\University_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F6836-48E3-47F6-8016-ECF8A7F56531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC21D6E-6D5F-4867-9C5C-B64429C18118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="1" xr2:uid="{29B19686-80AD-465B-A46E-BA6EA21EF685}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="208">
   <si>
     <t>Cadeira</t>
   </si>
@@ -656,6 +656,21 @@
   </si>
   <si>
     <t>organizar git</t>
+  </si>
+  <si>
+    <t>22h -&gt;</t>
+  </si>
+  <si>
+    <t>montar fotos</t>
+  </si>
+  <si>
+    <t>23h -&gt;</t>
+  </si>
+  <si>
+    <t>24h -&gt;</t>
+  </si>
+  <si>
+    <t>jogar</t>
   </si>
 </sst>
 </file>
@@ -909,7 +924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1699,17 +1714,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1828,7 +1832,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2346,16 +2350,10 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2385,15 +2383,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2406,22 +2404,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2430,7 +2425,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2445,6 +2440,12 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2475,22 +2476,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2500,79 +2533,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2580,21 +2596,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3016,19 +3017,19 @@
       <c r="H2" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="219" t="s">
+      <c r="M2" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="221"/>
-      <c r="T2" s="216" t="s">
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="220"/>
+      <c r="T2" s="215" t="s">
         <v>164</v>
       </c>
-      <c r="U2" s="217"/>
-      <c r="V2" s="218"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="217"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -3053,23 +3054,23 @@
       <c r="H3" s="164">
         <v>1132</v>
       </c>
-      <c r="J3" s="214" t="s">
+      <c r="J3" s="213" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="215"/>
-      <c r="M3" s="185" t="s">
+      <c r="K3" s="214"/>
+      <c r="M3" s="183" t="s">
         <v>159</v>
       </c>
       <c r="N3" s="177" t="s">
         <v>169</v>
       </c>
-      <c r="O3" s="185" t="s">
+      <c r="O3" s="183" t="s">
         <v>160</v>
       </c>
       <c r="P3" s="177" t="s">
         <v>169</v>
       </c>
-      <c r="Q3" s="185" t="s">
+      <c r="Q3" s="183" t="s">
         <v>165</v>
       </c>
       <c r="R3" s="177" t="s">
@@ -3112,15 +3113,15 @@
         <v>159</v>
       </c>
       <c r="K4" s="169"/>
-      <c r="M4" s="186"/>
+      <c r="M4" s="184"/>
       <c r="N4" s="173"/>
-      <c r="O4" s="186" t="s">
+      <c r="O4" s="184" t="s">
         <v>166</v>
       </c>
       <c r="P4" s="173" t="s">
         <v>167</v>
       </c>
-      <c r="Q4" s="186"/>
+      <c r="Q4" s="184"/>
       <c r="R4" s="173"/>
       <c r="T4" s="170"/>
       <c r="U4" s="174"/>
@@ -3159,11 +3160,11 @@
       <c r="K5" s="159">
         <v>1</v>
       </c>
-      <c r="M5" s="187"/>
+      <c r="M5" s="185"/>
       <c r="N5" s="157"/>
-      <c r="O5" s="187"/>
+      <c r="O5" s="185"/>
       <c r="P5" s="157"/>
-      <c r="Q5" s="187"/>
+      <c r="Q5" s="185"/>
       <c r="R5" s="157"/>
       <c r="T5" s="171"/>
       <c r="U5" s="159"/>
@@ -3182,11 +3183,11 @@
       <c r="K6" s="160">
         <v>1</v>
       </c>
-      <c r="M6" s="187"/>
+      <c r="M6" s="185"/>
       <c r="N6" s="157"/>
-      <c r="O6" s="187"/>
+      <c r="O6" s="185"/>
       <c r="P6" s="157"/>
-      <c r="Q6" s="187"/>
+      <c r="Q6" s="185"/>
       <c r="R6" s="157"/>
       <c r="T6" s="171"/>
       <c r="U6" s="159"/>
@@ -3199,11 +3200,11 @@
       <c r="H7" s="157">
         <v>878</v>
       </c>
-      <c r="M7" s="187"/>
+      <c r="M7" s="185"/>
       <c r="N7" s="157"/>
-      <c r="O7" s="187"/>
+      <c r="O7" s="185"/>
       <c r="P7" s="157"/>
-      <c r="Q7" s="187"/>
+      <c r="Q7" s="185"/>
       <c r="R7" s="157"/>
       <c r="T7" s="171"/>
       <c r="U7" s="159"/>
@@ -3223,11 +3224,11 @@
       <c r="H8" s="157">
         <v>808</v>
       </c>
-      <c r="M8" s="187"/>
+      <c r="M8" s="185"/>
       <c r="N8" s="157"/>
-      <c r="O8" s="187"/>
+      <c r="O8" s="185"/>
       <c r="P8" s="157"/>
-      <c r="Q8" s="187"/>
+      <c r="Q8" s="185"/>
       <c r="R8" s="157"/>
       <c r="T8" s="171"/>
       <c r="U8" s="159"/>
@@ -3247,11 +3248,11 @@
       <c r="H9" s="157">
         <v>878</v>
       </c>
-      <c r="M9" s="187"/>
+      <c r="M9" s="185"/>
       <c r="N9" s="157"/>
-      <c r="O9" s="187"/>
+      <c r="O9" s="185"/>
       <c r="P9" s="157"/>
-      <c r="Q9" s="187"/>
+      <c r="Q9" s="185"/>
       <c r="R9" s="157"/>
       <c r="T9" s="171"/>
       <c r="U9" s="159"/>
@@ -3264,55 +3265,55 @@
       <c r="H10" s="158">
         <v>808</v>
       </c>
-      <c r="M10" s="187"/>
+      <c r="M10" s="185"/>
       <c r="N10" s="157"/>
-      <c r="O10" s="187"/>
+      <c r="O10" s="185"/>
       <c r="P10" s="157"/>
-      <c r="Q10" s="187"/>
+      <c r="Q10" s="185"/>
       <c r="R10" s="157"/>
       <c r="T10" s="171"/>
       <c r="U10" s="159"/>
       <c r="V10" s="157"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="M11" s="187"/>
+      <c r="M11" s="185"/>
       <c r="N11" s="157"/>
-      <c r="O11" s="187"/>
+      <c r="O11" s="185"/>
       <c r="P11" s="157"/>
-      <c r="Q11" s="187"/>
+      <c r="Q11" s="185"/>
       <c r="R11" s="157"/>
       <c r="T11" s="171"/>
       <c r="U11" s="159"/>
       <c r="V11" s="157"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="M12" s="187"/>
+      <c r="M12" s="185"/>
       <c r="N12" s="157"/>
-      <c r="O12" s="187"/>
+      <c r="O12" s="185"/>
       <c r="P12" s="157"/>
-      <c r="Q12" s="187"/>
+      <c r="Q12" s="185"/>
       <c r="R12" s="157"/>
       <c r="T12" s="171"/>
       <c r="U12" s="159"/>
       <c r="V12" s="157"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="M13" s="187"/>
+      <c r="M13" s="185"/>
       <c r="N13" s="157"/>
-      <c r="O13" s="187"/>
+      <c r="O13" s="185"/>
       <c r="P13" s="157"/>
-      <c r="Q13" s="187"/>
+      <c r="Q13" s="185"/>
       <c r="R13" s="157"/>
       <c r="T13" s="171"/>
       <c r="U13" s="159"/>
       <c r="V13" s="157"/>
     </row>
     <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M14" s="188"/>
+      <c r="M14" s="186"/>
       <c r="N14" s="158"/>
-      <c r="O14" s="188"/>
+      <c r="O14" s="186"/>
       <c r="P14" s="158"/>
-      <c r="Q14" s="188"/>
+      <c r="Q14" s="186"/>
       <c r="R14" s="158"/>
       <c r="T14" s="172"/>
       <c r="U14" s="160"/>
@@ -3320,10 +3321,10 @@
     </row>
     <row r="17" spans="13:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="13:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M18" s="222" t="s">
+      <c r="M18" s="221" t="s">
         <v>168</v>
       </c>
-      <c r="N18" s="223"/>
+      <c r="N18" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3341,7 +3342,7 @@
   <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3380,13 +3381,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201">
-        <v>15</v>
-      </c>
+      <c r="B1" s="199"/>
       <c r="C1" s="65">
         <v>16</v>
       </c>
-      <c r="D1" s="65">
+      <c r="D1" s="211">
         <v>17</v>
       </c>
       <c r="E1" s="65">
@@ -3398,7 +3397,7 @@
       <c r="G1" s="65">
         <v>20</v>
       </c>
-      <c r="H1" s="202">
+      <c r="H1" s="199">
         <v>21</v>
       </c>
       <c r="J1" s="69"/>
@@ -3435,25 +3434,25 @@
       <c r="A2" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="183" t="s">
+      <c r="D2" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="183" t="s">
+      <c r="E2" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="183" t="s">
+      <c r="F2" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="183" t="s">
+      <c r="G2" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="183" t="s">
+      <c r="H2" s="182" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="69"/>
@@ -3487,8 +3486,8 @@
       <c r="AK2" s="69"/>
       <c r="AL2" s="69"/>
     </row>
-    <row r="3" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="206" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="203" t="s">
         <v>174</v>
       </c>
       <c r="B3" s="165"/>
@@ -3497,7 +3496,7 @@
       <c r="E3" s="165"/>
       <c r="F3" s="165"/>
       <c r="G3" s="165"/>
-      <c r="H3" s="209" t="s">
+      <c r="H3" s="206" t="s">
         <v>188</v>
       </c>
       <c r="J3" s="69"/>
@@ -3522,19 +3521,19 @@
       <c r="A4" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="210" t="s">
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="207" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="207" t="s">
+      <c r="E4" s="204" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="182"/>
-      <c r="F4" s="207" t="s">
+      <c r="F4" s="204" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="182"/>
-      <c r="H4" s="208" t="s">
+      <c r="G4" s="181"/>
+      <c r="H4" s="205" t="s">
         <v>188</v>
       </c>
       <c r="J4" s="69"/>
@@ -3559,13 +3558,13 @@
       <c r="A5" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="182"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="165"/>
-      <c r="D5" s="207" t="s">
+      <c r="D5" s="165"/>
+      <c r="E5" s="204" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="165"/>
-      <c r="F5" s="207" t="s">
+      <c r="F5" s="204" t="s">
         <v>188</v>
       </c>
       <c r="G5" s="165"/>
@@ -3589,28 +3588,28 @@
       <c r="AL5" s="69"/>
     </row>
     <row r="6" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="181" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="227" t="s">
+      <c r="B6" s="226" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="227" t="s">
+      <c r="C6" s="226" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="227" t="s">
+      <c r="D6" s="226" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="227" t="s">
+      <c r="E6" s="226" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="227" t="s">
+      <c r="F6" s="226" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="227" t="s">
+      <c r="G6" s="226" t="s">
         <v>194</v>
       </c>
-      <c r="H6" s="227" t="s">
+      <c r="H6" s="226" t="s">
         <v>194</v>
       </c>
       <c r="J6" s="69"/>
@@ -3637,13 +3636,13 @@
       <c r="A7" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
+      <c r="B7" s="227"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
       <c r="J7" s="69"/>
       <c r="U7" s="69"/>
       <c r="V7" s="69"/>
@@ -3665,10 +3664,10 @@
       <c r="AL7" s="69"/>
     </row>
     <row r="8" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="182"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="167" t="s">
         <v>65</v>
       </c>
@@ -3751,18 +3750,18 @@
       <c r="AL9" s="69"/>
     </row>
     <row r="10" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="181" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
       <c r="J10" s="69"/>
       <c r="U10" s="69"/>
       <c r="V10" s="69"/>
@@ -3787,13 +3786,11 @@
       <c r="A11" s="165" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="212" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="213" t="s">
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="210" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="165"/>
       <c r="E11" s="165"/>
       <c r="F11" s="165"/>
       <c r="G11" s="165"/>
@@ -3819,20 +3816,18 @@
       <c r="AL11" s="69"/>
     </row>
     <row r="12" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="211" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="182" t="s">
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
       <c r="J12" s="69"/>
       <c r="W12" s="69"/>
       <c r="X12" s="69"/>
@@ -3855,13 +3850,11 @@
       <c r="A13" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="212" t="s">
+      <c r="B13" s="165"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="209" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="212" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="165"/>
       <c r="E13" s="165"/>
       <c r="F13" s="165"/>
       <c r="G13" s="165"/>
@@ -3885,16 +3878,20 @@
       <c r="AL13" s="69"/>
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="181" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="182"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="208" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="208" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
       <c r="J14" s="69"/>
       <c r="W14" s="69"/>
       <c r="X14" s="69"/>
@@ -3913,17 +3910,21 @@
       <c r="AK14" s="69"/>
       <c r="AL14" s="69"/>
     </row>
-    <row r="15" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="181" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="165" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="184"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
       <c r="J15" s="69"/>
       <c r="U15" s="69"/>
       <c r="V15" s="69"/>
@@ -3939,10 +3940,19 @@
       <c r="AK15" s="69"/>
       <c r="AL15" s="69"/>
     </row>
-    <row r="16" spans="1:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="65" t="s">
-        <v>173</v>
-      </c>
+    <row r="16" spans="1:38" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="181" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="181"/>
+      <c r="C16" s="207" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
       <c r="J16" s="69"/>
       <c r="U16" s="69"/>
       <c r="V16" s="69"/>
@@ -3958,7 +3968,19 @@
       <c r="AK16" s="69"/>
       <c r="AL16" s="69"/>
     </row>
-    <row r="17" spans="1:38" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="165" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
       <c r="U17" s="69"/>
       <c r="V17" s="69"/>
       <c r="AB17" s="69"/>
@@ -3974,16 +3996,20 @@
       <c r="AL17" s="69"/>
     </row>
     <row r="18" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="167" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
+      <c r="A18" s="181" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="181"/>
+      <c r="C18" s="212" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="212" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
       <c r="U18" s="69"/>
       <c r="V18" s="69"/>
       <c r="AB18" s="69"/>
@@ -3999,9 +4025,6 @@
       <c r="AL18" s="69"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="F19" s="65" t="s">
-        <v>173</v>
-      </c>
       <c r="U19" s="69"/>
       <c r="V19" s="69"/>
       <c r="AB19" s="69"/>
@@ -4027,18 +4050,16 @@
       <c r="AL20" s="69"/>
     </row>
     <row r="21" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="224" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="225"/>
-      <c r="D21" s="225"/>
-      <c r="E21" s="226"/>
-      <c r="G21" s="203" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="203" t="s">
-        <v>188</v>
-      </c>
+      <c r="A21" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="134"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
       <c r="AG21" s="69"/>
       <c r="AH21" s="69"/>
       <c r="AI21" s="69"/>
@@ -4046,24 +4067,9 @@
       <c r="AK21" s="69"/>
       <c r="AL21" s="69"/>
     </row>
-    <row r="22" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="204" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="203" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="203" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="205" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="168" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="168" t="s">
-        <v>189</v>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="F22" s="65" t="s">
+        <v>173</v>
       </c>
       <c r="AG22" s="69"/>
       <c r="AH22" s="69"/>
@@ -4073,22 +4079,6 @@
       <c r="AL22" s="69"/>
     </row>
     <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="168" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="168" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="182" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" s="182" t="s">
-        <v>190</v>
-      </c>
       <c r="AG23" s="69"/>
       <c r="AH23" s="69"/>
       <c r="AI23" s="69"/>
@@ -4097,21 +4087,17 @@
       <c r="AL23" s="69"/>
     </row>
     <row r="24" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="182" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="182" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="182"/>
-      <c r="E24" s="182" t="s">
-        <v>200</v>
-      </c>
-      <c r="G24" s="165" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="165" t="s">
-        <v>198</v>
+      <c r="B24" s="223" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="224"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="225"/>
+      <c r="G24" s="200" t="s">
+        <v>186</v>
+      </c>
+      <c r="H24" s="200" t="s">
+        <v>188</v>
       </c>
       <c r="AG24" s="69"/>
       <c r="AH24" s="69"/>
@@ -4121,15 +4107,23 @@
       <c r="AL24" s="69"/>
     </row>
     <row r="25" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="165" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182" t="s">
-        <v>199</v>
+      <c r="B25" s="201" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="200" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="202" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="168" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="168" t="s">
+        <v>189</v>
       </c>
       <c r="Q25" s="69"/>
       <c r="R25" s="69"/>
@@ -4155,10 +4149,22 @@
       <c r="AL25" s="69"/>
     </row>
     <row r="26" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="182"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
+      <c r="B26" s="168" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="168" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="181" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="181" t="s">
+        <v>190</v>
+      </c>
       <c r="O26" s="69"/>
       <c r="P26" s="69"/>
       <c r="Q26" s="69"/>
@@ -4184,7 +4190,23 @@
       <c r="AK26" s="69"/>
       <c r="AL26" s="69"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="181" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="165" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="165" t="s">
+        <v>198</v>
+      </c>
       <c r="O27" s="69"/>
       <c r="P27" s="69"/>
       <c r="Q27" s="69"/>
@@ -4210,7 +4232,17 @@
       <c r="AK27" s="69"/>
       <c r="AL27" s="69"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="165" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181" t="s">
+        <v>199</v>
+      </c>
       <c r="O28" s="69"/>
       <c r="P28" s="69"/>
       <c r="Q28" s="69"/>
@@ -4236,7 +4268,11 @@
       <c r="AK28" s="69"/>
       <c r="AL28" s="69"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
       <c r="O29" s="69"/>
       <c r="P29" s="69"/>
       <c r="Q29" s="69"/>
@@ -4368,7 +4404,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
@@ -4413,8 +4449,8 @@
       <c r="A1" s="68"/>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
       <c r="H1" s="68"/>
@@ -4444,7 +4480,7 @@
       <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="233" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="97" t="s">
@@ -4456,15 +4492,15 @@
       <c r="D3" s="99">
         <v>6</v>
       </c>
-      <c r="E3" s="230">
+      <c r="E3" s="239">
         <f>SUM(C3:C7)/5</f>
         <v>11.4</v>
       </c>
-      <c r="F3" s="233">
+      <c r="F3" s="228">
         <f>SUM(E3:E12)/2</f>
         <v>11.9</v>
       </c>
-      <c r="G3" s="233">
+      <c r="G3" s="228">
         <f xml:space="preserve"> ROUND(SUM(F3:F23)/3,2)</f>
         <v>11.77</v>
       </c>
@@ -4475,7 +4511,7 @@
       <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="239"/>
+      <c r="A4" s="234"/>
       <c r="B4" s="101" t="s">
         <v>7</v>
       </c>
@@ -4485,9 +4521,9 @@
       <c r="D4" s="103">
         <v>6</v>
       </c>
-      <c r="E4" s="231"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
@@ -4495,7 +4531,7 @@
       <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="239"/>
+      <c r="A5" s="234"/>
       <c r="B5" s="101" t="s">
         <v>6</v>
       </c>
@@ -4505,9 +4541,9 @@
       <c r="D5" s="103">
         <v>6</v>
       </c>
-      <c r="E5" s="231"/>
-      <c r="F5" s="234"/>
-      <c r="G5" s="234"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
       <c r="J5" s="69"/>
@@ -4515,7 +4551,7 @@
       <c r="L5" s="68"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="239"/>
+      <c r="A6" s="234"/>
       <c r="B6" s="104" t="s">
         <v>5</v>
       </c>
@@ -4525,9 +4561,9 @@
       <c r="D6" s="103">
         <v>6</v>
       </c>
-      <c r="E6" s="231"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
       <c r="J6" s="69"/>
@@ -4535,7 +4571,7 @@
       <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="239"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="105" t="s">
         <v>63</v>
       </c>
@@ -4545,9 +4581,9 @@
       <c r="D7" s="107">
         <v>6</v>
       </c>
-      <c r="E7" s="232"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="234"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
       <c r="H7" s="68"/>
       <c r="I7" s="68"/>
       <c r="J7" s="69"/>
@@ -4555,7 +4591,7 @@
       <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="239"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="108" t="s">
         <v>3</v>
       </c>
@@ -4565,12 +4601,12 @@
       <c r="D8" s="110">
         <v>6</v>
       </c>
-      <c r="E8" s="230">
+      <c r="E8" s="239">
         <f>SUM(C8:C12)/5</f>
         <v>12.4</v>
       </c>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
       <c r="H8" s="68"/>
       <c r="I8" s="68"/>
       <c r="J8" s="69"/>
@@ -4578,7 +4614,7 @@
       <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="111" t="s">
         <v>4</v>
       </c>
@@ -4588,9 +4624,9 @@
       <c r="D9" s="113">
         <v>6</v>
       </c>
-      <c r="E9" s="231"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
       <c r="H9" s="68"/>
       <c r="I9" s="68"/>
       <c r="J9" s="69"/>
@@ -4598,7 +4634,7 @@
       <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="239"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="111" t="s">
         <v>9</v>
       </c>
@@ -4608,9 +4644,9 @@
       <c r="D10" s="113">
         <v>6</v>
       </c>
-      <c r="E10" s="231"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="229"/>
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
       <c r="J10" s="69"/>
@@ -4618,7 +4654,7 @@
       <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="239"/>
+      <c r="A11" s="234"/>
       <c r="B11" s="111" t="s">
         <v>14</v>
       </c>
@@ -4628,9 +4664,9 @@
       <c r="D11" s="113">
         <v>6</v>
       </c>
-      <c r="E11" s="231"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
       <c r="H11" s="68"/>
       <c r="I11" s="68"/>
       <c r="J11" s="69"/>
@@ -4638,7 +4674,7 @@
       <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="240"/>
+      <c r="A12" s="235"/>
       <c r="B12" s="114" t="s">
         <v>10</v>
       </c>
@@ -4648,9 +4684,9 @@
       <c r="D12" s="116">
         <v>6</v>
       </c>
-      <c r="E12" s="232"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="234"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="229"/>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
       <c r="J12" s="69"/>
@@ -4658,7 +4694,7 @@
       <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="241" t="s">
+      <c r="A13" s="236" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="97" t="s">
@@ -4670,15 +4706,15 @@
       <c r="D13" s="99">
         <v>6</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="239">
         <f>SUM(C13:C17)/5</f>
         <v>11.4</v>
       </c>
-      <c r="F13" s="233">
+      <c r="F13" s="228">
         <f>SUM(E13:E22)/2</f>
         <v>11.5</v>
       </c>
-      <c r="G13" s="234"/>
+      <c r="G13" s="229"/>
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
@@ -4686,7 +4722,7 @@
       <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="242"/>
+      <c r="A14" s="237"/>
       <c r="B14" s="101" t="s">
         <v>12</v>
       </c>
@@ -4696,9 +4732,9 @@
       <c r="D14" s="103">
         <v>6</v>
       </c>
-      <c r="E14" s="231"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="234"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="229"/>
+      <c r="G14" s="229"/>
       <c r="H14" s="68"/>
       <c r="I14" s="68"/>
       <c r="J14" s="69"/>
@@ -4706,7 +4742,7 @@
       <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="242"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="101" t="s">
         <v>24</v>
       </c>
@@ -4716,9 +4752,9 @@
       <c r="D15" s="103">
         <v>6</v>
       </c>
-      <c r="E15" s="231"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="229"/>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
@@ -4726,7 +4762,7 @@
       <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="242"/>
+      <c r="A16" s="237"/>
       <c r="B16" s="101" t="s">
         <v>13</v>
       </c>
@@ -4736,9 +4772,9 @@
       <c r="D16" s="103">
         <v>6</v>
       </c>
-      <c r="E16" s="231"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="229"/>
+      <c r="G16" s="229"/>
       <c r="H16" s="68"/>
       <c r="I16" s="68"/>
       <c r="J16" s="69"/>
@@ -4746,7 +4782,7 @@
       <c r="L16" s="68"/>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="242"/>
+      <c r="A17" s="237"/>
       <c r="B17" s="104" t="s">
         <v>39</v>
       </c>
@@ -4756,9 +4792,9 @@
       <c r="D17" s="107">
         <v>6</v>
       </c>
-      <c r="E17" s="232"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="234"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="229"/>
+      <c r="G17" s="229"/>
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
@@ -4766,7 +4802,7 @@
       <c r="L17" s="68"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="242"/>
+      <c r="A18" s="237"/>
       <c r="B18" s="118" t="s">
         <v>15</v>
       </c>
@@ -4776,12 +4812,12 @@
       <c r="D18" s="99">
         <v>6</v>
       </c>
-      <c r="E18" s="230">
+      <c r="E18" s="239">
         <f>SUM(C18:C22)/5</f>
         <v>11.6</v>
       </c>
-      <c r="F18" s="234"/>
-      <c r="G18" s="234"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="229"/>
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
       <c r="J18" s="69"/>
@@ -4789,7 +4825,7 @@
       <c r="L18" s="68"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="242"/>
+      <c r="A19" s="237"/>
       <c r="B19" s="119" t="s">
         <v>17</v>
       </c>
@@ -4799,9 +4835,9 @@
       <c r="D19" s="103">
         <v>6</v>
       </c>
-      <c r="E19" s="231"/>
-      <c r="F19" s="234"/>
-      <c r="G19" s="234"/>
+      <c r="E19" s="240"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="229"/>
       <c r="H19" s="68"/>
       <c r="I19" s="68"/>
       <c r="J19" s="69"/>
@@ -4809,7 +4845,7 @@
       <c r="L19" s="68"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="242"/>
+      <c r="A20" s="237"/>
       <c r="B20" s="119" t="s">
         <v>25</v>
       </c>
@@ -4819,9 +4855,9 @@
       <c r="D20" s="103">
         <v>6</v>
       </c>
-      <c r="E20" s="231"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
+      <c r="E20" s="240"/>
+      <c r="F20" s="229"/>
+      <c r="G20" s="229"/>
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
       <c r="J20" s="69"/>
@@ -4829,7 +4865,7 @@
       <c r="L20" s="68"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="242"/>
+      <c r="A21" s="237"/>
       <c r="B21" s="119" t="s">
         <v>16</v>
       </c>
@@ -4839,9 +4875,9 @@
       <c r="D21" s="103">
         <v>6</v>
       </c>
-      <c r="E21" s="231"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="234"/>
+      <c r="E21" s="240"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="229"/>
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
       <c r="J21" s="69"/>
@@ -4849,7 +4885,7 @@
       <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="243"/>
+      <c r="A22" s="238"/>
       <c r="B22" s="120" t="s">
         <v>18</v>
       </c>
@@ -4859,9 +4895,9 @@
       <c r="D22" s="107">
         <v>6</v>
       </c>
-      <c r="E22" s="232"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="234"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="229"/>
       <c r="H22" s="68"/>
       <c r="I22" s="68"/>
       <c r="J22" s="69"/>
@@ -4869,7 +4905,7 @@
       <c r="L22" s="68"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="244" t="s">
+      <c r="A23" s="242" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="97" t="s">
@@ -4881,15 +4917,15 @@
       <c r="D23" s="99">
         <v>6</v>
       </c>
-      <c r="E23" s="230">
+      <c r="E23" s="239">
         <f>SUM(C23:C26,C32:C32)/5</f>
         <v>11.6</v>
       </c>
-      <c r="F23" s="233">
+      <c r="F23" s="228">
         <f>SUM(E23:E32)/2</f>
         <v>11.899999999999999</v>
       </c>
-      <c r="G23" s="234"/>
+      <c r="G23" s="229"/>
       <c r="H23" s="68"/>
       <c r="I23" s="68"/>
       <c r="J23" s="69"/>
@@ -4899,7 +4935,7 @@
       <c r="T23" s="23"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="245"/>
+      <c r="A24" s="243"/>
       <c r="B24" s="101" t="s">
         <v>30</v>
       </c>
@@ -4909,9 +4945,9 @@
       <c r="D24" s="103">
         <v>6</v>
       </c>
-      <c r="E24" s="231"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="234"/>
+      <c r="E24" s="240"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="229"/>
       <c r="H24" s="68"/>
       <c r="I24" s="68"/>
       <c r="J24" s="69"/>
@@ -4923,7 +4959,7 @@
       <c r="T24" s="23"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="245"/>
+      <c r="A25" s="243"/>
       <c r="B25" s="101" t="s">
         <v>31</v>
       </c>
@@ -4933,9 +4969,9 @@
       <c r="D25" s="103">
         <v>6</v>
       </c>
-      <c r="E25" s="231"/>
-      <c r="F25" s="234"/>
-      <c r="G25" s="234"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
       <c r="H25" s="68"/>
       <c r="I25" s="68"/>
       <c r="J25" s="69"/>
@@ -4947,7 +4983,7 @@
       <c r="T25" s="23"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="245"/>
+      <c r="A26" s="243"/>
       <c r="B26" s="101" t="s">
         <v>32</v>
       </c>
@@ -4957,9 +4993,9 @@
       <c r="D26" s="103">
         <v>6</v>
       </c>
-      <c r="E26" s="231"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
+      <c r="E26" s="240"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="229"/>
       <c r="H26" s="68"/>
       <c r="I26" s="68"/>
       <c r="J26" s="69"/>
@@ -4971,7 +5007,7 @@
       <c r="T26" s="23"/>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="245"/>
+      <c r="A27" s="243"/>
       <c r="B27" s="131" t="s">
         <v>37</v>
       </c>
@@ -4981,9 +5017,9 @@
       <c r="D27" s="133">
         <v>0</v>
       </c>
-      <c r="E27" s="232"/>
-      <c r="F27" s="234"/>
-      <c r="G27" s="234"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
       <c r="J27" s="69"/>
@@ -4995,7 +5031,7 @@
       <c r="T27" s="23"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="245"/>
+      <c r="A28" s="243"/>
       <c r="B28" s="121" t="s">
         <v>33</v>
       </c>
@@ -5005,12 +5041,12 @@
       <c r="D28" s="123">
         <v>6</v>
       </c>
-      <c r="E28" s="230">
+      <c r="E28" s="239">
         <f>SUM(C28:C32)/5</f>
         <v>12.2</v>
       </c>
-      <c r="F28" s="234"/>
-      <c r="G28" s="234"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
       <c r="H28" s="68"/>
       <c r="I28" s="68"/>
       <c r="J28" s="69"/>
@@ -5022,7 +5058,7 @@
       <c r="T28" s="23"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="245"/>
+      <c r="A29" s="243"/>
       <c r="B29" s="119" t="s">
         <v>34</v>
       </c>
@@ -5032,9 +5068,9 @@
       <c r="D29" s="103">
         <v>6</v>
       </c>
-      <c r="E29" s="231"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
+      <c r="E29" s="240"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="229"/>
       <c r="H29" s="68"/>
       <c r="I29" s="68"/>
       <c r="J29" s="69"/>
@@ -5046,7 +5082,7 @@
       <c r="T29" s="23"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="245"/>
+      <c r="A30" s="243"/>
       <c r="B30" s="119" t="s">
         <v>35</v>
       </c>
@@ -5056,9 +5092,9 @@
       <c r="D30" s="103">
         <v>6</v>
       </c>
-      <c r="E30" s="231"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="234"/>
+      <c r="E30" s="240"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="229"/>
       <c r="H30" s="68"/>
       <c r="I30" s="68"/>
       <c r="J30" s="69"/>
@@ -5068,7 +5104,7 @@
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="245"/>
+      <c r="A31" s="243"/>
       <c r="B31" s="119" t="s">
         <v>36</v>
       </c>
@@ -5078,9 +5114,9 @@
       <c r="D31" s="103">
         <v>6</v>
       </c>
-      <c r="E31" s="231"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="234"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="229"/>
+      <c r="G31" s="229"/>
       <c r="H31" s="68"/>
       <c r="I31" s="68"/>
       <c r="J31" s="69"/>
@@ -5090,7 +5126,7 @@
       <c r="T31" s="23"/>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="245"/>
+      <c r="A32" s="243"/>
       <c r="B32" s="124" t="s">
         <v>37</v>
       </c>
@@ -5100,9 +5136,9 @@
       <c r="D32" s="116">
         <v>12</v>
       </c>
-      <c r="E32" s="232"/>
-      <c r="F32" s="235"/>
-      <c r="G32" s="235"/>
+      <c r="E32" s="241"/>
+      <c r="F32" s="230"/>
+      <c r="G32" s="230"/>
       <c r="H32" s="68"/>
       <c r="I32" s="68"/>
       <c r="J32" s="69"/>
@@ -5115,8 +5151,8 @@
       <c r="A33" s="68"/>
       <c r="B33" s="68"/>
       <c r="C33" s="68"/>
-      <c r="D33" s="229"/>
-      <c r="E33" s="229"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
       <c r="F33" s="68"/>
       <c r="G33" s="68"/>
       <c r="H33" s="68"/>
@@ -5131,8 +5167,8 @@
       <c r="A34" s="68"/>
       <c r="B34" s="68"/>
       <c r="C34" s="68"/>
-      <c r="D34" s="229"/>
-      <c r="E34" s="229"/>
+      <c r="D34" s="244"/>
+      <c r="E34" s="244"/>
       <c r="F34" s="68"/>
       <c r="G34" s="68"/>
       <c r="H34" s="68"/>
@@ -5145,8 +5181,8 @@
       <c r="A35" s="68"/>
       <c r="B35" s="68"/>
       <c r="C35" s="68"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="229"/>
+      <c r="D35" s="244"/>
+      <c r="E35" s="244"/>
       <c r="F35" s="68"/>
       <c r="G35" s="68"/>
       <c r="H35" s="68"/>
@@ -5159,10 +5195,10 @@
       <c r="A36" s="68"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
-      <c r="D36" s="229" t="s">
+      <c r="D36" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="229"/>
+      <c r="E36" s="244"/>
       <c r="F36" s="68"/>
       <c r="G36" s="68"/>
       <c r="H36" s="68"/>
@@ -5172,15 +5208,15 @@
       <c r="L36" s="68"/>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="236" t="s">
+      <c r="A37" s="231" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="237"/>
-      <c r="C37" s="237"/>
-      <c r="D37" s="229">
+      <c r="B37" s="232"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="244">
         <v>12</v>
       </c>
-      <c r="E37" s="229"/>
+      <c r="E37" s="244"/>
       <c r="F37" s="68"/>
       <c r="G37" s="68"/>
       <c r="H37" s="68"/>
@@ -5193,8 +5229,8 @@
       <c r="A38" s="68"/>
       <c r="B38" s="68"/>
       <c r="C38" s="68"/>
-      <c r="D38" s="229"/>
-      <c r="E38" s="229"/>
+      <c r="D38" s="244"/>
+      <c r="E38" s="244"/>
       <c r="F38" s="68"/>
       <c r="G38" s="68"/>
       <c r="H38" s="68"/>
@@ -5207,8 +5243,8 @@
       <c r="A39" s="68"/>
       <c r="B39" s="68"/>
       <c r="C39" s="68"/>
-      <c r="D39" s="229"/>
-      <c r="E39" s="229"/>
+      <c r="D39" s="244"/>
+      <c r="E39" s="244"/>
       <c r="F39" s="68"/>
       <c r="G39" s="68"/>
       <c r="H39" s="68"/>
@@ -5221,8 +5257,8 @@
       <c r="A40" s="68"/>
       <c r="B40" s="68"/>
       <c r="C40" s="68"/>
-      <c r="D40" s="229"/>
-      <c r="E40" s="229"/>
+      <c r="D40" s="244"/>
+      <c r="E40" s="244"/>
       <c r="F40" s="68"/>
       <c r="G40" s="68"/>
       <c r="H40" s="68"/>
@@ -5261,6 +5297,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E32"/>
     <mergeCell ref="F23:F32"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="G3:G32"/>
@@ -5274,16 +5320,6 @@
     <mergeCell ref="A23:A32"/>
     <mergeCell ref="F3:F12"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5318,8 +5354,8 @@
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
       <c r="J1" s="68"/>
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
@@ -5329,23 +5365,23 @@
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="68"/>
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="260" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="69"/>
-      <c r="F2" s="248" t="s">
+      <c r="F2" s="260" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
       <c r="I2" s="69"/>
-      <c r="J2" s="248" t="s">
+      <c r="J2" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="261"/>
       <c r="M2" s="69"/>
       <c r="N2" s="68"/>
       <c r="O2" s="68"/>
@@ -5459,11 +5495,11 @@
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="68"/>
-      <c r="B6" s="250" t="s">
+      <c r="B6" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
       <c r="E6" s="69">
         <v>7.1</v>
       </c>
@@ -5495,16 +5531,16 @@
       <c r="B7" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="252">
+      <c r="C7" s="250">
         <v>14.5</v>
       </c>
-      <c r="D7" s="253"/>
+      <c r="D7" s="251"/>
       <c r="E7" s="69"/>
-      <c r="F7" s="250" t="s">
+      <c r="F7" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
       <c r="I7" s="69"/>
       <c r="J7" s="85" t="s">
         <v>126</v>
@@ -5524,26 +5560,26 @@
       <c r="B8" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="252">
+      <c r="C8" s="250">
         <v>10.186666669999999</v>
       </c>
-      <c r="D8" s="253"/>
+      <c r="D8" s="251"/>
       <c r="E8" s="69"/>
       <c r="F8" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="252">
+      <c r="G8" s="250">
         <v>10.25</v>
       </c>
-      <c r="H8" s="253"/>
+      <c r="H8" s="251"/>
       <c r="I8" s="69"/>
       <c r="J8" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="252">
+      <c r="K8" s="250">
         <v>8.75</v>
       </c>
-      <c r="L8" s="253"/>
+      <c r="L8" s="251"/>
       <c r="M8" s="69"/>
       <c r="N8" s="68"/>
       <c r="O8" s="68"/>
@@ -5553,26 +5589,26 @@
       <c r="B9" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="250">
+      <c r="C9" s="252">
         <v>11.912000000000001</v>
       </c>
-      <c r="D9" s="251"/>
+      <c r="D9" s="253"/>
       <c r="E9" s="69"/>
       <c r="F9" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="250">
+      <c r="G9" s="252">
         <v>9.41</v>
       </c>
-      <c r="H9" s="251"/>
+      <c r="H9" s="253"/>
       <c r="I9" s="69"/>
       <c r="J9" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="250">
+      <c r="K9" s="252">
         <v>12.175000000000001</v>
       </c>
-      <c r="L9" s="251"/>
+      <c r="L9" s="253"/>
       <c r="M9" s="69"/>
       <c r="N9" s="68"/>
       <c r="O9" s="68"/>
@@ -5587,8 +5623,8 @@
       <c r="E10" s="69"/>
       <c r="F10" s="68"/>
       <c r="G10" s="68"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="229"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
       <c r="J10" s="69"/>
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
@@ -5598,23 +5634,23 @@
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="68"/>
-      <c r="B11" s="246" t="s">
+      <c r="B11" s="258" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="247"/>
-      <c r="D11" s="247"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
       <c r="E11" s="69"/>
-      <c r="F11" s="248" t="s">
+      <c r="F11" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="261"/>
       <c r="I11" s="69"/>
-      <c r="J11" s="258" t="s">
+      <c r="J11" s="262" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="259"/>
-      <c r="L11" s="259"/>
+      <c r="K11" s="263"/>
+      <c r="L11" s="263"/>
       <c r="M11" s="69"/>
       <c r="N11" s="68"/>
       <c r="O11" s="68"/>
@@ -5662,22 +5698,22 @@
         <v>0.45</v>
       </c>
       <c r="I13" s="69"/>
-      <c r="J13" s="246" t="s">
+      <c r="J13" s="258" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="247"/>
-      <c r="L13" s="247"/>
+      <c r="K13" s="259"/>
+      <c r="L13" s="259"/>
       <c r="M13" s="69"/>
       <c r="N13" s="68"/>
       <c r="O13" s="68"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="68"/>
-      <c r="B14" s="246" t="s">
+      <c r="B14" s="258" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="247"/>
-      <c r="D14" s="247"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="259"/>
       <c r="E14" s="69"/>
       <c r="F14" s="73" t="s">
         <v>133</v>
@@ -5727,17 +5763,17 @@
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="69"/>
-      <c r="F16" s="250" t="s">
+      <c r="F16" s="252" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="251"/>
-      <c r="H16" s="251"/>
+      <c r="G16" s="253"/>
+      <c r="H16" s="253"/>
       <c r="I16" s="69"/>
-      <c r="J16" s="246" t="s">
+      <c r="J16" s="258" t="s">
         <v>143</v>
       </c>
-      <c r="K16" s="247"/>
-      <c r="L16" s="247"/>
+      <c r="K16" s="259"/>
+      <c r="L16" s="259"/>
       <c r="M16" s="69"/>
       <c r="N16" s="68"/>
       <c r="O16" s="68"/>
@@ -5751,10 +5787,10 @@
       <c r="F17" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="252">
+      <c r="G17" s="250">
         <v>9.9909090910000007</v>
       </c>
-      <c r="H17" s="253"/>
+      <c r="H17" s="251"/>
       <c r="I17" s="69"/>
       <c r="J17" s="69"/>
       <c r="K17" s="69"/>
@@ -5773,10 +5809,10 @@
       <c r="F18" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="252">
+      <c r="G18" s="250">
         <v>11.895</v>
       </c>
-      <c r="H18" s="253"/>
+      <c r="H18" s="251"/>
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
@@ -5793,8 +5829,8 @@
       <c r="E19" s="68"/>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
-      <c r="H19" s="229"/>
-      <c r="I19" s="229"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
       <c r="L19" s="68"/>
@@ -5810,8 +5846,8 @@
       <c r="E20" s="68"/>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
-      <c r="H20" s="229"/>
-      <c r="I20" s="229"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
       <c r="L20" s="68"/>
@@ -5827,8 +5863,8 @@
       <c r="E21" s="68"/>
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
-      <c r="H21" s="229"/>
-      <c r="I21" s="229"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="244"/>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
@@ -5844,8 +5880,8 @@
       <c r="E22" s="68"/>
       <c r="F22" s="68"/>
       <c r="G22" s="68"/>
-      <c r="H22" s="229"/>
-      <c r="I22" s="229"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="244"/>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
       <c r="L22" s="68"/>
@@ -5861,8 +5897,8 @@
       <c r="E23" s="68"/>
       <c r="F23" s="68"/>
       <c r="G23" s="68"/>
-      <c r="H23" s="229"/>
-      <c r="I23" s="229"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
       <c r="L23" s="68"/>
@@ -5872,16 +5908,16 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="68"/>
-      <c r="B24" s="262" t="s">
+      <c r="B24" s="247" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="263"/>
-      <c r="D24" s="263"/>
-      <c r="E24" s="263"/>
-      <c r="F24" s="264"/>
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="249"/>
       <c r="G24" s="68"/>
-      <c r="H24" s="229"/>
-      <c r="I24" s="229"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244"/>
       <c r="J24" s="68"/>
       <c r="K24" s="68"/>
       <c r="L24" s="68"/>
@@ -5894,15 +5930,15 @@
       <c r="B25" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="262" t="s">
+      <c r="C25" s="247" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="263"/>
-      <c r="E25" s="263"/>
-      <c r="F25" s="264"/>
+      <c r="D25" s="248"/>
+      <c r="E25" s="248"/>
+      <c r="F25" s="249"/>
       <c r="G25" s="68"/>
-      <c r="H25" s="229"/>
-      <c r="I25" s="229"/>
+      <c r="H25" s="244"/>
+      <c r="I25" s="244"/>
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
       <c r="L25" s="68"/>
@@ -5919,13 +5955,13 @@
       <c r="D26" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="262" t="s">
+      <c r="E26" s="247" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="264"/>
+      <c r="F26" s="249"/>
       <c r="G26" s="68"/>
-      <c r="H26" s="229"/>
-      <c r="I26" s="229"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
       <c r="J26" s="68"/>
       <c r="K26" s="68"/>
       <c r="L26" s="68"/>
@@ -5944,13 +5980,13 @@
       <c r="D27" s="92">
         <v>17</v>
       </c>
-      <c r="E27" s="262">
+      <c r="E27" s="247">
         <v>20</v>
       </c>
-      <c r="F27" s="264"/>
+      <c r="F27" s="249"/>
       <c r="G27" s="68"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="229"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244"/>
       <c r="J27" s="68"/>
       <c r="K27" s="68"/>
       <c r="L27" s="68"/>
@@ -5966,8 +6002,8 @@
       <c r="E28" s="68"/>
       <c r="F28" s="68"/>
       <c r="G28" s="68"/>
-      <c r="H28" s="229"/>
-      <c r="I28" s="229"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="244"/>
       <c r="J28" s="68"/>
       <c r="K28" s="68"/>
       <c r="L28" s="68"/>
@@ -5983,8 +6019,8 @@
       <c r="E29" s="68"/>
       <c r="F29" s="68"/>
       <c r="G29" s="68"/>
-      <c r="H29" s="229"/>
-      <c r="I29" s="229"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="244"/>
       <c r="J29" s="68"/>
       <c r="K29" s="68"/>
       <c r="L29" s="68"/>
@@ -6010,13 +6046,13 @@
       <c r="V44" s="65"/>
     </row>
     <row r="45" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H45" s="260" t="s">
+      <c r="H45" s="245" t="s">
         <v>113</v>
       </c>
-      <c r="I45" s="261"/>
-      <c r="J45" s="261"/>
-      <c r="K45" s="261"/>
-      <c r="L45" s="261"/>
+      <c r="I45" s="246"/>
+      <c r="J45" s="246"/>
+      <c r="K45" s="246"/>
+      <c r="L45" s="246"/>
       <c r="M45" s="65"/>
       <c r="N45" s="65"/>
       <c r="O45" s="65"/>
@@ -6032,12 +6068,12 @@
       <c r="H46" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="I46" s="260" t="s">
+      <c r="I46" s="245" t="s">
         <v>118</v>
       </c>
-      <c r="J46" s="261"/>
-      <c r="K46" s="261"/>
-      <c r="L46" s="261"/>
+      <c r="J46" s="246"/>
+      <c r="K46" s="246"/>
+      <c r="L46" s="246"/>
       <c r="M46" s="65"/>
       <c r="N46" s="65"/>
       <c r="O46" s="65"/>
@@ -6057,10 +6093,10 @@
       <c r="J47" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="K47" s="260" t="s">
+      <c r="K47" s="245" t="s">
         <v>117</v>
       </c>
-      <c r="L47" s="261"/>
+      <c r="L47" s="246"/>
       <c r="M47" s="65"/>
       <c r="N47" s="65"/>
       <c r="O47" s="65"/>
@@ -6082,10 +6118,10 @@
       <c r="J48" s="67">
         <v>17</v>
       </c>
-      <c r="K48" s="260">
+      <c r="K48" s="245">
         <v>20</v>
       </c>
-      <c r="L48" s="261"/>
+      <c r="L48" s="246"/>
       <c r="M48" s="65"/>
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
@@ -6099,27 +6135,15 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="J12:L12"/>
@@ -6136,15 +6160,27 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6176,26 +6212,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="264" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="266"/>
-      <c r="E2" s="265" t="s">
+      <c r="C2" s="265"/>
+      <c r="E2" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="266"/>
-      <c r="H2" s="265" t="s">
+      <c r="F2" s="265"/>
+      <c r="H2" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="266"/>
-      <c r="K2" s="267" t="s">
+      <c r="I2" s="265"/>
+      <c r="K2" s="266" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="268"/>
-      <c r="N2" s="265" t="s">
+      <c r="L2" s="267"/>
+      <c r="N2" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="266"/>
+      <c r="O2" s="265"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
@@ -6624,26 +6660,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="266"/>
-      <c r="E2" s="265" t="s">
+      <c r="C2" s="265"/>
+      <c r="E2" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="266"/>
-      <c r="H2" s="265" t="s">
+      <c r="F2" s="265"/>
+      <c r="H2" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="266"/>
-      <c r="K2" s="265" t="s">
+      <c r="I2" s="265"/>
+      <c r="K2" s="264" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="266"/>
-      <c r="N2" s="265" t="s">
+      <c r="L2" s="265"/>
+      <c r="N2" s="264" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="266"/>
+      <c r="O2" s="265"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -6987,22 +7023,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="272"/>
-      <c r="F2" s="271" t="s">
+      <c r="C2" s="271"/>
+      <c r="F2" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="272"/>
-      <c r="J2" s="273" t="s">
+      <c r="G2" s="271"/>
+      <c r="J2" s="272" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="274"/>
-      <c r="O2" s="271" t="s">
+      <c r="K2" s="273"/>
+      <c r="O2" s="270" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="272"/>
+      <c r="P2" s="271"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
@@ -7159,10 +7195,10 @@
       <c r="F7" s="25"/>
       <c r="G7" s="27"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="269" t="s">
+      <c r="I7" s="268" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="270"/>
+      <c r="J7" s="269"/>
       <c r="K7" s="58">
         <f>ROUND(((J4*K4+J5*K5+J6*K6+J3*K3)*100/30),1)</f>
         <v>9.3000000000000007</v>
@@ -7265,10 +7301,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="269" t="s">
+      <c r="I12" s="268" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="270"/>
+      <c r="J12" s="269"/>
       <c r="K12" s="59">
         <f>ROUND((J6*K6+J3*K3+J5*K5+J11*K11+J8*K8+J9*K9+J10*K10+J4*K4),0 )</f>
         <v>10</v>
@@ -7334,26 +7370,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="264" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="266"/>
-      <c r="E2" s="265" t="s">
+      <c r="C2" s="265"/>
+      <c r="E2" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="266"/>
-      <c r="I2" s="265" t="s">
+      <c r="F2" s="265"/>
+      <c r="I2" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="266"/>
-      <c r="M2" s="277" t="s">
+      <c r="J2" s="265"/>
+      <c r="M2" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="278"/>
-      <c r="P2" s="265" t="s">
+      <c r="N2" s="277"/>
+      <c r="P2" s="264" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="266"/>
+      <c r="Q2" s="265"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
@@ -7381,13 +7417,13 @@
         <v>0.12</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="200" t="s">
+      <c r="L3" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="M3" s="194">
+      <c r="M3" s="192">
         <v>13</v>
       </c>
-      <c r="N3" s="195">
+      <c r="N3" s="193">
         <v>0.16</v>
       </c>
       <c r="O3" s="4"/>
@@ -7423,11 +7459,11 @@
         <v>0.12</v>
       </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="198" t="s">
+      <c r="L4" s="196" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="189"/>
-      <c r="N4" s="199">
+      <c r="M4" s="187"/>
+      <c r="N4" s="197">
         <v>0.24</v>
       </c>
       <c r="O4" s="4"/>
@@ -7463,11 +7499,11 @@
         <v>0.1</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="193" t="s">
+      <c r="L5" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="196"/>
-      <c r="N5" s="197">
+      <c r="M5" s="194"/>
+      <c r="N5" s="195">
         <v>0.6</v>
       </c>
       <c r="O5" s="4"/>
@@ -7519,10 +7555,10 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="191" t="s">
+      <c r="M7" s="189" t="s">
         <v>172</v>
       </c>
-      <c r="N7" s="190">
+      <c r="N7" s="188">
         <f>(M3*0.4+M4*0.6)</f>
         <v>5.2</v>
       </c>
@@ -7542,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="M8" s="191" t="s">
+      <c r="M8" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="N8" s="190">
+      <c r="N8" s="188">
         <f>( M5)</f>
         <v>0</v>
       </c>
@@ -7563,10 +7599,10 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
-      <c r="M9" s="191" t="s">
+      <c r="M9" s="189" t="s">
         <v>104</v>
       </c>
-      <c r="N9" s="192">
+      <c r="N9" s="190">
         <f>(M5*N5 + M3*N3+ M4*N4 )</f>
         <v>2.08</v>
       </c>
@@ -7681,10 +7717,10 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="275" t="s">
+      <c r="L15" s="274" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="276"/>
+      <c r="M15" s="275"/>
       <c r="N15" s="39">
         <f>M13*N13+M14*N14</f>
         <v>0</v>
@@ -7737,28 +7773,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="264" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="266"/>
-      <c r="E2" s="265" t="s">
+      <c r="C2" s="265"/>
+      <c r="E2" s="264" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="266"/>
-      <c r="H2" s="265" t="s">
+      <c r="F2" s="265"/>
+      <c r="H2" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="266"/>
+      <c r="I2" s="265"/>
       <c r="K2" s="29"/>
-      <c r="L2" s="279" t="s">
+      <c r="L2" s="278" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="280"/>
+      <c r="M2" s="279"/>
       <c r="N2" s="29"/>
-      <c r="O2" s="279" t="s">
+      <c r="O2" s="278" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="280"/>
+      <c r="P2" s="279"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
